--- a/pantauharian102015.xlsx
+++ b/pantauharian102015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="Buku_Kerja_Ini" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\putua\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7275" tabRatio="695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7275" tabRatio="695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REKAP RAYON" sheetId="4" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="254">
   <si>
     <t>UNITUP</t>
   </si>
@@ -824,6 +824,9 @@
   <si>
     <t>30 - 15:49</t>
   </si>
+  <si>
+    <t>30 - 21:20</t>
+  </si>
 </sst>
 </file>
 
@@ -990,13 +993,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -1127,11 +1132,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Koma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_DATA SALDO LBR HARIAN 10-2015" xfId="3"/>
+    <cellStyle name="Normal_DATA SALDO LBR HARIAN 10-2015_1" xfId="5"/>
+    <cellStyle name="Normal_DATA SALDO RP HARIAN 10-2015" xfId="4"/>
     <cellStyle name="Normal_REKAP RAYON" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1349,16 +1366,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.1683549286084773</c:v>
+                  <c:v>1.2346920187064216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75017770479522883</c:v>
+                  <c:v>0.86021602112039275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30735199443924516</c:v>
+                  <c:v>0.37144376866075912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92754409171721086</c:v>
+                  <c:v>1.019667451150154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,16 +1476,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.3792488355960756E-2</c:v>
+                  <c:v>3.1173464331724167E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6018320015591501E-2</c:v>
+                  <c:v>2.2169167803547066E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8633806364934084E-2</c:v>
+                  <c:v>2.4351330926190275E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4463738975460403E-2</c:v>
+                  <c:v>3.8043229904492069E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,8 +1501,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="309657816"/>
-        <c:axId val="309656248"/>
+        <c:axId val="362857504"/>
+        <c:axId val="362857896"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1558,16 +1575,16 @@
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                       <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>419168465</c:v>
+                        <c:v>396647532</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>42418664</c:v>
+                        <c:v>36992494</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>60803256</c:v>
+                        <c:v>50311793</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>211832870</c:v>
+                        <c:v>192694517</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1644,16 +1661,16 @@
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                       <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>70569077</c:v>
+                        <c:v>93090010</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>10597128</c:v>
+                        <c:v>5170958</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>42115254</c:v>
+                        <c:v>31623791</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>15348543</c:v>
+                        <c:v>-3789810</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1664,7 +1681,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="309657816"/>
+        <c:axId val="362857504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,7 +1724,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309656248"/>
+        <c:crossAx val="362857896"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1715,7 +1732,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="309656248"/>
+        <c:axId val="362857896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1768,7 +1785,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309657816"/>
+        <c:crossAx val="362857504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2695,8 +2712,8 @@
   </sheetPr>
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,7 +2736,7 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="str">
         <f>+"GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : "&amp;A21</f>
-        <v>GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : 30 - 15:49</v>
+        <v>GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : 30 - 21:20</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -2766,8 +2783,8 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
-        <v>252</v>
+      <c r="A21" s="50" t="s">
+        <v>253</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -2811,30 +2828,30 @@
       </c>
       <c r="C23" s="29">
         <f>VLOOKUP(A21,$A$30:$E$49,2,FALSE)</f>
-        <v>419168465</v>
+        <v>396647532</v>
       </c>
       <c r="D23" s="29">
         <f>+B23-C23</f>
-        <v>70569077</v>
+        <v>93090010</v>
       </c>
       <c r="E23" s="33">
         <f>+B23/C23*100%</f>
-        <v>1.1683549286084773</v>
+        <v>1.2346920187064216</v>
       </c>
       <c r="G23" s="28">
         <v>70637</v>
       </c>
       <c r="H23" s="29">
         <f>VLOOKUP($A$21,$A$30:$T$49,12,FALSE)</f>
-        <v>2387</v>
+        <v>2202</v>
       </c>
       <c r="I23" s="29">
         <f>+G23-H23</f>
-        <v>68250</v>
+        <v>68435</v>
       </c>
       <c r="J23" s="39">
         <f>+H23/G23</f>
-        <v>3.3792488355960756E-2</v>
+        <v>3.1173464331724167E-2</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2846,30 +2863,30 @@
       </c>
       <c r="C24" s="29">
         <f>VLOOKUP($A$21,$A$30:$E$49,3,FALSE)</f>
-        <v>42418664</v>
+        <v>36992494</v>
       </c>
       <c r="D24" s="29">
         <f t="shared" ref="D24:D26" si="0">+C24-B24</f>
-        <v>10597128</v>
+        <v>5170958</v>
       </c>
       <c r="E24" s="33">
         <f>+B24/C24*100%</f>
-        <v>0.75017770479522883</v>
+        <v>0.86021602112039275</v>
       </c>
       <c r="G24" s="28">
         <v>20524</v>
       </c>
       <c r="H24" s="29">
         <f>VLOOKUP($A$21,$A$30:$T$49,13,FALSE)</f>
-        <v>534</v>
+        <v>455</v>
       </c>
       <c r="I24" s="29">
         <f t="shared" ref="I24:I26" si="1">+G24-H24</f>
-        <v>19990</v>
+        <v>20069</v>
       </c>
       <c r="J24" s="39">
         <f t="shared" ref="J24:J26" si="2">+H24/G24</f>
-        <v>2.6018320015591501E-2</v>
+        <v>2.2169167803547066E-2</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2881,30 +2898,30 @@
       </c>
       <c r="C25" s="29">
         <f>VLOOKUP($A$21,$A$30:$E$49,4,FALSE)</f>
-        <v>60803256</v>
+        <v>50311793</v>
       </c>
       <c r="D25" s="29">
         <f t="shared" si="0"/>
-        <v>42115254</v>
+        <v>31623791</v>
       </c>
       <c r="E25" s="33">
         <f>+B25/C25*100%</f>
-        <v>0.30735199443924516</v>
+        <v>0.37144376866075912</v>
       </c>
       <c r="G25" s="28">
         <v>23818</v>
       </c>
       <c r="H25" s="29">
         <f>VLOOKUP($A$21,$A$30:$T$49,14,FALSE)</f>
-        <v>682</v>
+        <v>580</v>
       </c>
       <c r="I25" s="29">
         <f t="shared" si="1"/>
-        <v>23136</v>
+        <v>23238</v>
       </c>
       <c r="J25" s="39">
         <f t="shared" si="2"/>
-        <v>2.8633806364934084E-2</v>
+        <v>2.4351330926190275E-2</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2916,30 +2933,30 @@
       </c>
       <c r="C26" s="29">
         <f>VLOOKUP($A$21,$A$30:$E$49,5,FALSE)</f>
-        <v>211832870</v>
+        <v>192694517</v>
       </c>
       <c r="D26" s="29">
         <f t="shared" si="0"/>
-        <v>15348543</v>
+        <v>-3789810</v>
       </c>
       <c r="E26" s="33">
         <f>+B26/C26*100%</f>
-        <v>0.92754409171721086</v>
+        <v>1.019667451150154</v>
       </c>
       <c r="G26" s="28">
         <v>43766</v>
       </c>
       <c r="H26" s="29">
         <f>VLOOKUP($A$21,$A$30:$T$49,15,FALSE)</f>
-        <v>1946</v>
+        <v>1665</v>
       </c>
       <c r="I26" s="29">
         <f t="shared" si="1"/>
-        <v>41820</v>
+        <v>42101</v>
       </c>
       <c r="J26" s="39">
         <f t="shared" si="2"/>
-        <v>4.4463738975460403E-2</v>
+        <v>3.8043229904492069E-2</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
@@ -4167,74 +4184,76 @@
         <v>520</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
+    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="50" t="s">
+        <v>253</v>
+      </c>
       <c r="B46" s="25">
         <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$V$6:$V$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!B29)</f>
-        <v>0</v>
+        <v>396647532</v>
       </c>
       <c r="C46" s="25">
         <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$V$6:$V$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!C29)</f>
-        <v>0</v>
+        <v>36992494</v>
       </c>
       <c r="D46" s="25">
         <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$V$6:$V$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!D29)</f>
-        <v>0</v>
+        <v>50311793</v>
       </c>
       <c r="E46" s="25">
         <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$V$6:$V$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!E29)</f>
-        <v>0</v>
+        <v>192694517</v>
       </c>
       <c r="F46" s="24"/>
       <c r="G46" s="26">
         <f t="shared" si="13"/>
-        <v>419168465</v>
+        <v>22520933</v>
       </c>
       <c r="H46" s="26">
         <f t="shared" si="14"/>
-        <v>42418664</v>
+        <v>5426170</v>
       </c>
       <c r="I46" s="26">
         <f t="shared" si="15"/>
-        <v>60803256</v>
+        <v>10491463</v>
       </c>
       <c r="J46" s="26">
         <f t="shared" si="16"/>
-        <v>211832870</v>
+        <v>19138353</v>
       </c>
       <c r="K46" s="24"/>
       <c r="L46" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$V$6:$V$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!L29)</f>
-        <v>0</v>
+        <v>2202</v>
       </c>
       <c r="M46" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$V$6:$V$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!M29)</f>
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="N46" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$V$6:$V$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!N29)</f>
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="O46" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$V$6:$V$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!O29)</f>
-        <v>0</v>
+        <v>1665</v>
       </c>
       <c r="P46" s="24"/>
       <c r="Q46" s="26">
         <f t="shared" si="9"/>
-        <v>2387</v>
+        <v>185</v>
       </c>
       <c r="R46" s="26">
         <f t="shared" si="10"/>
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="S46" s="26">
         <f t="shared" si="11"/>
-        <v>682</v>
+        <v>102</v>
       </c>
       <c r="T46" s="26">
         <f t="shared" si="12"/>
-        <v>1946</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -4244,31 +4263,55 @@
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
+      <c r="G47" s="26">
+        <f t="shared" ref="G47:G48" si="17">+B46-B47</f>
+        <v>396647532</v>
+      </c>
+      <c r="H47" s="26">
+        <f t="shared" ref="H47:H48" si="18">+C46-C47</f>
+        <v>36992494</v>
+      </c>
+      <c r="I47" s="26">
+        <f t="shared" ref="I47:I48" si="19">+D46-D47</f>
+        <v>50311793</v>
+      </c>
+      <c r="J47" s="26">
+        <f t="shared" ref="J47:J48" si="20">+E46-E47</f>
+        <v>192694517</v>
+      </c>
       <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
+      <c r="L47" s="25">
+        <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$W$6:$W$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!L29)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="25">
+        <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$W$6:$W$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!M29)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="25">
+        <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$W$6:$W$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!N29)</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="25">
+        <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$W$6:$W$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!O29)</f>
+        <v>0</v>
+      </c>
       <c r="P47" s="24"/>
       <c r="Q47" s="26">
         <f>+L46-L47</f>
-        <v>0</v>
+        <v>2202</v>
       </c>
       <c r="R47" s="26">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="S47" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="T47" s="26">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -4278,15 +4321,39 @@
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
+      <c r="G48" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="26">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="26">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
+      <c r="L48" s="25">
+        <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$X$6:$X$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!L29)</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="25">
+        <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$X$6:$X$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!M29)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="25">
+        <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$X$6:$X$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!N29)</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="25">
+        <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$X$6:$X$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!O29)</f>
+        <v>0</v>
+      </c>
       <c r="P48" s="24"/>
       <c r="Q48" s="24"/>
       <c r="R48" s="24"/>
@@ -4305,10 +4372,22 @@
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
+      <c r="L49" s="25">
+        <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$Y$6:$Y$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!L29)</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="25">
+        <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$Y$6:$Y$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!M29)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="25">
+        <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$Y$6:$Y$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!N29)</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="25">
+        <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$Y$6:$Y$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!O29)</f>
+        <v>0</v>
+      </c>
       <c r="P49" s="24"/>
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
@@ -4337,13 +4416,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Lembar2"/>
-  <dimension ref="A1:U377"/>
+  <dimension ref="A1:V377"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="K101" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R101" sqref="R101"/>
+      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4356,31 +4435,36 @@
     <col min="6" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="20" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="2"/>
+    <col min="22" max="22" width="10.28515625" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>234</v>
       </c>
       <c r="U1" s="42"/>
-    </row>
-    <row r="2" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V1" s="42"/>
+    </row>
+    <row r="2" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>235</v>
       </c>
       <c r="U2" s="42"/>
-    </row>
-    <row r="3" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="42"/>
+    </row>
+    <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="17"/>
       <c r="U3" s="42"/>
-    </row>
-    <row r="4" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="42"/>
+    </row>
+    <row r="4" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
       <c r="U4" s="42"/>
-    </row>
-    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V4" s="42"/>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -4444,8 +4528,11 @@
       <c r="U5" s="7" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V5" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>55200</v>
       </c>
@@ -4509,8 +4596,11 @@
       <c r="U6" s="8">
         <v>453455</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V6" s="3">
+        <v>382338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>55200</v>
       </c>
@@ -4574,8 +4664,11 @@
       <c r="U7" s="8">
         <v>291748</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V7" s="3">
+        <v>291748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>55200</v>
       </c>
@@ -4639,8 +4732,11 @@
       <c r="U8" s="8">
         <v>9012391</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V8" s="3">
+        <v>8082559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>55200</v>
       </c>
@@ -4704,8 +4800,11 @@
       <c r="U9" s="8">
         <v>1147691</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V9" s="3">
+        <v>704803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>55200</v>
       </c>
@@ -4769,8 +4868,11 @@
       <c r="U10" s="8">
         <v>3272778</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V10" s="3">
+        <v>3272778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>55200</v>
       </c>
@@ -4834,8 +4936,11 @@
       <c r="U11" s="8">
         <v>1428765</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V11" s="3">
+        <v>1428765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>55200</v>
       </c>
@@ -4899,8 +5004,11 @@
       <c r="U12" s="8">
         <v>1626705</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V12" s="3">
+        <v>1626705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>55200</v>
       </c>
@@ -4946,8 +5054,9 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="10"/>
-    </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>55200</v>
       </c>
@@ -5011,8 +5120,11 @@
       <c r="U14" s="8">
         <v>8296507</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V14" s="3">
+        <v>7660370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>55200</v>
       </c>
@@ -5076,8 +5188,11 @@
       <c r="U15" s="8">
         <v>446105</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V15" s="3">
+        <v>446105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>55200</v>
       </c>
@@ -5141,8 +5256,11 @@
       <c r="U16" s="8">
         <v>3695077</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V16" s="3">
+        <v>3198275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>55200</v>
       </c>
@@ -5206,8 +5324,11 @@
       <c r="U17" s="8">
         <v>1820898</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V17" s="3">
+        <v>1545638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>55200</v>
       </c>
@@ -5271,8 +5392,11 @@
       <c r="U18" s="8">
         <v>4417302</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V18" s="3">
+        <v>3220084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>55200</v>
       </c>
@@ -5336,8 +5460,11 @@
       <c r="U19" s="8">
         <v>16088384</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V19" s="3">
+        <v>16088384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>55200</v>
       </c>
@@ -5401,8 +5528,11 @@
       <c r="U20" s="8">
         <v>7470048</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V20" s="3">
+        <v>6826026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>55200</v>
       </c>
@@ -5466,8 +5596,11 @@
       <c r="U21" s="8">
         <v>625019</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V21" s="3">
+        <v>625019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>55200</v>
       </c>
@@ -5531,8 +5664,11 @@
       <c r="U22" s="8">
         <v>8073683</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V22" s="3">
+        <v>3567779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>55200</v>
       </c>
@@ -5596,8 +5732,11 @@
       <c r="U23" s="8">
         <v>4022793</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V23" s="3">
+        <v>3657333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>55200</v>
       </c>
@@ -5661,8 +5800,11 @@
       <c r="U24" s="8">
         <v>452860</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V24" s="3">
+        <v>452860</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>55200</v>
       </c>
@@ -5726,8 +5868,11 @@
       <c r="U25" s="8">
         <v>10445418</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V25" s="3">
+        <v>8774489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>55200</v>
       </c>
@@ -5791,8 +5936,11 @@
       <c r="U26" s="8">
         <v>7440102</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V26" s="3">
+        <v>7440102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>55200</v>
       </c>
@@ -5856,8 +6004,11 @@
       <c r="U27" s="8">
         <v>10811971</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V27" s="3">
+        <v>9997909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>55200</v>
       </c>
@@ -5921,8 +6072,11 @@
       <c r="U28" s="8">
         <v>2963082</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V28" s="3">
+        <v>2963082</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>55200</v>
       </c>
@@ -5986,8 +6140,11 @@
       <c r="U29" s="8">
         <v>574440</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V29" s="3">
+        <v>574440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>55200</v>
       </c>
@@ -6051,8 +6208,11 @@
       <c r="U30" s="8">
         <v>11927065</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V30" s="3">
+        <v>11702001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>55200</v>
       </c>
@@ -6116,8 +6276,11 @@
       <c r="U31" s="8">
         <v>6943008</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V31" s="3">
+        <v>6943008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>55200</v>
       </c>
@@ -6181,8 +6344,11 @@
       <c r="U32" s="8">
         <v>7831779</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V32" s="3">
+        <v>7624044</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>55200</v>
       </c>
@@ -6246,8 +6412,11 @@
       <c r="U33" s="8">
         <v>116715</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V33" s="3">
+        <v>116715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>55200</v>
       </c>
@@ -6311,8 +6480,11 @@
       <c r="U34" s="8">
         <v>6052067</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V34" s="3">
+        <v>6052067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>55200</v>
       </c>
@@ -6376,8 +6548,11 @@
       <c r="U35" s="8">
         <v>606904</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V35" s="3">
+        <v>606904</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>55200</v>
       </c>
@@ -6441,8 +6616,11 @@
       <c r="U36" s="8">
         <v>219649</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V36" s="3">
+        <v>219649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>55200</v>
       </c>
@@ -6506,8 +6684,11 @@
       <c r="U37" s="8">
         <v>2297155</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V37" s="3">
+        <v>2297155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>55200</v>
       </c>
@@ -6571,8 +6752,11 @@
       <c r="U38" s="8">
         <v>346485</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V38" s="3">
+        <v>346485</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>55200</v>
       </c>
@@ -6636,8 +6820,11 @@
       <c r="U39" s="8">
         <v>10026619</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V39" s="3">
+        <v>10026619</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>55200</v>
       </c>
@@ -6701,8 +6888,11 @@
       <c r="U40" s="8">
         <v>2112711</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V40" s="3">
+        <v>2112711</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>55200</v>
       </c>
@@ -6766,8 +6956,11 @@
       <c r="U41" s="8">
         <v>7873748</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V41" s="3">
+        <v>7873748</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>55200</v>
       </c>
@@ -6831,8 +7024,11 @@
       <c r="U42" s="8">
         <v>4807671</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V42" s="3">
+        <v>4807671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>55200</v>
       </c>
@@ -6896,8 +7092,11 @@
       <c r="U43" s="8">
         <v>7590064</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V43" s="3">
+        <v>7181469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>55200</v>
       </c>
@@ -6961,8 +7160,11 @@
       <c r="U44" s="8">
         <v>3252823</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V44" s="3">
+        <v>3252823</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>55200</v>
       </c>
@@ -7026,8 +7228,11 @@
       <c r="U45" s="8">
         <v>8221029</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V45" s="3">
+        <v>8150274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>55200</v>
       </c>
@@ -7091,8 +7296,11 @@
       <c r="U46" s="8">
         <v>1527468</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V46" s="3">
+        <v>1527468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>55200</v>
       </c>
@@ -7156,8 +7364,11 @@
       <c r="U47" s="8">
         <v>14395105</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V47" s="3">
+        <v>14220274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>55200</v>
       </c>
@@ -7221,8 +7432,11 @@
       <c r="U48" s="8">
         <v>5126430</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V48" s="3">
+        <v>5126430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>55200</v>
       </c>
@@ -7286,8 +7500,11 @@
       <c r="U49" s="8">
         <v>3059741</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V49" s="3">
+        <v>3059741</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>55200</v>
       </c>
@@ -7351,8 +7568,11 @@
       <c r="U50" s="8">
         <v>211975</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V50" s="3">
+        <v>211975</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>55200</v>
       </c>
@@ -7416,8 +7636,11 @@
       <c r="U51" s="8">
         <v>11279734</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V51" s="3">
+        <v>11279734</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>55200</v>
       </c>
@@ -7481,8 +7704,11 @@
       <c r="U52" s="8">
         <v>3214771</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V52" s="3">
+        <v>3214771</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>55200</v>
       </c>
@@ -7546,8 +7772,11 @@
       <c r="U53" s="8">
         <v>7538060</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V53" s="3">
+        <v>7333775</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>55200</v>
       </c>
@@ -7611,8 +7840,11 @@
       <c r="U54" s="8">
         <v>186526</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V54" s="3">
+        <v>186526</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>55200</v>
       </c>
@@ -7676,8 +7908,11 @@
       <c r="U55" s="8">
         <v>2698256</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V55" s="3">
+        <v>2698256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>55200</v>
       </c>
@@ -7727,8 +7962,9 @@
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="10"/>
-    </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V56" s="5"/>
+    </row>
+    <row r="57" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>55200</v>
       </c>
@@ -7792,8 +8028,11 @@
       <c r="U57" s="8">
         <v>21893453</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V57" s="3">
+        <v>20445427</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>55200</v>
       </c>
@@ -7857,8 +8096,11 @@
       <c r="U58" s="8">
         <v>859909</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V58" s="3">
+        <v>859909</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>55200</v>
       </c>
@@ -7922,8 +8164,11 @@
       <c r="U59" s="8">
         <v>12267533</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V59" s="3">
+        <v>12183710</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
         <v>55200</v>
       </c>
@@ -7987,8 +8232,11 @@
       <c r="U60" s="8">
         <v>384530</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V60" s="3">
+        <v>384530</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>55200</v>
       </c>
@@ -8052,8 +8300,11 @@
       <c r="U61" s="8">
         <v>6994413</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V61" s="3">
+        <v>6669710</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>55200</v>
       </c>
@@ -8117,8 +8368,11 @@
       <c r="U62" s="8">
         <v>1383358</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V62" s="3">
+        <v>1383358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>55200</v>
       </c>
@@ -8182,8 +8436,11 @@
       <c r="U63" s="8">
         <v>14741055</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V63" s="3">
+        <v>14291971</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>55200</v>
       </c>
@@ -8247,8 +8504,11 @@
       <c r="U64" s="8">
         <v>1071555</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V64" s="3">
+        <v>1071555</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>55200</v>
       </c>
@@ -8312,8 +8572,11 @@
       <c r="U65" s="8">
         <v>1488640</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V65" s="3">
+        <v>1488640</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>55200</v>
       </c>
@@ -8377,8 +8640,11 @@
       <c r="U66" s="8">
         <v>169668</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V66" s="3">
+        <v>169668</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>55200</v>
       </c>
@@ -8442,8 +8708,11 @@
       <c r="U67" s="8">
         <v>11045837</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V67" s="3">
+        <v>9175771</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>55200</v>
       </c>
@@ -8507,8 +8776,11 @@
       <c r="U68" s="8">
         <v>489417</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V68" s="3">
+        <v>489417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>55200</v>
       </c>
@@ -8572,8 +8844,11 @@
       <c r="U69" s="8">
         <v>14037706</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V69" s="3">
+        <v>11821251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>55200</v>
       </c>
@@ -8637,8 +8912,11 @@
       <c r="U70" s="8">
         <v>6046234</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V70" s="3">
+        <v>6046234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
         <v>55200</v>
       </c>
@@ -8702,8 +8980,11 @@
       <c r="U71" s="8">
         <v>5155688</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V71" s="3">
+        <v>5155688</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
         <v>55200</v>
       </c>
@@ -8767,8 +9048,11 @@
       <c r="U72" s="8">
         <v>676359</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V72" s="3">
+        <v>676359</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
         <v>55200</v>
       </c>
@@ -8832,8 +9116,11 @@
       <c r="U73" s="8">
         <v>10908825</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V73" s="3">
+        <v>10722387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
         <v>55200</v>
       </c>
@@ -8897,8 +9184,11 @@
       <c r="U74" s="8">
         <v>4195281</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V74" s="3">
+        <v>4195281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>55200</v>
       </c>
@@ -8962,8 +9252,11 @@
       <c r="U75" s="8">
         <v>5039738</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V75" s="3">
+        <v>5039738</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>55200</v>
       </c>
@@ -9027,8 +9320,11 @@
       <c r="U76" s="8">
         <v>1881229</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V76" s="3">
+        <v>1881229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
         <v>55200</v>
       </c>
@@ -9092,8 +9388,11 @@
       <c r="U77" s="8">
         <v>5327589</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V77" s="3">
+        <v>4913610</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
         <v>55200</v>
       </c>
@@ -9157,8 +9456,11 @@
       <c r="U78" s="8">
         <v>1993428</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V78" s="3">
+        <v>1993428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
         <v>55200</v>
       </c>
@@ -9222,8 +9524,11 @@
       <c r="U79" s="8">
         <v>10519104</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V79" s="3">
+        <v>8331641</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
         <v>55200</v>
       </c>
@@ -9287,8 +9592,11 @@
       <c r="U80" s="8">
         <v>404647</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V80" s="3">
+        <v>404647</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
         <v>55200</v>
       </c>
@@ -9352,8 +9660,11 @@
       <c r="U81" s="8">
         <v>9518042</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V81" s="3">
+        <v>9518042</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <v>55200</v>
       </c>
@@ -9417,8 +9728,11 @@
       <c r="U82" s="8">
         <v>1631323</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V82" s="3">
+        <v>1631323</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="14">
         <v>55200</v>
       </c>
@@ -9482,8 +9796,11 @@
       <c r="U83" s="8">
         <v>15442724</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V83" s="3">
+        <v>15442724</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="14">
         <v>55200</v>
       </c>
@@ -9547,8 +9864,11 @@
       <c r="U84" s="8">
         <v>3480280</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V84" s="3">
+        <v>3480280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="14">
         <v>55200</v>
       </c>
@@ -9612,8 +9932,11 @@
       <c r="U85" s="8">
         <v>4570803</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V85" s="3">
+        <v>4570803</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
         <v>55200</v>
       </c>
@@ -9677,8 +10000,11 @@
       <c r="U86" s="8">
         <v>1329942</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V86" s="3">
+        <v>1329942</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
         <v>55200</v>
       </c>
@@ -9742,8 +10068,11 @@
       <c r="U87" s="8">
         <v>3805119</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V87" s="3">
+        <v>3805119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
         <v>55200</v>
       </c>
@@ -9807,8 +10136,11 @@
       <c r="U88" s="8">
         <v>6074256</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V88" s="3">
+        <v>6074256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="14">
         <v>55210</v>
       </c>
@@ -9872,8 +10204,11 @@
       <c r="U89" s="8">
         <v>831858</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V89" s="3">
+        <v>363314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="14">
         <v>55210</v>
       </c>
@@ -9937,8 +10272,11 @@
       <c r="U90" s="8">
         <v>3779109</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V90" s="3">
+        <v>3002341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
         <v>55210</v>
       </c>
@@ -10002,8 +10340,11 @@
       <c r="U91" s="8">
         <v>203379</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V91" s="3">
+        <v>96143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
         <v>55210</v>
       </c>
@@ -10067,8 +10408,11 @@
       <c r="U92" s="8">
         <v>1105355</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V92" s="3">
+        <v>1036437</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="14">
         <v>55210</v>
       </c>
@@ -10132,8 +10476,11 @@
       <c r="U93" s="8">
         <v>1325974</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V93" s="3">
+        <v>1325974</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
         <v>55210</v>
       </c>
@@ -10197,8 +10544,11 @@
       <c r="U94" s="8">
         <v>2195414</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V94" s="3">
+        <v>2041585</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
         <v>55210</v>
       </c>
@@ -10256,8 +10606,9 @@
       <c r="S95" s="5"/>
       <c r="T95" s="5"/>
       <c r="U95" s="10"/>
-    </row>
-    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V95" s="5"/>
+    </row>
+    <row r="96" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <v>55210</v>
       </c>
@@ -10321,8 +10672,11 @@
       <c r="U96" s="8">
         <v>2351900</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V96" s="3">
+        <v>1949212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
         <v>55210</v>
       </c>
@@ -10386,8 +10740,11 @@
       <c r="U97" s="8">
         <v>3210752</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V97" s="3">
+        <v>3210752</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
         <v>55210</v>
       </c>
@@ -10451,8 +10808,11 @@
       <c r="U98" s="8">
         <v>70248</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V98" s="3">
+        <v>70248</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="14">
         <v>55210</v>
       </c>
@@ -10516,8 +10876,11 @@
       <c r="U99" s="8">
         <v>1827874</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V99" s="3">
+        <v>1827874</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
         <v>55210</v>
       </c>
@@ -10571,8 +10934,9 @@
       <c r="S100" s="5"/>
       <c r="T100" s="5"/>
       <c r="U100" s="10"/>
-    </row>
-    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V100" s="5"/>
+    </row>
+    <row r="101" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="14">
         <v>55210</v>
       </c>
@@ -10636,8 +11000,11 @@
       <c r="U101" s="8">
         <v>4233238</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V101" s="3">
+        <v>4013692</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="14">
         <v>55210</v>
       </c>
@@ -10671,8 +11038,9 @@
       <c r="S102" s="5"/>
       <c r="T102" s="5"/>
       <c r="U102" s="10"/>
-    </row>
-    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V102" s="5"/>
+    </row>
+    <row r="103" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="14">
         <v>55210</v>
       </c>
@@ -10736,8 +11104,11 @@
       <c r="U103" s="8">
         <v>4432902</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V103" s="3">
+        <v>3410119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="14">
         <v>55210</v>
       </c>
@@ -10801,8 +11172,11 @@
       <c r="U104" s="8">
         <v>1168162</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V104" s="3">
+        <v>1168162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="14">
         <v>55210</v>
       </c>
@@ -10866,8 +11240,11 @@
       <c r="U105" s="8">
         <v>1062693</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V105" s="3">
+        <v>1062693</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="14">
         <v>55210</v>
       </c>
@@ -10925,8 +11302,9 @@
       <c r="S106" s="5"/>
       <c r="T106" s="5"/>
       <c r="U106" s="10"/>
-    </row>
-    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V106" s="5"/>
+    </row>
+    <row r="107" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="14">
         <v>55210</v>
       </c>
@@ -10990,8 +11368,11 @@
       <c r="U107" s="8">
         <v>2909386</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V107" s="3">
+        <v>2216601</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="14">
         <v>55210</v>
       </c>
@@ -11055,8 +11436,9 @@
       <c r="U108" s="8">
         <v>91539</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V108" s="5"/>
+    </row>
+    <row r="109" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
         <v>55210</v>
       </c>
@@ -11120,8 +11502,11 @@
       <c r="U109" s="8">
         <v>346338</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V109" s="3">
+        <v>323538</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
         <v>55210</v>
       </c>
@@ -11185,8 +11570,11 @@
       <c r="U110" s="8">
         <v>19890</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V110" s="3">
+        <v>19890</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="14">
         <v>55210</v>
       </c>
@@ -11250,8 +11638,11 @@
       <c r="U111" s="8">
         <v>4115543</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V111" s="3">
+        <v>2866200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="14">
         <v>55210</v>
       </c>
@@ -11315,8 +11706,11 @@
       <c r="U112" s="8">
         <v>106149</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V112" s="3">
+        <v>106149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="14">
         <v>55210</v>
       </c>
@@ -11380,8 +11774,11 @@
       <c r="U113" s="8">
         <v>7009769</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V113" s="3">
+        <v>6860378</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="14">
         <v>55210</v>
       </c>
@@ -11445,8 +11842,11 @@
       <c r="U114" s="8">
         <v>21192</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V114" s="3">
+        <v>21192</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="14">
         <v>55220</v>
       </c>
@@ -11510,8 +11910,11 @@
       <c r="U115" s="8">
         <v>7181099</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V115" s="3">
+        <v>4061770</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="14">
         <v>55220</v>
       </c>
@@ -11575,8 +11978,11 @@
       <c r="U116" s="8">
         <v>2403899</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V116" s="3">
+        <v>2369664</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="14">
         <v>55220</v>
       </c>
@@ -11640,8 +12046,11 @@
       <c r="U117" s="8">
         <v>2434284</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V117" s="3">
+        <v>2434284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
         <v>55220</v>
       </c>
@@ -11705,8 +12114,11 @@
       <c r="U118" s="8">
         <v>3675534</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V118" s="3">
+        <v>3675534</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
         <v>55220</v>
       </c>
@@ -11760,8 +12172,9 @@
       <c r="S119" s="5"/>
       <c r="T119" s="5"/>
       <c r="U119" s="10"/>
-    </row>
-    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V119" s="5"/>
+    </row>
+    <row r="120" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="14">
         <v>55220</v>
       </c>
@@ -11825,8 +12238,11 @@
       <c r="U120" s="8">
         <v>3901613</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V120" s="3">
+        <v>2952147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="14">
         <v>55220</v>
       </c>
@@ -11890,8 +12306,11 @@
       <c r="U121" s="8">
         <v>932108</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V121" s="3">
+        <v>932108</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="14">
         <v>55220</v>
       </c>
@@ -11955,8 +12374,11 @@
       <c r="U122" s="8">
         <v>1046037</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V122" s="3">
+        <v>915759</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="14">
         <v>55220</v>
       </c>
@@ -12020,8 +12442,11 @@
       <c r="U123" s="8">
         <v>18353265</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V123" s="3">
+        <v>16834329</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
         <v>55220</v>
       </c>
@@ -12085,8 +12510,11 @@
       <c r="U124" s="8">
         <v>629650</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V124" s="3">
+        <v>629650</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="14">
         <v>55220</v>
       </c>
@@ -12150,8 +12578,11 @@
       <c r="U125" s="8">
         <v>2510037</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V125" s="3">
+        <v>2510037</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="14">
         <v>55220</v>
       </c>
@@ -12215,8 +12646,11 @@
       <c r="U126" s="8">
         <v>1198791</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V126" s="3">
+        <v>1198791</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="14">
         <v>55220</v>
       </c>
@@ -12280,8 +12714,11 @@
       <c r="U127" s="8">
         <v>2910028</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V127" s="3">
+        <v>1031925</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="14">
         <v>55220</v>
       </c>
@@ -12345,8 +12782,11 @@
       <c r="U128" s="8">
         <v>2388962</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V128" s="3">
+        <v>1663663</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="14">
         <v>55220</v>
       </c>
@@ -12410,8 +12850,11 @@
       <c r="U129" s="8">
         <v>8155229</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V129" s="3">
+        <v>6019412</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="14">
         <v>55220</v>
       </c>
@@ -12475,8 +12918,11 @@
       <c r="U130" s="8">
         <v>3082720</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V130" s="3">
+        <v>3082720</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="14">
         <v>55230</v>
       </c>
@@ -12540,8 +12986,11 @@
       <c r="U131" s="8">
         <v>4527392</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V131" s="3">
+        <v>2923262</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
         <v>55230</v>
       </c>
@@ -12605,8 +13054,11 @@
       <c r="U132" s="8">
         <v>248669</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V132" s="3">
+        <v>248669</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
         <v>55230</v>
       </c>
@@ -12670,8 +13122,11 @@
       <c r="U133" s="8">
         <v>447646</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V133" s="3">
+        <v>173333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="14">
         <v>55230</v>
       </c>
@@ -12705,8 +13160,9 @@
       <c r="S134" s="5"/>
       <c r="T134" s="5"/>
       <c r="U134" s="10"/>
-    </row>
-    <row r="135" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V134" s="5"/>
+    </row>
+    <row r="135" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="14">
         <v>55230</v>
       </c>
@@ -12770,8 +13226,11 @@
       <c r="U135" s="8">
         <v>3904557</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V135" s="3">
+        <v>3565122</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="14">
         <v>55230</v>
       </c>
@@ -12835,8 +13294,11 @@
       <c r="U136" s="8">
         <v>2450315</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V136" s="3">
+        <v>2450315</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
         <v>55230</v>
       </c>
@@ -12900,8 +13362,11 @@
       <c r="U137" s="8">
         <v>6006689</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V137" s="3">
+        <v>6006689</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="14">
         <v>55230</v>
       </c>
@@ -12965,8 +13430,11 @@
       <c r="U138" s="8">
         <v>5483173</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V138" s="3">
+        <v>5483173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
         <v>55230</v>
       </c>
@@ -13030,8 +13498,11 @@
       <c r="U139" s="8">
         <v>2160388</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V139" s="3">
+        <v>1883232</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="14">
         <v>55230</v>
       </c>
@@ -13095,8 +13566,11 @@
       <c r="U140" s="8">
         <v>96740</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V140" s="3">
+        <v>19692</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="14">
         <v>55230</v>
       </c>
@@ -13160,8 +13634,11 @@
       <c r="U141" s="8">
         <v>2754487</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V141" s="3">
+        <v>2754487</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="14">
         <v>55230</v>
       </c>
@@ -13225,8 +13702,11 @@
       <c r="U142" s="8">
         <v>390451</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V142" s="3">
+        <v>390451</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="14">
         <v>55230</v>
       </c>
@@ -13290,8 +13770,11 @@
       <c r="U143" s="8">
         <v>6477282</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V143" s="3">
+        <v>6076221</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="14">
         <v>55230</v>
       </c>
@@ -13355,8 +13838,11 @@
       <c r="U144" s="8">
         <v>820661</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V144" s="3">
+        <v>820661</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="14">
         <v>55230</v>
       </c>
@@ -13420,8 +13906,11 @@
       <c r="U145" s="8">
         <v>6558349</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V145" s="3">
+        <v>6144072</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="14">
         <v>55230</v>
       </c>
@@ -13485,8 +13974,11 @@
       <c r="U146" s="8">
         <v>386205</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V146" s="3">
+        <v>386205</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="14">
         <v>55230</v>
       </c>
@@ -13550,8 +14042,11 @@
       <c r="U147" s="8">
         <v>4407706</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V147" s="3">
+        <v>4386886</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="14">
         <v>55230</v>
       </c>
@@ -13615,8 +14110,11 @@
       <c r="U148" s="8">
         <v>127212</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V148" s="3">
+        <v>127212</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="14">
         <v>55230</v>
       </c>
@@ -13680,8 +14178,11 @@
       <c r="U149" s="8">
         <v>15981157</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V149" s="3">
+        <v>11886801</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="14">
         <v>55230</v>
       </c>
@@ -13745,8 +14246,11 @@
       <c r="U150" s="8">
         <v>17353827</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V150" s="3">
+        <v>17240735</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="14">
         <v>55230</v>
       </c>
@@ -13810,8 +14314,11 @@
       <c r="U151" s="8">
         <v>37363</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V151" s="3">
+        <v>37363</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="14">
         <v>55230</v>
       </c>
@@ -13875,8 +14382,11 @@
       <c r="U152" s="8">
         <v>8600137</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V152" s="3">
+        <v>7392576</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="14">
         <v>55230</v>
       </c>
@@ -13940,8 +14450,11 @@
       <c r="U153" s="8">
         <v>2208908</v>
       </c>
-    </row>
-    <row r="154" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V153" s="3">
+        <v>2208908</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="14">
         <v>55230</v>
       </c>
@@ -14005,8 +14518,11 @@
       <c r="U154" s="8">
         <v>6456543</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V154" s="3">
+        <v>6272616</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="14">
         <v>55230</v>
       </c>
@@ -14070,8 +14586,11 @@
       <c r="U155" s="8">
         <v>1595530</v>
       </c>
-    </row>
-    <row r="156" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V155" s="3">
+        <v>1595530</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="14">
         <v>55230</v>
       </c>
@@ -14135,8 +14654,11 @@
       <c r="U156" s="8">
         <v>14637754</v>
       </c>
-    </row>
-    <row r="157" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V156" s="3">
+        <v>14637754</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="14">
         <v>55230</v>
       </c>
@@ -14200,8 +14722,11 @@
       <c r="U157" s="8">
         <v>2404093</v>
       </c>
-    </row>
-    <row r="158" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V157" s="3">
+        <v>2404093</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="14">
         <v>55230</v>
       </c>
@@ -14265,8 +14790,11 @@
       <c r="U158" s="8">
         <v>2543137</v>
       </c>
-    </row>
-    <row r="159" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V158" s="3">
+        <v>2543137</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="14">
         <v>55230</v>
       </c>
@@ -14330,8 +14858,11 @@
       <c r="U159" s="8">
         <v>56822</v>
       </c>
-    </row>
-    <row r="160" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V159" s="3">
+        <v>56822</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="14">
         <v>55230</v>
       </c>
@@ -14395,8 +14926,11 @@
       <c r="U160" s="8">
         <v>10488383</v>
       </c>
-    </row>
-    <row r="161" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V160" s="3">
+        <v>9828492</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="14">
         <v>55230</v>
       </c>
@@ -14460,8 +14994,11 @@
       <c r="U161" s="8">
         <v>9945709</v>
       </c>
-    </row>
-    <row r="162" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V161" s="3">
+        <v>9945709</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="14">
         <v>55230</v>
       </c>
@@ -14525,8 +15062,11 @@
       <c r="U162" s="8">
         <v>11988398</v>
       </c>
-    </row>
-    <row r="163" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V162" s="3">
+        <v>7046699</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="14">
         <v>55230</v>
       </c>
@@ -14590,8 +15130,11 @@
       <c r="U163" s="8">
         <v>2110794</v>
       </c>
-    </row>
-    <row r="164" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V163" s="3">
+        <v>2110794</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="14">
         <v>55230</v>
       </c>
@@ -14655,8 +15198,11 @@
       <c r="U164" s="8">
         <v>6219881</v>
       </c>
-    </row>
-    <row r="165" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V164" s="3">
+        <v>6219881</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="14">
         <v>55230</v>
       </c>
@@ -14720,8 +15266,11 @@
       <c r="U165" s="8">
         <v>82305</v>
       </c>
-    </row>
-    <row r="166" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V165" s="3">
+        <v>82305</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="14">
         <v>55230</v>
       </c>
@@ -14785,8 +15334,11 @@
       <c r="U166" s="8">
         <v>1109543</v>
       </c>
-    </row>
-    <row r="167" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V166" s="3">
+        <v>1109543</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="14">
         <v>55230</v>
       </c>
@@ -14844,8 +15396,9 @@
       <c r="S167" s="5"/>
       <c r="T167" s="5"/>
       <c r="U167" s="10"/>
-    </row>
-    <row r="168" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V167" s="5"/>
+    </row>
+    <row r="168" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="14">
         <v>55230</v>
       </c>
@@ -14909,8 +15462,11 @@
       <c r="U168" s="8">
         <v>9126505</v>
       </c>
-    </row>
-    <row r="169" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V168" s="3">
+        <v>9099907</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="14">
         <v>55230</v>
       </c>
@@ -14974,8 +15530,11 @@
       <c r="U169" s="8">
         <v>2849630</v>
       </c>
-    </row>
-    <row r="170" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V169" s="3">
+        <v>2849630</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="14">
         <v>55230</v>
       </c>
@@ -15039,8 +15598,11 @@
       <c r="U170" s="8">
         <v>1859139</v>
       </c>
-    </row>
-    <row r="171" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V170" s="3">
+        <v>1859139</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="14">
         <v>55230</v>
       </c>
@@ -15098,8 +15660,9 @@
       <c r="S171" s="5"/>
       <c r="T171" s="5"/>
       <c r="U171" s="10"/>
-    </row>
-    <row r="172" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V171" s="5"/>
+    </row>
+    <row r="172" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="14">
         <v>55230</v>
       </c>
@@ -15163,8 +15726,11 @@
       <c r="U172" s="8">
         <v>6083270</v>
       </c>
-    </row>
-    <row r="173" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V172" s="3">
+        <v>5334967</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="14">
         <v>55230</v>
       </c>
@@ -15228,8 +15794,11 @@
       <c r="U173" s="8">
         <v>5625305</v>
       </c>
-    </row>
-    <row r="174" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V173" s="3">
+        <v>5625305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="14">
         <v>55230</v>
       </c>
@@ -15291,8 +15860,9 @@
         <v>13639</v>
       </c>
       <c r="U174" s="10"/>
-    </row>
-    <row r="175" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V174" s="5"/>
+    </row>
+    <row r="175" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="14">
         <v>55230</v>
       </c>
@@ -15350,8 +15920,9 @@
       <c r="S175" s="5"/>
       <c r="T175" s="5"/>
       <c r="U175" s="10"/>
-    </row>
-    <row r="176" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V175" s="5"/>
+    </row>
+    <row r="176" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="14">
         <v>55230</v>
       </c>
@@ -15415,8 +15986,11 @@
       <c r="U176" s="8">
         <v>5212021</v>
       </c>
-    </row>
-    <row r="177" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V176" s="3">
+        <v>5212021</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="14">
         <v>55230</v>
       </c>
@@ -15480,8 +16054,11 @@
       <c r="U177" s="8">
         <v>244131</v>
       </c>
-    </row>
-    <row r="178" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V177" s="3">
+        <v>244131</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="14">
         <v>55230</v>
       </c>
@@ -15545,8 +16122,11 @@
       <c r="U178" s="8">
         <v>2893045</v>
       </c>
-    </row>
-    <row r="179" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V178" s="3">
+        <v>1967651</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="14">
         <v>55230</v>
       </c>
@@ -15610,8 +16190,11 @@
       <c r="U179" s="8">
         <v>654502</v>
       </c>
-    </row>
-    <row r="180" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V179" s="3">
+        <v>586096</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="14">
         <v>55230</v>
       </c>
@@ -15675,8 +16258,11 @@
       <c r="U180" s="8">
         <v>2297796</v>
       </c>
-    </row>
-    <row r="181" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V180" s="3">
+        <v>1704556</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="14">
         <v>55230</v>
       </c>
@@ -15740,8 +16326,11 @@
       <c r="U181" s="8">
         <v>6391943</v>
       </c>
-    </row>
-    <row r="182" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V181" s="3">
+        <v>6231835</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="14">
         <v>55230</v>
       </c>
@@ -15805,8 +16394,11 @@
       <c r="U182" s="8">
         <v>215860</v>
       </c>
-    </row>
-    <row r="183" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V182" s="3">
+        <v>215860</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="14">
         <v>55230</v>
       </c>
@@ -15870,8 +16462,11 @@
       <c r="U183" s="8">
         <v>2271867</v>
       </c>
-    </row>
-    <row r="184" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V183" s="3">
+        <v>2271867</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="14">
         <v>55230</v>
       </c>
@@ -15909,8 +16504,9 @@
       <c r="S184" s="5"/>
       <c r="T184" s="5"/>
       <c r="U184" s="10"/>
-    </row>
-    <row r="185" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V184" s="5"/>
+    </row>
+    <row r="185" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="14">
         <v>55230</v>
       </c>
@@ -15974,8 +16570,11 @@
       <c r="U185" s="8">
         <v>2259092</v>
       </c>
-    </row>
-    <row r="186" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V185" s="3">
+        <v>537941</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="14">
         <v>55230</v>
       </c>
@@ -16039,8 +16638,11 @@
       <c r="U186" s="8">
         <v>143194</v>
       </c>
-    </row>
-    <row r="187" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V186" s="3">
+        <v>143194</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="14">
         <v>55230</v>
       </c>
@@ -16104,8 +16706,11 @@
       <c r="U187" s="8">
         <v>1981595</v>
       </c>
-    </row>
-    <row r="188" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V187" s="3">
+        <v>1981595</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="14">
         <v>55230</v>
       </c>
@@ -16169,11 +16774,14 @@
       <c r="U188" s="8">
         <v>655769</v>
       </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V188" s="3">
+        <v>369382</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
@@ -16740,13 +17348,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Lembar3"/>
-  <dimension ref="A1:U187"/>
+  <dimension ref="A1:V187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="V187" activeCellId="1" sqref="C4:E187 V4:V187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16755,17 +17363,17 @@
     <col min="21" max="21" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -16829,8 +17437,11 @@
       <c r="U4" s="44" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V4" s="51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>55200</v>
       </c>
@@ -16894,8 +17505,11 @@
       <c r="U5" s="45">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V5" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>55200</v>
       </c>
@@ -16959,8 +17573,11 @@
       <c r="U6" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V6" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>55200</v>
       </c>
@@ -17024,8 +17641,11 @@
       <c r="U7" s="45">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V7" s="52">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>55200</v>
       </c>
@@ -17089,8 +17709,11 @@
       <c r="U8" s="45">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V8" s="52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>55200</v>
       </c>
@@ -17154,8 +17777,11 @@
       <c r="U9" s="45">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V9" s="52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>55200</v>
       </c>
@@ -17219,8 +17845,11 @@
       <c r="U10" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V10" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>55200</v>
       </c>
@@ -17284,8 +17913,11 @@
       <c r="U11" s="45">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V11" s="52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>55200</v>
       </c>
@@ -17331,8 +17963,9 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="46"/>
-    </row>
-    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V12" s="53"/>
+    </row>
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>55200</v>
       </c>
@@ -17396,8 +18029,11 @@
       <c r="U13" s="45">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V13" s="52">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>55200</v>
       </c>
@@ -17461,8 +18097,11 @@
       <c r="U14" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V14" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>55200</v>
       </c>
@@ -17526,8 +18165,11 @@
       <c r="U15" s="45">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V15" s="52">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>55200</v>
       </c>
@@ -17591,8 +18233,11 @@
       <c r="U16" s="45">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V16" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>55200</v>
       </c>
@@ -17656,8 +18301,11 @@
       <c r="U17" s="45">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V17" s="52">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>55200</v>
       </c>
@@ -17721,8 +18369,11 @@
       <c r="U18" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V18" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>55200</v>
       </c>
@@ -17786,8 +18437,11 @@
       <c r="U19" s="45">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V19" s="52">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>55200</v>
       </c>
@@ -17851,8 +18505,11 @@
       <c r="U20" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V20" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>55200</v>
       </c>
@@ -17916,8 +18573,11 @@
       <c r="U21" s="45">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V21" s="52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>55200</v>
       </c>
@@ -17981,8 +18641,11 @@
       <c r="U22" s="45">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V22" s="52">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>55200</v>
       </c>
@@ -18046,8 +18709,11 @@
       <c r="U23" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V23" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>55200</v>
       </c>
@@ -18111,8 +18777,11 @@
       <c r="U24" s="45">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V24" s="52">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>55200</v>
       </c>
@@ -18176,8 +18845,11 @@
       <c r="U25" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V25" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>55200</v>
       </c>
@@ -18241,8 +18913,11 @@
       <c r="U26" s="45">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V26" s="52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>55200</v>
       </c>
@@ -18306,8 +18981,11 @@
       <c r="U27" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V27" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>55200</v>
       </c>
@@ -18371,8 +19049,11 @@
       <c r="U28" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V28" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>55200</v>
       </c>
@@ -18436,8 +19117,11 @@
       <c r="U29" s="45">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V29" s="52">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>55200</v>
       </c>
@@ -18501,8 +19185,11 @@
       <c r="U30" s="45">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V30" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>55200</v>
       </c>
@@ -18566,8 +19253,11 @@
       <c r="U31" s="45">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V31" s="52">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>55200</v>
       </c>
@@ -18631,8 +19321,11 @@
       <c r="U32" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V32" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>55200</v>
       </c>
@@ -18696,8 +19389,11 @@
       <c r="U33" s="45">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V33" s="52">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>55200</v>
       </c>
@@ -18761,8 +19457,11 @@
       <c r="U34" s="45">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V34" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>55200</v>
       </c>
@@ -18826,8 +19525,11 @@
       <c r="U35" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V35" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>55200</v>
       </c>
@@ -18891,8 +19593,11 @@
       <c r="U36" s="45">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V36" s="52">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>55200</v>
       </c>
@@ -18956,8 +19661,11 @@
       <c r="U37" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V37" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>55200</v>
       </c>
@@ -19021,8 +19729,11 @@
       <c r="U38" s="45">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V38" s="52">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>55200</v>
       </c>
@@ -19086,8 +19797,11 @@
       <c r="U39" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V39" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>55200</v>
       </c>
@@ -19151,8 +19865,11 @@
       <c r="U40" s="45">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V40" s="52">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>55200</v>
       </c>
@@ -19216,8 +19933,11 @@
       <c r="U41" s="45">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V41" s="52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>55200</v>
       </c>
@@ -19281,8 +20001,11 @@
       <c r="U42" s="45">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V42" s="52">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>55200</v>
       </c>
@@ -19346,8 +20069,11 @@
       <c r="U43" s="45">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V43" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>55200</v>
       </c>
@@ -19411,8 +20137,11 @@
       <c r="U44" s="45">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V44" s="52">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>55200</v>
       </c>
@@ -19476,8 +20205,11 @@
       <c r="U45" s="45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V45" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>55200</v>
       </c>
@@ -19541,8 +20273,11 @@
       <c r="U46" s="45">
         <v>108</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V46" s="52">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>55200</v>
       </c>
@@ -19606,8 +20341,11 @@
       <c r="U47" s="45">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V47" s="52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>55200</v>
       </c>
@@ -19671,8 +20409,11 @@
       <c r="U48" s="45">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V48" s="52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>55200</v>
       </c>
@@ -19736,8 +20477,11 @@
       <c r="U49" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V49" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>55200</v>
       </c>
@@ -19801,8 +20545,11 @@
       <c r="U50" s="45">
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V50" s="52">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>55200</v>
       </c>
@@ -19866,8 +20613,11 @@
       <c r="U51" s="45">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V51" s="52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>55200</v>
       </c>
@@ -19931,8 +20681,11 @@
       <c r="U52" s="45">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V52" s="52">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>55200</v>
       </c>
@@ -19996,8 +20749,11 @@
       <c r="U53" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V53" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>55200</v>
       </c>
@@ -20061,8 +20817,11 @@
       <c r="U54" s="45">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V54" s="52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>55200</v>
       </c>
@@ -20112,8 +20871,9 @@
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
       <c r="U55" s="46"/>
-    </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V55" s="53"/>
+    </row>
+    <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>55200</v>
       </c>
@@ -20177,8 +20937,11 @@
       <c r="U56" s="45">
         <v>82</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V56" s="52">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>55200</v>
       </c>
@@ -20242,8 +21005,11 @@
       <c r="U57" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V57" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>55200</v>
       </c>
@@ -20307,8 +21073,11 @@
       <c r="U58" s="45">
         <v>65</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V58" s="52">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>55200</v>
       </c>
@@ -20372,8 +21141,11 @@
       <c r="U59" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V59" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>55200</v>
       </c>
@@ -20437,8 +21209,11 @@
       <c r="U60" s="45">
         <v>52</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V60" s="52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>55200</v>
       </c>
@@ -20502,8 +21277,11 @@
       <c r="U61" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V61" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>55200</v>
       </c>
@@ -20567,8 +21345,11 @@
       <c r="U62" s="45">
         <v>84</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V62" s="52">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>55200</v>
       </c>
@@ -20632,8 +21413,11 @@
       <c r="U63" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V63" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>55200</v>
       </c>
@@ -20697,8 +21481,11 @@
       <c r="U64" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V64" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>55200</v>
       </c>
@@ -20762,8 +21549,11 @@
       <c r="U65" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V65" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>55200</v>
       </c>
@@ -20827,8 +21617,11 @@
       <c r="U66" s="45">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V66" s="52">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>55200</v>
       </c>
@@ -20892,8 +21685,11 @@
       <c r="U67" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V67" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>55200</v>
       </c>
@@ -20957,8 +21753,11 @@
       <c r="U68" s="45">
         <v>86</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V68" s="52">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>55200</v>
       </c>
@@ -21022,8 +21821,11 @@
       <c r="U69" s="45">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V69" s="52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>55200</v>
       </c>
@@ -21087,8 +21889,11 @@
       <c r="U70" s="45">
         <v>38</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V70" s="52">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>55200</v>
       </c>
@@ -21152,8 +21957,11 @@
       <c r="U71" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V71" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>55200</v>
       </c>
@@ -21217,8 +22025,11 @@
       <c r="U72" s="45">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V72" s="52">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>55200</v>
       </c>
@@ -21282,8 +22093,11 @@
       <c r="U73" s="45">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V73" s="52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>55200</v>
       </c>
@@ -21347,8 +22161,11 @@
       <c r="U74" s="45">
         <v>31</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V74" s="52">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>55200</v>
       </c>
@@ -21412,8 +22229,11 @@
       <c r="U75" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V75" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>55200</v>
       </c>
@@ -21477,8 +22297,11 @@
       <c r="U76" s="45">
         <v>54</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V76" s="52">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>55200</v>
       </c>
@@ -21542,8 +22365,11 @@
       <c r="U77" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V77" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>55200</v>
       </c>
@@ -21607,8 +22433,11 @@
       <c r="U78" s="45">
         <v>139</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V78" s="52">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>55200</v>
       </c>
@@ -21672,8 +22501,11 @@
       <c r="U79" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V79" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>55200</v>
       </c>
@@ -21737,8 +22569,11 @@
       <c r="U80" s="45">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V80" s="52">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>55200</v>
       </c>
@@ -21802,8 +22637,11 @@
       <c r="U81" s="45">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V81" s="52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>55200</v>
       </c>
@@ -21867,8 +22705,11 @@
       <c r="U82" s="45">
         <v>53</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V82" s="52">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>55200</v>
       </c>
@@ -21932,8 +22773,11 @@
       <c r="U83" s="45">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V83" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>55200</v>
       </c>
@@ -21997,8 +22841,11 @@
       <c r="U84" s="45">
         <v>18</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V84" s="52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>55200</v>
       </c>
@@ -22062,8 +22909,11 @@
       <c r="U85" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V85" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>55200</v>
       </c>
@@ -22127,8 +22977,11 @@
       <c r="U86" s="45">
         <v>42</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V86" s="52">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>55200</v>
       </c>
@@ -22192,8 +23045,11 @@
       <c r="U87" s="45">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V87" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>55210</v>
       </c>
@@ -22257,8 +23113,11 @@
       <c r="U88" s="45">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V88" s="52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>55210</v>
       </c>
@@ -22322,8 +23181,11 @@
       <c r="U89" s="45">
         <v>40</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V89" s="52">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>55210</v>
       </c>
@@ -22387,8 +23249,11 @@
       <c r="U90" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V90" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>55210</v>
       </c>
@@ -22452,8 +23317,11 @@
       <c r="U91" s="45">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V91" s="52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>55210</v>
       </c>
@@ -22517,8 +23385,11 @@
       <c r="U92" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V92" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>55210</v>
       </c>
@@ -22582,8 +23453,11 @@
       <c r="U93" s="45">
         <v>45</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V93" s="52">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>55210</v>
       </c>
@@ -22641,8 +23515,9 @@
       <c r="S94" s="10"/>
       <c r="T94" s="10"/>
       <c r="U94" s="46"/>
-    </row>
-    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V94" s="53"/>
+    </row>
+    <row r="95" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>55210</v>
       </c>
@@ -22706,8 +23581,11 @@
       <c r="U95" s="45">
         <v>19</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V95" s="52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>55210</v>
       </c>
@@ -22771,8 +23649,11 @@
       <c r="U96" s="45">
         <v>34</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V96" s="52">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>55210</v>
       </c>
@@ -22836,8 +23717,11 @@
       <c r="U97" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V97" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>55210</v>
       </c>
@@ -22901,8 +23785,11 @@
       <c r="U98" s="45">
         <v>25</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V98" s="52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>55210</v>
       </c>
@@ -22956,8 +23843,9 @@
       <c r="S99" s="10"/>
       <c r="T99" s="10"/>
       <c r="U99" s="46"/>
-    </row>
-    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V99" s="53"/>
+    </row>
+    <row r="100" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>55210</v>
       </c>
@@ -23021,8 +23909,11 @@
       <c r="U100" s="45">
         <v>60</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V100" s="52">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>55210</v>
       </c>
@@ -23056,8 +23947,9 @@
       <c r="S101" s="10"/>
       <c r="T101" s="10"/>
       <c r="U101" s="46"/>
-    </row>
-    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V101" s="53"/>
+    </row>
+    <row r="102" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>55210</v>
       </c>
@@ -23121,8 +24013,11 @@
       <c r="U102" s="45">
         <v>42</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V102" s="52">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>55210</v>
       </c>
@@ -23186,8 +24081,11 @@
       <c r="U103" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V103" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>55210</v>
       </c>
@@ -23251,8 +24149,11 @@
       <c r="U104" s="45">
         <v>22</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V104" s="52">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>55210</v>
       </c>
@@ -23310,8 +24211,9 @@
       <c r="S105" s="10"/>
       <c r="T105" s="10"/>
       <c r="U105" s="46"/>
-    </row>
-    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V105" s="53"/>
+    </row>
+    <row r="106" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>55210</v>
       </c>
@@ -23375,8 +24277,11 @@
       <c r="U106" s="45">
         <v>39</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V106" s="52">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>55210</v>
       </c>
@@ -23440,8 +24345,9 @@
       <c r="U107" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V107" s="53"/>
+    </row>
+    <row r="108" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>55210</v>
       </c>
@@ -23505,8 +24411,11 @@
       <c r="U108" s="45">
         <v>10</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V108" s="52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>55210</v>
       </c>
@@ -23570,8 +24479,11 @@
       <c r="U109" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V109" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>55210</v>
       </c>
@@ -23635,8 +24547,11 @@
       <c r="U110" s="45">
         <v>71</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V110" s="52">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>55210</v>
       </c>
@@ -23700,8 +24615,11 @@
       <c r="U111" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V111" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>55210</v>
       </c>
@@ -23765,8 +24683,11 @@
       <c r="U112" s="45">
         <v>78</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V112" s="52">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <v>55210</v>
       </c>
@@ -23830,8 +24751,11 @@
       <c r="U113" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V113" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="16">
         <v>55220</v>
       </c>
@@ -23895,8 +24819,11 @@
       <c r="U114" s="45">
         <v>94</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V114" s="52">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>55220</v>
       </c>
@@ -23960,8 +24887,11 @@
       <c r="U115" s="45">
         <v>25</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V115" s="52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>55220</v>
       </c>
@@ -24025,8 +24955,11 @@
       <c r="U116" s="45">
         <v>35</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V116" s="52">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <v>55220</v>
       </c>
@@ -24090,8 +25023,11 @@
       <c r="U117" s="45">
         <v>17</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V117" s="52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="16">
         <v>55220</v>
       </c>
@@ -24145,8 +25081,9 @@
       <c r="S118" s="10"/>
       <c r="T118" s="10"/>
       <c r="U118" s="46"/>
-    </row>
-    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V118" s="53"/>
+    </row>
+    <row r="119" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="16">
         <v>55220</v>
       </c>
@@ -24210,8 +25147,11 @@
       <c r="U119" s="45">
         <v>50</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V119" s="52">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
         <v>55220</v>
       </c>
@@ -24275,8 +25215,11 @@
       <c r="U120" s="45">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V120" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <v>55220</v>
       </c>
@@ -24340,8 +25283,11 @@
       <c r="U121" s="45">
         <v>17</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V121" s="52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="16">
         <v>55220</v>
       </c>
@@ -24405,8 +25351,11 @@
       <c r="U122" s="45">
         <v>126</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V122" s="52">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="16">
         <v>55220</v>
       </c>
@@ -24470,8 +25419,11 @@
       <c r="U123" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V123" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="16">
         <v>55220</v>
       </c>
@@ -24535,8 +25487,11 @@
       <c r="U124" s="45">
         <v>36</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V124" s="52">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="16">
         <v>55220</v>
       </c>
@@ -24600,8 +25555,11 @@
       <c r="U125" s="45">
         <v>19</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V125" s="52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>55220</v>
       </c>
@@ -24665,8 +25623,11 @@
       <c r="U126" s="45">
         <v>42</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V126" s="52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>55220</v>
       </c>
@@ -24730,8 +25691,11 @@
       <c r="U127" s="45">
         <v>44</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V127" s="52">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="16">
         <v>55220</v>
       </c>
@@ -24795,8 +25759,11 @@
       <c r="U128" s="45">
         <v>111</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V128" s="52">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="16">
         <v>55220</v>
       </c>
@@ -24860,8 +25827,11 @@
       <c r="U129" s="45">
         <v>58</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V129" s="52">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>55230</v>
       </c>
@@ -24925,8 +25895,11 @@
       <c r="U130" s="45">
         <v>52</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V130" s="52">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>55230</v>
       </c>
@@ -24990,8 +25963,11 @@
       <c r="U131" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V131" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="16">
         <v>55230</v>
       </c>
@@ -25055,8 +26031,11 @@
       <c r="U132" s="45">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V132" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>55230</v>
       </c>
@@ -25090,8 +26069,9 @@
       <c r="S133" s="10"/>
       <c r="T133" s="10"/>
       <c r="U133" s="46"/>
-    </row>
-    <row r="134" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V133" s="53"/>
+    </row>
+    <row r="134" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <v>55230</v>
       </c>
@@ -25155,8 +26135,11 @@
       <c r="U134" s="45">
         <v>48</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V134" s="52">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <v>55230</v>
       </c>
@@ -25220,8 +26203,11 @@
       <c r="U135" s="45">
         <v>15</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V135" s="52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="16">
         <v>55230</v>
       </c>
@@ -25285,8 +26271,11 @@
       <c r="U136" s="45">
         <v>21</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V136" s="52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>55230</v>
       </c>
@@ -25350,8 +26339,11 @@
       <c r="U137" s="45">
         <v>119</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V137" s="52">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>55230</v>
       </c>
@@ -25415,8 +26407,11 @@
       <c r="U138" s="45">
         <v>28</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V138" s="52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>55230</v>
       </c>
@@ -25480,8 +26475,11 @@
       <c r="U139" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V139" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="16">
         <v>55230</v>
       </c>
@@ -25545,8 +26543,11 @@
       <c r="U140" s="45">
         <v>28</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V140" s="52">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="16">
         <v>55230</v>
       </c>
@@ -25610,8 +26611,11 @@
       <c r="U141" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V141" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="16">
         <v>55230</v>
       </c>
@@ -25675,8 +26679,11 @@
       <c r="U142" s="45">
         <v>86</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V142" s="52">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="16">
         <v>55230</v>
       </c>
@@ -25740,8 +26747,11 @@
       <c r="U143" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V143" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="16">
         <v>55230</v>
       </c>
@@ -25805,8 +26815,11 @@
       <c r="U144" s="45">
         <v>59</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V144" s="52">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="16">
         <v>55230</v>
       </c>
@@ -25870,8 +26883,11 @@
       <c r="U145" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V145" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="16">
         <v>55230</v>
       </c>
@@ -25935,8 +26951,11 @@
       <c r="U146" s="45">
         <v>90</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V146" s="52">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>55230</v>
       </c>
@@ -26000,8 +27019,11 @@
       <c r="U147" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V147" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>55230</v>
       </c>
@@ -26065,8 +27087,11 @@
       <c r="U148" s="45">
         <v>139</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V148" s="52">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="16">
         <v>55230</v>
       </c>
@@ -26130,8 +27155,11 @@
       <c r="U149" s="45">
         <v>30</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V149" s="52">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="16">
         <v>55230</v>
       </c>
@@ -26195,8 +27223,11 @@
       <c r="U150" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V150" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="16">
         <v>55230</v>
       </c>
@@ -26260,8 +27291,11 @@
       <c r="U151" s="45">
         <v>85</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V151" s="52">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>55230</v>
       </c>
@@ -26325,8 +27359,11 @@
       <c r="U152" s="45">
         <v>14</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V152" s="52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="16">
         <v>55230</v>
       </c>
@@ -26390,8 +27427,11 @@
       <c r="U153" s="45">
         <v>70</v>
       </c>
-    </row>
-    <row r="154" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V153" s="52">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>55230</v>
       </c>
@@ -26455,8 +27495,11 @@
       <c r="U154" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V154" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="16">
         <v>55230</v>
       </c>
@@ -26520,8 +27563,11 @@
       <c r="U155" s="45">
         <v>213</v>
       </c>
-    </row>
-    <row r="156" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V155" s="52">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="16">
         <v>55230</v>
       </c>
@@ -26585,8 +27631,11 @@
       <c r="U156" s="45">
         <v>13</v>
       </c>
-    </row>
-    <row r="157" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V156" s="52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>55230</v>
       </c>
@@ -26650,8 +27699,11 @@
       <c r="U157" s="45">
         <v>40</v>
       </c>
-    </row>
-    <row r="158" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V157" s="52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="16">
         <v>55230</v>
       </c>
@@ -26715,8 +27767,11 @@
       <c r="U158" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V158" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="16">
         <v>55230</v>
       </c>
@@ -26780,8 +27835,11 @@
       <c r="U159" s="45">
         <v>64</v>
       </c>
-    </row>
-    <row r="160" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V159" s="52">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="16">
         <v>55230</v>
       </c>
@@ -26845,8 +27903,11 @@
       <c r="U160" s="45">
         <v>7</v>
       </c>
-    </row>
-    <row r="161" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V160" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="16">
         <v>55230</v>
       </c>
@@ -26910,8 +27971,11 @@
       <c r="U161" s="45">
         <v>96</v>
       </c>
-    </row>
-    <row r="162" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V161" s="52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>55230</v>
       </c>
@@ -26975,8 +28039,11 @@
       <c r="U162" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V162" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="16">
         <v>55230</v>
       </c>
@@ -27040,8 +28107,11 @@
       <c r="U163" s="45">
         <v>45</v>
       </c>
-    </row>
-    <row r="164" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V163" s="52">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>55230</v>
       </c>
@@ -27105,8 +28175,11 @@
       <c r="U164" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V164" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>55230</v>
       </c>
@@ -27170,8 +28243,11 @@
       <c r="U165" s="45">
         <v>15</v>
       </c>
-    </row>
-    <row r="166" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V165" s="52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>55230</v>
       </c>
@@ -27229,8 +28305,9 @@
       <c r="S166" s="10"/>
       <c r="T166" s="10"/>
       <c r="U166" s="46"/>
-    </row>
-    <row r="167" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V166" s="53"/>
+    </row>
+    <row r="167" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>55230</v>
       </c>
@@ -27294,8 +28371,11 @@
       <c r="U167" s="45">
         <v>95</v>
       </c>
-    </row>
-    <row r="168" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V167" s="52">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
         <v>55230</v>
       </c>
@@ -27359,8 +28439,11 @@
       <c r="U168" s="45">
         <v>19</v>
       </c>
-    </row>
-    <row r="169" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V168" s="52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>55230</v>
       </c>
@@ -27424,8 +28507,11 @@
       <c r="U169" s="45">
         <v>23</v>
       </c>
-    </row>
-    <row r="170" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V169" s="52">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="16">
         <v>55230</v>
       </c>
@@ -27483,8 +28569,9 @@
       <c r="S170" s="10"/>
       <c r="T170" s="10"/>
       <c r="U170" s="46"/>
-    </row>
-    <row r="171" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V170" s="53"/>
+    </row>
+    <row r="171" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>55230</v>
       </c>
@@ -27548,8 +28635,11 @@
       <c r="U171" s="45">
         <v>113</v>
       </c>
-    </row>
-    <row r="172" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V171" s="52">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="16">
         <v>55230</v>
       </c>
@@ -27613,8 +28703,11 @@
       <c r="U172" s="45">
         <v>42</v>
       </c>
-    </row>
-    <row r="173" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V172" s="52">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="16">
         <v>55230</v>
       </c>
@@ -27676,8 +28769,9 @@
         <v>1</v>
       </c>
       <c r="U173" s="46"/>
-    </row>
-    <row r="174" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V173" s="53"/>
+    </row>
+    <row r="174" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="16">
         <v>55230</v>
       </c>
@@ -27735,8 +28829,9 @@
       <c r="S174" s="10"/>
       <c r="T174" s="10"/>
       <c r="U174" s="46"/>
-    </row>
-    <row r="175" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V174" s="53"/>
+    </row>
+    <row r="175" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="16">
         <v>55230</v>
       </c>
@@ -27800,8 +28895,11 @@
       <c r="U175" s="45">
         <v>44</v>
       </c>
-    </row>
-    <row r="176" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V175" s="52">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="16">
         <v>55230</v>
       </c>
@@ -27865,8 +28963,11 @@
       <c r="U176" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V176" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="16">
         <v>55230</v>
       </c>
@@ -27930,8 +29031,11 @@
       <c r="U177" s="45">
         <v>54</v>
       </c>
-    </row>
-    <row r="178" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V177" s="52">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="16">
         <v>55230</v>
       </c>
@@ -27995,8 +29099,11 @@
       <c r="U178" s="45">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V178" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>55230</v>
       </c>
@@ -28060,8 +29167,11 @@
       <c r="U179" s="45">
         <v>26</v>
       </c>
-    </row>
-    <row r="180" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V179" s="52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="16">
         <v>55230</v>
       </c>
@@ -28125,8 +29235,11 @@
       <c r="U180" s="45">
         <v>42</v>
       </c>
-    </row>
-    <row r="181" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V180" s="52">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
         <v>55230</v>
       </c>
@@ -28190,8 +29303,11 @@
       <c r="U181" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V181" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>55230</v>
       </c>
@@ -28255,8 +29371,11 @@
       <c r="U182" s="45">
         <v>46</v>
       </c>
-    </row>
-    <row r="183" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V182" s="52">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>55230</v>
       </c>
@@ -28294,8 +29413,9 @@
       <c r="S183" s="10"/>
       <c r="T183" s="10"/>
       <c r="U183" s="46"/>
-    </row>
-    <row r="184" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V183" s="53"/>
+    </row>
+    <row r="184" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>55230</v>
       </c>
@@ -28359,8 +29479,11 @@
       <c r="U184" s="45">
         <v>7</v>
       </c>
-    </row>
-    <row r="185" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V184" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="16">
         <v>55230</v>
       </c>
@@ -28424,8 +29547,11 @@
       <c r="U185" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V185" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="16">
         <v>55230</v>
       </c>
@@ -28489,8 +29615,11 @@
       <c r="U186" s="45">
         <v>15</v>
       </c>
-    </row>
-    <row r="187" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V186" s="52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="16">
         <v>55230</v>
       </c>
@@ -28553,6 +29682,9 @@
       </c>
       <c r="U187" s="45">
         <v>5</v>
+      </c>
+      <c r="V187" s="52">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/pantauharian102015.xlsx
+++ b/pantauharian102015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7275" tabRatio="695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7275" tabRatio="695"/>
   </bookViews>
   <sheets>
     <sheet name="REKAP RAYON" sheetId="4" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="255">
   <si>
     <t>UNITUP</t>
   </si>
@@ -827,6 +827,9 @@
   <si>
     <t>30 - 21:20</t>
   </si>
+  <si>
+    <t>31 - 04:50</t>
+  </si>
 </sst>
 </file>
 
@@ -1123,15 +1126,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1142,6 +1136,15 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Koma [0]" xfId="1" builtinId="6"/>
@@ -1258,7 +1261,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'REKAP RAYON'!$E$22</c:f>
@@ -1383,7 +1386,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'REKAP RAYON'!$J$22</c:f>
@@ -1501,187 +1504,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="362857504"/>
-        <c:axId val="362857896"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'REKAP RAYON'!$C$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Pencapaian</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'REKAP RAYON'!$A$23:$A$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Gianyar</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Klungkung</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Bangli</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Karangasem</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'REKAP RAYON'!$C$23:$C$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>396647532</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>36992494</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>50311793</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>192694517</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'REKAP RAYON'!$D$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>sisa saldo</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'REKAP RAYON'!$A$23:$A$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Gianyar</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Klungkung</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Bangli</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Karangasem</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'REKAP RAYON'!$D$23:$D$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>93090010</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5170958</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>31623791</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>-3789810</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="232231840"/>
+        <c:axId val="232224392"/>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="362857504"/>
+        <c:axId val="232231840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1724,7 +1552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362857896"/>
+        <c:crossAx val="232224392"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1732,7 +1560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="362857896"/>
+        <c:axId val="232224392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1785,7 +1613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362857504"/>
+        <c:crossAx val="232231840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2710,10 +2538,10 @@
   <sheetPr codeName="Lembar1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2734,47 +2562,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="str">
+      <c r="A1" s="52" t="str">
         <f>+"GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : "&amp;A21</f>
         <v>GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : 30 - 21:20</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
       <c r="K1" s="37"/>
       <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="37"/>
       <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="19" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2783,7 +2611,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="47" t="s">
         <v>253</v>
       </c>
       <c r="B21" s="30"/>
@@ -2827,7 +2655,7 @@
         <v>489737542</v>
       </c>
       <c r="C23" s="29">
-        <f>VLOOKUP(A21,$A$30:$E$49,2,FALSE)</f>
+        <f>VLOOKUP(A21,$A$30:$E$50,2,FALSE)</f>
         <v>396647532</v>
       </c>
       <c r="D23" s="29">
@@ -2842,7 +2670,7 @@
         <v>70637</v>
       </c>
       <c r="H23" s="29">
-        <f>VLOOKUP($A$21,$A$30:$T$49,12,FALSE)</f>
+        <f>VLOOKUP($A$21,$A$30:$T$50,12,FALSE)</f>
         <v>2202</v>
       </c>
       <c r="I23" s="29">
@@ -2862,7 +2690,7 @@
         <v>31821536</v>
       </c>
       <c r="C24" s="29">
-        <f>VLOOKUP($A$21,$A$30:$E$49,3,FALSE)</f>
+        <f>VLOOKUP($A$21,$A$30:$E$50,3,FALSE)</f>
         <v>36992494</v>
       </c>
       <c r="D24" s="29">
@@ -2877,7 +2705,7 @@
         <v>20524</v>
       </c>
       <c r="H24" s="29">
-        <f>VLOOKUP($A$21,$A$30:$T$49,13,FALSE)</f>
+        <f>VLOOKUP($A$21,$A$30:$T$50,13,FALSE)</f>
         <v>455</v>
       </c>
       <c r="I24" s="29">
@@ -2897,7 +2725,7 @@
         <v>18688002</v>
       </c>
       <c r="C25" s="29">
-        <f>VLOOKUP($A$21,$A$30:$E$49,4,FALSE)</f>
+        <f>VLOOKUP($A$21,$A$30:$E$50,4,FALSE)</f>
         <v>50311793</v>
       </c>
       <c r="D25" s="29">
@@ -2912,7 +2740,7 @@
         <v>23818</v>
       </c>
       <c r="H25" s="29">
-        <f>VLOOKUP($A$21,$A$30:$T$49,14,FALSE)</f>
+        <f>VLOOKUP($A$21,$A$30:$T$50,14,FALSE)</f>
         <v>580</v>
       </c>
       <c r="I25" s="29">
@@ -2932,7 +2760,7 @@
         <v>196484327</v>
       </c>
       <c r="C26" s="29">
-        <f>VLOOKUP($A$21,$A$30:$E$49,5,FALSE)</f>
+        <f>VLOOKUP($A$21,$A$30:$E$50,5,FALSE)</f>
         <v>192694517</v>
       </c>
       <c r="D26" s="29">
@@ -2947,7 +2775,7 @@
         <v>43766</v>
       </c>
       <c r="H26" s="29">
-        <f>VLOOKUP($A$21,$A$30:$T$49,15,FALSE)</f>
+        <f>VLOOKUP($A$21,$A$30:$T$50,15,FALSE)</f>
         <v>1665</v>
       </c>
       <c r="I26" s="29">
@@ -2971,39 +2799,39 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="47" t="s">
+      <c r="L28" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
       <c r="P28" s="24"/>
-      <c r="Q28" s="47" t="s">
+      <c r="Q28" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
     </row>
     <row r="29" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="23" t="s">
         <v>20</v>
       </c>
@@ -4185,7 +4013,7 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="47" t="s">
         <v>253</v>
       </c>
       <c r="B46" s="25">
@@ -4256,86 +4084,112 @@
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
+    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B47" s="25">
+        <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$W$6:$W$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!B29)</f>
+        <v>385925677</v>
+      </c>
+      <c r="C47" s="25">
+        <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$W$6:$W$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!C29)</f>
+        <v>36992494</v>
+      </c>
+      <c r="D47" s="25">
+        <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$W$6:$W$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!D29)</f>
+        <v>50303348</v>
+      </c>
+      <c r="E47" s="25">
+        <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$W$6:$W$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!E29)</f>
+        <v>192554778</v>
+      </c>
       <c r="F47" s="24"/>
       <c r="G47" s="26">
         <f t="shared" ref="G47:G48" si="17">+B46-B47</f>
-        <v>396647532</v>
+        <v>10721855</v>
       </c>
       <c r="H47" s="26">
         <f t="shared" ref="H47:H48" si="18">+C46-C47</f>
-        <v>36992494</v>
+        <v>0</v>
       </c>
       <c r="I47" s="26">
         <f t="shared" ref="I47:I48" si="19">+D46-D47</f>
-        <v>50311793</v>
+        <v>8445</v>
       </c>
       <c r="J47" s="26">
         <f t="shared" ref="J47:J48" si="20">+E46-E47</f>
-        <v>192694517</v>
+        <v>139739</v>
       </c>
       <c r="K47" s="24"/>
       <c r="L47" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$W$6:$W$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!L29)</f>
-        <v>0</v>
+        <v>2143</v>
       </c>
       <c r="M47" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$W$6:$W$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!M29)</f>
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="N47" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$W$6:$W$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!N29)</f>
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="O47" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$W$6:$W$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!O29)</f>
-        <v>0</v>
+        <v>1662</v>
       </c>
       <c r="P47" s="24"/>
       <c r="Q47" s="26">
         <f>+L46-L47</f>
-        <v>2202</v>
+        <v>59</v>
       </c>
       <c r="R47" s="26">
         <f t="shared" si="10"/>
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="S47" s="26">
         <f t="shared" si="11"/>
-        <v>580</v>
+        <v>1</v>
       </c>
       <c r="T47" s="26">
         <f t="shared" si="12"/>
-        <v>1665</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="34"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
+      <c r="B48" s="25">
+        <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$X$6:$X$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!B29)</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="25">
+        <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$X$6:$X$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!C29)</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="25">
+        <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$X$6:$X$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!D29)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="25">
+        <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$X$6:$X$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!E29)</f>
+        <v>0</v>
+      </c>
       <c r="F48" s="24"/>
       <c r="G48" s="26">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>385925677</v>
       </c>
       <c r="H48" s="26">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>36992494</v>
       </c>
       <c r="I48" s="26">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>50303348</v>
       </c>
       <c r="J48" s="26">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>192554778</v>
       </c>
       <c r="K48" s="24"/>
       <c r="L48" s="25">
@@ -4355,17 +4209,41 @@
         <v>0</v>
       </c>
       <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
+      <c r="Q48" s="26">
+        <f t="shared" ref="Q48" si="21">+L47-L48</f>
+        <v>2143</v>
+      </c>
+      <c r="R48" s="26">
+        <f t="shared" ref="R48" si="22">+M47-M48</f>
+        <v>455</v>
+      </c>
+      <c r="S48" s="26">
+        <f t="shared" ref="S48" si="23">+N47-N48</f>
+        <v>579</v>
+      </c>
+      <c r="T48" s="26">
+        <f t="shared" ref="T48" si="24">+O47-O48</f>
+        <v>1662</v>
+      </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
+      <c r="B49" s="25">
+        <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$Y$6:$Y$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!B29)</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="25">
+        <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$Y$6:$Y$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!C29)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="25">
+        <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$Y$6:$Y$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!D29)</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="25">
+        <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$Y$6:$Y$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!E29)</f>
+        <v>0</v>
+      </c>
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
@@ -4389,10 +4267,44 @@
         <v>0</v>
       </c>
       <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
+      <c r="Q49" s="26">
+        <f>+L48-L49</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="26">
+        <f>+M48-M49</f>
+        <v>0</v>
+      </c>
+      <c r="S49" s="26">
+        <f>+N48-N49</f>
+        <v>0</v>
+      </c>
+      <c r="T49" s="26">
+        <f>+O48-O49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="34"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4416,13 +4328,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Lembar2"/>
-  <dimension ref="A1:V377"/>
+  <dimension ref="A1:W377"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="S6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomRight" activeCell="W5" sqref="W5:W188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4439,32 +4351,32 @@
     <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>234</v>
       </c>
       <c r="U1" s="42"/>
       <c r="V1" s="42"/>
     </row>
-    <row r="2" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>235</v>
       </c>
       <c r="U2" s="42"/>
       <c r="V2" s="42"/>
     </row>
-    <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="17"/>
       <c r="U3" s="42"/>
       <c r="V3" s="42"/>
     </row>
-    <row r="4" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
       <c r="U4" s="42"/>
       <c r="V4" s="42"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -4531,8 +4443,11 @@
       <c r="V5" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W5" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>55200</v>
       </c>
@@ -4599,8 +4514,11 @@
       <c r="V6" s="3">
         <v>382338</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W6" s="8">
+        <v>382338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>55200</v>
       </c>
@@ -4667,8 +4585,11 @@
       <c r="V7" s="3">
         <v>291748</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W7" s="8">
+        <v>291748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>55200</v>
       </c>
@@ -4735,8 +4656,11 @@
       <c r="V8" s="3">
         <v>8082559</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W8" s="8">
+        <v>8082559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>55200</v>
       </c>
@@ -4803,8 +4727,11 @@
       <c r="V9" s="3">
         <v>704803</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W9" s="8">
+        <v>704803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>55200</v>
       </c>
@@ -4871,8 +4798,11 @@
       <c r="V10" s="3">
         <v>3272778</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W10" s="8">
+        <v>3272778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>55200</v>
       </c>
@@ -4939,8 +4869,11 @@
       <c r="V11" s="3">
         <v>1428765</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W11" s="8">
+        <v>1428765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>55200</v>
       </c>
@@ -5007,8 +4940,11 @@
       <c r="V12" s="3">
         <v>1626705</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W12" s="8">
+        <v>1626705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>55200</v>
       </c>
@@ -5055,8 +4991,9 @@
       <c r="T13" s="5"/>
       <c r="U13" s="10"/>
       <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>55200</v>
       </c>
@@ -5123,8 +5060,11 @@
       <c r="V14" s="3">
         <v>7660370</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W14" s="8">
+        <v>7660370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>55200</v>
       </c>
@@ -5191,8 +5131,11 @@
       <c r="V15" s="3">
         <v>446105</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W15" s="8">
+        <v>446105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>55200</v>
       </c>
@@ -5259,8 +5202,11 @@
       <c r="V16" s="3">
         <v>3198275</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W16" s="8">
+        <v>3198275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>55200</v>
       </c>
@@ -5327,8 +5273,11 @@
       <c r="V17" s="3">
         <v>1545638</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W17" s="8">
+        <v>1545638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>55200</v>
       </c>
@@ -5395,8 +5344,11 @@
       <c r="V18" s="3">
         <v>3220084</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W18" s="8">
+        <v>3220084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>55200</v>
       </c>
@@ -5463,8 +5415,11 @@
       <c r="V19" s="3">
         <v>16088384</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W19" s="8">
+        <v>16088384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>55200</v>
       </c>
@@ -5531,8 +5486,11 @@
       <c r="V20" s="3">
         <v>6826026</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W20" s="8">
+        <v>6826026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>55200</v>
       </c>
@@ -5599,8 +5557,11 @@
       <c r="V21" s="3">
         <v>625019</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W21" s="8">
+        <v>625019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>55200</v>
       </c>
@@ -5667,8 +5628,11 @@
       <c r="V22" s="3">
         <v>3567779</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W22" s="8">
+        <v>3567779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>55200</v>
       </c>
@@ -5735,8 +5699,11 @@
       <c r="V23" s="3">
         <v>3657333</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W23" s="8">
+        <v>3657333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>55200</v>
       </c>
@@ -5803,8 +5770,11 @@
       <c r="V24" s="3">
         <v>452860</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W24" s="8">
+        <v>452860</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>55200</v>
       </c>
@@ -5871,8 +5841,11 @@
       <c r="V25" s="3">
         <v>8774489</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W25" s="8">
+        <v>8774489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>55200</v>
       </c>
@@ -5939,8 +5912,11 @@
       <c r="V26" s="3">
         <v>7440102</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W26" s="8">
+        <v>7440102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>55200</v>
       </c>
@@ -6007,8 +5983,11 @@
       <c r="V27" s="3">
         <v>9997909</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W27" s="8">
+        <v>9997909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>55200</v>
       </c>
@@ -6075,8 +6054,11 @@
       <c r="V28" s="3">
         <v>2963082</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W28" s="8">
+        <v>2963082</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>55200</v>
       </c>
@@ -6143,8 +6125,11 @@
       <c r="V29" s="3">
         <v>574440</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W29" s="8">
+        <v>574440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>55200</v>
       </c>
@@ -6211,8 +6196,11 @@
       <c r="V30" s="3">
         <v>11702001</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W30" s="8">
+        <v>11561127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>55200</v>
       </c>
@@ -6279,8 +6267,11 @@
       <c r="V31" s="3">
         <v>6943008</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W31" s="8">
+        <v>6943008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>55200</v>
       </c>
@@ -6347,8 +6338,11 @@
       <c r="V32" s="3">
         <v>7624044</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W32" s="8">
+        <v>7502106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>55200</v>
       </c>
@@ -6415,8 +6409,11 @@
       <c r="V33" s="3">
         <v>116715</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W33" s="8">
+        <v>116715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>55200</v>
       </c>
@@ -6483,8 +6480,11 @@
       <c r="V34" s="3">
         <v>6052067</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W34" s="8">
+        <v>6052067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>55200</v>
       </c>
@@ -6551,8 +6551,11 @@
       <c r="V35" s="3">
         <v>606904</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W35" s="8">
+        <v>606904</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>55200</v>
       </c>
@@ -6619,8 +6622,11 @@
       <c r="V36" s="3">
         <v>219649</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W36" s="8">
+        <v>219649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>55200</v>
       </c>
@@ -6687,8 +6693,11 @@
       <c r="V37" s="3">
         <v>2297155</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W37" s="8">
+        <v>2297155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>55200</v>
       </c>
@@ -6755,8 +6764,11 @@
       <c r="V38" s="3">
         <v>346485</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W38" s="8">
+        <v>346485</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>55200</v>
       </c>
@@ -6823,8 +6835,11 @@
       <c r="V39" s="3">
         <v>10026619</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W39" s="8">
+        <v>10026619</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>55200</v>
       </c>
@@ -6891,8 +6906,11 @@
       <c r="V40" s="3">
         <v>2112711</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W40" s="8">
+        <v>2112711</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>55200</v>
       </c>
@@ -6959,8 +6977,11 @@
       <c r="V41" s="3">
         <v>7873748</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W41" s="8">
+        <v>7873748</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>55200</v>
       </c>
@@ -7027,8 +7048,11 @@
       <c r="V42" s="3">
         <v>4807671</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W42" s="8">
+        <v>4807671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>55200</v>
       </c>
@@ -7095,8 +7119,11 @@
       <c r="V43" s="3">
         <v>7181469</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W43" s="8">
+        <v>7181469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>55200</v>
       </c>
@@ -7163,8 +7190,11 @@
       <c r="V44" s="3">
         <v>3252823</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W44" s="8">
+        <v>3252823</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>55200</v>
       </c>
@@ -7231,8 +7261,11 @@
       <c r="V45" s="3">
         <v>8150274</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W45" s="8">
+        <v>8150274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>55200</v>
       </c>
@@ -7299,8 +7332,11 @@
       <c r="V46" s="3">
         <v>1527468</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W46" s="8">
+        <v>1527468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>55200</v>
       </c>
@@ -7367,8 +7403,11 @@
       <c r="V47" s="3">
         <v>14220274</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W47" s="8">
+        <v>14220274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>55200</v>
       </c>
@@ -7435,8 +7474,11 @@
       <c r="V48" s="3">
         <v>5126430</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W48" s="8">
+        <v>5126430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>55200</v>
       </c>
@@ -7503,8 +7545,11 @@
       <c r="V49" s="3">
         <v>3059741</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W49" s="8">
+        <v>3059741</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>55200</v>
       </c>
@@ -7571,8 +7616,11 @@
       <c r="V50" s="3">
         <v>211975</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W50" s="8">
+        <v>211975</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>55200</v>
       </c>
@@ -7639,8 +7687,11 @@
       <c r="V51" s="3">
         <v>11279734</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W51" s="8">
+        <v>11279734</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>55200</v>
       </c>
@@ -7707,8 +7758,11 @@
       <c r="V52" s="3">
         <v>3214771</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W52" s="8">
+        <v>3214771</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>55200</v>
       </c>
@@ -7775,8 +7829,11 @@
       <c r="V53" s="3">
         <v>7333775</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W53" s="8">
+        <v>7333775</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>55200</v>
       </c>
@@ -7843,8 +7900,11 @@
       <c r="V54" s="3">
         <v>186526</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W54" s="8">
+        <v>186526</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>55200</v>
       </c>
@@ -7911,8 +7971,11 @@
       <c r="V55" s="3">
         <v>2698256</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W55" s="8">
+        <v>2698256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>55200</v>
       </c>
@@ -7963,8 +8026,9 @@
       <c r="T56" s="5"/>
       <c r="U56" s="10"/>
       <c r="V56" s="5"/>
-    </row>
-    <row r="57" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W56" s="10"/>
+    </row>
+    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>55200</v>
       </c>
@@ -8031,8 +8095,11 @@
       <c r="V57" s="3">
         <v>20445427</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W57" s="8">
+        <v>18876047</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>55200</v>
       </c>
@@ -8099,8 +8166,11 @@
       <c r="V58" s="3">
         <v>859909</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W58" s="8">
+        <v>859909</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>55200</v>
       </c>
@@ -8167,8 +8237,11 @@
       <c r="V59" s="3">
         <v>12183710</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W59" s="8">
+        <v>3482511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
         <v>55200</v>
       </c>
@@ -8235,8 +8308,11 @@
       <c r="V60" s="3">
         <v>384530</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W60" s="8">
+        <v>384530</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>55200</v>
       </c>
@@ -8303,8 +8379,11 @@
       <c r="V61" s="3">
         <v>6669710</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W61" s="8">
+        <v>6669710</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>55200</v>
       </c>
@@ -8371,8 +8450,11 @@
       <c r="V62" s="3">
         <v>1383358</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W62" s="8">
+        <v>1383358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>55200</v>
       </c>
@@ -8439,8 +8521,11 @@
       <c r="V63" s="3">
         <v>14291971</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W63" s="8">
+        <v>14291971</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>55200</v>
       </c>
@@ -8507,8 +8592,11 @@
       <c r="V64" s="3">
         <v>1071555</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W64" s="8">
+        <v>1071555</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>55200</v>
       </c>
@@ -8575,8 +8663,11 @@
       <c r="V65" s="3">
         <v>1488640</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W65" s="8">
+        <v>1488640</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>55200</v>
       </c>
@@ -8643,8 +8734,11 @@
       <c r="V66" s="3">
         <v>169668</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W66" s="8">
+        <v>169668</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>55200</v>
       </c>
@@ -8711,8 +8805,11 @@
       <c r="V67" s="3">
         <v>9175771</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W67" s="8">
+        <v>9175771</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>55200</v>
       </c>
@@ -8779,8 +8876,11 @@
       <c r="V68" s="3">
         <v>489417</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W68" s="8">
+        <v>489417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>55200</v>
       </c>
@@ -8847,8 +8947,11 @@
       <c r="V69" s="3">
         <v>11821251</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W69" s="8">
+        <v>11821251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>55200</v>
       </c>
@@ -8915,8 +9018,11 @@
       <c r="V70" s="3">
         <v>6046234</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W70" s="8">
+        <v>6046234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
         <v>55200</v>
       </c>
@@ -8983,8 +9089,11 @@
       <c r="V71" s="3">
         <v>5155688</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W71" s="8">
+        <v>5155688</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
         <v>55200</v>
       </c>
@@ -9051,8 +9160,11 @@
       <c r="V72" s="3">
         <v>676359</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W72" s="8">
+        <v>676359</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
         <v>55200</v>
       </c>
@@ -9119,8 +9231,11 @@
       <c r="V73" s="3">
         <v>10722387</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W73" s="8">
+        <v>10533923</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
         <v>55200</v>
       </c>
@@ -9187,8 +9302,11 @@
       <c r="V74" s="3">
         <v>4195281</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W74" s="8">
+        <v>4195281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>55200</v>
       </c>
@@ -9255,8 +9373,11 @@
       <c r="V75" s="3">
         <v>5039738</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W75" s="8">
+        <v>5039738</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>55200</v>
       </c>
@@ -9323,8 +9444,11 @@
       <c r="V76" s="3">
         <v>1881229</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W76" s="8">
+        <v>1881229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
         <v>55200</v>
       </c>
@@ -9391,8 +9515,11 @@
       <c r="V77" s="3">
         <v>4913610</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W77" s="8">
+        <v>4913610</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
         <v>55200</v>
       </c>
@@ -9459,8 +9586,11 @@
       <c r="V78" s="3">
         <v>1993428</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W78" s="8">
+        <v>1993428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
         <v>55200</v>
       </c>
@@ -9527,8 +9657,11 @@
       <c r="V79" s="3">
         <v>8331641</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W79" s="8">
+        <v>8331641</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
         <v>55200</v>
       </c>
@@ -9595,8 +9728,11 @@
       <c r="V80" s="3">
         <v>404647</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W80" s="8">
+        <v>404647</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
         <v>55200</v>
       </c>
@@ -9663,8 +9799,11 @@
       <c r="V81" s="3">
         <v>9518042</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W81" s="8">
+        <v>9518042</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <v>55200</v>
       </c>
@@ -9731,8 +9870,11 @@
       <c r="V82" s="3">
         <v>1631323</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W82" s="8">
+        <v>1631323</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="14">
         <v>55200</v>
       </c>
@@ -9799,8 +9941,11 @@
       <c r="V83" s="3">
         <v>15442724</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W83" s="8">
+        <v>15442724</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="14">
         <v>55200</v>
       </c>
@@ -9867,8 +10012,11 @@
       <c r="V84" s="3">
         <v>3480280</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W84" s="8">
+        <v>3480280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="14">
         <v>55200</v>
       </c>
@@ -9935,8 +10083,11 @@
       <c r="V85" s="3">
         <v>4570803</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W85" s="8">
+        <v>4570803</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
         <v>55200</v>
       </c>
@@ -10003,8 +10154,11 @@
       <c r="V86" s="3">
         <v>1329942</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W86" s="8">
+        <v>1329942</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
         <v>55200</v>
       </c>
@@ -10071,8 +10225,11 @@
       <c r="V87" s="3">
         <v>3805119</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W87" s="8">
+        <v>3805119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
         <v>55200</v>
       </c>
@@ -10139,8 +10296,11 @@
       <c r="V88" s="3">
         <v>6074256</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W88" s="8">
+        <v>6074256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="14">
         <v>55210</v>
       </c>
@@ -10207,8 +10367,11 @@
       <c r="V89" s="3">
         <v>363314</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W89" s="8">
+        <v>363314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="14">
         <v>55210</v>
       </c>
@@ -10275,8 +10438,11 @@
       <c r="V90" s="3">
         <v>3002341</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W90" s="8">
+        <v>3002341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
         <v>55210</v>
       </c>
@@ -10343,8 +10509,11 @@
       <c r="V91" s="3">
         <v>96143</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W91" s="8">
+        <v>96143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
         <v>55210</v>
       </c>
@@ -10411,8 +10580,11 @@
       <c r="V92" s="3">
         <v>1036437</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W92" s="8">
+        <v>1036437</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="14">
         <v>55210</v>
       </c>
@@ -10479,8 +10651,11 @@
       <c r="V93" s="3">
         <v>1325974</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W93" s="8">
+        <v>1325974</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
         <v>55210</v>
       </c>
@@ -10547,8 +10722,11 @@
       <c r="V94" s="3">
         <v>2041585</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W94" s="8">
+        <v>2041585</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
         <v>55210</v>
       </c>
@@ -10607,8 +10785,9 @@
       <c r="T95" s="5"/>
       <c r="U95" s="10"/>
       <c r="V95" s="5"/>
-    </row>
-    <row r="96" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W95" s="10"/>
+    </row>
+    <row r="96" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <v>55210</v>
       </c>
@@ -10675,8 +10854,11 @@
       <c r="V96" s="3">
         <v>1949212</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W96" s="8">
+        <v>1949212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
         <v>55210</v>
       </c>
@@ -10743,8 +10925,11 @@
       <c r="V97" s="3">
         <v>3210752</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W97" s="8">
+        <v>3210752</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
         <v>55210</v>
       </c>
@@ -10811,8 +10996,11 @@
       <c r="V98" s="3">
         <v>70248</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W98" s="8">
+        <v>70248</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="14">
         <v>55210</v>
       </c>
@@ -10879,8 +11067,11 @@
       <c r="V99" s="3">
         <v>1827874</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W99" s="8">
+        <v>1827874</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
         <v>55210</v>
       </c>
@@ -10935,8 +11126,9 @@
       <c r="T100" s="5"/>
       <c r="U100" s="10"/>
       <c r="V100" s="5"/>
-    </row>
-    <row r="101" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W100" s="10"/>
+    </row>
+    <row r="101" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="14">
         <v>55210</v>
       </c>
@@ -11003,8 +11195,11 @@
       <c r="V101" s="3">
         <v>4013692</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W101" s="8">
+        <v>4013692</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="14">
         <v>55210</v>
       </c>
@@ -11039,8 +11234,9 @@
       <c r="T102" s="5"/>
       <c r="U102" s="10"/>
       <c r="V102" s="5"/>
-    </row>
-    <row r="103" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W102" s="10"/>
+    </row>
+    <row r="103" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="14">
         <v>55210</v>
       </c>
@@ -11107,8 +11303,11 @@
       <c r="V103" s="3">
         <v>3410119</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W103" s="8">
+        <v>3410119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="14">
         <v>55210</v>
       </c>
@@ -11175,8 +11374,11 @@
       <c r="V104" s="3">
         <v>1168162</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W104" s="8">
+        <v>1168162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="14">
         <v>55210</v>
       </c>
@@ -11243,8 +11445,11 @@
       <c r="V105" s="3">
         <v>1062693</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W105" s="8">
+        <v>1062693</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="14">
         <v>55210</v>
       </c>
@@ -11303,8 +11508,9 @@
       <c r="T106" s="5"/>
       <c r="U106" s="10"/>
       <c r="V106" s="5"/>
-    </row>
-    <row r="107" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W106" s="10"/>
+    </row>
+    <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="14">
         <v>55210</v>
       </c>
@@ -11371,8 +11577,11 @@
       <c r="V107" s="3">
         <v>2216601</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W107" s="8">
+        <v>2216601</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="14">
         <v>55210</v>
       </c>
@@ -11437,8 +11646,9 @@
         <v>91539</v>
       </c>
       <c r="V108" s="5"/>
-    </row>
-    <row r="109" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W108" s="10"/>
+    </row>
+    <row r="109" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
         <v>55210</v>
       </c>
@@ -11505,8 +11715,11 @@
       <c r="V109" s="3">
         <v>323538</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W109" s="8">
+        <v>323538</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
         <v>55210</v>
       </c>
@@ -11573,8 +11786,11 @@
       <c r="V110" s="3">
         <v>19890</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W110" s="8">
+        <v>19890</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="14">
         <v>55210</v>
       </c>
@@ -11641,8 +11857,11 @@
       <c r="V111" s="3">
         <v>2866200</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W111" s="8">
+        <v>2866200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="14">
         <v>55210</v>
       </c>
@@ -11709,8 +11928,11 @@
       <c r="V112" s="3">
         <v>106149</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W112" s="8">
+        <v>106149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="14">
         <v>55210</v>
       </c>
@@ -11777,8 +11999,11 @@
       <c r="V113" s="3">
         <v>6860378</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W113" s="8">
+        <v>6860378</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="14">
         <v>55210</v>
       </c>
@@ -11845,8 +12070,11 @@
       <c r="V114" s="3">
         <v>21192</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W114" s="8">
+        <v>21192</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="14">
         <v>55220</v>
       </c>
@@ -11913,8 +12141,11 @@
       <c r="V115" s="3">
         <v>4061770</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W115" s="8">
+        <v>4061770</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="14">
         <v>55220</v>
       </c>
@@ -11981,8 +12212,11 @@
       <c r="V116" s="3">
         <v>2369664</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W116" s="8">
+        <v>2369664</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="14">
         <v>55220</v>
       </c>
@@ -12049,8 +12283,11 @@
       <c r="V117" s="3">
         <v>2434284</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W117" s="8">
+        <v>2434284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
         <v>55220</v>
       </c>
@@ -12117,8 +12354,11 @@
       <c r="V118" s="3">
         <v>3675534</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W118" s="8">
+        <v>3675534</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
         <v>55220</v>
       </c>
@@ -12173,8 +12413,9 @@
       <c r="T119" s="5"/>
       <c r="U119" s="10"/>
       <c r="V119" s="5"/>
-    </row>
-    <row r="120" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W119" s="10"/>
+    </row>
+    <row r="120" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="14">
         <v>55220</v>
       </c>
@@ -12241,8 +12482,11 @@
       <c r="V120" s="3">
         <v>2952147</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W120" s="8">
+        <v>2943702</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="14">
         <v>55220</v>
       </c>
@@ -12309,8 +12553,11 @@
       <c r="V121" s="3">
         <v>932108</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W121" s="8">
+        <v>932108</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="14">
         <v>55220</v>
       </c>
@@ -12377,8 +12624,11 @@
       <c r="V122" s="3">
         <v>915759</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W122" s="8">
+        <v>915759</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="14">
         <v>55220</v>
       </c>
@@ -12445,8 +12695,11 @@
       <c r="V123" s="3">
         <v>16834329</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W123" s="8">
+        <v>16834329</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
         <v>55220</v>
       </c>
@@ -12513,8 +12766,11 @@
       <c r="V124" s="3">
         <v>629650</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W124" s="8">
+        <v>629650</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="14">
         <v>55220</v>
       </c>
@@ -12581,8 +12837,11 @@
       <c r="V125" s="3">
         <v>2510037</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W125" s="8">
+        <v>2510037</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="14">
         <v>55220</v>
       </c>
@@ -12649,8 +12908,11 @@
       <c r="V126" s="3">
         <v>1198791</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W126" s="8">
+        <v>1198791</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="14">
         <v>55220</v>
       </c>
@@ -12717,8 +12979,11 @@
       <c r="V127" s="3">
         <v>1031925</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W127" s="8">
+        <v>1031925</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="14">
         <v>55220</v>
       </c>
@@ -12785,8 +13050,11 @@
       <c r="V128" s="3">
         <v>1663663</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W128" s="8">
+        <v>1663663</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="14">
         <v>55220</v>
       </c>
@@ -12853,8 +13121,11 @@
       <c r="V129" s="3">
         <v>6019412</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W129" s="8">
+        <v>6019412</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="14">
         <v>55220</v>
       </c>
@@ -12921,8 +13192,11 @@
       <c r="V130" s="3">
         <v>3082720</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W130" s="8">
+        <v>3082720</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="14">
         <v>55230</v>
       </c>
@@ -12989,8 +13263,11 @@
       <c r="V131" s="3">
         <v>2923262</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W131" s="8">
+        <v>2923262</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
         <v>55230</v>
       </c>
@@ -13057,8 +13334,11 @@
       <c r="V132" s="3">
         <v>248669</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W132" s="8">
+        <v>248669</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
         <v>55230</v>
       </c>
@@ -13125,8 +13405,11 @@
       <c r="V133" s="3">
         <v>173333</v>
       </c>
-    </row>
-    <row r="134" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W133" s="8">
+        <v>173333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="14">
         <v>55230</v>
       </c>
@@ -13161,8 +13444,9 @@
       <c r="T134" s="5"/>
       <c r="U134" s="10"/>
       <c r="V134" s="5"/>
-    </row>
-    <row r="135" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W134" s="10"/>
+    </row>
+    <row r="135" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="14">
         <v>55230</v>
       </c>
@@ -13229,8 +13513,11 @@
       <c r="V135" s="3">
         <v>3565122</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W135" s="8">
+        <v>3565122</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="14">
         <v>55230</v>
       </c>
@@ -13297,8 +13584,11 @@
       <c r="V136" s="3">
         <v>2450315</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W136" s="8">
+        <v>2450315</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
         <v>55230</v>
       </c>
@@ -13365,8 +13655,11 @@
       <c r="V137" s="3">
         <v>6006689</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W137" s="8">
+        <v>6006689</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="14">
         <v>55230</v>
       </c>
@@ -13433,8 +13726,11 @@
       <c r="V138" s="3">
         <v>5483173</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W138" s="8">
+        <v>5483173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
         <v>55230</v>
       </c>
@@ -13501,8 +13797,11 @@
       <c r="V139" s="3">
         <v>1883232</v>
       </c>
-    </row>
-    <row r="140" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W139" s="8">
+        <v>1883232</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="14">
         <v>55230</v>
       </c>
@@ -13569,8 +13868,11 @@
       <c r="V140" s="3">
         <v>19692</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W140" s="8">
+        <v>19692</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="14">
         <v>55230</v>
       </c>
@@ -13637,8 +13939,11 @@
       <c r="V141" s="3">
         <v>2754487</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W141" s="8">
+        <v>2754487</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="14">
         <v>55230</v>
       </c>
@@ -13705,8 +14010,11 @@
       <c r="V142" s="3">
         <v>390451</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W142" s="8">
+        <v>390451</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="14">
         <v>55230</v>
       </c>
@@ -13773,8 +14081,11 @@
       <c r="V143" s="3">
         <v>6076221</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W143" s="8">
+        <v>6076221</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="14">
         <v>55230</v>
       </c>
@@ -13841,8 +14152,11 @@
       <c r="V144" s="3">
         <v>820661</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W144" s="8">
+        <v>820661</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="14">
         <v>55230</v>
       </c>
@@ -13909,8 +14223,11 @@
       <c r="V145" s="3">
         <v>6144072</v>
       </c>
-    </row>
-    <row r="146" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W145" s="8">
+        <v>6144072</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="14">
         <v>55230</v>
       </c>
@@ -13977,8 +14294,11 @@
       <c r="V146" s="3">
         <v>386205</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W146" s="8">
+        <v>386205</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="14">
         <v>55230</v>
       </c>
@@ -14045,8 +14365,11 @@
       <c r="V147" s="3">
         <v>4386886</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W147" s="8">
+        <v>4386886</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="14">
         <v>55230</v>
       </c>
@@ -14113,8 +14436,11 @@
       <c r="V148" s="3">
         <v>127212</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W148" s="8">
+        <v>127212</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="14">
         <v>55230</v>
       </c>
@@ -14181,8 +14507,11 @@
       <c r="V149" s="3">
         <v>11886801</v>
       </c>
-    </row>
-    <row r="150" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W149" s="8">
+        <v>11886801</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="14">
         <v>55230</v>
       </c>
@@ -14249,8 +14578,11 @@
       <c r="V150" s="3">
         <v>17240735</v>
       </c>
-    </row>
-    <row r="151" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W150" s="8">
+        <v>17240735</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="14">
         <v>55230</v>
       </c>
@@ -14317,8 +14649,11 @@
       <c r="V151" s="3">
         <v>37363</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W151" s="8">
+        <v>37363</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="14">
         <v>55230</v>
       </c>
@@ -14385,8 +14720,11 @@
       <c r="V152" s="3">
         <v>7392576</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W152" s="8">
+        <v>7392576</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="14">
         <v>55230</v>
       </c>
@@ -14453,8 +14791,11 @@
       <c r="V153" s="3">
         <v>2208908</v>
       </c>
-    </row>
-    <row r="154" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W153" s="8">
+        <v>2208908</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="14">
         <v>55230</v>
       </c>
@@ -14521,8 +14862,11 @@
       <c r="V154" s="3">
         <v>6272616</v>
       </c>
-    </row>
-    <row r="155" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W154" s="8">
+        <v>6272616</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="14">
         <v>55230</v>
       </c>
@@ -14589,8 +14933,11 @@
       <c r="V155" s="3">
         <v>1595530</v>
       </c>
-    </row>
-    <row r="156" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W155" s="8">
+        <v>1595530</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="14">
         <v>55230</v>
       </c>
@@ -14657,8 +15004,11 @@
       <c r="V156" s="3">
         <v>14637754</v>
       </c>
-    </row>
-    <row r="157" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W156" s="8">
+        <v>14498015</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="14">
         <v>55230</v>
       </c>
@@ -14725,8 +15075,11 @@
       <c r="V157" s="3">
         <v>2404093</v>
       </c>
-    </row>
-    <row r="158" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W157" s="8">
+        <v>2404093</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="14">
         <v>55230</v>
       </c>
@@ -14793,8 +15146,11 @@
       <c r="V158" s="3">
         <v>2543137</v>
       </c>
-    </row>
-    <row r="159" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W158" s="8">
+        <v>2543137</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="14">
         <v>55230</v>
       </c>
@@ -14861,8 +15217,11 @@
       <c r="V159" s="3">
         <v>56822</v>
       </c>
-    </row>
-    <row r="160" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W159" s="8">
+        <v>56822</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="14">
         <v>55230</v>
       </c>
@@ -14929,8 +15288,11 @@
       <c r="V160" s="3">
         <v>9828492</v>
       </c>
-    </row>
-    <row r="161" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W160" s="8">
+        <v>9828492</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="14">
         <v>55230</v>
       </c>
@@ -14997,8 +15359,11 @@
       <c r="V161" s="3">
         <v>9945709</v>
       </c>
-    </row>
-    <row r="162" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W161" s="8">
+        <v>9945709</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="14">
         <v>55230</v>
       </c>
@@ -15065,8 +15430,11 @@
       <c r="V162" s="3">
         <v>7046699</v>
       </c>
-    </row>
-    <row r="163" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W162" s="8">
+        <v>7046699</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="14">
         <v>55230</v>
       </c>
@@ -15133,8 +15501,11 @@
       <c r="V163" s="3">
         <v>2110794</v>
       </c>
-    </row>
-    <row r="164" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W163" s="8">
+        <v>2110794</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="14">
         <v>55230</v>
       </c>
@@ -15201,8 +15572,11 @@
       <c r="V164" s="3">
         <v>6219881</v>
       </c>
-    </row>
-    <row r="165" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W164" s="8">
+        <v>6219881</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="14">
         <v>55230</v>
       </c>
@@ -15269,8 +15643,11 @@
       <c r="V165" s="3">
         <v>82305</v>
       </c>
-    </row>
-    <row r="166" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W165" s="8">
+        <v>82305</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="14">
         <v>55230</v>
       </c>
@@ -15337,8 +15714,11 @@
       <c r="V166" s="3">
         <v>1109543</v>
       </c>
-    </row>
-    <row r="167" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W166" s="8">
+        <v>1109543</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="14">
         <v>55230</v>
       </c>
@@ -15397,8 +15777,9 @@
       <c r="T167" s="5"/>
       <c r="U167" s="10"/>
       <c r="V167" s="5"/>
-    </row>
-    <row r="168" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W167" s="10"/>
+    </row>
+    <row r="168" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="14">
         <v>55230</v>
       </c>
@@ -15465,8 +15846,11 @@
       <c r="V168" s="3">
         <v>9099907</v>
       </c>
-    </row>
-    <row r="169" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W168" s="8">
+        <v>9099907</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="14">
         <v>55230</v>
       </c>
@@ -15533,8 +15917,11 @@
       <c r="V169" s="3">
         <v>2849630</v>
       </c>
-    </row>
-    <row r="170" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W169" s="8">
+        <v>2849630</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="14">
         <v>55230</v>
       </c>
@@ -15601,8 +15988,11 @@
       <c r="V170" s="3">
         <v>1859139</v>
       </c>
-    </row>
-    <row r="171" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W170" s="8">
+        <v>1859139</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="14">
         <v>55230</v>
       </c>
@@ -15661,8 +16051,9 @@
       <c r="T171" s="5"/>
       <c r="U171" s="10"/>
       <c r="V171" s="5"/>
-    </row>
-    <row r="172" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W171" s="10"/>
+    </row>
+    <row r="172" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="14">
         <v>55230</v>
       </c>
@@ -15729,8 +16120,11 @@
       <c r="V172" s="3">
         <v>5334967</v>
       </c>
-    </row>
-    <row r="173" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W172" s="8">
+        <v>5334967</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="14">
         <v>55230</v>
       </c>
@@ -15797,8 +16191,11 @@
       <c r="V173" s="3">
         <v>5625305</v>
       </c>
-    </row>
-    <row r="174" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W173" s="8">
+        <v>5625305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="14">
         <v>55230</v>
       </c>
@@ -15861,8 +16258,9 @@
       </c>
       <c r="U174" s="10"/>
       <c r="V174" s="5"/>
-    </row>
-    <row r="175" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W174" s="10"/>
+    </row>
+    <row r="175" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="14">
         <v>55230</v>
       </c>
@@ -15921,8 +16319,9 @@
       <c r="T175" s="5"/>
       <c r="U175" s="10"/>
       <c r="V175" s="5"/>
-    </row>
-    <row r="176" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W175" s="10"/>
+    </row>
+    <row r="176" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="14">
         <v>55230</v>
       </c>
@@ -15989,8 +16388,11 @@
       <c r="V176" s="3">
         <v>5212021</v>
       </c>
-    </row>
-    <row r="177" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W176" s="8">
+        <v>5212021</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="14">
         <v>55230</v>
       </c>
@@ -16057,8 +16459,11 @@
       <c r="V177" s="3">
         <v>244131</v>
       </c>
-    </row>
-    <row r="178" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W177" s="8">
+        <v>244131</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="14">
         <v>55230</v>
       </c>
@@ -16125,8 +16530,11 @@
       <c r="V178" s="3">
         <v>1967651</v>
       </c>
-    </row>
-    <row r="179" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W178" s="8">
+        <v>1967651</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="14">
         <v>55230</v>
       </c>
@@ -16193,8 +16601,11 @@
       <c r="V179" s="3">
         <v>586096</v>
       </c>
-    </row>
-    <row r="180" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W179" s="8">
+        <v>586096</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="14">
         <v>55230</v>
       </c>
@@ -16261,8 +16672,11 @@
       <c r="V180" s="3">
         <v>1704556</v>
       </c>
-    </row>
-    <row r="181" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W180" s="8">
+        <v>1704556</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="14">
         <v>55230</v>
       </c>
@@ -16329,8 +16743,11 @@
       <c r="V181" s="3">
         <v>6231835</v>
       </c>
-    </row>
-    <row r="182" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W181" s="8">
+        <v>6231835</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="14">
         <v>55230</v>
       </c>
@@ -16397,8 +16814,11 @@
       <c r="V182" s="3">
         <v>215860</v>
       </c>
-    </row>
-    <row r="183" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W182" s="8">
+        <v>215860</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="14">
         <v>55230</v>
       </c>
@@ -16465,8 +16885,11 @@
       <c r="V183" s="3">
         <v>2271867</v>
       </c>
-    </row>
-    <row r="184" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W183" s="8">
+        <v>2271867</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="14">
         <v>55230</v>
       </c>
@@ -16505,8 +16928,9 @@
       <c r="T184" s="5"/>
       <c r="U184" s="10"/>
       <c r="V184" s="5"/>
-    </row>
-    <row r="185" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W184" s="10"/>
+    </row>
+    <row r="185" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="14">
         <v>55230</v>
       </c>
@@ -16573,8 +16997,11 @@
       <c r="V185" s="3">
         <v>537941</v>
       </c>
-    </row>
-    <row r="186" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W185" s="8">
+        <v>537941</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="14">
         <v>55230</v>
       </c>
@@ -16641,8 +17068,11 @@
       <c r="V186" s="3">
         <v>143194</v>
       </c>
-    </row>
-    <row r="187" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W186" s="8">
+        <v>143194</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="14">
         <v>55230</v>
       </c>
@@ -16709,8 +17139,11 @@
       <c r="V187" s="3">
         <v>1981595</v>
       </c>
-    </row>
-    <row r="188" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W187" s="8">
+        <v>1981595</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="14">
         <v>55230</v>
       </c>
@@ -16777,11 +17210,14 @@
       <c r="V188" s="3">
         <v>369382</v>
       </c>
-    </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W188" s="8">
+        <v>369382</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
@@ -17348,13 +17784,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Lembar3"/>
-  <dimension ref="A1:V187"/>
+  <dimension ref="A1:W187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V187" activeCellId="1" sqref="C4:E187 V4:V187"/>
+      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17363,17 +17799,17 @@
     <col min="21" max="21" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -17437,11 +17873,14 @@
       <c r="U4" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="48" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W4" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>55200</v>
       </c>
@@ -17505,11 +17944,14 @@
       <c r="U5" s="45">
         <v>5</v>
       </c>
-      <c r="V5" s="52">
+      <c r="V5" s="49">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>55200</v>
       </c>
@@ -17573,11 +18015,14 @@
       <c r="U6" s="45">
         <v>1</v>
       </c>
-      <c r="V6" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V6" s="49">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>55200</v>
       </c>
@@ -17641,11 +18086,14 @@
       <c r="U7" s="45">
         <v>116</v>
       </c>
-      <c r="V7" s="52">
+      <c r="V7" s="49">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W7" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>55200</v>
       </c>
@@ -17709,11 +18157,14 @@
       <c r="U8" s="45">
         <v>12</v>
       </c>
-      <c r="V8" s="52">
+      <c r="V8" s="49">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W8" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>55200</v>
       </c>
@@ -17777,11 +18228,14 @@
       <c r="U9" s="45">
         <v>16</v>
       </c>
-      <c r="V9" s="52">
+      <c r="V9" s="49">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W9" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>55200</v>
       </c>
@@ -17845,11 +18299,14 @@
       <c r="U10" s="45">
         <v>3</v>
       </c>
-      <c r="V10" s="52">
+      <c r="V10" s="49">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>55200</v>
       </c>
@@ -17913,11 +18370,14 @@
       <c r="U11" s="45">
         <v>18</v>
       </c>
-      <c r="V11" s="52">
+      <c r="V11" s="49">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W11" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>55200</v>
       </c>
@@ -17963,9 +18423,10 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="46"/>
-      <c r="V12" s="53"/>
-    </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V12" s="50"/>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>55200</v>
       </c>
@@ -18029,11 +18490,14 @@
       <c r="U13" s="45">
         <v>44</v>
       </c>
-      <c r="V13" s="52">
+      <c r="V13" s="49">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W13" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>55200</v>
       </c>
@@ -18097,11 +18561,14 @@
       <c r="U14" s="45">
         <v>4</v>
       </c>
-      <c r="V14" s="52">
+      <c r="V14" s="49">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W14" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>55200</v>
       </c>
@@ -18165,11 +18632,14 @@
       <c r="U15" s="45">
         <v>56</v>
       </c>
-      <c r="V15" s="52">
+      <c r="V15" s="49">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W15" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>55200</v>
       </c>
@@ -18233,11 +18703,14 @@
       <c r="U16" s="45">
         <v>7</v>
       </c>
-      <c r="V16" s="52">
+      <c r="V16" s="49">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W16" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>55200</v>
       </c>
@@ -18301,11 +18774,14 @@
       <c r="U17" s="45">
         <v>60</v>
       </c>
-      <c r="V17" s="52">
+      <c r="V17" s="49">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W17" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>55200</v>
       </c>
@@ -18369,11 +18845,14 @@
       <c r="U18" s="45">
         <v>1</v>
       </c>
-      <c r="V18" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V18" s="49">
+        <v>1</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>55200</v>
       </c>
@@ -18437,11 +18916,14 @@
       <c r="U19" s="45">
         <v>51</v>
       </c>
-      <c r="V19" s="52">
+      <c r="V19" s="49">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W19" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>55200</v>
       </c>
@@ -18505,11 +18987,14 @@
       <c r="U20" s="45">
         <v>3</v>
       </c>
-      <c r="V20" s="52">
+      <c r="V20" s="49">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>55200</v>
       </c>
@@ -18573,11 +19058,14 @@
       <c r="U21" s="45">
         <v>38</v>
       </c>
-      <c r="V21" s="52">
+      <c r="V21" s="49">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W21" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>55200</v>
       </c>
@@ -18641,11 +19129,14 @@
       <c r="U22" s="45">
         <v>58</v>
       </c>
-      <c r="V22" s="52">
+      <c r="V22" s="49">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W22" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>55200</v>
       </c>
@@ -18709,11 +19200,14 @@
       <c r="U23" s="45">
         <v>2</v>
       </c>
-      <c r="V23" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V23" s="49">
+        <v>2</v>
+      </c>
+      <c r="W23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>55200</v>
       </c>
@@ -18777,11 +19271,14 @@
       <c r="U24" s="45">
         <v>51</v>
       </c>
-      <c r="V24" s="52">
+      <c r="V24" s="49">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W24" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>55200</v>
       </c>
@@ -18845,11 +19342,14 @@
       <c r="U25" s="45">
         <v>4</v>
       </c>
-      <c r="V25" s="52">
+      <c r="V25" s="49">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>55200</v>
       </c>
@@ -18913,11 +19413,14 @@
       <c r="U26" s="45">
         <v>22</v>
       </c>
-      <c r="V26" s="52">
+      <c r="V26" s="49">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W26" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>55200</v>
       </c>
@@ -18981,11 +19484,14 @@
       <c r="U27" s="45">
         <v>2</v>
       </c>
-      <c r="V27" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V27" s="49">
+        <v>2</v>
+      </c>
+      <c r="W27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>55200</v>
       </c>
@@ -19049,11 +19555,14 @@
       <c r="U28" s="45">
         <v>1</v>
       </c>
-      <c r="V28" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V28" s="49">
+        <v>1</v>
+      </c>
+      <c r="W28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>55200</v>
       </c>
@@ -19117,11 +19626,14 @@
       <c r="U29" s="45">
         <v>34</v>
       </c>
-      <c r="V29" s="52">
+      <c r="V29" s="49">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W29" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>55200</v>
       </c>
@@ -19185,11 +19697,14 @@
       <c r="U30" s="45">
         <v>7</v>
       </c>
-      <c r="V30" s="52">
+      <c r="V30" s="49">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W30" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>55200</v>
       </c>
@@ -19253,11 +19768,14 @@
       <c r="U31" s="45">
         <v>46</v>
       </c>
-      <c r="V31" s="52">
+      <c r="V31" s="49">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W31" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>55200</v>
       </c>
@@ -19321,11 +19839,14 @@
       <c r="U32" s="45">
         <v>2</v>
       </c>
-      <c r="V32" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V32" s="49">
+        <v>2</v>
+      </c>
+      <c r="W32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>55200</v>
       </c>
@@ -19389,11 +19910,14 @@
       <c r="U33" s="45">
         <v>43</v>
       </c>
-      <c r="V33" s="52">
+      <c r="V33" s="49">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W33" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>55200</v>
       </c>
@@ -19457,11 +19981,14 @@
       <c r="U34" s="45">
         <v>6</v>
       </c>
-      <c r="V34" s="52">
+      <c r="V34" s="49">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W34" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>55200</v>
       </c>
@@ -19525,11 +20052,14 @@
       <c r="U35" s="45">
         <v>2</v>
       </c>
-      <c r="V35" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V35" s="49">
+        <v>2</v>
+      </c>
+      <c r="W35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>55200</v>
       </c>
@@ -19593,11 +20123,14 @@
       <c r="U36" s="45">
         <v>31</v>
       </c>
-      <c r="V36" s="52">
+      <c r="V36" s="49">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W36" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>55200</v>
       </c>
@@ -19661,11 +20194,14 @@
       <c r="U37" s="45">
         <v>3</v>
       </c>
-      <c r="V37" s="52">
+      <c r="V37" s="49">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>55200</v>
       </c>
@@ -19729,11 +20265,14 @@
       <c r="U38" s="45">
         <v>59</v>
       </c>
-      <c r="V38" s="52">
+      <c r="V38" s="49">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W38" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>55200</v>
       </c>
@@ -19797,11 +20336,14 @@
       <c r="U39" s="45">
         <v>3</v>
       </c>
-      <c r="V39" s="52">
+      <c r="V39" s="49">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W39" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>55200</v>
       </c>
@@ -19865,11 +20407,14 @@
       <c r="U40" s="45">
         <v>73</v>
       </c>
-      <c r="V40" s="52">
+      <c r="V40" s="49">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W40" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>55200</v>
       </c>
@@ -19933,11 +20478,14 @@
       <c r="U41" s="45">
         <v>18</v>
       </c>
-      <c r="V41" s="52">
+      <c r="V41" s="49">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W41" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>55200</v>
       </c>
@@ -20001,11 +20549,14 @@
       <c r="U42" s="45">
         <v>46</v>
       </c>
-      <c r="V42" s="52">
+      <c r="V42" s="49">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W42" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>55200</v>
       </c>
@@ -20069,11 +20620,14 @@
       <c r="U43" s="45">
         <v>5</v>
       </c>
-      <c r="V43" s="52">
+      <c r="V43" s="49">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W43" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>55200</v>
       </c>
@@ -20137,11 +20691,14 @@
       <c r="U44" s="45">
         <v>93</v>
       </c>
-      <c r="V44" s="52">
+      <c r="V44" s="49">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W44" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>55200</v>
       </c>
@@ -20205,11 +20762,14 @@
       <c r="U45" s="45">
         <v>6</v>
       </c>
-      <c r="V45" s="52">
+      <c r="V45" s="49">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W45" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>55200</v>
       </c>
@@ -20273,11 +20833,14 @@
       <c r="U46" s="45">
         <v>108</v>
       </c>
-      <c r="V46" s="52">
+      <c r="V46" s="49">
         <v>105</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W46" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>55200</v>
       </c>
@@ -20341,11 +20904,14 @@
       <c r="U47" s="45">
         <v>18</v>
       </c>
-      <c r="V47" s="52">
+      <c r="V47" s="49">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W47" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>55200</v>
       </c>
@@ -20409,11 +20975,14 @@
       <c r="U48" s="45">
         <v>25</v>
       </c>
-      <c r="V48" s="52">
+      <c r="V48" s="49">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W48" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>55200</v>
       </c>
@@ -20477,11 +21046,14 @@
       <c r="U49" s="45">
         <v>2</v>
       </c>
-      <c r="V49" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V49" s="49">
+        <v>2</v>
+      </c>
+      <c r="W49" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>55200</v>
       </c>
@@ -20545,11 +21117,14 @@
       <c r="U50" s="45">
         <v>64</v>
       </c>
-      <c r="V50" s="52">
+      <c r="V50" s="49">
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W50" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>55200</v>
       </c>
@@ -20613,11 +21188,14 @@
       <c r="U51" s="45">
         <v>20</v>
       </c>
-      <c r="V51" s="52">
+      <c r="V51" s="49">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W51" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>55200</v>
       </c>
@@ -20681,11 +21259,14 @@
       <c r="U52" s="45">
         <v>48</v>
       </c>
-      <c r="V52" s="52">
+      <c r="V52" s="49">
         <v>47</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W52" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>55200</v>
       </c>
@@ -20749,11 +21330,14 @@
       <c r="U53" s="45">
         <v>2</v>
       </c>
-      <c r="V53" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V53" s="49">
+        <v>2</v>
+      </c>
+      <c r="W53" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>55200</v>
       </c>
@@ -20817,11 +21401,14 @@
       <c r="U54" s="45">
         <v>15</v>
       </c>
-      <c r="V54" s="52">
+      <c r="V54" s="49">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W54" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>55200</v>
       </c>
@@ -20871,9 +21458,10 @@
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
       <c r="U55" s="46"/>
-      <c r="V55" s="53"/>
-    </row>
-    <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V55" s="50"/>
+      <c r="W55" s="5"/>
+    </row>
+    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>55200</v>
       </c>
@@ -20937,11 +21525,14 @@
       <c r="U56" s="45">
         <v>82</v>
       </c>
-      <c r="V56" s="52">
+      <c r="V56" s="49">
         <v>74</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W56" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>55200</v>
       </c>
@@ -21005,11 +21596,14 @@
       <c r="U57" s="45">
         <v>1</v>
       </c>
-      <c r="V57" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V57" s="49">
+        <v>1</v>
+      </c>
+      <c r="W57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>55200</v>
       </c>
@@ -21073,11 +21667,14 @@
       <c r="U58" s="45">
         <v>65</v>
       </c>
-      <c r="V58" s="52">
+      <c r="V58" s="49">
         <v>64</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W58" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>55200</v>
       </c>
@@ -21141,11 +21738,14 @@
       <c r="U59" s="45">
         <v>1</v>
       </c>
-      <c r="V59" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V59" s="49">
+        <v>1</v>
+      </c>
+      <c r="W59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>55200</v>
       </c>
@@ -21209,11 +21809,14 @@
       <c r="U60" s="45">
         <v>52</v>
       </c>
-      <c r="V60" s="52">
+      <c r="V60" s="49">
         <v>50</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W60" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>55200</v>
       </c>
@@ -21277,11 +21880,14 @@
       <c r="U61" s="45">
         <v>3</v>
       </c>
-      <c r="V61" s="52">
+      <c r="V61" s="49">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W61" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>55200</v>
       </c>
@@ -21345,11 +21951,14 @@
       <c r="U62" s="45">
         <v>84</v>
       </c>
-      <c r="V62" s="52">
+      <c r="V62" s="49">
         <v>82</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W62" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>55200</v>
       </c>
@@ -21413,11 +22022,14 @@
       <c r="U63" s="45">
         <v>4</v>
       </c>
-      <c r="V63" s="52">
+      <c r="V63" s="49">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W63" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>55200</v>
       </c>
@@ -21481,11 +22093,14 @@
       <c r="U64" s="45">
         <v>1</v>
       </c>
-      <c r="V64" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V64" s="49">
+        <v>1</v>
+      </c>
+      <c r="W64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>55200</v>
       </c>
@@ -21549,11 +22164,14 @@
       <c r="U65" s="45">
         <v>1</v>
       </c>
-      <c r="V65" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V65" s="49">
+        <v>1</v>
+      </c>
+      <c r="W65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>55200</v>
       </c>
@@ -21617,11 +22235,14 @@
       <c r="U66" s="45">
         <v>67</v>
       </c>
-      <c r="V66" s="52">
+      <c r="V66" s="49">
         <v>58</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W66" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>55200</v>
       </c>
@@ -21685,11 +22306,14 @@
       <c r="U67" s="45">
         <v>1</v>
       </c>
-      <c r="V67" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V67" s="49">
+        <v>1</v>
+      </c>
+      <c r="W67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>55200</v>
       </c>
@@ -21753,11 +22377,14 @@
       <c r="U68" s="45">
         <v>86</v>
       </c>
-      <c r="V68" s="52">
+      <c r="V68" s="49">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W68" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>55200</v>
       </c>
@@ -21821,11 +22448,14 @@
       <c r="U69" s="45">
         <v>16</v>
       </c>
-      <c r="V69" s="52">
+      <c r="V69" s="49">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W69" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>55200</v>
       </c>
@@ -21889,11 +22519,14 @@
       <c r="U70" s="45">
         <v>38</v>
       </c>
-      <c r="V70" s="52">
+      <c r="V70" s="49">
         <v>38</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W70" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>55200</v>
       </c>
@@ -21957,11 +22590,14 @@
       <c r="U71" s="45">
         <v>4</v>
       </c>
-      <c r="V71" s="52">
+      <c r="V71" s="49">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W71" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>55200</v>
       </c>
@@ -22025,11 +22661,14 @@
       <c r="U72" s="45">
         <v>70</v>
       </c>
-      <c r="V72" s="52">
+      <c r="V72" s="49">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W72" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>55200</v>
       </c>
@@ -22093,11 +22732,14 @@
       <c r="U73" s="45">
         <v>10</v>
       </c>
-      <c r="V73" s="52">
+      <c r="V73" s="49">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W73" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>55200</v>
       </c>
@@ -22161,11 +22803,14 @@
       <c r="U74" s="45">
         <v>31</v>
       </c>
-      <c r="V74" s="52">
+      <c r="V74" s="49">
         <v>31</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W74" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>55200</v>
       </c>
@@ -22229,11 +22874,14 @@
       <c r="U75" s="45">
         <v>3</v>
       </c>
-      <c r="V75" s="52">
+      <c r="V75" s="49">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W75" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>55200</v>
       </c>
@@ -22297,11 +22945,14 @@
       <c r="U76" s="45">
         <v>54</v>
       </c>
-      <c r="V76" s="52">
+      <c r="V76" s="49">
         <v>46</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W76" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>55200</v>
       </c>
@@ -22365,11 +23016,14 @@
       <c r="U77" s="45">
         <v>4</v>
       </c>
-      <c r="V77" s="52">
+      <c r="V77" s="49">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W77" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>55200</v>
       </c>
@@ -22433,11 +23087,14 @@
       <c r="U78" s="45">
         <v>139</v>
       </c>
-      <c r="V78" s="52">
+      <c r="V78" s="49">
         <v>101</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W78" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>55200</v>
       </c>
@@ -22501,11 +23158,14 @@
       <c r="U79" s="45">
         <v>1</v>
       </c>
-      <c r="V79" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V79" s="49">
+        <v>1</v>
+      </c>
+      <c r="W79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>55200</v>
       </c>
@@ -22569,11 +23229,14 @@
       <c r="U80" s="45">
         <v>83</v>
       </c>
-      <c r="V80" s="52">
+      <c r="V80" s="49">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W80" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>55200</v>
       </c>
@@ -22637,11 +23300,14 @@
       <c r="U81" s="45">
         <v>9</v>
       </c>
-      <c r="V81" s="52">
+      <c r="V81" s="49">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W81" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>55200</v>
       </c>
@@ -22705,11 +23371,14 @@
       <c r="U82" s="45">
         <v>53</v>
       </c>
-      <c r="V82" s="52">
+      <c r="V82" s="49">
         <v>53</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W82" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>55200</v>
       </c>
@@ -22773,11 +23442,14 @@
       <c r="U83" s="45">
         <v>6</v>
       </c>
-      <c r="V83" s="52">
+      <c r="V83" s="49">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W83" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>55200</v>
       </c>
@@ -22841,11 +23513,14 @@
       <c r="U84" s="45">
         <v>18</v>
       </c>
-      <c r="V84" s="52">
+      <c r="V84" s="49">
         <v>18</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W84" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>55200</v>
       </c>
@@ -22909,11 +23584,14 @@
       <c r="U85" s="45">
         <v>3</v>
       </c>
-      <c r="V85" s="52">
+      <c r="V85" s="49">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W85" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>55200</v>
       </c>
@@ -22977,11 +23655,14 @@
       <c r="U86" s="45">
         <v>42</v>
       </c>
-      <c r="V86" s="52">
+      <c r="V86" s="49">
         <v>42</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W86" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>55200</v>
       </c>
@@ -23045,11 +23726,14 @@
       <c r="U87" s="45">
         <v>6</v>
       </c>
-      <c r="V87" s="52">
+      <c r="V87" s="49">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W87" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>55210</v>
       </c>
@@ -23113,11 +23797,14 @@
       <c r="U88" s="45">
         <v>25</v>
       </c>
-      <c r="V88" s="52">
+      <c r="V88" s="49">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W88" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>55210</v>
       </c>
@@ -23181,11 +23868,14 @@
       <c r="U89" s="45">
         <v>40</v>
       </c>
-      <c r="V89" s="52">
+      <c r="V89" s="49">
         <v>27</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W89" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>55210</v>
       </c>
@@ -23249,11 +23939,14 @@
       <c r="U90" s="45">
         <v>2</v>
       </c>
-      <c r="V90" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V90" s="49">
+        <v>1</v>
+      </c>
+      <c r="W90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>55210</v>
       </c>
@@ -23317,11 +24010,14 @@
       <c r="U91" s="45">
         <v>13</v>
       </c>
-      <c r="V91" s="52">
+      <c r="V91" s="49">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W91" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>55210</v>
       </c>
@@ -23385,11 +24081,14 @@
       <c r="U92" s="45">
         <v>1</v>
       </c>
-      <c r="V92" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V92" s="49">
+        <v>1</v>
+      </c>
+      <c r="W92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>55210</v>
       </c>
@@ -23453,11 +24152,14 @@
       <c r="U93" s="45">
         <v>45</v>
       </c>
-      <c r="V93" s="52">
+      <c r="V93" s="49">
         <v>43</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W93" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>55210</v>
       </c>
@@ -23515,9 +24217,10 @@
       <c r="S94" s="10"/>
       <c r="T94" s="10"/>
       <c r="U94" s="46"/>
-      <c r="V94" s="53"/>
-    </row>
-    <row r="95" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V94" s="50"/>
+      <c r="W94" s="5"/>
+    </row>
+    <row r="95" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>55210</v>
       </c>
@@ -23581,11 +24284,14 @@
       <c r="U95" s="45">
         <v>19</v>
       </c>
-      <c r="V95" s="52">
+      <c r="V95" s="49">
         <v>17</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W95" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>55210</v>
       </c>
@@ -23649,11 +24355,14 @@
       <c r="U96" s="45">
         <v>34</v>
       </c>
-      <c r="V96" s="52">
+      <c r="V96" s="49">
         <v>34</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W96" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>55210</v>
       </c>
@@ -23717,11 +24426,14 @@
       <c r="U97" s="45">
         <v>1</v>
       </c>
-      <c r="V97" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V97" s="49">
+        <v>1</v>
+      </c>
+      <c r="W97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>55210</v>
       </c>
@@ -23785,11 +24497,14 @@
       <c r="U98" s="45">
         <v>25</v>
       </c>
-      <c r="V98" s="52">
+      <c r="V98" s="49">
         <v>25</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W98" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>55210</v>
       </c>
@@ -23843,9 +24558,10 @@
       <c r="S99" s="10"/>
       <c r="T99" s="10"/>
       <c r="U99" s="46"/>
-      <c r="V99" s="53"/>
-    </row>
-    <row r="100" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V99" s="50"/>
+      <c r="W99" s="5"/>
+    </row>
+    <row r="100" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>55210</v>
       </c>
@@ -23909,11 +24625,14 @@
       <c r="U100" s="45">
         <v>60</v>
       </c>
-      <c r="V100" s="52">
+      <c r="V100" s="49">
         <v>57</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W100" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>55210</v>
       </c>
@@ -23947,9 +24666,10 @@
       <c r="S101" s="10"/>
       <c r="T101" s="10"/>
       <c r="U101" s="46"/>
-      <c r="V101" s="53"/>
-    </row>
-    <row r="102" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V101" s="50"/>
+      <c r="W101" s="5"/>
+    </row>
+    <row r="102" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>55210</v>
       </c>
@@ -24013,11 +24733,14 @@
       <c r="U102" s="45">
         <v>42</v>
       </c>
-      <c r="V102" s="52">
+      <c r="V102" s="49">
         <v>35</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W102" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>55210</v>
       </c>
@@ -24081,11 +24804,14 @@
       <c r="U103" s="45">
         <v>2</v>
       </c>
-      <c r="V103" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V103" s="49">
+        <v>2</v>
+      </c>
+      <c r="W103" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>55210</v>
       </c>
@@ -24149,11 +24875,14 @@
       <c r="U104" s="45">
         <v>22</v>
       </c>
-      <c r="V104" s="52">
+      <c r="V104" s="49">
         <v>22</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W104" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>55210</v>
       </c>
@@ -24211,9 +24940,10 @@
       <c r="S105" s="10"/>
       <c r="T105" s="10"/>
       <c r="U105" s="46"/>
-      <c r="V105" s="53"/>
-    </row>
-    <row r="106" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V105" s="50"/>
+      <c r="W105" s="5"/>
+    </row>
+    <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>55210</v>
       </c>
@@ -24277,11 +25007,14 @@
       <c r="U106" s="45">
         <v>39</v>
       </c>
-      <c r="V106" s="52">
+      <c r="V106" s="49">
         <v>29</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W106" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>55210</v>
       </c>
@@ -24345,9 +25078,10 @@
       <c r="U107" s="45">
         <v>1</v>
       </c>
-      <c r="V107" s="53"/>
-    </row>
-    <row r="108" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V107" s="50"/>
+      <c r="W107" s="5"/>
+    </row>
+    <row r="108" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>55210</v>
       </c>
@@ -24411,11 +25145,14 @@
       <c r="U108" s="45">
         <v>10</v>
       </c>
-      <c r="V108" s="52">
+      <c r="V108" s="49">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W108" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>55210</v>
       </c>
@@ -24479,11 +25216,14 @@
       <c r="U109" s="45">
         <v>1</v>
       </c>
-      <c r="V109" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V109" s="49">
+        <v>1</v>
+      </c>
+      <c r="W109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>55210</v>
       </c>
@@ -24547,11 +25287,14 @@
       <c r="U110" s="45">
         <v>71</v>
       </c>
-      <c r="V110" s="52">
+      <c r="V110" s="49">
         <v>47</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W110" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>55210</v>
       </c>
@@ -24615,11 +25358,14 @@
       <c r="U111" s="45">
         <v>2</v>
       </c>
-      <c r="V111" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V111" s="49">
+        <v>2</v>
+      </c>
+      <c r="W111" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>55210</v>
       </c>
@@ -24683,11 +25429,14 @@
       <c r="U112" s="45">
         <v>78</v>
       </c>
-      <c r="V112" s="52">
+      <c r="V112" s="49">
         <v>76</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W112" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <v>55210</v>
       </c>
@@ -24751,11 +25500,14 @@
       <c r="U113" s="45">
         <v>1</v>
       </c>
-      <c r="V113" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V113" s="49">
+        <v>1</v>
+      </c>
+      <c r="W113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="16">
         <v>55220</v>
       </c>
@@ -24819,11 +25571,14 @@
       <c r="U114" s="45">
         <v>94</v>
       </c>
-      <c r="V114" s="52">
+      <c r="V114" s="49">
         <v>57</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W114" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>55220</v>
       </c>
@@ -24887,11 +25642,14 @@
       <c r="U115" s="45">
         <v>25</v>
       </c>
-      <c r="V115" s="52">
+      <c r="V115" s="49">
         <v>24</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W115" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>55220</v>
       </c>
@@ -24955,11 +25713,14 @@
       <c r="U116" s="45">
         <v>35</v>
       </c>
-      <c r="V116" s="52">
+      <c r="V116" s="49">
         <v>35</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W116" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <v>55220</v>
       </c>
@@ -25023,11 +25784,14 @@
       <c r="U117" s="45">
         <v>17</v>
       </c>
-      <c r="V117" s="52">
+      <c r="V117" s="49">
         <v>17</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W117" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="16">
         <v>55220</v>
       </c>
@@ -25081,9 +25845,10 @@
       <c r="S118" s="10"/>
       <c r="T118" s="10"/>
       <c r="U118" s="46"/>
-      <c r="V118" s="53"/>
-    </row>
-    <row r="119" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V118" s="50"/>
+      <c r="W118" s="5"/>
+    </row>
+    <row r="119" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="16">
         <v>55220</v>
       </c>
@@ -25147,11 +25912,14 @@
       <c r="U119" s="45">
         <v>50</v>
       </c>
-      <c r="V119" s="52">
+      <c r="V119" s="49">
         <v>34</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W119" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
         <v>55220</v>
       </c>
@@ -25215,11 +25983,14 @@
       <c r="U120" s="45">
         <v>7</v>
       </c>
-      <c r="V120" s="52">
+      <c r="V120" s="49">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W120" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <v>55220</v>
       </c>
@@ -25283,11 +26054,14 @@
       <c r="U121" s="45">
         <v>17</v>
       </c>
-      <c r="V121" s="52">
+      <c r="V121" s="49">
         <v>15</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W121" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="16">
         <v>55220</v>
       </c>
@@ -25351,11 +26125,14 @@
       <c r="U122" s="45">
         <v>126</v>
       </c>
-      <c r="V122" s="52">
+      <c r="V122" s="49">
         <v>123</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W122" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="16">
         <v>55220</v>
       </c>
@@ -25419,11 +26196,14 @@
       <c r="U123" s="45">
         <v>1</v>
       </c>
-      <c r="V123" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V123" s="49">
+        <v>1</v>
+      </c>
+      <c r="W123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="16">
         <v>55220</v>
       </c>
@@ -25487,11 +26267,14 @@
       <c r="U124" s="45">
         <v>36</v>
       </c>
-      <c r="V124" s="52">
+      <c r="V124" s="49">
         <v>36</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W124" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="16">
         <v>55220</v>
       </c>
@@ -25555,11 +26338,14 @@
       <c r="U125" s="45">
         <v>19</v>
       </c>
-      <c r="V125" s="52">
+      <c r="V125" s="49">
         <v>19</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W125" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>55220</v>
       </c>
@@ -25623,11 +26409,14 @@
       <c r="U126" s="45">
         <v>42</v>
       </c>
-      <c r="V126" s="52">
+      <c r="V126" s="49">
         <v>15</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W126" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>55220</v>
       </c>
@@ -25691,11 +26480,14 @@
       <c r="U127" s="45">
         <v>44</v>
       </c>
-      <c r="V127" s="52">
+      <c r="V127" s="49">
         <v>31</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W127" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="16">
         <v>55220</v>
       </c>
@@ -25759,11 +26551,14 @@
       <c r="U128" s="45">
         <v>111</v>
       </c>
-      <c r="V128" s="52">
+      <c r="V128" s="49">
         <v>108</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W128" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="16">
         <v>55220</v>
       </c>
@@ -25827,11 +26622,14 @@
       <c r="U129" s="45">
         <v>58</v>
       </c>
-      <c r="V129" s="52">
+      <c r="V129" s="49">
         <v>58</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W129" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>55230</v>
       </c>
@@ -25895,11 +26693,14 @@
       <c r="U130" s="45">
         <v>52</v>
       </c>
-      <c r="V130" s="52">
+      <c r="V130" s="49">
         <v>35</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W130" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>55230</v>
       </c>
@@ -25963,11 +26764,14 @@
       <c r="U131" s="45">
         <v>3</v>
       </c>
-      <c r="V131" s="52">
+      <c r="V131" s="49">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W131" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="16">
         <v>55230</v>
       </c>
@@ -26031,11 +26835,14 @@
       <c r="U132" s="45">
         <v>6</v>
       </c>
-      <c r="V132" s="52">
+      <c r="V132" s="49">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W132" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>55230</v>
       </c>
@@ -26069,9 +26876,10 @@
       <c r="S133" s="10"/>
       <c r="T133" s="10"/>
       <c r="U133" s="46"/>
-      <c r="V133" s="53"/>
-    </row>
-    <row r="134" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V133" s="50"/>
+      <c r="W133" s="5"/>
+    </row>
+    <row r="134" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <v>55230</v>
       </c>
@@ -26135,11 +26943,14 @@
       <c r="U134" s="45">
         <v>48</v>
       </c>
-      <c r="V134" s="52">
+      <c r="V134" s="49">
         <v>41</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W134" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <v>55230</v>
       </c>
@@ -26203,11 +27014,14 @@
       <c r="U135" s="45">
         <v>15</v>
       </c>
-      <c r="V135" s="52">
+      <c r="V135" s="49">
         <v>15</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W135" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="16">
         <v>55230</v>
       </c>
@@ -26271,11 +27085,14 @@
       <c r="U136" s="45">
         <v>21</v>
       </c>
-      <c r="V136" s="52">
+      <c r="V136" s="49">
         <v>21</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W136" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>55230</v>
       </c>
@@ -26339,11 +27156,14 @@
       <c r="U137" s="45">
         <v>119</v>
       </c>
-      <c r="V137" s="52">
+      <c r="V137" s="49">
         <v>119</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W137" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>55230</v>
       </c>
@@ -26407,11 +27227,14 @@
       <c r="U138" s="45">
         <v>28</v>
       </c>
-      <c r="V138" s="52">
+      <c r="V138" s="49">
         <v>24</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W138" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>55230</v>
       </c>
@@ -26475,11 +27298,14 @@
       <c r="U139" s="45">
         <v>1</v>
       </c>
-      <c r="V139" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V139" s="49">
+        <v>1</v>
+      </c>
+      <c r="W139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="16">
         <v>55230</v>
       </c>
@@ -26543,11 +27369,14 @@
       <c r="U140" s="45">
         <v>28</v>
       </c>
-      <c r="V140" s="52">
+      <c r="V140" s="49">
         <v>28</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W140" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="16">
         <v>55230</v>
       </c>
@@ -26611,11 +27440,14 @@
       <c r="U141" s="45">
         <v>1</v>
       </c>
-      <c r="V141" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V141" s="49">
+        <v>1</v>
+      </c>
+      <c r="W141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="16">
         <v>55230</v>
       </c>
@@ -26679,11 +27511,14 @@
       <c r="U142" s="45">
         <v>86</v>
       </c>
-      <c r="V142" s="52">
+      <c r="V142" s="49">
         <v>78</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W142" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="16">
         <v>55230</v>
       </c>
@@ -26747,11 +27582,14 @@
       <c r="U143" s="45">
         <v>4</v>
       </c>
-      <c r="V143" s="52">
+      <c r="V143" s="49">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W143" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="16">
         <v>55230</v>
       </c>
@@ -26815,11 +27653,14 @@
       <c r="U144" s="45">
         <v>59</v>
       </c>
-      <c r="V144" s="52">
+      <c r="V144" s="49">
         <v>56</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W144" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="16">
         <v>55230</v>
       </c>
@@ -26883,11 +27724,14 @@
       <c r="U145" s="45">
         <v>2</v>
       </c>
-      <c r="V145" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V145" s="49">
+        <v>2</v>
+      </c>
+      <c r="W145" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="16">
         <v>55230</v>
       </c>
@@ -26951,11 +27795,14 @@
       <c r="U146" s="45">
         <v>90</v>
       </c>
-      <c r="V146" s="52">
+      <c r="V146" s="49">
         <v>89</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W146" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>55230</v>
       </c>
@@ -27019,11 +27866,14 @@
       <c r="U147" s="45">
         <v>1</v>
       </c>
-      <c r="V147" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V147" s="49">
+        <v>1</v>
+      </c>
+      <c r="W147" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>55230</v>
       </c>
@@ -27087,11 +27937,14 @@
       <c r="U148" s="45">
         <v>139</v>
       </c>
-      <c r="V148" s="52">
+      <c r="V148" s="49">
         <v>53</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W148" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="16">
         <v>55230</v>
       </c>
@@ -27155,11 +28008,14 @@
       <c r="U149" s="45">
         <v>30</v>
       </c>
-      <c r="V149" s="52">
+      <c r="V149" s="49">
         <v>28</v>
       </c>
-    </row>
-    <row r="150" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W149" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="16">
         <v>55230</v>
       </c>
@@ -27223,11 +28079,14 @@
       <c r="U150" s="45">
         <v>2</v>
       </c>
-      <c r="V150" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V150" s="49">
+        <v>2</v>
+      </c>
+      <c r="W150" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="16">
         <v>55230</v>
       </c>
@@ -27291,11 +28150,14 @@
       <c r="U151" s="45">
         <v>85</v>
       </c>
-      <c r="V151" s="52">
+      <c r="V151" s="49">
         <v>81</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W151" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>55230</v>
       </c>
@@ -27359,11 +28221,14 @@
       <c r="U152" s="45">
         <v>14</v>
       </c>
-      <c r="V152" s="52">
+      <c r="V152" s="49">
         <v>14</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W152" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="16">
         <v>55230</v>
       </c>
@@ -27427,11 +28292,14 @@
       <c r="U153" s="45">
         <v>70</v>
       </c>
-      <c r="V153" s="52">
+      <c r="V153" s="49">
         <v>69</v>
       </c>
-    </row>
-    <row r="154" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W153" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>55230</v>
       </c>
@@ -27495,11 +28363,14 @@
       <c r="U154" s="45">
         <v>2</v>
       </c>
-      <c r="V154" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V154" s="49">
+        <v>2</v>
+      </c>
+      <c r="W154" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="16">
         <v>55230</v>
       </c>
@@ -27563,11 +28434,14 @@
       <c r="U155" s="45">
         <v>213</v>
       </c>
-      <c r="V155" s="52">
+      <c r="V155" s="49">
         <v>213</v>
       </c>
-    </row>
-    <row r="156" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W155" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="16">
         <v>55230</v>
       </c>
@@ -27631,11 +28505,14 @@
       <c r="U156" s="45">
         <v>13</v>
       </c>
-      <c r="V156" s="52">
+      <c r="V156" s="49">
         <v>13</v>
       </c>
-    </row>
-    <row r="157" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W156" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>55230</v>
       </c>
@@ -27699,11 +28576,14 @@
       <c r="U157" s="45">
         <v>40</v>
       </c>
-      <c r="V157" s="52">
+      <c r="V157" s="49">
         <v>40</v>
       </c>
-    </row>
-    <row r="158" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W157" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="16">
         <v>55230</v>
       </c>
@@ -27767,11 +28647,14 @@
       <c r="U158" s="45">
         <v>1</v>
       </c>
-      <c r="V158" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V158" s="49">
+        <v>1</v>
+      </c>
+      <c r="W158" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="16">
         <v>55230</v>
       </c>
@@ -27835,11 +28718,14 @@
       <c r="U159" s="45">
         <v>64</v>
       </c>
-      <c r="V159" s="52">
+      <c r="V159" s="49">
         <v>46</v>
       </c>
-    </row>
-    <row r="160" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W159" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="16">
         <v>55230</v>
       </c>
@@ -27903,11 +28789,14 @@
       <c r="U160" s="45">
         <v>7</v>
       </c>
-      <c r="V160" s="52">
+      <c r="V160" s="49">
         <v>7</v>
       </c>
-    </row>
-    <row r="161" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W160" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="16">
         <v>55230</v>
       </c>
@@ -27971,11 +28860,14 @@
       <c r="U161" s="45">
         <v>96</v>
       </c>
-      <c r="V161" s="52">
+      <c r="V161" s="49">
         <v>25</v>
       </c>
-    </row>
-    <row r="162" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W161" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>55230</v>
       </c>
@@ -28039,11 +28931,14 @@
       <c r="U162" s="45">
         <v>2</v>
       </c>
-      <c r="V162" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V162" s="49">
+        <v>2</v>
+      </c>
+      <c r="W162" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="16">
         <v>55230</v>
       </c>
@@ -28107,11 +29002,14 @@
       <c r="U163" s="45">
         <v>45</v>
       </c>
-      <c r="V163" s="52">
+      <c r="V163" s="49">
         <v>45</v>
       </c>
-    </row>
-    <row r="164" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W163" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>55230</v>
       </c>
@@ -28175,11 +29073,14 @@
       <c r="U164" s="45">
         <v>1</v>
       </c>
-      <c r="V164" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V164" s="49">
+        <v>1</v>
+      </c>
+      <c r="W164" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>55230</v>
       </c>
@@ -28243,11 +29144,14 @@
       <c r="U165" s="45">
         <v>15</v>
       </c>
-      <c r="V165" s="52">
+      <c r="V165" s="49">
         <v>15</v>
       </c>
-    </row>
-    <row r="166" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W165" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>55230</v>
       </c>
@@ -28305,9 +29209,10 @@
       <c r="S166" s="10"/>
       <c r="T166" s="10"/>
       <c r="U166" s="46"/>
-      <c r="V166" s="53"/>
-    </row>
-    <row r="167" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V166" s="50"/>
+      <c r="W166" s="5"/>
+    </row>
+    <row r="167" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>55230</v>
       </c>
@@ -28371,11 +29276,14 @@
       <c r="U167" s="45">
         <v>95</v>
       </c>
-      <c r="V167" s="52">
+      <c r="V167" s="49">
         <v>94</v>
       </c>
-    </row>
-    <row r="168" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W167" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
         <v>55230</v>
       </c>
@@ -28439,11 +29347,14 @@
       <c r="U168" s="45">
         <v>19</v>
       </c>
-      <c r="V168" s="52">
+      <c r="V168" s="49">
         <v>19</v>
       </c>
-    </row>
-    <row r="169" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W168" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>55230</v>
       </c>
@@ -28507,11 +29418,14 @@
       <c r="U169" s="45">
         <v>23</v>
       </c>
-      <c r="V169" s="52">
+      <c r="V169" s="49">
         <v>23</v>
       </c>
-    </row>
-    <row r="170" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W169" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="16">
         <v>55230</v>
       </c>
@@ -28569,9 +29483,10 @@
       <c r="S170" s="10"/>
       <c r="T170" s="10"/>
       <c r="U170" s="46"/>
-      <c r="V170" s="53"/>
-    </row>
-    <row r="171" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V170" s="50"/>
+      <c r="W170" s="5"/>
+    </row>
+    <row r="171" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>55230</v>
       </c>
@@ -28635,11 +29550,14 @@
       <c r="U171" s="45">
         <v>113</v>
       </c>
-      <c r="V171" s="52">
+      <c r="V171" s="49">
         <v>82</v>
       </c>
-    </row>
-    <row r="172" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W171" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="16">
         <v>55230</v>
       </c>
@@ -28703,11 +29621,14 @@
       <c r="U172" s="45">
         <v>42</v>
       </c>
-      <c r="V172" s="52">
+      <c r="V172" s="49">
         <v>42</v>
       </c>
-    </row>
-    <row r="173" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W172" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="16">
         <v>55230</v>
       </c>
@@ -28769,9 +29690,10 @@
         <v>1</v>
       </c>
       <c r="U173" s="46"/>
-      <c r="V173" s="53"/>
-    </row>
-    <row r="174" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V173" s="50"/>
+      <c r="W173" s="5"/>
+    </row>
+    <row r="174" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="16">
         <v>55230</v>
       </c>
@@ -28829,9 +29751,10 @@
       <c r="S174" s="10"/>
       <c r="T174" s="10"/>
       <c r="U174" s="46"/>
-      <c r="V174" s="53"/>
-    </row>
-    <row r="175" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V174" s="50"/>
+      <c r="W174" s="5"/>
+    </row>
+    <row r="175" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="16">
         <v>55230</v>
       </c>
@@ -28895,11 +29818,14 @@
       <c r="U175" s="45">
         <v>44</v>
       </c>
-      <c r="V175" s="52">
+      <c r="V175" s="49">
         <v>44</v>
       </c>
-    </row>
-    <row r="176" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W175" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="16">
         <v>55230</v>
       </c>
@@ -28963,11 +29889,14 @@
       <c r="U176" s="45">
         <v>2</v>
       </c>
-      <c r="V176" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V176" s="49">
+        <v>2</v>
+      </c>
+      <c r="W176" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="16">
         <v>55230</v>
       </c>
@@ -29031,11 +29960,14 @@
       <c r="U177" s="45">
         <v>54</v>
       </c>
-      <c r="V177" s="52">
+      <c r="V177" s="49">
         <v>43</v>
       </c>
-    </row>
-    <row r="178" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W177" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="16">
         <v>55230</v>
       </c>
@@ -29099,11 +30031,14 @@
       <c r="U178" s="45">
         <v>5</v>
       </c>
-      <c r="V178" s="52">
+      <c r="V178" s="49">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W178" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>55230</v>
       </c>
@@ -29167,11 +30102,14 @@
       <c r="U179" s="45">
         <v>26</v>
       </c>
-      <c r="V179" s="52">
+      <c r="V179" s="49">
         <v>18</v>
       </c>
-    </row>
-    <row r="180" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W179" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="16">
         <v>55230</v>
       </c>
@@ -29235,11 +30173,14 @@
       <c r="U180" s="45">
         <v>42</v>
       </c>
-      <c r="V180" s="52">
+      <c r="V180" s="49">
         <v>41</v>
       </c>
-    </row>
-    <row r="181" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W180" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
         <v>55230</v>
       </c>
@@ -29303,11 +30244,14 @@
       <c r="U181" s="45">
         <v>3</v>
       </c>
-      <c r="V181" s="52">
+      <c r="V181" s="49">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W181" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>55230</v>
       </c>
@@ -29371,11 +30315,14 @@
       <c r="U182" s="45">
         <v>46</v>
       </c>
-      <c r="V182" s="52">
+      <c r="V182" s="49">
         <v>46</v>
       </c>
-    </row>
-    <row r="183" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W182" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>55230</v>
       </c>
@@ -29413,9 +30360,10 @@
       <c r="S183" s="10"/>
       <c r="T183" s="10"/>
       <c r="U183" s="46"/>
-      <c r="V183" s="53"/>
-    </row>
-    <row r="184" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V183" s="50"/>
+      <c r="W183" s="5"/>
+    </row>
+    <row r="184" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>55230</v>
       </c>
@@ -29479,11 +30427,14 @@
       <c r="U184" s="45">
         <v>7</v>
       </c>
-      <c r="V184" s="52">
+      <c r="V184" s="49">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W184" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="16">
         <v>55230</v>
       </c>
@@ -29547,11 +30498,14 @@
       <c r="U185" s="45">
         <v>2</v>
       </c>
-      <c r="V185" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V185" s="49">
+        <v>2</v>
+      </c>
+      <c r="W185" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="16">
         <v>55230</v>
       </c>
@@ -29615,11 +30569,14 @@
       <c r="U186" s="45">
         <v>15</v>
       </c>
-      <c r="V186" s="52">
+      <c r="V186" s="49">
         <v>15</v>
       </c>
-    </row>
-    <row r="187" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W186" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="16">
         <v>55230</v>
       </c>
@@ -29683,7 +30640,10 @@
       <c r="U187" s="45">
         <v>5</v>
       </c>
-      <c r="V187" s="52">
+      <c r="V187" s="49">
+        <v>4</v>
+      </c>
+      <c r="W187" s="3">
         <v>4</v>
       </c>
     </row>

--- a/pantauharian102015.xlsx
+++ b/pantauharian102015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Buku_Kerja_Ini" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\putua\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\putua\Documents\GitHub\batur.10.2015\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1369,16 +1369,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.2346920187064216</c:v>
+                  <c:v>1.2689944494157097</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.86021602112039275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37144376866075912</c:v>
+                  <c:v>0.37150612718660397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.019667451150154</c:v>
+                  <c:v>1.0204074343977068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,16 +1479,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.1173464331724167E-2</c:v>
+                  <c:v>3.0338208021291956E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.2169167803547066E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4351330926190275E-2</c:v>
+                  <c:v>2.4309345872869259E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8043229904492069E-2</c:v>
+                  <c:v>3.7974683544303799E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1504,12 +1504,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="232231840"/>
-        <c:axId val="232224392"/>
+        <c:axId val="376678016"/>
+        <c:axId val="376679584"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="232231840"/>
+        <c:axId val="376678016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232224392"/>
+        <c:crossAx val="376679584"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1560,7 +1560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232224392"/>
+        <c:axId val="376679584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1613,7 +1613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232231840"/>
+        <c:crossAx val="376678016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2540,8 +2540,8 @@
   </sheetPr>
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,7 +2564,7 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="str">
         <f>+"GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : "&amp;A21</f>
-        <v>GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : 30 - 21:20</v>
+        <v>GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : 31 - 04:50</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -2611,8 +2611,8 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
-        <v>253</v>
+      <c r="A21" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -2656,30 +2656,30 @@
       </c>
       <c r="C23" s="29">
         <f>VLOOKUP(A21,$A$30:$E$50,2,FALSE)</f>
-        <v>396647532</v>
+        <v>385925677</v>
       </c>
       <c r="D23" s="29">
         <f>+B23-C23</f>
-        <v>93090010</v>
+        <v>103811865</v>
       </c>
       <c r="E23" s="33">
         <f>+B23/C23*100%</f>
-        <v>1.2346920187064216</v>
+        <v>1.2689944494157097</v>
       </c>
       <c r="G23" s="28">
         <v>70637</v>
       </c>
       <c r="H23" s="29">
         <f>VLOOKUP($A$21,$A$30:$T$50,12,FALSE)</f>
-        <v>2202</v>
+        <v>2143</v>
       </c>
       <c r="I23" s="29">
         <f>+G23-H23</f>
-        <v>68435</v>
+        <v>68494</v>
       </c>
       <c r="J23" s="39">
         <f>+H23/G23</f>
-        <v>3.1173464331724167E-2</v>
+        <v>3.0338208021291956E-2</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2726,30 +2726,30 @@
       </c>
       <c r="C25" s="29">
         <f>VLOOKUP($A$21,$A$30:$E$50,4,FALSE)</f>
-        <v>50311793</v>
+        <v>50303348</v>
       </c>
       <c r="D25" s="29">
         <f t="shared" si="0"/>
-        <v>31623791</v>
+        <v>31615346</v>
       </c>
       <c r="E25" s="33">
         <f>+B25/C25*100%</f>
-        <v>0.37144376866075912</v>
+        <v>0.37150612718660397</v>
       </c>
       <c r="G25" s="28">
         <v>23818</v>
       </c>
       <c r="H25" s="29">
         <f>VLOOKUP($A$21,$A$30:$T$50,14,FALSE)</f>
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I25" s="29">
         <f t="shared" si="1"/>
-        <v>23238</v>
+        <v>23239</v>
       </c>
       <c r="J25" s="39">
         <f t="shared" si="2"/>
-        <v>2.4351330926190275E-2</v>
+        <v>2.4309345872869259E-2</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2761,30 +2761,30 @@
       </c>
       <c r="C26" s="29">
         <f>VLOOKUP($A$21,$A$30:$E$50,5,FALSE)</f>
-        <v>192694517</v>
+        <v>192554778</v>
       </c>
       <c r="D26" s="29">
         <f t="shared" si="0"/>
-        <v>-3789810</v>
+        <v>-3929549</v>
       </c>
       <c r="E26" s="33">
         <f>+B26/C26*100%</f>
-        <v>1.019667451150154</v>
+        <v>1.0204074343977068</v>
       </c>
       <c r="G26" s="28">
         <v>43766</v>
       </c>
       <c r="H26" s="29">
         <f>VLOOKUP($A$21,$A$30:$T$50,15,FALSE)</f>
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="I26" s="29">
         <f t="shared" si="1"/>
-        <v>42101</v>
+        <v>42104</v>
       </c>
       <c r="J26" s="39">
         <f t="shared" si="2"/>
-        <v>3.8043229904492069E-2</v>
+        <v>3.7974683544303799E-2</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">

--- a/pantauharian102015.xlsx
+++ b/pantauharian102015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Buku_Kerja_Ini" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\putua\Documents\GitHub\batur.10.2015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\putua\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="256">
   <si>
     <t>UNITUP</t>
   </si>
@@ -830,6 +830,9 @@
   <si>
     <t>31 - 04:50</t>
   </si>
+  <si>
+    <t>31 - 11:55</t>
+  </si>
 </sst>
 </file>
 
@@ -1369,16 +1372,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.2689944494157097</c:v>
+                  <c:v>1.3674321996745833</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86021602112039275</c:v>
+                  <c:v>0.95170455157200129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37150612718660397</c:v>
+                  <c:v>0.44578507017106617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0204074343977068</c:v>
+                  <c:v>1.1051741699935531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,16 +1482,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.0338208021291956E-2</c:v>
+                  <c:v>2.8016478616022765E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2169167803547066E-2</c:v>
+                  <c:v>2.0756187877606705E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4309345872869259E-2</c:v>
+                  <c:v>1.985893022084138E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7974683544303799E-2</c:v>
+                  <c:v>3.5141433989855142E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1504,12 +1507,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="376678016"/>
-        <c:axId val="376679584"/>
+        <c:axId val="148809312"/>
+        <c:axId val="148816760"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="376678016"/>
+        <c:axId val="148809312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1555,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376679584"/>
+        <c:crossAx val="148816760"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1560,7 +1563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="376679584"/>
+        <c:axId val="148816760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1613,7 +1616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376678016"/>
+        <c:crossAx val="148809312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2564,7 +2567,7 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="str">
         <f>+"GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : "&amp;A21</f>
-        <v>GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : 31 - 04:50</v>
+        <v>GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : 31 - 11:55</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -2611,8 +2614,8 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>254</v>
+      <c r="A21" s="44" t="s">
+        <v>255</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -2656,30 +2659,30 @@
       </c>
       <c r="C23" s="29">
         <f>VLOOKUP(A21,$A$30:$E$50,2,FALSE)</f>
-        <v>385925677</v>
+        <v>358143930</v>
       </c>
       <c r="D23" s="29">
         <f>+B23-C23</f>
-        <v>103811865</v>
+        <v>131593612</v>
       </c>
       <c r="E23" s="33">
         <f>+B23/C23*100%</f>
-        <v>1.2689944494157097</v>
+        <v>1.3674321996745833</v>
       </c>
       <c r="G23" s="28">
         <v>70637</v>
       </c>
       <c r="H23" s="29">
         <f>VLOOKUP($A$21,$A$30:$T$50,12,FALSE)</f>
-        <v>2143</v>
+        <v>1979</v>
       </c>
       <c r="I23" s="29">
         <f>+G23-H23</f>
-        <v>68494</v>
+        <v>68658</v>
       </c>
       <c r="J23" s="39">
         <f>+H23/G23</f>
-        <v>3.0338208021291956E-2</v>
+        <v>2.8016478616022765E-2</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2691,30 +2694,30 @@
       </c>
       <c r="C24" s="29">
         <f>VLOOKUP($A$21,$A$30:$E$50,3,FALSE)</f>
-        <v>36992494</v>
+        <v>33436360</v>
       </c>
       <c r="D24" s="29">
         <f t="shared" ref="D24:D26" si="0">+C24-B24</f>
-        <v>5170958</v>
+        <v>1614824</v>
       </c>
       <c r="E24" s="33">
         <f>+B24/C24*100%</f>
-        <v>0.86021602112039275</v>
+        <v>0.95170455157200129</v>
       </c>
       <c r="G24" s="28">
         <v>20524</v>
       </c>
       <c r="H24" s="29">
         <f>VLOOKUP($A$21,$A$30:$T$50,13,FALSE)</f>
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="I24" s="29">
         <f t="shared" ref="I24:I26" si="1">+G24-H24</f>
-        <v>20069</v>
+        <v>20098</v>
       </c>
       <c r="J24" s="39">
         <f t="shared" ref="J24:J26" si="2">+H24/G24</f>
-        <v>2.2169167803547066E-2</v>
+        <v>2.0756187877606705E-2</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2726,30 +2729,30 @@
       </c>
       <c r="C25" s="29">
         <f>VLOOKUP($A$21,$A$30:$E$50,4,FALSE)</f>
-        <v>50303348</v>
+        <v>41921552</v>
       </c>
       <c r="D25" s="29">
         <f t="shared" si="0"/>
-        <v>31615346</v>
+        <v>23233550</v>
       </c>
       <c r="E25" s="33">
         <f>+B25/C25*100%</f>
-        <v>0.37150612718660397</v>
+        <v>0.44578507017106617</v>
       </c>
       <c r="G25" s="28">
         <v>23818</v>
       </c>
       <c r="H25" s="29">
         <f>VLOOKUP($A$21,$A$30:$T$50,14,FALSE)</f>
-        <v>579</v>
+        <v>473</v>
       </c>
       <c r="I25" s="29">
         <f t="shared" si="1"/>
-        <v>23239</v>
+        <v>23345</v>
       </c>
       <c r="J25" s="39">
         <f t="shared" si="2"/>
-        <v>2.4309345872869259E-2</v>
+        <v>1.985893022084138E-2</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2761,30 +2764,30 @@
       </c>
       <c r="C26" s="29">
         <f>VLOOKUP($A$21,$A$30:$E$50,5,FALSE)</f>
-        <v>192554778</v>
+        <v>177785848</v>
       </c>
       <c r="D26" s="29">
         <f t="shared" si="0"/>
-        <v>-3929549</v>
+        <v>-18698479</v>
       </c>
       <c r="E26" s="33">
         <f>+B26/C26*100%</f>
-        <v>1.0204074343977068</v>
+        <v>1.1051741699935531</v>
       </c>
       <c r="G26" s="28">
         <v>43766</v>
       </c>
       <c r="H26" s="29">
         <f>VLOOKUP($A$21,$A$30:$T$50,15,FALSE)</f>
-        <v>1662</v>
+        <v>1538</v>
       </c>
       <c r="I26" s="29">
         <f t="shared" si="1"/>
-        <v>42104</v>
+        <v>42228</v>
       </c>
       <c r="J26" s="39">
         <f t="shared" si="2"/>
-        <v>3.7974683544303799E-2</v>
+        <v>3.5141433989855142E-2</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
@@ -4156,74 +4159,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
+    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="44" t="s">
+        <v>255</v>
+      </c>
       <c r="B48" s="25">
         <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$X$6:$X$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!B29)</f>
-        <v>0</v>
+        <v>358143930</v>
       </c>
       <c r="C48" s="25">
         <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$X$6:$X$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!C29)</f>
-        <v>0</v>
+        <v>33436360</v>
       </c>
       <c r="D48" s="25">
         <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$X$6:$X$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!D29)</f>
-        <v>0</v>
+        <v>41921552</v>
       </c>
       <c r="E48" s="25">
         <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$X$6:$X$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!E29)</f>
-        <v>0</v>
+        <v>177785848</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="26">
         <f t="shared" si="17"/>
-        <v>385925677</v>
+        <v>27781747</v>
       </c>
       <c r="H48" s="26">
         <f t="shared" si="18"/>
-        <v>36992494</v>
+        <v>3556134</v>
       </c>
       <c r="I48" s="26">
         <f t="shared" si="19"/>
-        <v>50303348</v>
+        <v>8381796</v>
       </c>
       <c r="J48" s="26">
         <f t="shared" si="20"/>
-        <v>192554778</v>
+        <v>14768930</v>
       </c>
       <c r="K48" s="24"/>
       <c r="L48" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$X$6:$X$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!L29)</f>
-        <v>0</v>
+        <v>1979</v>
       </c>
       <c r="M48" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$X$6:$X$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!M29)</f>
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="N48" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$X$6:$X$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!N29)</f>
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="O48" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$X$6:$X$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!O29)</f>
-        <v>0</v>
+        <v>1538</v>
       </c>
       <c r="P48" s="24"/>
       <c r="Q48" s="26">
         <f t="shared" ref="Q48" si="21">+L47-L48</f>
-        <v>2143</v>
+        <v>164</v>
       </c>
       <c r="R48" s="26">
         <f t="shared" ref="R48" si="22">+M47-M48</f>
-        <v>455</v>
+        <v>29</v>
       </c>
       <c r="S48" s="26">
         <f t="shared" ref="S48" si="23">+N47-N48</f>
-        <v>579</v>
+        <v>106</v>
       </c>
       <c r="T48" s="26">
         <f t="shared" ref="T48" si="24">+O47-O48</f>
-        <v>1662</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -4245,10 +4250,22 @@
         <v>0</v>
       </c>
       <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
+      <c r="G49" s="26">
+        <f t="shared" ref="G49" si="25">+B48-B49</f>
+        <v>358143930</v>
+      </c>
+      <c r="H49" s="26">
+        <f t="shared" ref="H49" si="26">+C48-C49</f>
+        <v>33436360</v>
+      </c>
+      <c r="I49" s="26">
+        <f t="shared" ref="I49" si="27">+D48-D49</f>
+        <v>41921552</v>
+      </c>
+      <c r="J49" s="26">
+        <f t="shared" ref="J49" si="28">+E48-E49</f>
+        <v>177785848</v>
+      </c>
       <c r="K49" s="24"/>
       <c r="L49" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$Y$6:$Y$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!L29)</f>
@@ -4269,19 +4286,19 @@
       <c r="P49" s="24"/>
       <c r="Q49" s="26">
         <f>+L48-L49</f>
-        <v>0</v>
+        <v>1979</v>
       </c>
       <c r="R49" s="26">
         <f>+M48-M49</f>
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="S49" s="26">
         <f>+N48-N49</f>
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="T49" s="26">
         <f>+O48-O49</f>
-        <v>0</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -4328,13 +4345,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Lembar2"/>
-  <dimension ref="A1:W377"/>
+  <dimension ref="A1:X377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="S6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="W5" sqref="W5:W188"/>
+      <selection pane="bottomRight" activeCell="X5" sqref="X5:X188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4351,32 +4368,32 @@
     <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>234</v>
       </c>
       <c r="U1" s="42"/>
       <c r="V1" s="42"/>
     </row>
-    <row r="2" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>235</v>
       </c>
       <c r="U2" s="42"/>
       <c r="V2" s="42"/>
     </row>
-    <row r="3" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="17"/>
       <c r="U3" s="42"/>
       <c r="V3" s="42"/>
     </row>
-    <row r="4" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
       <c r="U4" s="42"/>
       <c r="V4" s="42"/>
     </row>
-    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -4446,8 +4463,11 @@
       <c r="W5" s="7" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X5" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>55200</v>
       </c>
@@ -4517,8 +4537,11 @@
       <c r="W6" s="8">
         <v>382338</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X6" s="3">
+        <v>382338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>55200</v>
       </c>
@@ -4588,8 +4611,11 @@
       <c r="W7" s="8">
         <v>291748</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X7" s="3">
+        <v>291748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>55200</v>
       </c>
@@ -4659,8 +4685,11 @@
       <c r="W8" s="8">
         <v>8082559</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X8" s="3">
+        <v>7478566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>55200</v>
       </c>
@@ -4730,8 +4759,11 @@
       <c r="W9" s="8">
         <v>704803</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X9" s="3">
+        <v>618417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>55200</v>
       </c>
@@ -4801,8 +4833,11 @@
       <c r="W10" s="8">
         <v>3272778</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X10" s="3">
+        <v>3041663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>55200</v>
       </c>
@@ -4872,8 +4907,11 @@
       <c r="W11" s="8">
         <v>1428765</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X11" s="3">
+        <v>1428765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>55200</v>
       </c>
@@ -4943,8 +4981,11 @@
       <c r="W12" s="8">
         <v>1626705</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X12" s="3">
+        <v>1531448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>55200</v>
       </c>
@@ -4992,8 +5033,9 @@
       <c r="U13" s="10"/>
       <c r="V13" s="5"/>
       <c r="W13" s="10"/>
-    </row>
-    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>55200</v>
       </c>
@@ -5063,8 +5105,11 @@
       <c r="W14" s="8">
         <v>7660370</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X14" s="3">
+        <v>7466278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>55200</v>
       </c>
@@ -5134,8 +5179,11 @@
       <c r="W15" s="8">
         <v>446105</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X15" s="3">
+        <v>446105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>55200</v>
       </c>
@@ -5205,8 +5253,11 @@
       <c r="W16" s="8">
         <v>3198275</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X16" s="3">
+        <v>2936120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>55200</v>
       </c>
@@ -5276,8 +5327,11 @@
       <c r="W17" s="8">
         <v>1545638</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X17" s="3">
+        <v>1545638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>55200</v>
       </c>
@@ -5347,8 +5401,11 @@
       <c r="W18" s="8">
         <v>3220084</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X18" s="3">
+        <v>2479675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>55200</v>
       </c>
@@ -5418,8 +5475,11 @@
       <c r="W19" s="8">
         <v>16088384</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X19" s="3">
+        <v>16088384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>55200</v>
       </c>
@@ -5489,8 +5549,11 @@
       <c r="W20" s="8">
         <v>6826026</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X20" s="3">
+        <v>6550356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>55200</v>
       </c>
@@ -5560,8 +5623,11 @@
       <c r="W21" s="8">
         <v>625019</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X21" s="3">
+        <v>625019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>55200</v>
       </c>
@@ -5631,8 +5697,11 @@
       <c r="W22" s="8">
         <v>3567779</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X22" s="3">
+        <v>3216206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>55200</v>
       </c>
@@ -5702,8 +5771,11 @@
       <c r="W23" s="8">
         <v>3657333</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X23" s="3">
+        <v>3562824</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>55200</v>
       </c>
@@ -5773,8 +5845,11 @@
       <c r="W24" s="8">
         <v>452860</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X24" s="3">
+        <v>452860</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>55200</v>
       </c>
@@ -5844,8 +5919,11 @@
       <c r="W25" s="8">
         <v>8774489</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X25" s="3">
+        <v>8426875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>55200</v>
       </c>
@@ -5915,8 +5993,11 @@
       <c r="W26" s="8">
         <v>7440102</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X26" s="3">
+        <v>7440102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>55200</v>
       </c>
@@ -5986,8 +6067,11 @@
       <c r="W27" s="8">
         <v>9997909</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X27" s="3">
+        <v>7919429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>55200</v>
       </c>
@@ -6057,8 +6141,11 @@
       <c r="W28" s="8">
         <v>2963082</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X28" s="3">
+        <v>2963082</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>55200</v>
       </c>
@@ -6128,8 +6215,11 @@
       <c r="W29" s="8">
         <v>574440</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X29" s="3">
+        <v>574440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>55200</v>
       </c>
@@ -6199,8 +6289,11 @@
       <c r="W30" s="8">
         <v>11561127</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X30" s="3">
+        <v>11288597</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>55200</v>
       </c>
@@ -6270,8 +6363,11 @@
       <c r="W31" s="8">
         <v>6943008</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X31" s="3">
+        <v>6943008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>55200</v>
       </c>
@@ -6341,8 +6437,11 @@
       <c r="W32" s="8">
         <v>7502106</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X32" s="3">
+        <v>5468493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>55200</v>
       </c>
@@ -6412,8 +6511,11 @@
       <c r="W33" s="8">
         <v>116715</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X33" s="3">
+        <v>116715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>55200</v>
       </c>
@@ -6483,8 +6585,11 @@
       <c r="W34" s="8">
         <v>6052067</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X34" s="3">
+        <v>5919911</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>55200</v>
       </c>
@@ -6554,8 +6659,11 @@
       <c r="W35" s="8">
         <v>606904</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X35" s="3">
+        <v>606904</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>55200</v>
       </c>
@@ -6625,8 +6733,11 @@
       <c r="W36" s="8">
         <v>219649</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X36" s="3">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>55200</v>
       </c>
@@ -6696,8 +6807,11 @@
       <c r="W37" s="8">
         <v>2297155</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X37" s="3">
+        <v>2297155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>55200</v>
       </c>
@@ -6767,8 +6881,11 @@
       <c r="W38" s="8">
         <v>346485</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X38" s="3">
+        <v>216132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>55200</v>
       </c>
@@ -6838,8 +6955,11 @@
       <c r="W39" s="8">
         <v>10026619</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X39" s="3">
+        <v>9933540</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>55200</v>
       </c>
@@ -6909,8 +7029,11 @@
       <c r="W40" s="8">
         <v>2112711</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X40" s="3">
+        <v>2112711</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>55200</v>
       </c>
@@ -6980,8 +7103,11 @@
       <c r="W41" s="8">
         <v>7873748</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X41" s="3">
+        <v>7252000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>55200</v>
       </c>
@@ -7051,8 +7177,11 @@
       <c r="W42" s="8">
         <v>4807671</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X42" s="3">
+        <v>4634847</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>55200</v>
       </c>
@@ -7122,8 +7251,11 @@
       <c r="W43" s="8">
         <v>7181469</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X43" s="3">
+        <v>7074260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>55200</v>
       </c>
@@ -7193,8 +7325,11 @@
       <c r="W44" s="8">
         <v>3252823</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X44" s="3">
+        <v>3252823</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>55200</v>
       </c>
@@ -7264,8 +7399,11 @@
       <c r="W45" s="8">
         <v>8150274</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X45" s="3">
+        <v>7831103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>55200</v>
       </c>
@@ -7335,8 +7473,11 @@
       <c r="W46" s="8">
         <v>1527468</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X46" s="3">
+        <v>1168071</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>55200</v>
       </c>
@@ -7406,8 +7547,11 @@
       <c r="W47" s="8">
         <v>14220274</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X47" s="3">
+        <v>13872034</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>55200</v>
       </c>
@@ -7477,8 +7621,11 @@
       <c r="W48" s="8">
         <v>5126430</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X48" s="3">
+        <v>4520818</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>55200</v>
       </c>
@@ -7548,8 +7695,11 @@
       <c r="W49" s="8">
         <v>3059741</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X49" s="3">
+        <v>2956006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>55200</v>
       </c>
@@ -7619,8 +7769,11 @@
       <c r="W50" s="8">
         <v>211975</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X50" s="3">
+        <v>211975</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>55200</v>
       </c>
@@ -7690,8 +7843,11 @@
       <c r="W51" s="8">
         <v>11279734</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X51" s="3">
+        <v>10442018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>55200</v>
       </c>
@@ -7761,8 +7917,11 @@
       <c r="W52" s="8">
         <v>3214771</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X52" s="3">
+        <v>2721599</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>55200</v>
       </c>
@@ -7832,8 +7991,11 @@
       <c r="W53" s="8">
         <v>7333775</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X53" s="3">
+        <v>6349873</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>55200</v>
       </c>
@@ -7903,8 +8065,11 @@
       <c r="W54" s="8">
         <v>186526</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X54" s="3">
+        <v>186526</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>55200</v>
       </c>
@@ -7974,8 +8139,11 @@
       <c r="W55" s="8">
         <v>2698256</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X55" s="3">
+        <v>2479652</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>55200</v>
       </c>
@@ -8027,8 +8195,9 @@
       <c r="U56" s="10"/>
       <c r="V56" s="5"/>
       <c r="W56" s="10"/>
-    </row>
-    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X56" s="5"/>
+    </row>
+    <row r="57" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>55200</v>
       </c>
@@ -8098,8 +8267,11 @@
       <c r="W57" s="8">
         <v>18876047</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X57" s="3">
+        <v>17991413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>55200</v>
       </c>
@@ -8169,8 +8341,11 @@
       <c r="W58" s="8">
         <v>859909</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X58" s="3">
+        <v>859909</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>55200</v>
       </c>
@@ -8240,8 +8415,11 @@
       <c r="W59" s="8">
         <v>3482511</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X59" s="3">
+        <v>2236991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
         <v>55200</v>
       </c>
@@ -8311,8 +8489,11 @@
       <c r="W60" s="8">
         <v>384530</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X60" s="3">
+        <v>384530</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>55200</v>
       </c>
@@ -8382,8 +8563,11 @@
       <c r="W61" s="8">
         <v>6669710</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X61" s="3">
+        <v>6423005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>55200</v>
       </c>
@@ -8453,8 +8637,11 @@
       <c r="W62" s="8">
         <v>1383358</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X62" s="3">
+        <v>1383358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>55200</v>
       </c>
@@ -8524,8 +8711,11 @@
       <c r="W63" s="8">
         <v>14291971</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X63" s="3">
+        <v>12318372</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>55200</v>
       </c>
@@ -8595,8 +8785,11 @@
       <c r="W64" s="8">
         <v>1071555</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X64" s="3">
+        <v>1071555</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>55200</v>
       </c>
@@ -8666,8 +8859,11 @@
       <c r="W65" s="8">
         <v>1488640</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X65" s="3">
+        <v>1488640</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>55200</v>
       </c>
@@ -8737,8 +8933,11 @@
       <c r="W66" s="8">
         <v>169668</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X66" s="3">
+        <v>169668</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>55200</v>
       </c>
@@ -8808,8 +9007,11 @@
       <c r="W67" s="8">
         <v>9175771</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X67" s="3">
+        <v>8460297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>55200</v>
       </c>
@@ -8879,8 +9081,11 @@
       <c r="W68" s="8">
         <v>489417</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X68" s="3">
+        <v>489417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>55200</v>
       </c>
@@ -8950,8 +9155,11 @@
       <c r="W69" s="8">
         <v>11821251</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X69" s="3">
+        <v>11821251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>55200</v>
       </c>
@@ -9021,8 +9229,11 @@
       <c r="W70" s="8">
         <v>6046234</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X70" s="3">
+        <v>5675757</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
         <v>55200</v>
       </c>
@@ -9092,8 +9303,11 @@
       <c r="W71" s="8">
         <v>5155688</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X71" s="3">
+        <v>2984984</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
         <v>55200</v>
       </c>
@@ -9163,8 +9377,11 @@
       <c r="W72" s="8">
         <v>676359</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X72" s="3">
+        <v>244293</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
         <v>55200</v>
       </c>
@@ -9234,8 +9451,11 @@
       <c r="W73" s="8">
         <v>10533923</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X73" s="3">
+        <v>9379138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
         <v>55200</v>
       </c>
@@ -9305,8 +9525,11 @@
       <c r="W74" s="8">
         <v>4195281</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X74" s="3">
+        <v>4097648</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>55200</v>
       </c>
@@ -9376,8 +9599,11 @@
       <c r="W75" s="8">
         <v>5039738</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X75" s="3">
+        <v>4927146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>55200</v>
       </c>
@@ -9447,8 +9673,11 @@
       <c r="W76" s="8">
         <v>1881229</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X76" s="3">
+        <v>1881229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
         <v>55200</v>
       </c>
@@ -9518,8 +9747,11 @@
       <c r="W77" s="8">
         <v>4913610</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X77" s="3">
+        <v>4520729</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
         <v>55200</v>
       </c>
@@ -9589,8 +9821,11 @@
       <c r="W78" s="8">
         <v>1993428</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X78" s="3">
+        <v>1993428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
         <v>55200</v>
       </c>
@@ -9660,8 +9895,11 @@
       <c r="W79" s="8">
         <v>8331641</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X79" s="3">
+        <v>7330157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
         <v>55200</v>
       </c>
@@ -9731,8 +9969,11 @@
       <c r="W80" s="8">
         <v>404647</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X80" s="3">
+        <v>404647</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
         <v>55200</v>
       </c>
@@ -9802,8 +10043,11 @@
       <c r="W81" s="8">
         <v>9518042</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X81" s="3">
+        <v>8761794</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <v>55200</v>
       </c>
@@ -9873,8 +10117,11 @@
       <c r="W82" s="8">
         <v>1631323</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X82" s="3">
+        <v>1468301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="14">
         <v>55200</v>
       </c>
@@ -9944,8 +10191,11 @@
       <c r="W83" s="8">
         <v>15442724</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X83" s="3">
+        <v>14321277</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="14">
         <v>55200</v>
       </c>
@@ -10015,8 +10265,11 @@
       <c r="W84" s="8">
         <v>3480280</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X84" s="3">
+        <v>3196923</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="14">
         <v>55200</v>
       </c>
@@ -10086,8 +10339,11 @@
       <c r="W85" s="8">
         <v>4570803</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X85" s="3">
+        <v>3347807</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
         <v>55200</v>
       </c>
@@ -10157,8 +10413,11 @@
       <c r="W86" s="8">
         <v>1329942</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X86" s="3">
+        <v>1329942</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
         <v>55200</v>
       </c>
@@ -10228,8 +10487,11 @@
       <c r="W87" s="8">
         <v>3805119</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X87" s="3">
+        <v>3760159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
         <v>55200</v>
       </c>
@@ -10299,8 +10561,11 @@
       <c r="W88" s="8">
         <v>6074256</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X88" s="3">
+        <v>6074256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="14">
         <v>55210</v>
       </c>
@@ -10370,8 +10635,11 @@
       <c r="W89" s="8">
         <v>363314</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X89" s="3">
+        <v>363314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="14">
         <v>55210</v>
       </c>
@@ -10441,8 +10709,11 @@
       <c r="W90" s="8">
         <v>3002341</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X90" s="3">
+        <v>3002341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
         <v>55210</v>
       </c>
@@ -10512,8 +10783,11 @@
       <c r="W91" s="8">
         <v>96143</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X91" s="3">
+        <v>96143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
         <v>55210</v>
       </c>
@@ -10583,8 +10857,11 @@
       <c r="W92" s="8">
         <v>1036437</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X92" s="3">
+        <v>567267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="14">
         <v>55210</v>
       </c>
@@ -10654,8 +10931,11 @@
       <c r="W93" s="8">
         <v>1325974</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X93" s="3">
+        <v>1325974</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
         <v>55210</v>
       </c>
@@ -10725,8 +11005,11 @@
       <c r="W94" s="8">
         <v>2041585</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X94" s="3">
+        <v>1942954</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
         <v>55210</v>
       </c>
@@ -10786,8 +11069,9 @@
       <c r="U95" s="10"/>
       <c r="V95" s="5"/>
       <c r="W95" s="10"/>
-    </row>
-    <row r="96" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X95" s="5"/>
+    </row>
+    <row r="96" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <v>55210</v>
       </c>
@@ -10857,8 +11141,11 @@
       <c r="W96" s="8">
         <v>1949212</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X96" s="3">
+        <v>1148620</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
         <v>55210</v>
       </c>
@@ -10928,8 +11215,11 @@
       <c r="W97" s="8">
         <v>3210752</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X97" s="3">
+        <v>3210752</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
         <v>55210</v>
       </c>
@@ -10999,8 +11289,11 @@
       <c r="W98" s="8">
         <v>70248</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X98" s="3">
+        <v>70248</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="14">
         <v>55210</v>
       </c>
@@ -11070,8 +11363,11 @@
       <c r="W99" s="8">
         <v>1827874</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X99" s="3">
+        <v>979848</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
         <v>55210</v>
       </c>
@@ -11127,8 +11423,9 @@
       <c r="U100" s="10"/>
       <c r="V100" s="5"/>
       <c r="W100" s="10"/>
-    </row>
-    <row r="101" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X100" s="5"/>
+    </row>
+    <row r="101" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="14">
         <v>55210</v>
       </c>
@@ -11198,8 +11495,11 @@
       <c r="W101" s="8">
         <v>4013692</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X101" s="3">
+        <v>3755974</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="14">
         <v>55210</v>
       </c>
@@ -11235,8 +11535,9 @@
       <c r="U102" s="10"/>
       <c r="V102" s="5"/>
       <c r="W102" s="10"/>
-    </row>
-    <row r="103" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X102" s="5"/>
+    </row>
+    <row r="103" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="14">
         <v>55210</v>
       </c>
@@ -11306,8 +11607,11 @@
       <c r="W103" s="8">
         <v>3410119</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X103" s="3">
+        <v>3319452</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="14">
         <v>55210</v>
       </c>
@@ -11377,8 +11681,11 @@
       <c r="W104" s="8">
         <v>1168162</v>
       </c>
-    </row>
-    <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X104" s="3">
+        <v>1168162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="14">
         <v>55210</v>
       </c>
@@ -11448,8 +11755,11 @@
       <c r="W105" s="8">
         <v>1062693</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X105" s="3">
+        <v>1010655</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="14">
         <v>55210</v>
       </c>
@@ -11509,8 +11819,9 @@
       <c r="U106" s="10"/>
       <c r="V106" s="5"/>
       <c r="W106" s="10"/>
-    </row>
-    <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X106" s="5"/>
+    </row>
+    <row r="107" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="14">
         <v>55210</v>
       </c>
@@ -11580,8 +11891,11 @@
       <c r="W107" s="8">
         <v>2216601</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X107" s="3">
+        <v>2136045</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="14">
         <v>55210</v>
       </c>
@@ -11647,8 +11961,9 @@
       </c>
       <c r="V108" s="5"/>
       <c r="W108" s="10"/>
-    </row>
-    <row r="109" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X108" s="5"/>
+    </row>
+    <row r="109" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
         <v>55210</v>
       </c>
@@ -11718,8 +12033,11 @@
       <c r="W109" s="8">
         <v>323538</v>
       </c>
-    </row>
-    <row r="110" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X109" s="3">
+        <v>222121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
         <v>55210</v>
       </c>
@@ -11789,8 +12107,11 @@
       <c r="W110" s="8">
         <v>19890</v>
       </c>
-    </row>
-    <row r="111" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X110" s="3">
+        <v>19890</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="14">
         <v>55210</v>
       </c>
@@ -11860,8 +12181,11 @@
       <c r="W111" s="8">
         <v>2866200</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X111" s="3">
+        <v>2445692</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="14">
         <v>55210</v>
       </c>
@@ -11931,8 +12255,11 @@
       <c r="W112" s="8">
         <v>106149</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X112" s="3">
+        <v>106149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="14">
         <v>55210</v>
       </c>
@@ -12002,8 +12329,11 @@
       <c r="W113" s="8">
         <v>6860378</v>
       </c>
-    </row>
-    <row r="114" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X113" s="3">
+        <v>6523567</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="14">
         <v>55210</v>
       </c>
@@ -12073,8 +12403,11 @@
       <c r="W114" s="8">
         <v>21192</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X114" s="3">
+        <v>21192</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="14">
         <v>55220</v>
       </c>
@@ -12144,8 +12477,11 @@
       <c r="W115" s="8">
         <v>4061770</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X115" s="3">
+        <v>3764627</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="14">
         <v>55220</v>
       </c>
@@ -12215,8 +12551,11 @@
       <c r="W116" s="8">
         <v>2369664</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X116" s="3">
+        <v>2111386</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="14">
         <v>55220</v>
       </c>
@@ -12286,8 +12625,11 @@
       <c r="W117" s="8">
         <v>2434284</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X117" s="3">
+        <v>1696039</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
         <v>55220</v>
       </c>
@@ -12357,8 +12699,11 @@
       <c r="W118" s="8">
         <v>3675534</v>
       </c>
-    </row>
-    <row r="119" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X118" s="3">
+        <v>2718843</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
         <v>55220</v>
       </c>
@@ -12414,8 +12759,9 @@
       <c r="U119" s="10"/>
       <c r="V119" s="5"/>
       <c r="W119" s="10"/>
-    </row>
-    <row r="120" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X119" s="5"/>
+    </row>
+    <row r="120" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="14">
         <v>55220</v>
       </c>
@@ -12485,8 +12831,11 @@
       <c r="W120" s="8">
         <v>2943702</v>
       </c>
-    </row>
-    <row r="121" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X120" s="3">
+        <v>1978254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="14">
         <v>55220</v>
       </c>
@@ -12556,8 +12905,11 @@
       <c r="W121" s="8">
         <v>932108</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X121" s="3">
+        <v>834362</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="14">
         <v>55220</v>
       </c>
@@ -12627,8 +12979,11 @@
       <c r="W122" s="8">
         <v>915759</v>
       </c>
-    </row>
-    <row r="123" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X122" s="3">
+        <v>776403</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="14">
         <v>55220</v>
       </c>
@@ -12698,8 +13053,11 @@
       <c r="W123" s="8">
         <v>16834329</v>
       </c>
-    </row>
-    <row r="124" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X123" s="3">
+        <v>16417363</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
         <v>55220</v>
       </c>
@@ -12769,8 +13127,11 @@
       <c r="W124" s="8">
         <v>629650</v>
       </c>
-    </row>
-    <row r="125" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X124" s="3">
+        <v>629650</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="14">
         <v>55220</v>
       </c>
@@ -12840,8 +13201,11 @@
       <c r="W125" s="8">
         <v>2510037</v>
       </c>
-    </row>
-    <row r="126" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X125" s="3">
+        <v>1623029</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="14">
         <v>55220</v>
       </c>
@@ -12911,8 +13275,11 @@
       <c r="W126" s="8">
         <v>1198791</v>
       </c>
-    </row>
-    <row r="127" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X126" s="3">
+        <v>1198791</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="14">
         <v>55220</v>
       </c>
@@ -12982,8 +13349,11 @@
       <c r="W127" s="8">
         <v>1031925</v>
       </c>
-    </row>
-    <row r="128" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X127" s="3">
+        <v>1031925</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="14">
         <v>55220</v>
       </c>
@@ -13053,8 +13423,11 @@
       <c r="W128" s="8">
         <v>1663663</v>
       </c>
-    </row>
-    <row r="129" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X128" s="3">
+        <v>1663663</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="14">
         <v>55220</v>
       </c>
@@ -13124,8 +13497,11 @@
       <c r="W129" s="8">
         <v>6019412</v>
       </c>
-    </row>
-    <row r="130" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X129" s="3">
+        <v>4517622</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="14">
         <v>55220</v>
       </c>
@@ -13195,8 +13571,11 @@
       <c r="W130" s="8">
         <v>3082720</v>
       </c>
-    </row>
-    <row r="131" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X130" s="3">
+        <v>959595</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="14">
         <v>55230</v>
       </c>
@@ -13266,8 +13645,11 @@
       <c r="W131" s="8">
         <v>2923262</v>
       </c>
-    </row>
-    <row r="132" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X131" s="3">
+        <v>2856078</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
         <v>55230</v>
       </c>
@@ -13337,8 +13719,11 @@
       <c r="W132" s="8">
         <v>248669</v>
       </c>
-    </row>
-    <row r="133" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X132" s="3">
+        <v>248669</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
         <v>55230</v>
       </c>
@@ -13408,8 +13793,11 @@
       <c r="W133" s="8">
         <v>173333</v>
       </c>
-    </row>
-    <row r="134" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X133" s="3">
+        <v>173333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="14">
         <v>55230</v>
       </c>
@@ -13445,8 +13833,9 @@
       <c r="U134" s="10"/>
       <c r="V134" s="5"/>
       <c r="W134" s="10"/>
-    </row>
-    <row r="135" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X134" s="5"/>
+    </row>
+    <row r="135" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="14">
         <v>55230</v>
       </c>
@@ -13516,8 +13905,11 @@
       <c r="W135" s="8">
         <v>3565122</v>
       </c>
-    </row>
-    <row r="136" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X135" s="3">
+        <v>3556776</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="14">
         <v>55230</v>
       </c>
@@ -13587,8 +13979,11 @@
       <c r="W136" s="8">
         <v>2450315</v>
       </c>
-    </row>
-    <row r="137" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X136" s="3">
+        <v>2450315</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
         <v>55230</v>
       </c>
@@ -13658,8 +14053,11 @@
       <c r="W137" s="8">
         <v>6006689</v>
       </c>
-    </row>
-    <row r="138" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X137" s="3">
+        <v>5750909</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="14">
         <v>55230</v>
       </c>
@@ -13729,8 +14127,11 @@
       <c r="W138" s="8">
         <v>5483173</v>
       </c>
-    </row>
-    <row r="139" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X138" s="3">
+        <v>5460733</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
         <v>55230</v>
       </c>
@@ -13800,8 +14201,11 @@
       <c r="W139" s="8">
         <v>1883232</v>
       </c>
-    </row>
-    <row r="140" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X139" s="3">
+        <v>1883232</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="14">
         <v>55230</v>
       </c>
@@ -13871,8 +14275,11 @@
       <c r="W140" s="8">
         <v>19692</v>
       </c>
-    </row>
-    <row r="141" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X140" s="3">
+        <v>19692</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="14">
         <v>55230</v>
       </c>
@@ -13942,8 +14349,11 @@
       <c r="W141" s="8">
         <v>2754487</v>
       </c>
-    </row>
-    <row r="142" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X141" s="3">
+        <v>2689441</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="14">
         <v>55230</v>
       </c>
@@ -14013,8 +14423,11 @@
       <c r="W142" s="8">
         <v>390451</v>
       </c>
-    </row>
-    <row r="143" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X142" s="3">
+        <v>390451</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="14">
         <v>55230</v>
       </c>
@@ -14084,8 +14497,11 @@
       <c r="W143" s="8">
         <v>6076221</v>
       </c>
-    </row>
-    <row r="144" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X143" s="3">
+        <v>5953997</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="14">
         <v>55230</v>
       </c>
@@ -14155,8 +14571,11 @@
       <c r="W144" s="8">
         <v>820661</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X144" s="3">
+        <v>820661</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="14">
         <v>55230</v>
       </c>
@@ -14226,8 +14645,11 @@
       <c r="W145" s="8">
         <v>6144072</v>
       </c>
-    </row>
-    <row r="146" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X145" s="3">
+        <v>6144072</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="14">
         <v>55230</v>
       </c>
@@ -14297,8 +14719,11 @@
       <c r="W146" s="8">
         <v>386205</v>
       </c>
-    </row>
-    <row r="147" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X146" s="3">
+        <v>386205</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="14">
         <v>55230</v>
       </c>
@@ -14368,8 +14793,11 @@
       <c r="W147" s="8">
         <v>4386886</v>
       </c>
-    </row>
-    <row r="148" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X147" s="3">
+        <v>3974410</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="14">
         <v>55230</v>
       </c>
@@ -14439,8 +14867,11 @@
       <c r="W148" s="8">
         <v>127212</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X148" s="3">
+        <v>127212</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="14">
         <v>55230</v>
       </c>
@@ -14510,8 +14941,11 @@
       <c r="W149" s="8">
         <v>11886801</v>
       </c>
-    </row>
-    <row r="150" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X149" s="3">
+        <v>11864815</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="14">
         <v>55230</v>
       </c>
@@ -14581,8 +15015,11 @@
       <c r="W150" s="8">
         <v>17240735</v>
       </c>
-    </row>
-    <row r="151" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X150" s="3">
+        <v>16951140</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="14">
         <v>55230</v>
       </c>
@@ -14652,8 +15089,9 @@
       <c r="W151" s="8">
         <v>37363</v>
       </c>
-    </row>
-    <row r="152" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X151" s="5"/>
+    </row>
+    <row r="152" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="14">
         <v>55230</v>
       </c>
@@ -14723,8 +15161,11 @@
       <c r="W152" s="8">
         <v>7392576</v>
       </c>
-    </row>
-    <row r="153" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X152" s="3">
+        <v>7392576</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="14">
         <v>55230</v>
       </c>
@@ -14794,8 +15235,11 @@
       <c r="W153" s="8">
         <v>2208908</v>
       </c>
-    </row>
-    <row r="154" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X153" s="3">
+        <v>2044810</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="14">
         <v>55230</v>
       </c>
@@ -14865,8 +15309,11 @@
       <c r="W154" s="8">
         <v>6272616</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X154" s="3">
+        <v>5318328</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="14">
         <v>55230</v>
       </c>
@@ -14936,8 +15383,11 @@
       <c r="W155" s="8">
         <v>1595530</v>
       </c>
-    </row>
-    <row r="156" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X155" s="3">
+        <v>1595530</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="14">
         <v>55230</v>
       </c>
@@ -15007,8 +15457,11 @@
       <c r="W156" s="8">
         <v>14498015</v>
       </c>
-    </row>
-    <row r="157" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X156" s="3">
+        <v>14386551</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="14">
         <v>55230</v>
       </c>
@@ -15078,8 +15531,11 @@
       <c r="W157" s="8">
         <v>2404093</v>
       </c>
-    </row>
-    <row r="158" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X157" s="3">
+        <v>2404093</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="14">
         <v>55230</v>
       </c>
@@ -15149,8 +15605,11 @@
       <c r="W158" s="8">
         <v>2543137</v>
       </c>
-    </row>
-    <row r="159" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X158" s="3">
+        <v>706215</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="14">
         <v>55230</v>
       </c>
@@ -15220,8 +15679,11 @@
       <c r="W159" s="8">
         <v>56822</v>
       </c>
-    </row>
-    <row r="160" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X159" s="3">
+        <v>56822</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="14">
         <v>55230</v>
       </c>
@@ -15291,8 +15753,11 @@
       <c r="W160" s="8">
         <v>9828492</v>
       </c>
-    </row>
-    <row r="161" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X160" s="3">
+        <v>9728497</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="14">
         <v>55230</v>
       </c>
@@ -15362,8 +15827,11 @@
       <c r="W161" s="8">
         <v>9945709</v>
       </c>
-    </row>
-    <row r="162" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X161" s="3">
+        <v>3819520</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="14">
         <v>55230</v>
       </c>
@@ -15433,8 +15901,11 @@
       <c r="W162" s="8">
         <v>7046699</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X162" s="3">
+        <v>6904447</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="14">
         <v>55230</v>
       </c>
@@ -15504,8 +15975,11 @@
       <c r="W163" s="8">
         <v>2110794</v>
       </c>
-    </row>
-    <row r="164" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X163" s="3">
+        <v>2110794</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="14">
         <v>55230</v>
       </c>
@@ -15575,8 +16049,11 @@
       <c r="W164" s="8">
         <v>6219881</v>
       </c>
-    </row>
-    <row r="165" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X164" s="3">
+        <v>6178549</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="14">
         <v>55230</v>
       </c>
@@ -15646,8 +16123,11 @@
       <c r="W165" s="8">
         <v>82305</v>
       </c>
-    </row>
-    <row r="166" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X165" s="3">
+        <v>82305</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="14">
         <v>55230</v>
       </c>
@@ -15717,8 +16197,11 @@
       <c r="W166" s="8">
         <v>1109543</v>
       </c>
-    </row>
-    <row r="167" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X166" s="3">
+        <v>467943</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="14">
         <v>55230</v>
       </c>
@@ -15778,8 +16261,9 @@
       <c r="U167" s="10"/>
       <c r="V167" s="5"/>
       <c r="W167" s="10"/>
-    </row>
-    <row r="168" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X167" s="5"/>
+    </row>
+    <row r="168" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="14">
         <v>55230</v>
       </c>
@@ -15849,8 +16333,11 @@
       <c r="W168" s="8">
         <v>9099907</v>
       </c>
-    </row>
-    <row r="169" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X168" s="3">
+        <v>9017395</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="14">
         <v>55230</v>
       </c>
@@ -15920,8 +16407,11 @@
       <c r="W169" s="8">
         <v>2849630</v>
       </c>
-    </row>
-    <row r="170" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X169" s="3">
+        <v>2849630</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="14">
         <v>55230</v>
       </c>
@@ -15991,8 +16481,11 @@
       <c r="W170" s="8">
         <v>1859139</v>
       </c>
-    </row>
-    <row r="171" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X170" s="3">
+        <v>1024934</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="14">
         <v>55230</v>
       </c>
@@ -16052,8 +16545,9 @@
       <c r="U171" s="10"/>
       <c r="V171" s="5"/>
       <c r="W171" s="10"/>
-    </row>
-    <row r="172" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X171" s="5"/>
+    </row>
+    <row r="172" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="14">
         <v>55230</v>
       </c>
@@ -16123,8 +16617,11 @@
       <c r="W172" s="8">
         <v>5334967</v>
       </c>
-    </row>
-    <row r="173" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X172" s="3">
+        <v>5315313</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="14">
         <v>55230</v>
       </c>
@@ -16194,8 +16691,11 @@
       <c r="W173" s="8">
         <v>5625305</v>
       </c>
-    </row>
-    <row r="174" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X173" s="3">
+        <v>5625305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="14">
         <v>55230</v>
       </c>
@@ -16259,8 +16759,9 @@
       <c r="U174" s="10"/>
       <c r="V174" s="5"/>
       <c r="W174" s="10"/>
-    </row>
-    <row r="175" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X174" s="5"/>
+    </row>
+    <row r="175" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="14">
         <v>55230</v>
       </c>
@@ -16320,8 +16821,9 @@
       <c r="U175" s="10"/>
       <c r="V175" s="5"/>
       <c r="W175" s="10"/>
-    </row>
-    <row r="176" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X175" s="5"/>
+    </row>
+    <row r="176" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="14">
         <v>55230</v>
       </c>
@@ -16391,8 +16893,11 @@
       <c r="W176" s="8">
         <v>5212021</v>
       </c>
-    </row>
-    <row r="177" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X176" s="3">
+        <v>4468312</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="14">
         <v>55230</v>
       </c>
@@ -16462,8 +16967,11 @@
       <c r="W177" s="8">
         <v>244131</v>
       </c>
-    </row>
-    <row r="178" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X177" s="3">
+        <v>244131</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="14">
         <v>55230</v>
       </c>
@@ -16533,8 +17041,11 @@
       <c r="W178" s="8">
         <v>1967651</v>
       </c>
-    </row>
-    <row r="179" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X178" s="3">
+        <v>1935375</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="14">
         <v>55230</v>
       </c>
@@ -16604,8 +17115,11 @@
       <c r="W179" s="8">
         <v>586096</v>
       </c>
-    </row>
-    <row r="180" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X179" s="3">
+        <v>212034</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="14">
         <v>55230</v>
       </c>
@@ -16675,8 +17189,11 @@
       <c r="W180" s="8">
         <v>1704556</v>
       </c>
-    </row>
-    <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X180" s="3">
+        <v>1624007</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="14">
         <v>55230</v>
       </c>
@@ -16746,8 +17263,11 @@
       <c r="W181" s="8">
         <v>6231835</v>
       </c>
-    </row>
-    <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X181" s="3">
+        <v>5530759</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="14">
         <v>55230</v>
       </c>
@@ -16817,8 +17337,11 @@
       <c r="W182" s="8">
         <v>215860</v>
       </c>
-    </row>
-    <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X182" s="3">
+        <v>215860</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="14">
         <v>55230</v>
       </c>
@@ -16888,8 +17411,11 @@
       <c r="W183" s="8">
         <v>2271867</v>
       </c>
-    </row>
-    <row r="184" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X183" s="3">
+        <v>1791560</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="14">
         <v>55230</v>
       </c>
@@ -16929,8 +17455,9 @@
       <c r="U184" s="10"/>
       <c r="V184" s="5"/>
       <c r="W184" s="10"/>
-    </row>
-    <row r="185" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X184" s="5"/>
+    </row>
+    <row r="185" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="14">
         <v>55230</v>
       </c>
@@ -17000,8 +17527,11 @@
       <c r="W185" s="8">
         <v>537941</v>
       </c>
-    </row>
-    <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X185" s="3">
+        <v>537941</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="14">
         <v>55230</v>
       </c>
@@ -17071,8 +17601,11 @@
       <c r="W186" s="8">
         <v>143194</v>
       </c>
-    </row>
-    <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X186" s="3">
+        <v>143194</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="14">
         <v>55230</v>
       </c>
@@ -17142,8 +17675,11 @@
       <c r="W187" s="8">
         <v>1981595</v>
       </c>
-    </row>
-    <row r="188" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X187" s="3">
+        <v>1981595</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="14">
         <v>55230</v>
       </c>
@@ -17213,11 +17749,14 @@
       <c r="W188" s="8">
         <v>369382</v>
       </c>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X188" s="3">
+        <v>369382</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
@@ -17784,13 +18323,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Lembar3"/>
-  <dimension ref="A1:W187"/>
+  <dimension ref="A1:X187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
+      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17799,17 +18338,17 @@
     <col min="21" max="21" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -17879,8 +18418,11 @@
       <c r="W4" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X4" s="44" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>55200</v>
       </c>
@@ -17950,8 +18492,11 @@
       <c r="W5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X5" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>55200</v>
       </c>
@@ -18021,8 +18566,11 @@
       <c r="W6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X6" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>55200</v>
       </c>
@@ -18092,8 +18640,11 @@
       <c r="W7" s="3">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X7" s="45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>55200</v>
       </c>
@@ -18163,8 +18714,11 @@
       <c r="W8" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X8" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>55200</v>
       </c>
@@ -18234,8 +18788,11 @@
       <c r="W9" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X9" s="45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>55200</v>
       </c>
@@ -18305,8 +18862,11 @@
       <c r="W10" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X10" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>55200</v>
       </c>
@@ -18376,8 +18936,11 @@
       <c r="W11" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X11" s="45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>55200</v>
       </c>
@@ -18425,8 +18988,9 @@
       <c r="U12" s="46"/>
       <c r="V12" s="50"/>
       <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X12" s="46"/>
+    </row>
+    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>55200</v>
       </c>
@@ -18496,8 +19060,11 @@
       <c r="W13" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X13" s="45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>55200</v>
       </c>
@@ -18567,8 +19134,11 @@
       <c r="W14" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X14" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>55200</v>
       </c>
@@ -18638,8 +19208,11 @@
       <c r="W15" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X15" s="45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>55200</v>
       </c>
@@ -18709,8 +19282,11 @@
       <c r="W16" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X16" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>55200</v>
       </c>
@@ -18780,8 +19356,11 @@
       <c r="W17" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X17" s="45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>55200</v>
       </c>
@@ -18851,8 +19430,11 @@
       <c r="W18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X18" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>55200</v>
       </c>
@@ -18922,8 +19504,11 @@
       <c r="W19" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X19" s="45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>55200</v>
       </c>
@@ -18993,8 +19578,11 @@
       <c r="W20" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X20" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>55200</v>
       </c>
@@ -19064,8 +19652,11 @@
       <c r="W21" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X21" s="45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>55200</v>
       </c>
@@ -19135,8 +19726,11 @@
       <c r="W22" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X22" s="45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>55200</v>
       </c>
@@ -19206,8 +19800,11 @@
       <c r="W23" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X23" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>55200</v>
       </c>
@@ -19277,8 +19874,11 @@
       <c r="W24" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X24" s="45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>55200</v>
       </c>
@@ -19348,8 +19948,11 @@
       <c r="W25" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X25" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>55200</v>
       </c>
@@ -19419,8 +20022,11 @@
       <c r="W26" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X26" s="45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>55200</v>
       </c>
@@ -19490,8 +20096,11 @@
       <c r="W27" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X27" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>55200</v>
       </c>
@@ -19561,8 +20170,11 @@
       <c r="W28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X28" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>55200</v>
       </c>
@@ -19632,8 +20244,11 @@
       <c r="W29" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X29" s="45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>55200</v>
       </c>
@@ -19703,8 +20318,11 @@
       <c r="W30" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X30" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>55200</v>
       </c>
@@ -19774,8 +20392,11 @@
       <c r="W31" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X31" s="45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>55200</v>
       </c>
@@ -19845,8 +20466,11 @@
       <c r="W32" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X32" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>55200</v>
       </c>
@@ -19916,8 +20540,11 @@
       <c r="W33" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X33" s="45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>55200</v>
       </c>
@@ -19987,8 +20614,11 @@
       <c r="W34" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X34" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>55200</v>
       </c>
@@ -20058,8 +20688,11 @@
       <c r="W35" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X35" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>55200</v>
       </c>
@@ -20129,8 +20762,11 @@
       <c r="W36" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X36" s="45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>55200</v>
       </c>
@@ -20200,8 +20836,11 @@
       <c r="W37" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X37" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>55200</v>
       </c>
@@ -20271,8 +20910,11 @@
       <c r="W38" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X38" s="45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>55200</v>
       </c>
@@ -20342,8 +20984,11 @@
       <c r="W39" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X39" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>55200</v>
       </c>
@@ -20413,8 +21058,11 @@
       <c r="W40" s="3">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X40" s="45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>55200</v>
       </c>
@@ -20484,8 +21132,11 @@
       <c r="W41" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X41" s="45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>55200</v>
       </c>
@@ -20555,8 +21206,11 @@
       <c r="W42" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X42" s="45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>55200</v>
       </c>
@@ -20626,8 +21280,11 @@
       <c r="W43" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X43" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>55200</v>
       </c>
@@ -20697,8 +21354,11 @@
       <c r="W44" s="3">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X44" s="45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>55200</v>
       </c>
@@ -20768,8 +21428,11 @@
       <c r="W45" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X45" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>55200</v>
       </c>
@@ -20839,8 +21502,11 @@
       <c r="W46" s="3">
         <v>105</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X46" s="45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>55200</v>
       </c>
@@ -20910,8 +21576,11 @@
       <c r="W47" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X47" s="45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>55200</v>
       </c>
@@ -20981,8 +21650,11 @@
       <c r="W48" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X48" s="45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>55200</v>
       </c>
@@ -21052,8 +21724,11 @@
       <c r="W49" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X49" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>55200</v>
       </c>
@@ -21123,8 +21798,11 @@
       <c r="W50" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X50" s="45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>55200</v>
       </c>
@@ -21194,8 +21872,11 @@
       <c r="W51" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X51" s="45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>55200</v>
       </c>
@@ -21265,8 +21946,11 @@
       <c r="W52" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X52" s="45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>55200</v>
       </c>
@@ -21336,8 +22020,11 @@
       <c r="W53" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X53" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>55200</v>
       </c>
@@ -21407,8 +22094,11 @@
       <c r="W54" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X54" s="45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>55200</v>
       </c>
@@ -21460,8 +22150,9 @@
       <c r="U55" s="46"/>
       <c r="V55" s="50"/>
       <c r="W55" s="5"/>
-    </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X55" s="46"/>
+    </row>
+    <row r="56" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>55200</v>
       </c>
@@ -21531,8 +22222,11 @@
       <c r="W56" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X56" s="45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>55200</v>
       </c>
@@ -21602,8 +22296,11 @@
       <c r="W57" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X57" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>55200</v>
       </c>
@@ -21673,8 +22370,11 @@
       <c r="W58" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X58" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>55200</v>
       </c>
@@ -21744,8 +22444,11 @@
       <c r="W59" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X59" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>55200</v>
       </c>
@@ -21815,8 +22518,11 @@
       <c r="W60" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X60" s="45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>55200</v>
       </c>
@@ -21886,8 +22592,11 @@
       <c r="W61" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X61" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>55200</v>
       </c>
@@ -21957,8 +22666,11 @@
       <c r="W62" s="3">
         <v>82</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X62" s="45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>55200</v>
       </c>
@@ -22028,8 +22740,11 @@
       <c r="W63" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X63" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>55200</v>
       </c>
@@ -22099,8 +22814,11 @@
       <c r="W64" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X64" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>55200</v>
       </c>
@@ -22170,8 +22888,11 @@
       <c r="W65" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X65" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>55200</v>
       </c>
@@ -22241,8 +22962,11 @@
       <c r="W66" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X66" s="45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>55200</v>
       </c>
@@ -22312,8 +23036,11 @@
       <c r="W67" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X67" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>55200</v>
       </c>
@@ -22383,8 +23110,11 @@
       <c r="W68" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X68" s="45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>55200</v>
       </c>
@@ -22454,8 +23184,11 @@
       <c r="W69" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X69" s="45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>55200</v>
       </c>
@@ -22525,8 +23258,11 @@
       <c r="W70" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X70" s="45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>55200</v>
       </c>
@@ -22596,8 +23332,11 @@
       <c r="W71" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X71" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>55200</v>
       </c>
@@ -22667,8 +23406,11 @@
       <c r="W72" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X72" s="45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>55200</v>
       </c>
@@ -22738,8 +23480,11 @@
       <c r="W73" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X73" s="45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>55200</v>
       </c>
@@ -22809,8 +23554,11 @@
       <c r="W74" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X74" s="45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>55200</v>
       </c>
@@ -22880,8 +23628,11 @@
       <c r="W75" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X75" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>55200</v>
       </c>
@@ -22951,8 +23702,11 @@
       <c r="W76" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X76" s="45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>55200</v>
       </c>
@@ -23022,8 +23776,11 @@
       <c r="W77" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X77" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>55200</v>
       </c>
@@ -23093,8 +23850,11 @@
       <c r="W78" s="3">
         <v>101</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X78" s="45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>55200</v>
       </c>
@@ -23164,8 +23924,11 @@
       <c r="W79" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X79" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>55200</v>
       </c>
@@ -23235,8 +23998,11 @@
       <c r="W80" s="3">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X80" s="45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>55200</v>
       </c>
@@ -23306,8 +24072,11 @@
       <c r="W81" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X81" s="45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>55200</v>
       </c>
@@ -23377,8 +24146,11 @@
       <c r="W82" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X82" s="45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>55200</v>
       </c>
@@ -23448,8 +24220,11 @@
       <c r="W83" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X83" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>55200</v>
       </c>
@@ -23519,8 +24294,11 @@
       <c r="W84" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X84" s="45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>55200</v>
       </c>
@@ -23590,8 +24368,11 @@
       <c r="W85" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X85" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>55200</v>
       </c>
@@ -23661,8 +24442,11 @@
       <c r="W86" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X86" s="45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>55200</v>
       </c>
@@ -23732,8 +24516,11 @@
       <c r="W87" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X87" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>55210</v>
       </c>
@@ -23803,8 +24590,11 @@
       <c r="W88" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X88" s="45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>55210</v>
       </c>
@@ -23874,8 +24664,11 @@
       <c r="W89" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X89" s="45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>55210</v>
       </c>
@@ -23945,8 +24738,11 @@
       <c r="W90" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X90" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>55210</v>
       </c>
@@ -24016,8 +24812,11 @@
       <c r="W91" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X91" s="45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>55210</v>
       </c>
@@ -24087,8 +24886,11 @@
       <c r="W92" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X92" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>55210</v>
       </c>
@@ -24158,8 +24960,11 @@
       <c r="W93" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X93" s="45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>55210</v>
       </c>
@@ -24219,8 +25024,9 @@
       <c r="U94" s="46"/>
       <c r="V94" s="50"/>
       <c r="W94" s="5"/>
-    </row>
-    <row r="95" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X94" s="46"/>
+    </row>
+    <row r="95" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>55210</v>
       </c>
@@ -24290,8 +25096,11 @@
       <c r="W95" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X95" s="45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>55210</v>
       </c>
@@ -24361,8 +25170,11 @@
       <c r="W96" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X96" s="45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>55210</v>
       </c>
@@ -24432,8 +25244,11 @@
       <c r="W97" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X97" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>55210</v>
       </c>
@@ -24503,8 +25318,11 @@
       <c r="W98" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X98" s="45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>55210</v>
       </c>
@@ -24560,8 +25378,9 @@
       <c r="U99" s="46"/>
       <c r="V99" s="50"/>
       <c r="W99" s="5"/>
-    </row>
-    <row r="100" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X99" s="46"/>
+    </row>
+    <row r="100" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>55210</v>
       </c>
@@ -24631,8 +25450,11 @@
       <c r="W100" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X100" s="45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>55210</v>
       </c>
@@ -24668,8 +25490,9 @@
       <c r="U101" s="46"/>
       <c r="V101" s="50"/>
       <c r="W101" s="5"/>
-    </row>
-    <row r="102" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X101" s="46"/>
+    </row>
+    <row r="102" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>55210</v>
       </c>
@@ -24739,8 +25562,11 @@
       <c r="W102" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="103" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X102" s="45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>55210</v>
       </c>
@@ -24810,8 +25636,11 @@
       <c r="W103" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X103" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>55210</v>
       </c>
@@ -24881,8 +25710,11 @@
       <c r="W104" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X104" s="45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>55210</v>
       </c>
@@ -24942,8 +25774,9 @@
       <c r="U105" s="46"/>
       <c r="V105" s="50"/>
       <c r="W105" s="5"/>
-    </row>
-    <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X105" s="46"/>
+    </row>
+    <row r="106" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>55210</v>
       </c>
@@ -25013,8 +25846,11 @@
       <c r="W106" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X106" s="45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>55210</v>
       </c>
@@ -25080,8 +25916,9 @@
       </c>
       <c r="V107" s="50"/>
       <c r="W107" s="5"/>
-    </row>
-    <row r="108" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X107" s="46"/>
+    </row>
+    <row r="108" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>55210</v>
       </c>
@@ -25151,8 +25988,11 @@
       <c r="W108" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X108" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>55210</v>
       </c>
@@ -25222,8 +26062,11 @@
       <c r="W109" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X109" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>55210</v>
       </c>
@@ -25293,8 +26136,11 @@
       <c r="W110" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="111" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X110" s="45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>55210</v>
       </c>
@@ -25364,8 +26210,11 @@
       <c r="W111" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X111" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>55210</v>
       </c>
@@ -25435,8 +26284,11 @@
       <c r="W112" s="3">
         <v>76</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X112" s="45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <v>55210</v>
       </c>
@@ -25506,8 +26358,11 @@
       <c r="W113" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X113" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="16">
         <v>55220</v>
       </c>
@@ -25577,8 +26432,11 @@
       <c r="W114" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X114" s="45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>55220</v>
       </c>
@@ -25648,8 +26506,11 @@
       <c r="W115" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X115" s="45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>55220</v>
       </c>
@@ -25719,8 +26580,11 @@
       <c r="W116" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X116" s="45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <v>55220</v>
       </c>
@@ -25790,8 +26654,11 @@
       <c r="W117" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X117" s="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="16">
         <v>55220</v>
       </c>
@@ -25847,8 +26714,9 @@
       <c r="U118" s="46"/>
       <c r="V118" s="50"/>
       <c r="W118" s="5"/>
-    </row>
-    <row r="119" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X118" s="46"/>
+    </row>
+    <row r="119" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="16">
         <v>55220</v>
       </c>
@@ -25918,8 +26786,11 @@
       <c r="W119" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="120" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X119" s="45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
         <v>55220</v>
       </c>
@@ -25989,8 +26860,11 @@
       <c r="W120" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X120" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <v>55220</v>
       </c>
@@ -26060,8 +26934,11 @@
       <c r="W121" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X121" s="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="16">
         <v>55220</v>
       </c>
@@ -26131,8 +27008,11 @@
       <c r="W122" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="123" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X122" s="45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="16">
         <v>55220</v>
       </c>
@@ -26202,8 +27082,11 @@
       <c r="W123" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X123" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="16">
         <v>55220</v>
       </c>
@@ -26273,8 +27156,11 @@
       <c r="W124" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="125" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X124" s="45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="16">
         <v>55220</v>
       </c>
@@ -26344,8 +27230,11 @@
       <c r="W125" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="126" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X125" s="45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>55220</v>
       </c>
@@ -26415,8 +27304,11 @@
       <c r="W126" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="127" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X126" s="45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>55220</v>
       </c>
@@ -26486,8 +27378,11 @@
       <c r="W127" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="128" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X127" s="45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="16">
         <v>55220</v>
       </c>
@@ -26557,8 +27452,11 @@
       <c r="W128" s="3">
         <v>108</v>
       </c>
-    </row>
-    <row r="129" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X128" s="45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="16">
         <v>55220</v>
       </c>
@@ -26628,8 +27526,11 @@
       <c r="W129" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="130" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X129" s="45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>55230</v>
       </c>
@@ -26699,8 +27600,11 @@
       <c r="W130" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="131" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X130" s="45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>55230</v>
       </c>
@@ -26770,8 +27674,11 @@
       <c r="W131" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X131" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="16">
         <v>55230</v>
       </c>
@@ -26841,8 +27748,11 @@
       <c r="W132" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X132" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>55230</v>
       </c>
@@ -26878,8 +27788,9 @@
       <c r="U133" s="46"/>
       <c r="V133" s="50"/>
       <c r="W133" s="5"/>
-    </row>
-    <row r="134" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X133" s="46"/>
+    </row>
+    <row r="134" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <v>55230</v>
       </c>
@@ -26949,8 +27860,11 @@
       <c r="W134" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="135" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X134" s="45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <v>55230</v>
       </c>
@@ -27020,8 +27934,11 @@
       <c r="W135" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="136" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X135" s="45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="16">
         <v>55230</v>
       </c>
@@ -27091,8 +28008,11 @@
       <c r="W136" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="137" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X136" s="45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>55230</v>
       </c>
@@ -27162,8 +28082,11 @@
       <c r="W137" s="3">
         <v>119</v>
       </c>
-    </row>
-    <row r="138" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X137" s="45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>55230</v>
       </c>
@@ -27233,8 +28156,11 @@
       <c r="W138" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="139" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X138" s="45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>55230</v>
       </c>
@@ -27304,8 +28230,11 @@
       <c r="W139" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X139" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="16">
         <v>55230</v>
       </c>
@@ -27375,8 +28304,11 @@
       <c r="W140" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="141" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X140" s="45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="16">
         <v>55230</v>
       </c>
@@ -27446,8 +28378,11 @@
       <c r="W141" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X141" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="16">
         <v>55230</v>
       </c>
@@ -27517,8 +28452,11 @@
       <c r="W142" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="143" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X142" s="45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="16">
         <v>55230</v>
       </c>
@@ -27588,8 +28526,11 @@
       <c r="W143" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X143" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="16">
         <v>55230</v>
       </c>
@@ -27659,8 +28600,11 @@
       <c r="W144" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X144" s="45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="16">
         <v>55230</v>
       </c>
@@ -27730,8 +28674,11 @@
       <c r="W145" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X145" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="16">
         <v>55230</v>
       </c>
@@ -27801,8 +28748,11 @@
       <c r="W146" s="3">
         <v>89</v>
       </c>
-    </row>
-    <row r="147" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X146" s="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>55230</v>
       </c>
@@ -27872,8 +28822,11 @@
       <c r="W147" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X147" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>55230</v>
       </c>
@@ -27943,8 +28896,11 @@
       <c r="W148" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X148" s="45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="16">
         <v>55230</v>
       </c>
@@ -28014,8 +28970,11 @@
       <c r="W149" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="150" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X149" s="45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="16">
         <v>55230</v>
       </c>
@@ -28085,8 +29044,9 @@
       <c r="W150" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X150" s="46"/>
+    </row>
+    <row r="151" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="16">
         <v>55230</v>
       </c>
@@ -28156,8 +29116,11 @@
       <c r="W151" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="152" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X151" s="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>55230</v>
       </c>
@@ -28227,8 +29190,11 @@
       <c r="W152" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="153" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X152" s="45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="16">
         <v>55230</v>
       </c>
@@ -28298,8 +29264,11 @@
       <c r="W153" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="154" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X153" s="45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>55230</v>
       </c>
@@ -28369,8 +29338,11 @@
       <c r="W154" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X154" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="16">
         <v>55230</v>
       </c>
@@ -28440,8 +29412,11 @@
       <c r="W155" s="3">
         <v>210</v>
       </c>
-    </row>
-    <row r="156" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X155" s="45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="16">
         <v>55230</v>
       </c>
@@ -28511,8 +29486,11 @@
       <c r="W156" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="157" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X156" s="45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>55230</v>
       </c>
@@ -28582,8 +29560,11 @@
       <c r="W157" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="158" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X157" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="16">
         <v>55230</v>
       </c>
@@ -28653,8 +29634,11 @@
       <c r="W158" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X158" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="16">
         <v>55230</v>
       </c>
@@ -28724,8 +29708,11 @@
       <c r="W159" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="160" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X159" s="45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="16">
         <v>55230</v>
       </c>
@@ -28795,8 +29782,11 @@
       <c r="W160" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="161" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X160" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="16">
         <v>55230</v>
       </c>
@@ -28866,8 +29856,11 @@
       <c r="W161" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="162" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X161" s="45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>55230</v>
       </c>
@@ -28937,8 +29930,11 @@
       <c r="W162" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X162" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="16">
         <v>55230</v>
       </c>
@@ -29008,8 +30004,11 @@
       <c r="W163" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="164" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X163" s="45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>55230</v>
       </c>
@@ -29079,8 +30078,11 @@
       <c r="W164" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X164" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>55230</v>
       </c>
@@ -29150,8 +30152,11 @@
       <c r="W165" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="166" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X165" s="45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>55230</v>
       </c>
@@ -29211,8 +30216,9 @@
       <c r="U166" s="46"/>
       <c r="V166" s="50"/>
       <c r="W166" s="5"/>
-    </row>
-    <row r="167" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X166" s="46"/>
+    </row>
+    <row r="167" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>55230</v>
       </c>
@@ -29282,8 +30288,11 @@
       <c r="W167" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="168" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X167" s="45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
         <v>55230</v>
       </c>
@@ -29353,8 +30362,11 @@
       <c r="W168" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="169" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X168" s="45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>55230</v>
       </c>
@@ -29424,8 +30436,11 @@
       <c r="W169" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="170" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X169" s="45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="16">
         <v>55230</v>
       </c>
@@ -29485,8 +30500,9 @@
       <c r="U170" s="46"/>
       <c r="V170" s="50"/>
       <c r="W170" s="5"/>
-    </row>
-    <row r="171" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X170" s="46"/>
+    </row>
+    <row r="171" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>55230</v>
       </c>
@@ -29556,8 +30572,11 @@
       <c r="W171" s="3">
         <v>82</v>
       </c>
-    </row>
-    <row r="172" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X171" s="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="16">
         <v>55230</v>
       </c>
@@ -29627,8 +30646,11 @@
       <c r="W172" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="173" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X172" s="45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="16">
         <v>55230</v>
       </c>
@@ -29692,8 +30714,9 @@
       <c r="U173" s="46"/>
       <c r="V173" s="50"/>
       <c r="W173" s="5"/>
-    </row>
-    <row r="174" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X173" s="46"/>
+    </row>
+    <row r="174" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="16">
         <v>55230</v>
       </c>
@@ -29753,8 +30776,9 @@
       <c r="U174" s="46"/>
       <c r="V174" s="50"/>
       <c r="W174" s="5"/>
-    </row>
-    <row r="175" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X174" s="46"/>
+    </row>
+    <row r="175" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="16">
         <v>55230</v>
       </c>
@@ -29824,8 +30848,11 @@
       <c r="W175" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="176" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X175" s="45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="16">
         <v>55230</v>
       </c>
@@ -29895,8 +30922,11 @@
       <c r="W176" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X176" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="16">
         <v>55230</v>
       </c>
@@ -29966,8 +30996,11 @@
       <c r="W177" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="178" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X177" s="45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="16">
         <v>55230</v>
       </c>
@@ -30037,8 +31070,11 @@
       <c r="W178" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X178" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>55230</v>
       </c>
@@ -30108,8 +31144,11 @@
       <c r="W179" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="180" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X179" s="45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="16">
         <v>55230</v>
       </c>
@@ -30179,8 +31218,11 @@
       <c r="W180" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X180" s="45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
         <v>55230</v>
       </c>
@@ -30250,8 +31292,11 @@
       <c r="W181" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X181" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>55230</v>
       </c>
@@ -30321,8 +31366,11 @@
       <c r="W182" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X182" s="45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>55230</v>
       </c>
@@ -30362,8 +31410,9 @@
       <c r="U183" s="46"/>
       <c r="V183" s="50"/>
       <c r="W183" s="5"/>
-    </row>
-    <row r="184" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X183" s="46"/>
+    </row>
+    <row r="184" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>55230</v>
       </c>
@@ -30433,8 +31482,11 @@
       <c r="W184" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X184" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="16">
         <v>55230</v>
       </c>
@@ -30504,8 +31556,11 @@
       <c r="W185" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X185" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="16">
         <v>55230</v>
       </c>
@@ -30575,8 +31630,11 @@
       <c r="W186" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X186" s="45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="16">
         <v>55230</v>
       </c>
@@ -30644,6 +31702,9 @@
         <v>4</v>
       </c>
       <c r="W187" s="3">
+        <v>4</v>
+      </c>
+      <c r="X187" s="45">
         <v>4</v>
       </c>
     </row>

--- a/pantauharian102015.xlsx
+++ b/pantauharian102015.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'REKAP RAYON'!$A$1:$J$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="257">
   <si>
     <t>UNITUP</t>
   </si>
@@ -833,11 +833,14 @@
   <si>
     <t>31 - 11:55</t>
   </si>
+  <si>
+    <t>31 - 15:30</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -1007,7 +1010,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -1148,6 +1151,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Koma [0]" xfId="1" builtinId="6"/>
@@ -1176,7 +1188,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="id-ID"/>
   <c:roundedCorners val="0"/>
@@ -1261,6 +1273,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EB2-4236-80F3-36FE6B88F130}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1372,20 +1389,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.3674321996745833</c:v>
+                  <c:v>1.482733399042927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95170455157200129</c:v>
+                  <c:v>1.6085525166793335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44578507017106617</c:v>
+                  <c:v>0.60674070408926573</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1051741699935531</c:v>
+                  <c:v>1.2310634849179907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9EB2-4236-80F3-36FE6B88F130}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1482,20 +1504,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.8016478616022765E-2</c:v>
+                  <c:v>2.5793847417076035E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0756187877606705E-2</c:v>
+                  <c:v>1.3350224127850321E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.985893022084138E-2</c:v>
+                  <c:v>1.4820723822319254E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5141433989855142E-2</c:v>
+                  <c:v>3.0274642416487686E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9EB2-4236-80F3-36FE6B88F130}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2543,8 +2570,8 @@
   </sheetPr>
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,7 +2594,7 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="str">
         <f>+"GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : "&amp;A21</f>
-        <v>GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : 31 - 11:55</v>
+        <v>GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : 31 - 15:30</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -2614,8 +2641,8 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
-        <v>255</v>
+      <c r="A21" s="54" t="s">
+        <v>256</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -2659,30 +2686,30 @@
       </c>
       <c r="C23" s="29">
         <f>VLOOKUP(A21,$A$30:$E$50,2,FALSE)</f>
-        <v>358143930</v>
+        <v>330293728</v>
       </c>
       <c r="D23" s="29">
         <f>+B23-C23</f>
-        <v>131593612</v>
+        <v>159443814</v>
       </c>
       <c r="E23" s="33">
         <f>+B23/C23*100%</f>
-        <v>1.3674321996745833</v>
+        <v>1.482733399042927</v>
       </c>
       <c r="G23" s="28">
         <v>70637</v>
       </c>
       <c r="H23" s="29">
         <f>VLOOKUP($A$21,$A$30:$T$50,12,FALSE)</f>
-        <v>1979</v>
+        <v>1822</v>
       </c>
       <c r="I23" s="29">
         <f>+G23-H23</f>
-        <v>68658</v>
+        <v>68815</v>
       </c>
       <c r="J23" s="39">
         <f>+H23/G23</f>
-        <v>2.8016478616022765E-2</v>
+        <v>2.5793847417076035E-2</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2694,30 +2721,30 @@
       </c>
       <c r="C24" s="29">
         <f>VLOOKUP($A$21,$A$30:$E$50,3,FALSE)</f>
-        <v>33436360</v>
+        <v>19782715</v>
       </c>
       <c r="D24" s="29">
         <f t="shared" ref="D24:D26" si="0">+C24-B24</f>
-        <v>1614824</v>
+        <v>-12038821</v>
       </c>
       <c r="E24" s="33">
         <f>+B24/C24*100%</f>
-        <v>0.95170455157200129</v>
+        <v>1.6085525166793335</v>
       </c>
       <c r="G24" s="28">
         <v>20524</v>
       </c>
       <c r="H24" s="29">
         <f>VLOOKUP($A$21,$A$30:$T$50,13,FALSE)</f>
-        <v>426</v>
+        <v>274</v>
       </c>
       <c r="I24" s="29">
         <f t="shared" ref="I24:I26" si="1">+G24-H24</f>
-        <v>20098</v>
+        <v>20250</v>
       </c>
       <c r="J24" s="39">
         <f t="shared" ref="J24:J26" si="2">+H24/G24</f>
-        <v>2.0756187877606705E-2</v>
+        <v>1.3350224127850321E-2</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2729,30 +2756,30 @@
       </c>
       <c r="C25" s="29">
         <f>VLOOKUP($A$21,$A$30:$E$50,4,FALSE)</f>
-        <v>41921552</v>
+        <v>30800640</v>
       </c>
       <c r="D25" s="29">
         <f t="shared" si="0"/>
-        <v>23233550</v>
+        <v>12112638</v>
       </c>
       <c r="E25" s="33">
         <f>+B25/C25*100%</f>
-        <v>0.44578507017106617</v>
+        <v>0.60674070408926573</v>
       </c>
       <c r="G25" s="28">
         <v>23818</v>
       </c>
       <c r="H25" s="29">
         <f>VLOOKUP($A$21,$A$30:$T$50,14,FALSE)</f>
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="I25" s="29">
         <f t="shared" si="1"/>
-        <v>23345</v>
+        <v>23465</v>
       </c>
       <c r="J25" s="39">
         <f t="shared" si="2"/>
-        <v>1.985893022084138E-2</v>
+        <v>1.4820723822319254E-2</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2764,30 +2791,30 @@
       </c>
       <c r="C26" s="29">
         <f>VLOOKUP($A$21,$A$30:$E$50,5,FALSE)</f>
-        <v>177785848</v>
+        <v>159605357</v>
       </c>
       <c r="D26" s="29">
         <f t="shared" si="0"/>
-        <v>-18698479</v>
+        <v>-36878970</v>
       </c>
       <c r="E26" s="33">
         <f>+B26/C26*100%</f>
-        <v>1.1051741699935531</v>
+        <v>1.2310634849179907</v>
       </c>
       <c r="G26" s="28">
         <v>43766</v>
       </c>
       <c r="H26" s="29">
         <f>VLOOKUP($A$21,$A$30:$T$50,15,FALSE)</f>
-        <v>1538</v>
+        <v>1325</v>
       </c>
       <c r="I26" s="29">
         <f t="shared" si="1"/>
-        <v>42228</v>
+        <v>42441</v>
       </c>
       <c r="J26" s="39">
         <f t="shared" si="2"/>
-        <v>3.5141433989855142E-2</v>
+        <v>3.0274642416487686E-2</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
@@ -4231,74 +4258,76 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="54" t="s">
+        <v>256</v>
+      </c>
       <c r="B49" s="25">
         <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$Y$6:$Y$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!B29)</f>
-        <v>0</v>
+        <v>330293728</v>
       </c>
       <c r="C49" s="25">
         <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$Y$6:$Y$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!C29)</f>
-        <v>0</v>
+        <v>19782715</v>
       </c>
       <c r="D49" s="25">
         <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$Y$6:$Y$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!D29)</f>
-        <v>0</v>
+        <v>30800640</v>
       </c>
       <c r="E49" s="25">
         <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$Y$6:$Y$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!E29)</f>
-        <v>0</v>
+        <v>159605357</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="26">
         <f t="shared" ref="G49" si="25">+B48-B49</f>
-        <v>358143930</v>
+        <v>27850202</v>
       </c>
       <c r="H49" s="26">
         <f t="shared" ref="H49" si="26">+C48-C49</f>
-        <v>33436360</v>
+        <v>13653645</v>
       </c>
       <c r="I49" s="26">
         <f t="shared" ref="I49" si="27">+D48-D49</f>
-        <v>41921552</v>
+        <v>11120912</v>
       </c>
       <c r="J49" s="26">
         <f t="shared" ref="J49" si="28">+E48-E49</f>
-        <v>177785848</v>
+        <v>18180491</v>
       </c>
       <c r="K49" s="24"/>
       <c r="L49" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$Y$6:$Y$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!L29)</f>
-        <v>0</v>
+        <v>1822</v>
       </c>
       <c r="M49" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$Y$6:$Y$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!M29)</f>
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="N49" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$Y$6:$Y$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!N29)</f>
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="O49" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$Y$6:$Y$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!O29)</f>
-        <v>0</v>
+        <v>1325</v>
       </c>
       <c r="P49" s="24"/>
       <c r="Q49" s="26">
         <f>+L48-L49</f>
-        <v>1979</v>
+        <v>157</v>
       </c>
       <c r="R49" s="26">
         <f>+M48-M49</f>
-        <v>426</v>
+        <v>152</v>
       </c>
       <c r="S49" s="26">
         <f>+N48-N49</f>
-        <v>473</v>
+        <v>120</v>
       </c>
       <c r="T49" s="26">
         <f>+O48-O49</f>
-        <v>1538</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -4308,20 +4337,44 @@
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
       <c r="F50" s="24"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
+      <c r="G50" s="26">
+        <f t="shared" ref="G50" si="29">+B49-B50</f>
+        <v>330293728</v>
+      </c>
+      <c r="H50" s="26">
+        <f t="shared" ref="H50" si="30">+C49-C50</f>
+        <v>19782715</v>
+      </c>
+      <c r="I50" s="26">
+        <f t="shared" ref="I50" si="31">+D49-D50</f>
+        <v>30800640</v>
+      </c>
+      <c r="J50" s="26">
+        <f t="shared" ref="J50" si="32">+E49-E50</f>
+        <v>159605357</v>
+      </c>
       <c r="K50" s="24"/>
       <c r="L50" s="25"/>
       <c r="M50" s="25"/>
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
       <c r="P50" s="24"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="26"/>
+      <c r="Q50" s="26">
+        <f>+L49-L50</f>
+        <v>1822</v>
+      </c>
+      <c r="R50" s="26">
+        <f>+M49-M50</f>
+        <v>274</v>
+      </c>
+      <c r="S50" s="26">
+        <f>+N49-N50</f>
+        <v>353</v>
+      </c>
+      <c r="T50" s="26">
+        <f>+O49-O50</f>
+        <v>1325</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4345,13 +4398,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Lembar2"/>
-  <dimension ref="A1:X377"/>
+  <dimension ref="A1:Y377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="S6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="X5" sqref="X5:X188"/>
+      <selection pane="bottomRight" activeCell="Y5" sqref="Y5:Y188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4368,32 +4421,32 @@
     <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>234</v>
       </c>
       <c r="U1" s="42"/>
       <c r="V1" s="42"/>
     </row>
-    <row r="2" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>235</v>
       </c>
       <c r="U2" s="42"/>
       <c r="V2" s="42"/>
     </row>
-    <row r="3" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="17"/>
       <c r="U3" s="42"/>
       <c r="V3" s="42"/>
     </row>
-    <row r="4" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
       <c r="U4" s="42"/>
       <c r="V4" s="42"/>
     </row>
-    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -4466,8 +4519,11 @@
       <c r="X5" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y5" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>55200</v>
       </c>
@@ -4540,8 +4596,11 @@
       <c r="X6" s="3">
         <v>382338</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y6" s="8">
+        <v>382338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>55200</v>
       </c>
@@ -4614,8 +4673,11 @@
       <c r="X7" s="3">
         <v>291748</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y7" s="8">
+        <v>291748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>55200</v>
       </c>
@@ -4688,8 +4750,11 @@
       <c r="X8" s="3">
         <v>7478566</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y8" s="8">
+        <v>7359040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>55200</v>
       </c>
@@ -4762,8 +4827,11 @@
       <c r="X9" s="3">
         <v>618417</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y9" s="8">
+        <v>498817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>55200</v>
       </c>
@@ -4836,8 +4904,11 @@
       <c r="X10" s="3">
         <v>3041663</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y10" s="8">
+        <v>948627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>55200</v>
       </c>
@@ -4910,8 +4981,11 @@
       <c r="X11" s="3">
         <v>1428765</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y11" s="8">
+        <v>1230350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>55200</v>
       </c>
@@ -4984,8 +5058,11 @@
       <c r="X12" s="3">
         <v>1531448</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y12" s="8">
+        <v>1531448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>55200</v>
       </c>
@@ -5034,8 +5111,9 @@
       <c r="V13" s="5"/>
       <c r="W13" s="10"/>
       <c r="X13" s="5"/>
-    </row>
-    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y13" s="10"/>
+    </row>
+    <row r="14" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>55200</v>
       </c>
@@ -5108,8 +5186,11 @@
       <c r="X14" s="3">
         <v>7466278</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y14" s="8">
+        <v>6754469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>55200</v>
       </c>
@@ -5182,8 +5263,11 @@
       <c r="X15" s="3">
         <v>446105</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y15" s="8">
+        <v>359719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>55200</v>
       </c>
@@ -5256,8 +5340,11 @@
       <c r="X16" s="3">
         <v>2936120</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y16" s="8">
+        <v>2936120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>55200</v>
       </c>
@@ -5330,8 +5417,11 @@
       <c r="X17" s="3">
         <v>1545638</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y17" s="8">
+        <v>1545638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>55200</v>
       </c>
@@ -5404,8 +5494,11 @@
       <c r="X18" s="3">
         <v>2479675</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y18" s="8">
+        <v>1868244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>55200</v>
       </c>
@@ -5478,8 +5571,11 @@
       <c r="X19" s="3">
         <v>16088384</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y19" s="8">
+        <v>16088384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>55200</v>
       </c>
@@ -5552,8 +5648,11 @@
       <c r="X20" s="3">
         <v>6550356</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y20" s="8">
+        <v>6335123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>55200</v>
       </c>
@@ -5626,8 +5725,11 @@
       <c r="X21" s="3">
         <v>625019</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y21" s="8">
+        <v>625019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>55200</v>
       </c>
@@ -5700,8 +5802,11 @@
       <c r="X22" s="3">
         <v>3216206</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y22" s="8">
+        <v>2463136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>55200</v>
       </c>
@@ -5774,8 +5879,11 @@
       <c r="X23" s="3">
         <v>3562824</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y23" s="8">
+        <v>3562824</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>55200</v>
       </c>
@@ -5848,8 +5956,11 @@
       <c r="X24" s="3">
         <v>452860</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y24" s="8">
+        <v>452860</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>55200</v>
       </c>
@@ -5922,8 +6033,11 @@
       <c r="X25" s="3">
         <v>8426875</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y25" s="8">
+        <v>7021479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>55200</v>
       </c>
@@ -5996,8 +6110,11 @@
       <c r="X26" s="3">
         <v>7440102</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y26" s="8">
+        <v>7440102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>55200</v>
       </c>
@@ -6070,8 +6187,11 @@
       <c r="X27" s="3">
         <v>7919429</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y27" s="8">
+        <v>6376818</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>55200</v>
       </c>
@@ -6144,8 +6264,11 @@
       <c r="X28" s="3">
         <v>2963082</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y28" s="8">
+        <v>2963082</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>55200</v>
       </c>
@@ -6218,8 +6341,11 @@
       <c r="X29" s="3">
         <v>574440</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y29" s="8">
+        <v>574440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>55200</v>
       </c>
@@ -6292,8 +6418,11 @@
       <c r="X30" s="3">
         <v>11288597</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y30" s="8">
+        <v>11288597</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>55200</v>
       </c>
@@ -6366,8 +6495,11 @@
       <c r="X31" s="3">
         <v>6943008</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y31" s="8">
+        <v>6943008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>55200</v>
       </c>
@@ -6440,8 +6572,11 @@
       <c r="X32" s="3">
         <v>5468493</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y32" s="8">
+        <v>3751851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>55200</v>
       </c>
@@ -6514,8 +6649,11 @@
       <c r="X33" s="3">
         <v>116715</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y33" s="8">
+        <v>62972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>55200</v>
       </c>
@@ -6588,8 +6726,11 @@
       <c r="X34" s="3">
         <v>5919911</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y34" s="8">
+        <v>5492228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>55200</v>
       </c>
@@ -6662,8 +6803,11 @@
       <c r="X35" s="3">
         <v>606904</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y35" s="8">
+        <v>606904</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>55200</v>
       </c>
@@ -6736,8 +6880,11 @@
       <c r="X36" s="3">
         <v>22800</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y36" s="8">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>55200</v>
       </c>
@@ -6810,8 +6957,11 @@
       <c r="X37" s="3">
         <v>2297155</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y37" s="8">
+        <v>2259818</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>55200</v>
       </c>
@@ -6884,8 +7034,11 @@
       <c r="X38" s="3">
         <v>216132</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y38" s="8">
+        <v>216132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>55200</v>
       </c>
@@ -6958,8 +7111,11 @@
       <c r="X39" s="3">
         <v>9933540</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y39" s="8">
+        <v>9705114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>55200</v>
       </c>
@@ -7032,8 +7188,11 @@
       <c r="X40" s="3">
         <v>2112711</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y40" s="8">
+        <v>2112711</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>55200</v>
       </c>
@@ -7106,8 +7265,11 @@
       <c r="X41" s="3">
         <v>7252000</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y41" s="8">
+        <v>6966710</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>55200</v>
       </c>
@@ -7180,8 +7342,11 @@
       <c r="X42" s="3">
         <v>4634847</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y42" s="8">
+        <v>4634847</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>55200</v>
       </c>
@@ -7254,8 +7419,11 @@
       <c r="X43" s="3">
         <v>7074260</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y43" s="8">
+        <v>7074260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>55200</v>
       </c>
@@ -7328,8 +7496,11 @@
       <c r="X44" s="3">
         <v>3252823</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y44" s="8">
+        <v>3252823</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>55200</v>
       </c>
@@ -7402,8 +7573,11 @@
       <c r="X45" s="3">
         <v>7831103</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y45" s="8">
+        <v>7714732</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>55200</v>
       </c>
@@ -7476,8 +7650,11 @@
       <c r="X46" s="3">
         <v>1168071</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y46" s="8">
+        <v>1168071</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>55200</v>
       </c>
@@ -7550,8 +7727,11 @@
       <c r="X47" s="3">
         <v>13872034</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y47" s="8">
+        <v>13260543</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>55200</v>
       </c>
@@ -7624,8 +7804,11 @@
       <c r="X48" s="3">
         <v>4520818</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y48" s="8">
+        <v>4520818</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>55200</v>
       </c>
@@ -7698,8 +7881,11 @@
       <c r="X49" s="3">
         <v>2956006</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y49" s="8">
+        <v>2956006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>55200</v>
       </c>
@@ -7772,8 +7958,11 @@
       <c r="X50" s="3">
         <v>211975</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y50" s="8">
+        <v>211975</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>55200</v>
       </c>
@@ -7846,8 +8035,11 @@
       <c r="X51" s="3">
         <v>10442018</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y51" s="8">
+        <v>9417534</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>55200</v>
       </c>
@@ -7920,8 +8112,11 @@
       <c r="X52" s="3">
         <v>2721599</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y52" s="8">
+        <v>2505030</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>55200</v>
       </c>
@@ -7994,8 +8189,11 @@
       <c r="X53" s="3">
         <v>6349873</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y53" s="8">
+        <v>5321240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>55200</v>
       </c>
@@ -8068,8 +8266,11 @@
       <c r="X54" s="3">
         <v>186526</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y54" s="8">
+        <v>186526</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>55200</v>
       </c>
@@ -8142,8 +8343,11 @@
       <c r="X55" s="3">
         <v>2479652</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y55" s="8">
+        <v>2396374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>55200</v>
       </c>
@@ -8196,8 +8400,9 @@
       <c r="V56" s="5"/>
       <c r="W56" s="10"/>
       <c r="X56" s="5"/>
-    </row>
-    <row r="57" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y56" s="10"/>
+    </row>
+    <row r="57" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>55200</v>
       </c>
@@ -8270,8 +8475,11 @@
       <c r="X57" s="3">
         <v>17991413</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y57" s="8">
+        <v>13434179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>55200</v>
       </c>
@@ -8344,8 +8552,11 @@
       <c r="X58" s="3">
         <v>859909</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y58" s="8">
+        <v>859909</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>55200</v>
       </c>
@@ -8418,8 +8629,11 @@
       <c r="X59" s="3">
         <v>2236991</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y59" s="8">
+        <v>2236991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
         <v>55200</v>
       </c>
@@ -8492,8 +8706,11 @@
       <c r="X60" s="3">
         <v>384530</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y60" s="8">
+        <v>384530</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>55200</v>
       </c>
@@ -8566,8 +8783,11 @@
       <c r="X61" s="3">
         <v>6423005</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y61" s="8">
+        <v>5895165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>55200</v>
       </c>
@@ -8640,8 +8860,11 @@
       <c r="X62" s="3">
         <v>1383358</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y62" s="8">
+        <v>993584</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>55200</v>
       </c>
@@ -8714,8 +8937,11 @@
       <c r="X63" s="3">
         <v>12318372</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y63" s="8">
+        <v>11895229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>55200</v>
       </c>
@@ -8788,8 +9014,11 @@
       <c r="X64" s="3">
         <v>1071555</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y64" s="8">
+        <v>1071555</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>55200</v>
       </c>
@@ -8862,8 +9091,9 @@
       <c r="X65" s="3">
         <v>1488640</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y65" s="10"/>
+    </row>
+    <row r="66" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>55200</v>
       </c>
@@ -8936,8 +9166,11 @@
       <c r="X66" s="3">
         <v>169668</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y66" s="8">
+        <v>169668</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>55200</v>
       </c>
@@ -9010,8 +9243,11 @@
       <c r="X67" s="3">
         <v>8460297</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y67" s="8">
+        <v>8460297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>55200</v>
       </c>
@@ -9084,8 +9320,11 @@
       <c r="X68" s="3">
         <v>489417</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y68" s="8">
+        <v>489417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>55200</v>
       </c>
@@ -9158,8 +9397,11 @@
       <c r="X69" s="3">
         <v>11821251</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y69" s="8">
+        <v>10620615</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>55200</v>
       </c>
@@ -9232,8 +9474,11 @@
       <c r="X70" s="3">
         <v>5675757</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y70" s="8">
+        <v>4053220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
         <v>55200</v>
       </c>
@@ -9306,8 +9551,11 @@
       <c r="X71" s="3">
         <v>2984984</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y71" s="8">
+        <v>2846060</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
         <v>55200</v>
       </c>
@@ -9380,8 +9628,11 @@
       <c r="X72" s="3">
         <v>244293</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y72" s="8">
+        <v>244293</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
         <v>55200</v>
       </c>
@@ -9454,8 +9705,11 @@
       <c r="X73" s="3">
         <v>9379138</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y73" s="8">
+        <v>9262131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
         <v>55200</v>
       </c>
@@ -9528,8 +9782,11 @@
       <c r="X74" s="3">
         <v>4097648</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y74" s="8">
+        <v>4097648</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>55200</v>
       </c>
@@ -9602,8 +9859,11 @@
       <c r="X75" s="3">
         <v>4927146</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y75" s="8">
+        <v>4927146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>55200</v>
       </c>
@@ -9676,8 +9936,11 @@
       <c r="X76" s="3">
         <v>1881229</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y76" s="8">
+        <v>1881229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
         <v>55200</v>
       </c>
@@ -9750,8 +10013,11 @@
       <c r="X77" s="3">
         <v>4520729</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y77" s="8">
+        <v>4283806</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
         <v>55200</v>
       </c>
@@ -9824,8 +10090,11 @@
       <c r="X78" s="3">
         <v>1993428</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y78" s="8">
+        <v>1993428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
         <v>55200</v>
       </c>
@@ -9898,8 +10167,11 @@
       <c r="X79" s="3">
         <v>7330157</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y79" s="8">
+        <v>6805095</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
         <v>55200</v>
       </c>
@@ -9972,8 +10244,11 @@
       <c r="X80" s="3">
         <v>404647</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y80" s="8">
+        <v>404647</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
         <v>55200</v>
       </c>
@@ -10046,8 +10321,11 @@
       <c r="X81" s="3">
         <v>8761794</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y81" s="8">
+        <v>7523451</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <v>55200</v>
       </c>
@@ -10120,8 +10398,11 @@
       <c r="X82" s="3">
         <v>1468301</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y82" s="8">
+        <v>1468301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="14">
         <v>55200</v>
       </c>
@@ -10194,8 +10475,11 @@
       <c r="X83" s="3">
         <v>14321277</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y83" s="8">
+        <v>13828020</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="14">
         <v>55200</v>
       </c>
@@ -10268,8 +10552,11 @@
       <c r="X84" s="3">
         <v>3196923</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y84" s="8">
+        <v>3196923</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="14">
         <v>55200</v>
       </c>
@@ -10342,8 +10629,11 @@
       <c r="X85" s="3">
         <v>3347807</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y85" s="8">
+        <v>3347807</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
         <v>55200</v>
       </c>
@@ -10416,8 +10706,11 @@
       <c r="X86" s="3">
         <v>1329942</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y86" s="8">
+        <v>1329942</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
         <v>55200</v>
       </c>
@@ -10490,8 +10783,11 @@
       <c r="X87" s="3">
         <v>3760159</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y87" s="8">
+        <v>2648112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
         <v>55200</v>
       </c>
@@ -10564,8 +10860,11 @@
       <c r="X88" s="3">
         <v>6074256</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y88" s="8">
+        <v>5981881</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="14">
         <v>55210</v>
       </c>
@@ -10638,8 +10937,11 @@
       <c r="X89" s="3">
         <v>363314</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y89" s="8">
+        <v>363314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="14">
         <v>55210</v>
       </c>
@@ -10712,8 +11014,11 @@
       <c r="X90" s="3">
         <v>3002341</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y90" s="8">
+        <v>2807760</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
         <v>55210</v>
       </c>
@@ -10786,8 +11091,9 @@
       <c r="X91" s="3">
         <v>96143</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y91" s="10"/>
+    </row>
+    <row r="92" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
         <v>55210</v>
       </c>
@@ -10860,8 +11166,11 @@
       <c r="X92" s="3">
         <v>567267</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y92" s="8">
+        <v>350790</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="14">
         <v>55210</v>
       </c>
@@ -10934,8 +11243,11 @@
       <c r="X93" s="3">
         <v>1325974</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y93" s="8">
+        <v>1325974</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
         <v>55210</v>
       </c>
@@ -11008,8 +11320,11 @@
       <c r="X94" s="3">
         <v>1942954</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y94" s="8">
+        <v>1273009</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
         <v>55210</v>
       </c>
@@ -11070,8 +11385,9 @@
       <c r="V95" s="5"/>
       <c r="W95" s="10"/>
       <c r="X95" s="5"/>
-    </row>
-    <row r="96" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y95" s="10"/>
+    </row>
+    <row r="96" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <v>55210</v>
       </c>
@@ -11144,8 +11460,11 @@
       <c r="X96" s="3">
         <v>1148620</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y96" s="8">
+        <v>1148620</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
         <v>55210</v>
       </c>
@@ -11218,8 +11537,11 @@
       <c r="X97" s="3">
         <v>3210752</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y97" s="8">
+        <v>177598</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
         <v>55210</v>
       </c>
@@ -11292,8 +11614,11 @@
       <c r="X98" s="3">
         <v>70248</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y98" s="8">
+        <v>70248</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="14">
         <v>55210</v>
       </c>
@@ -11366,8 +11691,11 @@
       <c r="X99" s="3">
         <v>979848</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y99" s="8">
+        <v>835051</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
         <v>55210</v>
       </c>
@@ -11424,8 +11752,9 @@
       <c r="V100" s="5"/>
       <c r="W100" s="10"/>
       <c r="X100" s="5"/>
-    </row>
-    <row r="101" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y100" s="10"/>
+    </row>
+    <row r="101" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="14">
         <v>55210</v>
       </c>
@@ -11498,8 +11827,11 @@
       <c r="X101" s="3">
         <v>3755974</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y101" s="8">
+        <v>2069187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="14">
         <v>55210</v>
       </c>
@@ -11536,8 +11868,9 @@
       <c r="V102" s="5"/>
       <c r="W102" s="10"/>
       <c r="X102" s="5"/>
-    </row>
-    <row r="103" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y102" s="10"/>
+    </row>
+    <row r="103" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="14">
         <v>55210</v>
       </c>
@@ -11610,8 +11943,11 @@
       <c r="X103" s="3">
         <v>3319452</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y103" s="8">
+        <v>2075679</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="14">
         <v>55210</v>
       </c>
@@ -11684,8 +12020,11 @@
       <c r="X104" s="3">
         <v>1168162</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y104" s="8">
+        <v>1168162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="14">
         <v>55210</v>
       </c>
@@ -11758,8 +12097,11 @@
       <c r="X105" s="3">
         <v>1010655</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y105" s="8">
+        <v>728112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="14">
         <v>55210</v>
       </c>
@@ -11820,8 +12162,9 @@
       <c r="V106" s="5"/>
       <c r="W106" s="10"/>
       <c r="X106" s="5"/>
-    </row>
-    <row r="107" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y106" s="10"/>
+    </row>
+    <row r="107" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="14">
         <v>55210</v>
       </c>
@@ -11894,8 +12237,11 @@
       <c r="X107" s="3">
         <v>2136045</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y107" s="8">
+        <v>1104560</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="14">
         <v>55210</v>
       </c>
@@ -11962,8 +12308,9 @@
       <c r="V108" s="5"/>
       <c r="W108" s="10"/>
       <c r="X108" s="5"/>
-    </row>
-    <row r="109" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y108" s="10"/>
+    </row>
+    <row r="109" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
         <v>55210</v>
       </c>
@@ -12036,8 +12383,11 @@
       <c r="X109" s="3">
         <v>222121</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y109" s="8">
+        <v>222121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
         <v>55210</v>
       </c>
@@ -12110,8 +12460,11 @@
       <c r="X110" s="3">
         <v>19890</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y110" s="8">
+        <v>19890</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="14">
         <v>55210</v>
       </c>
@@ -12184,8 +12537,11 @@
       <c r="X111" s="3">
         <v>2445692</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y111" s="8">
+        <v>2156780</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="14">
         <v>55210</v>
       </c>
@@ -12258,8 +12614,11 @@
       <c r="X112" s="3">
         <v>106149</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y112" s="8">
+        <v>106149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="14">
         <v>55210</v>
       </c>
@@ -12332,8 +12691,11 @@
       <c r="X113" s="3">
         <v>6523567</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y113" s="8">
+        <v>1779711</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="14">
         <v>55210</v>
       </c>
@@ -12406,8 +12768,9 @@
       <c r="X114" s="3">
         <v>21192</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y114" s="10"/>
+    </row>
+    <row r="115" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="14">
         <v>55220</v>
       </c>
@@ -12480,8 +12843,11 @@
       <c r="X115" s="3">
         <v>3764627</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y115" s="8">
+        <v>1234257</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="14">
         <v>55220</v>
       </c>
@@ -12554,8 +12920,11 @@
       <c r="X116" s="3">
         <v>2111386</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y116" s="8">
+        <v>815159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="14">
         <v>55220</v>
       </c>
@@ -12628,8 +12997,11 @@
       <c r="X117" s="3">
         <v>1696039</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y117" s="8">
+        <v>1015973</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
         <v>55220</v>
       </c>
@@ -12702,8 +13074,11 @@
       <c r="X118" s="3">
         <v>2718843</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y118" s="8">
+        <v>2521250</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
         <v>55220</v>
       </c>
@@ -12760,8 +13135,9 @@
       <c r="V119" s="5"/>
       <c r="W119" s="10"/>
       <c r="X119" s="5"/>
-    </row>
-    <row r="120" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y119" s="10"/>
+    </row>
+    <row r="120" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="14">
         <v>55220</v>
       </c>
@@ -12834,8 +13210,11 @@
       <c r="X120" s="3">
         <v>1978254</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y120" s="8">
+        <v>1483269</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="14">
         <v>55220</v>
       </c>
@@ -12908,8 +13287,11 @@
       <c r="X121" s="3">
         <v>834362</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y121" s="8">
+        <v>834362</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="14">
         <v>55220</v>
       </c>
@@ -12982,8 +13364,11 @@
       <c r="X122" s="3">
         <v>776403</v>
       </c>
-    </row>
-    <row r="123" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y122" s="8">
+        <v>776403</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="14">
         <v>55220</v>
       </c>
@@ -13056,8 +13441,11 @@
       <c r="X123" s="3">
         <v>16417363</v>
       </c>
-    </row>
-    <row r="124" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y123" s="8">
+        <v>11550603</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
         <v>55220</v>
       </c>
@@ -13130,8 +13518,9 @@
       <c r="X124" s="3">
         <v>629650</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y124" s="10"/>
+    </row>
+    <row r="125" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="14">
         <v>55220</v>
       </c>
@@ -13204,8 +13593,11 @@
       <c r="X125" s="3">
         <v>1623029</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y125" s="8">
+        <v>1623029</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="14">
         <v>55220</v>
       </c>
@@ -13278,8 +13670,11 @@
       <c r="X126" s="3">
         <v>1198791</v>
       </c>
-    </row>
-    <row r="127" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y126" s="8">
+        <v>1198791</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="14">
         <v>55220</v>
       </c>
@@ -13352,8 +13747,11 @@
       <c r="X127" s="3">
         <v>1031925</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y127" s="8">
+        <v>1031925</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="14">
         <v>55220</v>
       </c>
@@ -13426,8 +13824,11 @@
       <c r="X128" s="3">
         <v>1663663</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y128" s="8">
+        <v>1238402</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="14">
         <v>55220</v>
       </c>
@@ -13500,8 +13901,11 @@
       <c r="X129" s="3">
         <v>4517622</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y129" s="8">
+        <v>4517622</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="14">
         <v>55220</v>
       </c>
@@ -13574,8 +13978,11 @@
       <c r="X130" s="3">
         <v>959595</v>
       </c>
-    </row>
-    <row r="131" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y130" s="8">
+        <v>959595</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="14">
         <v>55230</v>
       </c>
@@ -13648,8 +14055,11 @@
       <c r="X131" s="3">
         <v>2856078</v>
       </c>
-    </row>
-    <row r="132" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y131" s="8">
+        <v>2238517</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
         <v>55230</v>
       </c>
@@ -13722,8 +14132,11 @@
       <c r="X132" s="3">
         <v>248669</v>
       </c>
-    </row>
-    <row r="133" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y132" s="8">
+        <v>155267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
         <v>55230</v>
       </c>
@@ -13796,8 +14209,11 @@
       <c r="X133" s="3">
         <v>173333</v>
       </c>
-    </row>
-    <row r="134" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y133" s="8">
+        <v>130206</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="14">
         <v>55230</v>
       </c>
@@ -13834,8 +14250,9 @@
       <c r="V134" s="5"/>
       <c r="W134" s="10"/>
       <c r="X134" s="5"/>
-    </row>
-    <row r="135" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y134" s="10"/>
+    </row>
+    <row r="135" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="14">
         <v>55230</v>
       </c>
@@ -13908,8 +14325,11 @@
       <c r="X135" s="3">
         <v>3556776</v>
       </c>
-    </row>
-    <row r="136" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y135" s="8">
+        <v>3394233</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="14">
         <v>55230</v>
       </c>
@@ -13982,8 +14402,11 @@
       <c r="X136" s="3">
         <v>2450315</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y136" s="8">
+        <v>2450315</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
         <v>55230</v>
       </c>
@@ -14056,8 +14479,11 @@
       <c r="X137" s="3">
         <v>5750909</v>
       </c>
-    </row>
-    <row r="138" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y137" s="8">
+        <v>3189189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="14">
         <v>55230</v>
       </c>
@@ -14130,8 +14556,11 @@
       <c r="X138" s="3">
         <v>5460733</v>
       </c>
-    </row>
-    <row r="139" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y138" s="8">
+        <v>5460733</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
         <v>55230</v>
       </c>
@@ -14204,8 +14633,11 @@
       <c r="X139" s="3">
         <v>1883232</v>
       </c>
-    </row>
-    <row r="140" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y139" s="8">
+        <v>1458326</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="14">
         <v>55230</v>
       </c>
@@ -14278,8 +14710,11 @@
       <c r="X140" s="3">
         <v>19692</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y140" s="8">
+        <v>19692</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="14">
         <v>55230</v>
       </c>
@@ -14352,8 +14787,11 @@
       <c r="X141" s="3">
         <v>2689441</v>
       </c>
-    </row>
-    <row r="142" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y141" s="8">
+        <v>1201284</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="14">
         <v>55230</v>
       </c>
@@ -14426,8 +14864,11 @@
       <c r="X142" s="3">
         <v>390451</v>
       </c>
-    </row>
-    <row r="143" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y142" s="8">
+        <v>390451</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="14">
         <v>55230</v>
       </c>
@@ -14500,8 +14941,11 @@
       <c r="X143" s="3">
         <v>5953997</v>
       </c>
-    </row>
-    <row r="144" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y143" s="8">
+        <v>5139565</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="14">
         <v>55230</v>
       </c>
@@ -14574,8 +15018,11 @@
       <c r="X144" s="3">
         <v>820661</v>
       </c>
-    </row>
-    <row r="145" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y144" s="8">
+        <v>820661</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="14">
         <v>55230</v>
       </c>
@@ -14648,8 +15095,11 @@
       <c r="X145" s="3">
         <v>6144072</v>
       </c>
-    </row>
-    <row r="146" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y145" s="8">
+        <v>6024191</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="14">
         <v>55230</v>
       </c>
@@ -14722,8 +15172,11 @@
       <c r="X146" s="3">
         <v>386205</v>
       </c>
-    </row>
-    <row r="147" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y146" s="8">
+        <v>386205</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="14">
         <v>55230</v>
       </c>
@@ -14796,8 +15249,11 @@
       <c r="X147" s="3">
         <v>3974410</v>
       </c>
-    </row>
-    <row r="148" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y147" s="8">
+        <v>3974410</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="14">
         <v>55230</v>
       </c>
@@ -14870,8 +15326,11 @@
       <c r="X148" s="3">
         <v>127212</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y148" s="8">
+        <v>127212</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="14">
         <v>55230</v>
       </c>
@@ -14944,8 +15403,11 @@
       <c r="X149" s="3">
         <v>11864815</v>
       </c>
-    </row>
-    <row r="150" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y149" s="8">
+        <v>11819484</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="14">
         <v>55230</v>
       </c>
@@ -15018,8 +15480,11 @@
       <c r="X150" s="3">
         <v>16951140</v>
       </c>
-    </row>
-    <row r="151" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y150" s="8">
+        <v>16860620</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="14">
         <v>55230</v>
       </c>
@@ -15090,8 +15555,9 @@
         <v>37363</v>
       </c>
       <c r="X151" s="5"/>
-    </row>
-    <row r="152" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y151" s="10"/>
+    </row>
+    <row r="152" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="14">
         <v>55230</v>
       </c>
@@ -15164,8 +15630,11 @@
       <c r="X152" s="3">
         <v>7392576</v>
       </c>
-    </row>
-    <row r="153" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y152" s="8">
+        <v>7392576</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="14">
         <v>55230</v>
       </c>
@@ -15238,8 +15707,11 @@
       <c r="X153" s="3">
         <v>2044810</v>
       </c>
-    </row>
-    <row r="154" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y153" s="8">
+        <v>2044810</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="14">
         <v>55230</v>
       </c>
@@ -15312,8 +15784,11 @@
       <c r="X154" s="3">
         <v>5318328</v>
       </c>
-    </row>
-    <row r="155" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y154" s="8">
+        <v>3942687</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="14">
         <v>55230</v>
       </c>
@@ -15386,8 +15861,11 @@
       <c r="X155" s="3">
         <v>1595530</v>
       </c>
-    </row>
-    <row r="156" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y155" s="8">
+        <v>1595530</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="14">
         <v>55230</v>
       </c>
@@ -15460,8 +15938,11 @@
       <c r="X156" s="3">
         <v>14386551</v>
       </c>
-    </row>
-    <row r="157" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y156" s="8">
+        <v>7069341</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="14">
         <v>55230</v>
       </c>
@@ -15534,8 +16015,11 @@
       <c r="X157" s="3">
         <v>2404093</v>
       </c>
-    </row>
-    <row r="158" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y157" s="8">
+        <v>2106503</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="14">
         <v>55230</v>
       </c>
@@ -15608,8 +16092,11 @@
       <c r="X158" s="3">
         <v>706215</v>
       </c>
-    </row>
-    <row r="159" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y158" s="8">
+        <v>706215</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="14">
         <v>55230</v>
       </c>
@@ -15682,8 +16169,11 @@
       <c r="X159" s="3">
         <v>56822</v>
       </c>
-    </row>
-    <row r="160" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y159" s="8">
+        <v>56822</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="14">
         <v>55230</v>
       </c>
@@ -15756,8 +16246,11 @@
       <c r="X160" s="3">
         <v>9728497</v>
       </c>
-    </row>
-    <row r="161" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y160" s="8">
+        <v>9353459</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="14">
         <v>55230</v>
       </c>
@@ -15830,8 +16323,11 @@
       <c r="X161" s="3">
         <v>3819520</v>
       </c>
-    </row>
-    <row r="162" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y161" s="8">
+        <v>3819520</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="14">
         <v>55230</v>
       </c>
@@ -15904,8 +16400,11 @@
       <c r="X162" s="3">
         <v>6904447</v>
       </c>
-    </row>
-    <row r="163" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y162" s="8">
+        <v>6904447</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="14">
         <v>55230</v>
       </c>
@@ -15978,8 +16477,11 @@
       <c r="X163" s="3">
         <v>2110794</v>
       </c>
-    </row>
-    <row r="164" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y163" s="8">
+        <v>2110794</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="14">
         <v>55230</v>
       </c>
@@ -16052,8 +16554,11 @@
       <c r="X164" s="3">
         <v>6178549</v>
       </c>
-    </row>
-    <row r="165" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y164" s="8">
+        <v>6061982</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="14">
         <v>55230</v>
       </c>
@@ -16126,8 +16631,11 @@
       <c r="X165" s="3">
         <v>82305</v>
       </c>
-    </row>
-    <row r="166" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y165" s="8">
+        <v>82305</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="14">
         <v>55230</v>
       </c>
@@ -16200,8 +16708,11 @@
       <c r="X166" s="3">
         <v>467943</v>
       </c>
-    </row>
-    <row r="167" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y166" s="8">
+        <v>385790</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="14">
         <v>55230</v>
       </c>
@@ -16262,8 +16773,9 @@
       <c r="V167" s="5"/>
       <c r="W167" s="10"/>
       <c r="X167" s="5"/>
-    </row>
-    <row r="168" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y167" s="10"/>
+    </row>
+    <row r="168" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="14">
         <v>55230</v>
       </c>
@@ -16336,8 +16848,11 @@
       <c r="X168" s="3">
         <v>9017395</v>
       </c>
-    </row>
-    <row r="169" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y168" s="8">
+        <v>9017395</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="14">
         <v>55230</v>
       </c>
@@ -16410,8 +16925,11 @@
       <c r="X169" s="3">
         <v>2849630</v>
       </c>
-    </row>
-    <row r="170" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y169" s="8">
+        <v>2849630</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="14">
         <v>55230</v>
       </c>
@@ -16484,8 +17002,11 @@
       <c r="X170" s="3">
         <v>1024934</v>
       </c>
-    </row>
-    <row r="171" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y170" s="8">
+        <v>1024934</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="14">
         <v>55230</v>
       </c>
@@ -16546,8 +17067,9 @@
       <c r="V171" s="5"/>
       <c r="W171" s="10"/>
       <c r="X171" s="5"/>
-    </row>
-    <row r="172" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y171" s="10"/>
+    </row>
+    <row r="172" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="14">
         <v>55230</v>
       </c>
@@ -16620,8 +17142,11 @@
       <c r="X172" s="3">
         <v>5315313</v>
       </c>
-    </row>
-    <row r="173" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y172" s="8">
+        <v>5191388</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="14">
         <v>55230</v>
       </c>
@@ -16694,8 +17219,11 @@
       <c r="X173" s="3">
         <v>5625305</v>
       </c>
-    </row>
-    <row r="174" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y173" s="8">
+        <v>5625305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="14">
         <v>55230</v>
       </c>
@@ -16760,8 +17288,9 @@
       <c r="V174" s="5"/>
       <c r="W174" s="10"/>
       <c r="X174" s="5"/>
-    </row>
-    <row r="175" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y174" s="10"/>
+    </row>
+    <row r="175" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="14">
         <v>55230</v>
       </c>
@@ -16822,8 +17351,9 @@
       <c r="V175" s="5"/>
       <c r="W175" s="10"/>
       <c r="X175" s="5"/>
-    </row>
-    <row r="176" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y175" s="10"/>
+    </row>
+    <row r="176" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="14">
         <v>55230</v>
       </c>
@@ -16896,8 +17426,11 @@
       <c r="X176" s="3">
         <v>4468312</v>
       </c>
-    </row>
-    <row r="177" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y176" s="8">
+        <v>3657325</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="14">
         <v>55230</v>
       </c>
@@ -16970,8 +17503,11 @@
       <c r="X177" s="3">
         <v>244131</v>
       </c>
-    </row>
-    <row r="178" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y177" s="8">
+        <v>178933</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="14">
         <v>55230</v>
       </c>
@@ -17044,8 +17580,11 @@
       <c r="X178" s="3">
         <v>1935375</v>
       </c>
-    </row>
-    <row r="179" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y178" s="8">
+        <v>1935375</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="14">
         <v>55230</v>
       </c>
@@ -17118,8 +17657,11 @@
       <c r="X179" s="3">
         <v>212034</v>
       </c>
-    </row>
-    <row r="180" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y179" s="8">
+        <v>212034</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="14">
         <v>55230</v>
       </c>
@@ -17192,8 +17734,11 @@
       <c r="X180" s="3">
         <v>1624007</v>
       </c>
-    </row>
-    <row r="181" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y180" s="8">
+        <v>1624007</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="14">
         <v>55230</v>
       </c>
@@ -17266,8 +17811,11 @@
       <c r="X181" s="3">
         <v>5530759</v>
       </c>
-    </row>
-    <row r="182" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y181" s="8">
+        <v>5418887</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="14">
         <v>55230</v>
       </c>
@@ -17340,8 +17888,11 @@
       <c r="X182" s="3">
         <v>215860</v>
       </c>
-    </row>
-    <row r="183" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y182" s="8">
+        <v>215860</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="14">
         <v>55230</v>
       </c>
@@ -17414,8 +17965,11 @@
       <c r="X183" s="3">
         <v>1791560</v>
       </c>
-    </row>
-    <row r="184" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y183" s="8">
+        <v>1581368</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="14">
         <v>55230</v>
       </c>
@@ -17456,8 +18010,9 @@
       <c r="V184" s="5"/>
       <c r="W184" s="10"/>
       <c r="X184" s="5"/>
-    </row>
-    <row r="185" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y184" s="10"/>
+    </row>
+    <row r="185" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="14">
         <v>55230</v>
       </c>
@@ -17530,8 +18085,11 @@
       <c r="X185" s="3">
         <v>537941</v>
       </c>
-    </row>
-    <row r="186" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y185" s="8">
+        <v>537941</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="14">
         <v>55230</v>
       </c>
@@ -17604,8 +18162,11 @@
       <c r="X186" s="3">
         <v>143194</v>
       </c>
-    </row>
-    <row r="187" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y186" s="8">
+        <v>143194</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="14">
         <v>55230</v>
       </c>
@@ -17678,8 +18239,11 @@
       <c r="X187" s="3">
         <v>1981595</v>
       </c>
-    </row>
-    <row r="188" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y187" s="8">
+        <v>1149057</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="14">
         <v>55230</v>
       </c>
@@ -17752,11 +18316,14 @@
       <c r="X188" s="3">
         <v>369382</v>
       </c>
-    </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y188" s="8">
+        <v>369382</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
@@ -18323,13 +18890,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Lembar3"/>
-  <dimension ref="A1:X187"/>
+  <dimension ref="A1:Y187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
+      <selection pane="bottomRight" activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18338,17 +18905,17 @@
     <col min="21" max="21" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -18421,8 +18988,11 @@
       <c r="X4" s="44" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y4" s="54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>55200</v>
       </c>
@@ -18495,8 +19065,11 @@
       <c r="X5" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y5" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>55200</v>
       </c>
@@ -18569,8 +19142,11 @@
       <c r="X6" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y6" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>55200</v>
       </c>
@@ -18643,8 +19219,11 @@
       <c r="X7" s="45">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y7" s="55">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>55200</v>
       </c>
@@ -18717,8 +19296,11 @@
       <c r="X8" s="45">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y8" s="55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>55200</v>
       </c>
@@ -18791,8 +19373,11 @@
       <c r="X9" s="45">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y9" s="55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>55200</v>
       </c>
@@ -18865,8 +19450,11 @@
       <c r="X10" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y10" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>55200</v>
       </c>
@@ -18939,8 +19527,11 @@
       <c r="X11" s="45">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y11" s="55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>55200</v>
       </c>
@@ -18989,8 +19580,9 @@
       <c r="V12" s="50"/>
       <c r="W12" s="5"/>
       <c r="X12" s="46"/>
-    </row>
-    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y12" s="56"/>
+    </row>
+    <row r="13" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>55200</v>
       </c>
@@ -19063,8 +19655,11 @@
       <c r="X13" s="45">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y13" s="55">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>55200</v>
       </c>
@@ -19137,8 +19732,11 @@
       <c r="X14" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y14" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>55200</v>
       </c>
@@ -19211,8 +19809,11 @@
       <c r="X15" s="45">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y15" s="55">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>55200</v>
       </c>
@@ -19285,8 +19886,11 @@
       <c r="X16" s="45">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y16" s="55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>55200</v>
       </c>
@@ -19359,8 +19963,11 @@
       <c r="X17" s="45">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y17" s="55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>55200</v>
       </c>
@@ -19433,8 +20040,11 @@
       <c r="X18" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y18" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>55200</v>
       </c>
@@ -19507,8 +20117,11 @@
       <c r="X19" s="45">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y19" s="55">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>55200</v>
       </c>
@@ -19581,8 +20194,11 @@
       <c r="X20" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y20" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>55200</v>
       </c>
@@ -19655,8 +20271,11 @@
       <c r="X21" s="45">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y21" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>55200</v>
       </c>
@@ -19729,8 +20348,11 @@
       <c r="X22" s="45">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y22" s="55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>55200</v>
       </c>
@@ -19803,8 +20425,11 @@
       <c r="X23" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y23" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>55200</v>
       </c>
@@ -19877,8 +20502,11 @@
       <c r="X24" s="45">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y24" s="55">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>55200</v>
       </c>
@@ -19951,8 +20579,11 @@
       <c r="X25" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y25" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>55200</v>
       </c>
@@ -20025,8 +20656,11 @@
       <c r="X26" s="45">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y26" s="55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>55200</v>
       </c>
@@ -20099,8 +20733,11 @@
       <c r="X27" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y27" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>55200</v>
       </c>
@@ -20173,8 +20810,11 @@
       <c r="X28" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y28" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>55200</v>
       </c>
@@ -20247,8 +20887,11 @@
       <c r="X29" s="45">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y29" s="55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>55200</v>
       </c>
@@ -20321,8 +20964,11 @@
       <c r="X30" s="45">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y30" s="55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>55200</v>
       </c>
@@ -20395,8 +21041,11 @@
       <c r="X31" s="45">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y31" s="55">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>55200</v>
       </c>
@@ -20469,8 +21118,11 @@
       <c r="X32" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y32" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>55200</v>
       </c>
@@ -20543,8 +21195,11 @@
       <c r="X33" s="45">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y33" s="55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>55200</v>
       </c>
@@ -20617,8 +21272,11 @@
       <c r="X34" s="45">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y34" s="55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>55200</v>
       </c>
@@ -20691,8 +21349,11 @@
       <c r="X35" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y35" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>55200</v>
       </c>
@@ -20765,8 +21426,11 @@
       <c r="X36" s="45">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y36" s="55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>55200</v>
       </c>
@@ -20839,8 +21503,11 @@
       <c r="X37" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y37" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>55200</v>
       </c>
@@ -20913,8 +21580,11 @@
       <c r="X38" s="45">
         <v>58</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y38" s="55">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>55200</v>
       </c>
@@ -20987,8 +21657,11 @@
       <c r="X39" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y39" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>55200</v>
       </c>
@@ -21061,8 +21734,11 @@
       <c r="X40" s="45">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y40" s="55">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>55200</v>
       </c>
@@ -21135,8 +21811,11 @@
       <c r="X41" s="45">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y41" s="55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>55200</v>
       </c>
@@ -21209,8 +21888,11 @@
       <c r="X42" s="45">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y42" s="55">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>55200</v>
       </c>
@@ -21283,8 +21965,11 @@
       <c r="X43" s="45">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y43" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>55200</v>
       </c>
@@ -21357,8 +22042,11 @@
       <c r="X44" s="45">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y44" s="55">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>55200</v>
       </c>
@@ -21431,8 +22119,11 @@
       <c r="X45" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y45" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>55200</v>
       </c>
@@ -21505,8 +22196,11 @@
       <c r="X46" s="45">
         <v>102</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y46" s="55">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>55200</v>
       </c>
@@ -21579,8 +22273,11 @@
       <c r="X47" s="45">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y47" s="55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>55200</v>
       </c>
@@ -21653,8 +22350,11 @@
       <c r="X48" s="45">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y48" s="55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>55200</v>
       </c>
@@ -21727,8 +22427,11 @@
       <c r="X49" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y49" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>55200</v>
       </c>
@@ -21801,8 +22504,11 @@
       <c r="X50" s="45">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y50" s="55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>55200</v>
       </c>
@@ -21875,8 +22581,11 @@
       <c r="X51" s="45">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y51" s="55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>55200</v>
       </c>
@@ -21949,8 +22658,11 @@
       <c r="X52" s="45">
         <v>41</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y52" s="55">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>55200</v>
       </c>
@@ -22023,8 +22735,11 @@
       <c r="X53" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y53" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>55200</v>
       </c>
@@ -22097,8 +22812,11 @@
       <c r="X54" s="45">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y54" s="55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>55200</v>
       </c>
@@ -22151,8 +22869,9 @@
       <c r="V55" s="50"/>
       <c r="W55" s="5"/>
       <c r="X55" s="46"/>
-    </row>
-    <row r="56" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y55" s="56"/>
+    </row>
+    <row r="56" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>55200</v>
       </c>
@@ -22225,8 +22944,11 @@
       <c r="X56" s="45">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y56" s="55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>55200</v>
       </c>
@@ -22299,8 +23021,11 @@
       <c r="X57" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y57" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>55200</v>
       </c>
@@ -22373,8 +23098,11 @@
       <c r="X58" s="45">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y58" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>55200</v>
       </c>
@@ -22447,8 +23175,11 @@
       <c r="X59" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y59" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>55200</v>
       </c>
@@ -22521,8 +23252,11 @@
       <c r="X60" s="45">
         <v>47</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y60" s="55">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>55200</v>
       </c>
@@ -22595,8 +23329,11 @@
       <c r="X61" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y61" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>55200</v>
       </c>
@@ -22669,8 +23406,11 @@
       <c r="X62" s="45">
         <v>76</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y62" s="55">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>55200</v>
       </c>
@@ -22743,8 +23483,11 @@
       <c r="X63" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y63" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>55200</v>
       </c>
@@ -22817,8 +23560,9 @@
       <c r="X64" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y64" s="56"/>
+    </row>
+    <row r="65" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>55200</v>
       </c>
@@ -22891,8 +23635,11 @@
       <c r="X65" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y65" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>55200</v>
       </c>
@@ -22965,8 +23712,11 @@
       <c r="X66" s="45">
         <v>55</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y66" s="55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>55200</v>
       </c>
@@ -23039,8 +23789,11 @@
       <c r="X67" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y67" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>55200</v>
       </c>
@@ -23113,8 +23866,11 @@
       <c r="X68" s="45">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y68" s="55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>55200</v>
       </c>
@@ -23187,8 +23943,11 @@
       <c r="X69" s="45">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y69" s="55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>55200</v>
       </c>
@@ -23261,8 +24020,11 @@
       <c r="X70" s="45">
         <v>30</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y70" s="55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>55200</v>
       </c>
@@ -23335,8 +24097,11 @@
       <c r="X71" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y71" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>55200</v>
       </c>
@@ -23409,8 +24174,11 @@
       <c r="X72" s="45">
         <v>64</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y72" s="55">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>55200</v>
       </c>
@@ -23483,8 +24251,11 @@
       <c r="X73" s="45">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y73" s="55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>55200</v>
       </c>
@@ -23557,8 +24328,11 @@
       <c r="X74" s="45">
         <v>29</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y74" s="55">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>55200</v>
       </c>
@@ -23631,8 +24405,11 @@
       <c r="X75" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y75" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>55200</v>
       </c>
@@ -23705,8 +24482,11 @@
       <c r="X76" s="45">
         <v>42</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y76" s="55">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>55200</v>
       </c>
@@ -23779,8 +24559,11 @@
       <c r="X77" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y77" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>55200</v>
       </c>
@@ -23853,8 +24636,11 @@
       <c r="X78" s="45">
         <v>91</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y78" s="55">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>55200</v>
       </c>
@@ -23927,8 +24713,11 @@
       <c r="X79" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y79" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>55200</v>
       </c>
@@ -24001,8 +24790,11 @@
       <c r="X80" s="45">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y80" s="55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>55200</v>
       </c>
@@ -24075,8 +24867,11 @@
       <c r="X81" s="45">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y81" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>55200</v>
       </c>
@@ -24149,8 +24944,11 @@
       <c r="X82" s="45">
         <v>48</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y82" s="55">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>55200</v>
       </c>
@@ -24223,8 +25021,11 @@
       <c r="X83" s="45">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y83" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>55200</v>
       </c>
@@ -24297,8 +25098,11 @@
       <c r="X84" s="45">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y84" s="55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>55200</v>
       </c>
@@ -24371,8 +25175,11 @@
       <c r="X85" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y85" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>55200</v>
       </c>
@@ -24445,8 +25252,11 @@
       <c r="X86" s="45">
         <v>41</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y86" s="55">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>55200</v>
       </c>
@@ -24519,8 +25329,11 @@
       <c r="X87" s="45">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y87" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>55210</v>
       </c>
@@ -24593,8 +25406,11 @@
       <c r="X88" s="45">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y88" s="55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>55210</v>
       </c>
@@ -24667,8 +25483,11 @@
       <c r="X89" s="45">
         <v>27</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y89" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>55210</v>
       </c>
@@ -24741,8 +25560,9 @@
       <c r="X90" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y90" s="56"/>
+    </row>
+    <row r="91" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>55210</v>
       </c>
@@ -24815,8 +25635,11 @@
       <c r="X91" s="45">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y91" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>55210</v>
       </c>
@@ -24889,8 +25712,11 @@
       <c r="X92" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y92" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>55210</v>
       </c>
@@ -24963,8 +25789,11 @@
       <c r="X93" s="45">
         <v>41</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y93" s="55">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>55210</v>
       </c>
@@ -25025,8 +25854,9 @@
       <c r="V94" s="50"/>
       <c r="W94" s="5"/>
       <c r="X94" s="46"/>
-    </row>
-    <row r="95" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y94" s="56"/>
+    </row>
+    <row r="95" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>55210</v>
       </c>
@@ -25099,8 +25929,11 @@
       <c r="X95" s="45">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y95" s="55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>55210</v>
       </c>
@@ -25173,8 +26006,11 @@
       <c r="X96" s="45">
         <v>34</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y96" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>55210</v>
       </c>
@@ -25247,8 +26083,11 @@
       <c r="X97" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y97" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>55210</v>
       </c>
@@ -25321,8 +26160,11 @@
       <c r="X98" s="45">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y98" s="55">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>55210</v>
       </c>
@@ -25379,8 +26221,9 @@
       <c r="V99" s="50"/>
       <c r="W99" s="5"/>
       <c r="X99" s="46"/>
-    </row>
-    <row r="100" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y99" s="56"/>
+    </row>
+    <row r="100" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>55210</v>
       </c>
@@ -25453,8 +26296,11 @@
       <c r="X100" s="45">
         <v>54</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y100" s="55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>55210</v>
       </c>
@@ -25491,8 +26337,9 @@
       <c r="V101" s="50"/>
       <c r="W101" s="5"/>
       <c r="X101" s="46"/>
-    </row>
-    <row r="102" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y101" s="56"/>
+    </row>
+    <row r="102" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>55210</v>
       </c>
@@ -25565,8 +26412,11 @@
       <c r="X102" s="45">
         <v>33</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y102" s="55">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>55210</v>
       </c>
@@ -25639,8 +26489,11 @@
       <c r="X103" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y103" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>55210</v>
       </c>
@@ -25713,8 +26566,11 @@
       <c r="X104" s="45">
         <v>21</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y104" s="55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>55210</v>
       </c>
@@ -25775,8 +26631,9 @@
       <c r="V105" s="50"/>
       <c r="W105" s="5"/>
       <c r="X105" s="46"/>
-    </row>
-    <row r="106" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y105" s="56"/>
+    </row>
+    <row r="106" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>55210</v>
       </c>
@@ -25849,8 +26706,11 @@
       <c r="X106" s="45">
         <v>28</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y106" s="55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>55210</v>
       </c>
@@ -25917,8 +26777,9 @@
       <c r="V107" s="50"/>
       <c r="W107" s="5"/>
       <c r="X107" s="46"/>
-    </row>
-    <row r="108" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y107" s="56"/>
+    </row>
+    <row r="108" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>55210</v>
       </c>
@@ -25991,8 +26852,11 @@
       <c r="X108" s="45">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y108" s="55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>55210</v>
       </c>
@@ -26065,8 +26929,11 @@
       <c r="X109" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y109" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>55210</v>
       </c>
@@ -26139,8 +27006,11 @@
       <c r="X110" s="45">
         <v>42</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y110" s="55">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>55210</v>
       </c>
@@ -26213,8 +27083,11 @@
       <c r="X111" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y111" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>55210</v>
       </c>
@@ -26287,8 +27160,11 @@
       <c r="X112" s="45">
         <v>74</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y112" s="55">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <v>55210</v>
       </c>
@@ -26361,8 +27237,9 @@
       <c r="X113" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y113" s="56"/>
+    </row>
+    <row r="114" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="16">
         <v>55220</v>
       </c>
@@ -26435,8 +27312,11 @@
       <c r="X114" s="45">
         <v>52</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y114" s="55">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>55220</v>
       </c>
@@ -26509,8 +27389,11 @@
       <c r="X115" s="45">
         <v>22</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y115" s="55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>55220</v>
       </c>
@@ -26583,8 +27466,11 @@
       <c r="X116" s="45">
         <v>28</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y116" s="55">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <v>55220</v>
       </c>
@@ -26657,8 +27543,11 @@
       <c r="X117" s="45">
         <v>12</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y117" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="16">
         <v>55220</v>
       </c>
@@ -26715,8 +27604,9 @@
       <c r="V118" s="50"/>
       <c r="W118" s="5"/>
       <c r="X118" s="46"/>
-    </row>
-    <row r="119" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y118" s="56"/>
+    </row>
+    <row r="119" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="16">
         <v>55220</v>
       </c>
@@ -26789,8 +27679,11 @@
       <c r="X119" s="45">
         <v>22</v>
       </c>
-    </row>
-    <row r="120" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y119" s="55">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
         <v>55220</v>
       </c>
@@ -26863,8 +27756,11 @@
       <c r="X120" s="45">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y120" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <v>55220</v>
       </c>
@@ -26937,8 +27833,11 @@
       <c r="X121" s="45">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y121" s="55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="16">
         <v>55220</v>
       </c>
@@ -27011,8 +27910,11 @@
       <c r="X122" s="45">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y122" s="55">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="16">
         <v>55220</v>
       </c>
@@ -27085,8 +27987,9 @@
       <c r="X123" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y123" s="56"/>
+    </row>
+    <row r="124" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="16">
         <v>55220</v>
       </c>
@@ -27159,8 +28062,11 @@
       <c r="X124" s="45">
         <v>22</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y124" s="55">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="16">
         <v>55220</v>
       </c>
@@ -27233,8 +28139,11 @@
       <c r="X125" s="45">
         <v>19</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y125" s="55">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>55220</v>
       </c>
@@ -27307,8 +28216,11 @@
       <c r="X126" s="45">
         <v>15</v>
       </c>
-    </row>
-    <row r="127" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y126" s="55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>55220</v>
       </c>
@@ -27381,8 +28293,11 @@
       <c r="X127" s="45">
         <v>31</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y127" s="55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="16">
         <v>55220</v>
       </c>
@@ -27455,8 +28370,11 @@
       <c r="X128" s="45">
         <v>89</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y128" s="55">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="16">
         <v>55220</v>
       </c>
@@ -27529,8 +28447,11 @@
       <c r="X129" s="45">
         <v>22</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y129" s="55">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>55230</v>
       </c>
@@ -27603,8 +28524,11 @@
       <c r="X130" s="45">
         <v>34</v>
       </c>
-    </row>
-    <row r="131" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y130" s="55">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>55230</v>
       </c>
@@ -27677,8 +28601,11 @@
       <c r="X131" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y131" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="16">
         <v>55230</v>
       </c>
@@ -27751,8 +28678,11 @@
       <c r="X132" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y132" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>55230</v>
       </c>
@@ -27789,8 +28719,9 @@
       <c r="V133" s="50"/>
       <c r="W133" s="5"/>
       <c r="X133" s="46"/>
-    </row>
-    <row r="134" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y133" s="56"/>
+    </row>
+    <row r="134" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <v>55230</v>
       </c>
@@ -27863,8 +28794,11 @@
       <c r="X134" s="45">
         <v>40</v>
       </c>
-    </row>
-    <row r="135" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y134" s="55">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <v>55230</v>
       </c>
@@ -27937,8 +28871,11 @@
       <c r="X135" s="45">
         <v>15</v>
       </c>
-    </row>
-    <row r="136" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y135" s="55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="16">
         <v>55230</v>
       </c>
@@ -28011,8 +28948,11 @@
       <c r="X136" s="45">
         <v>19</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y136" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>55230</v>
       </c>
@@ -28085,8 +29025,11 @@
       <c r="X137" s="45">
         <v>118</v>
       </c>
-    </row>
-    <row r="138" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y137" s="55">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>55230</v>
       </c>
@@ -28159,8 +29102,11 @@
       <c r="X138" s="45">
         <v>24</v>
       </c>
-    </row>
-    <row r="139" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y138" s="55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>55230</v>
       </c>
@@ -28233,8 +29179,11 @@
       <c r="X139" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y139" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="16">
         <v>55230</v>
       </c>
@@ -28307,8 +29256,11 @@
       <c r="X140" s="45">
         <v>27</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y140" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="16">
         <v>55230</v>
       </c>
@@ -28381,8 +29333,11 @@
       <c r="X141" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y141" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="16">
         <v>55230</v>
       </c>
@@ -28455,8 +29410,11 @@
       <c r="X142" s="45">
         <v>76</v>
       </c>
-    </row>
-    <row r="143" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y142" s="55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="16">
         <v>55230</v>
       </c>
@@ -28529,8 +29487,11 @@
       <c r="X143" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y143" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="16">
         <v>55230</v>
       </c>
@@ -28603,8 +29564,11 @@
       <c r="X144" s="45">
         <v>56</v>
       </c>
-    </row>
-    <row r="145" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y144" s="55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="16">
         <v>55230</v>
       </c>
@@ -28677,8 +29641,11 @@
       <c r="X145" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y145" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="16">
         <v>55230</v>
       </c>
@@ -28751,8 +29718,11 @@
       <c r="X146" s="45">
         <v>81</v>
       </c>
-    </row>
-    <row r="147" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y146" s="55">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>55230</v>
       </c>
@@ -28825,8 +29795,11 @@
       <c r="X147" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y147" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>55230</v>
       </c>
@@ -28899,8 +29872,11 @@
       <c r="X148" s="45">
         <v>52</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y148" s="55">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="16">
         <v>55230</v>
       </c>
@@ -28973,8 +29949,11 @@
       <c r="X149" s="45">
         <v>27</v>
       </c>
-    </row>
-    <row r="150" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y149" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="16">
         <v>55230</v>
       </c>
@@ -29045,8 +30024,9 @@
         <v>2</v>
       </c>
       <c r="X150" s="46"/>
-    </row>
-    <row r="151" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y150" s="56"/>
+    </row>
+    <row r="151" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="16">
         <v>55230</v>
       </c>
@@ -29119,8 +30099,11 @@
       <c r="X151" s="45">
         <v>81</v>
       </c>
-    </row>
-    <row r="152" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y151" s="55">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>55230</v>
       </c>
@@ -29193,8 +30176,11 @@
       <c r="X152" s="45">
         <v>13</v>
       </c>
-    </row>
-    <row r="153" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y152" s="55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="16">
         <v>55230</v>
       </c>
@@ -29267,8 +30253,11 @@
       <c r="X153" s="45">
         <v>63</v>
       </c>
-    </row>
-    <row r="154" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y153" s="55">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>55230</v>
       </c>
@@ -29341,8 +30330,11 @@
       <c r="X154" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y154" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="16">
         <v>55230</v>
       </c>
@@ -29415,8 +30407,11 @@
       <c r="X155" s="45">
         <v>207</v>
       </c>
-    </row>
-    <row r="156" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y155" s="55">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="16">
         <v>55230</v>
       </c>
@@ -29489,8 +30484,11 @@
       <c r="X156" s="45">
         <v>13</v>
       </c>
-    </row>
-    <row r="157" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y156" s="55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>55230</v>
       </c>
@@ -29563,8 +30561,11 @@
       <c r="X157" s="45">
         <v>7</v>
       </c>
-    </row>
-    <row r="158" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y157" s="55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="16">
         <v>55230</v>
       </c>
@@ -29637,8 +30638,11 @@
       <c r="X158" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y158" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="16">
         <v>55230</v>
       </c>
@@ -29711,8 +30715,11 @@
       <c r="X159" s="45">
         <v>45</v>
       </c>
-    </row>
-    <row r="160" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y159" s="55">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="16">
         <v>55230</v>
       </c>
@@ -29785,8 +30792,11 @@
       <c r="X160" s="45">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y160" s="55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="16">
         <v>55230</v>
       </c>
@@ -29859,8 +30869,11 @@
       <c r="X161" s="45">
         <v>23</v>
       </c>
-    </row>
-    <row r="162" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y161" s="55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>55230</v>
       </c>
@@ -29933,8 +30946,11 @@
       <c r="X162" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y162" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="16">
         <v>55230</v>
       </c>
@@ -30007,8 +31023,11 @@
       <c r="X163" s="45">
         <v>43</v>
       </c>
-    </row>
-    <row r="164" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y163" s="55">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>55230</v>
       </c>
@@ -30081,8 +31100,11 @@
       <c r="X164" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y164" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>55230</v>
       </c>
@@ -30155,8 +31177,11 @@
       <c r="X165" s="45">
         <v>8</v>
       </c>
-    </row>
-    <row r="166" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y165" s="55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>55230</v>
       </c>
@@ -30217,8 +31242,9 @@
       <c r="V166" s="50"/>
       <c r="W166" s="5"/>
       <c r="X166" s="46"/>
-    </row>
-    <row r="167" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y166" s="56"/>
+    </row>
+    <row r="167" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>55230</v>
       </c>
@@ -30291,8 +31317,11 @@
       <c r="X167" s="45">
         <v>92</v>
       </c>
-    </row>
-    <row r="168" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y167" s="55">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
         <v>55230</v>
       </c>
@@ -30365,8 +31394,11 @@
       <c r="X168" s="45">
         <v>19</v>
       </c>
-    </row>
-    <row r="169" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y168" s="55">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>55230</v>
       </c>
@@ -30439,8 +31471,11 @@
       <c r="X169" s="45">
         <v>11</v>
       </c>
-    </row>
-    <row r="170" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y169" s="55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="16">
         <v>55230</v>
       </c>
@@ -30501,8 +31536,9 @@
       <c r="V170" s="50"/>
       <c r="W170" s="5"/>
       <c r="X170" s="46"/>
-    </row>
-    <row r="171" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y170" s="56"/>
+    </row>
+    <row r="171" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>55230</v>
       </c>
@@ -30575,8 +31611,11 @@
       <c r="X171" s="45">
         <v>81</v>
       </c>
-    </row>
-    <row r="172" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y171" s="55">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="16">
         <v>55230</v>
       </c>
@@ -30649,8 +31688,11 @@
       <c r="X172" s="45">
         <v>42</v>
       </c>
-    </row>
-    <row r="173" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y172" s="55">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="16">
         <v>55230</v>
       </c>
@@ -30715,8 +31757,9 @@
       <c r="V173" s="50"/>
       <c r="W173" s="5"/>
       <c r="X173" s="46"/>
-    </row>
-    <row r="174" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y173" s="56"/>
+    </row>
+    <row r="174" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="16">
         <v>55230</v>
       </c>
@@ -30777,8 +31820,9 @@
       <c r="V174" s="50"/>
       <c r="W174" s="5"/>
       <c r="X174" s="46"/>
-    </row>
-    <row r="175" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y174" s="56"/>
+    </row>
+    <row r="175" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="16">
         <v>55230</v>
       </c>
@@ -30851,8 +31895,11 @@
       <c r="X175" s="45">
         <v>40</v>
       </c>
-    </row>
-    <row r="176" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y175" s="55">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="16">
         <v>55230</v>
       </c>
@@ -30925,8 +31972,11 @@
       <c r="X176" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y176" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="16">
         <v>55230</v>
       </c>
@@ -30999,8 +32049,11 @@
       <c r="X177" s="45">
         <v>41</v>
       </c>
-    </row>
-    <row r="178" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y177" s="55">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="16">
         <v>55230</v>
       </c>
@@ -31073,8 +32126,11 @@
       <c r="X178" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y178" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>55230</v>
       </c>
@@ -31147,8 +32203,11 @@
       <c r="X179" s="45">
         <v>17</v>
       </c>
-    </row>
-    <row r="180" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y179" s="55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="16">
         <v>55230</v>
       </c>
@@ -31221,8 +32280,11 @@
       <c r="X180" s="45">
         <v>25</v>
       </c>
-    </row>
-    <row r="181" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y180" s="55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
         <v>55230</v>
       </c>
@@ -31295,8 +32357,11 @@
       <c r="X181" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y181" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>55230</v>
       </c>
@@ -31369,8 +32434,11 @@
       <c r="X182" s="45">
         <v>37</v>
       </c>
-    </row>
-    <row r="183" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y182" s="55">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>55230</v>
       </c>
@@ -31411,8 +32479,9 @@
       <c r="V183" s="50"/>
       <c r="W183" s="5"/>
       <c r="X183" s="46"/>
-    </row>
-    <row r="184" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y183" s="56"/>
+    </row>
+    <row r="184" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>55230</v>
       </c>
@@ -31485,8 +32554,11 @@
       <c r="X184" s="45">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y184" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="16">
         <v>55230</v>
       </c>
@@ -31559,8 +32631,11 @@
       <c r="X185" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y185" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="16">
         <v>55230</v>
       </c>
@@ -31633,8 +32708,11 @@
       <c r="X186" s="45">
         <v>15</v>
       </c>
-    </row>
-    <row r="187" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Y186" s="55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="16">
         <v>55230</v>
       </c>
@@ -31705,6 +32783,9 @@
         <v>4</v>
       </c>
       <c r="X187" s="45">
+        <v>4</v>
+      </c>
+      <c r="Y187" s="55">
         <v>4</v>
       </c>
     </row>

--- a/pantauharian102015.xlsx
+++ b/pantauharian102015.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="259">
   <si>
     <t>UNITUP</t>
   </si>
@@ -839,6 +839,9 @@
   <si>
     <t>31 - 19:30</t>
   </si>
+  <si>
+    <t>31 - 24:55</t>
+  </si>
 </sst>
 </file>
 
@@ -847,7 +850,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -915,6 +918,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Segoe UI"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1016,7 +1029,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -1156,13 +1169,19 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1172,6 +1191,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1401,16 +1429,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.5678267743444512</c:v>
+                  <c:v>1.5910837563149074</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7842077426280649</c:v>
+                  <c:v>1.807162161463792</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3735216224473117</c:v>
+                  <c:v>1.3925060952514852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1516,16 +1544,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.4052550363124141E-2</c:v>
+                  <c:v>2.3811883290626727E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1498733190411226E-2</c:v>
+                  <c:v>1.1206392516078738E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4539596947402095E-2</c:v>
+                  <c:v>2.3968377279166477E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2582,8 +2610,8 @@
   </sheetPr>
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2606,7 +2634,7 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="str">
         <f>+"GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : "&amp;A21</f>
-        <v>GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : 31 - 19:30</v>
+        <v>GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : 31 - 24:55</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -2654,7 +2682,7 @@
     </row>
     <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -2697,31 +2725,31 @@
         <v>489737542</v>
       </c>
       <c r="C23" s="29">
-        <f>VLOOKUP(A21,$A$31:$E$51,2,FALSE)</f>
-        <v>312367125</v>
+        <f>VLOOKUP(A21,$A$31:$E$55,2,FALSE)</f>
+        <v>307801233</v>
       </c>
       <c r="D23" s="29">
         <f>+B23-C23</f>
-        <v>177370417</v>
+        <v>181936309</v>
       </c>
       <c r="E23" s="33">
         <f>+B23/C23*100%</f>
-        <v>1.5678267743444512</v>
+        <v>1.5910837563149074</v>
       </c>
       <c r="G23" s="28">
         <v>70637</v>
       </c>
       <c r="H23" s="29">
-        <f>VLOOKUP($A$21,$A$31:$T$51,12,FALSE)</f>
-        <v>1699</v>
+        <f>VLOOKUP($A$21,$A$31:$T$55,12,FALSE)</f>
+        <v>1682</v>
       </c>
       <c r="I23" s="29">
         <f>+G23-H23</f>
-        <v>68938</v>
+        <v>68955</v>
       </c>
       <c r="J23" s="37">
         <f>+H23/G23</f>
-        <v>2.4052550363124141E-2</v>
+        <v>2.3811883290626727E-2</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2732,31 +2760,31 @@
         <v>31821536</v>
       </c>
       <c r="C24" s="29">
-        <f>VLOOKUP($A$21,$A$31:$E$51,3,FALSE)</f>
-        <v>17835107</v>
+        <f>VLOOKUP($A$21,$A$31:$E$55,3,FALSE)</f>
+        <v>17608567</v>
       </c>
       <c r="D24" s="29">
         <f t="shared" ref="D24:D26" si="0">+C24-B24</f>
-        <v>-13986429</v>
+        <v>-14212969</v>
       </c>
       <c r="E24" s="33">
         <f>+B24/C24*100%</f>
-        <v>1.7842077426280649</v>
+        <v>1.807162161463792</v>
       </c>
       <c r="G24" s="28">
         <v>20524</v>
       </c>
       <c r="H24" s="29">
-        <f>VLOOKUP($A$21,$A$31:$T$51,13,FALSE)</f>
-        <v>236</v>
+        <f>VLOOKUP($A$21,$A$31:$T$55,13,FALSE)</f>
+        <v>230</v>
       </c>
       <c r="I24" s="29">
         <f t="shared" ref="I24:I26" si="1">+G24-H24</f>
-        <v>20288</v>
+        <v>20294</v>
       </c>
       <c r="J24" s="37">
         <f t="shared" ref="J24:J27" si="2">+H24/G24</f>
-        <v>1.1498733190411226E-2</v>
+        <v>1.1206392516078738E-2</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2767,7 +2795,7 @@
         <v>18688002</v>
       </c>
       <c r="C25" s="29">
-        <f>VLOOKUP($A$21,$A$31:$E$51,4,FALSE)</f>
+        <f>VLOOKUP($A$21,$A$31:$E$55,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D25" s="29">
@@ -2782,7 +2810,7 @@
         <v>23818</v>
       </c>
       <c r="H25" s="29">
-        <f>VLOOKUP($A$21,$A$31:$T$51,14,FALSE)</f>
+        <f>VLOOKUP($A$21,$A$31:$T$55,14,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I25" s="29">
@@ -2802,69 +2830,69 @@
         <v>196484327</v>
       </c>
       <c r="C26" s="29">
-        <f>VLOOKUP($A$21,$A$31:$E$51,5,FALSE)</f>
-        <v>143051499</v>
+        <f>VLOOKUP($A$21,$A$31:$E$55,5,FALSE)</f>
+        <v>141101233</v>
       </c>
       <c r="D26" s="29">
         <f t="shared" si="0"/>
-        <v>-53432828</v>
+        <v>-55383094</v>
       </c>
       <c r="E26" s="33">
         <f>+B26/C26*100%</f>
-        <v>1.3735216224473117</v>
+        <v>1.3925060952514852</v>
       </c>
       <c r="G26" s="28">
         <v>43766</v>
       </c>
       <c r="H26" s="29">
-        <f>VLOOKUP($A$21,$A$31:$T$51,15,FALSE)</f>
-        <v>1074</v>
+        <f>VLOOKUP($A$21,$A$31:$T$55,15,FALSE)</f>
+        <v>1049</v>
       </c>
       <c r="I26" s="29">
         <f t="shared" si="1"/>
-        <v>42692</v>
+        <v>42717</v>
       </c>
       <c r="J26" s="37">
         <f t="shared" si="2"/>
-        <v>2.4539596947402095E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2.3968377279166477E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="B27" s="56">
+      <c r="B27" s="55">
         <f>SUM(B23:B26)</f>
         <v>736731407</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="55">
         <f t="shared" ref="C27:D27" si="3">SUM(C23:C26)</f>
-        <v>473253731</v>
-      </c>
-      <c r="D27" s="56">
+        <v>466511033</v>
+      </c>
+      <c r="D27" s="55">
         <f t="shared" si="3"/>
-        <v>91263158</v>
-      </c>
-      <c r="E27" s="58">
+        <v>93652244</v>
+      </c>
+      <c r="E27" s="56">
         <f>+B27/C27*100%</f>
-        <v>1.55673660605541</v>
-      </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="56">
+        <v>1.5792368344694647</v>
+      </c>
+      <c r="F27" s="57"/>
+      <c r="G27" s="55">
         <f>SUM(G23:G26)</f>
         <v>158745</v>
       </c>
-      <c r="H27" s="56">
+      <c r="H27" s="55">
         <f t="shared" ref="H27:I27" si="4">SUM(H23:H26)</f>
-        <v>3009</v>
-      </c>
-      <c r="I27" s="56">
+        <v>2961</v>
+      </c>
+      <c r="I27" s="55">
         <f t="shared" si="4"/>
-        <v>155736</v>
-      </c>
-      <c r="J27" s="57">
+        <v>155784</v>
+      </c>
+      <c r="J27" s="58">
         <f t="shared" si="2"/>
-        <v>1.8954927714258718E-2</v>
+        <v>1.8652555986015309E-2</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -4452,14 +4480,16 @@
       </c>
     </row>
     <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="48"/>
+      <c r="A52" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="B52" s="25">
         <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$AA$6:$AA$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!B30)</f>
-        <v>0</v>
+        <v>307801233</v>
       </c>
       <c r="C52" s="25">
         <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$AA$6:$AA$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!C30)</f>
-        <v>0</v>
+        <v>17608567</v>
       </c>
       <c r="D52" s="25">
         <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$AA$6:$AA$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!D30)</f>
@@ -4467,15 +4497,15 @@
       </c>
       <c r="E52" s="25">
         <f>SUMIFS('DATA SALDO RP HARIAN 10-2015'!$AA$6:$AA$188,'DATA SALDO RP HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!E30)</f>
-        <v>0</v>
+        <v>141101233</v>
       </c>
       <c r="G52" s="26">
         <f t="shared" ref="G52:G55" si="36">+B51-B52</f>
-        <v>312367125</v>
+        <v>4565892</v>
       </c>
       <c r="H52" s="26">
         <f t="shared" ref="H52:H55" si="37">+C51-C52</f>
-        <v>17835107</v>
+        <v>226540</v>
       </c>
       <c r="I52" s="26">
         <f t="shared" ref="I52:I55" si="38">+D51-D52</f>
@@ -4483,15 +4513,15 @@
       </c>
       <c r="J52" s="26">
         <f t="shared" ref="J52:J55" si="39">+E51-E52</f>
-        <v>143051499</v>
+        <v>1950266</v>
       </c>
       <c r="L52" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$AA$6:$AA$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!L30)</f>
-        <v>0</v>
+        <v>1682</v>
       </c>
       <c r="M52" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$AA$6:$AA$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!M30)</f>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="N52" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$AA$6:$AA$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!N30)</f>
@@ -4499,15 +4529,15 @@
       </c>
       <c r="O52" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$AA$6:$AA$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!O30)</f>
-        <v>0</v>
+        <v>1049</v>
       </c>
       <c r="Q52" s="26">
         <f t="shared" ref="Q52:Q55" si="40">+L51-L52</f>
-        <v>1699</v>
+        <v>17</v>
       </c>
       <c r="R52" s="26">
         <f t="shared" ref="R52:R55" si="41">+M51-M52</f>
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="S52" s="26">
         <f t="shared" ref="S52:S55" si="42">+N51-N52</f>
@@ -4515,7 +4545,7 @@
       </c>
       <c r="T52" s="26">
         <f t="shared" ref="T52:T55" si="43">+O51-O52</f>
-        <v>1074</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
@@ -4538,11 +4568,11 @@
       </c>
       <c r="G53" s="26">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>307801233</v>
       </c>
       <c r="H53" s="26">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>17608567</v>
       </c>
       <c r="I53" s="26">
         <f t="shared" si="38"/>
@@ -4550,7 +4580,7 @@
       </c>
       <c r="J53" s="26">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>141101233</v>
       </c>
       <c r="L53" s="25">
         <f>SUMIFS('DATA SALDO LBR HARIAN 10-2015'!$AB$6:$AB$188,'DATA SALDO LBR HARIAN 10-2015'!$B$6:$B$188,'REKAP RAYON'!L30)</f>
@@ -4570,11 +4600,11 @@
       </c>
       <c r="Q53" s="26">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1682</v>
       </c>
       <c r="R53" s="26">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="S53" s="26">
         <f t="shared" si="42"/>
@@ -4582,7 +4612,7 @@
       </c>
       <c r="T53" s="26">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
@@ -4741,13 +4771,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Lembar2"/>
-  <dimension ref="A1:Z377"/>
+  <dimension ref="A1:AA377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="N156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
+      <selection pane="bottomRight" activeCell="AA5" sqref="AA5:AA188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4764,32 +4794,32 @@
     <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>234</v>
       </c>
       <c r="U1" s="39"/>
       <c r="V1" s="39"/>
     </row>
-    <row r="2" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>235</v>
       </c>
       <c r="U2" s="39"/>
       <c r="V2" s="39"/>
     </row>
-    <row r="3" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="17"/>
       <c r="U3" s="39"/>
       <c r="V3" s="39"/>
     </row>
-    <row r="4" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
       <c r="U4" s="39"/>
       <c r="V4" s="39"/>
     </row>
-    <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -4868,8 +4898,11 @@
       <c r="Z5" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA5" s="62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>55200</v>
       </c>
@@ -4948,8 +4981,11 @@
       <c r="Z6" s="3">
         <v>185489</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA6" s="63">
+        <v>185489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>55200</v>
       </c>
@@ -5028,8 +5064,11 @@
       <c r="Z7" s="3">
         <v>291748</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA7" s="63">
+        <v>291748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>55200</v>
       </c>
@@ -5108,8 +5147,11 @@
       <c r="Z8" s="3">
         <v>7359040</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA8" s="63">
+        <v>7359040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>55200</v>
       </c>
@@ -5188,8 +5230,11 @@
       <c r="Z9" s="3">
         <v>498817</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA9" s="63">
+        <v>498817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>55200</v>
       </c>
@@ -5268,8 +5313,11 @@
       <c r="Z10" s="3">
         <v>948627</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA10" s="63">
+        <v>948627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>55200</v>
       </c>
@@ -5348,8 +5396,11 @@
       <c r="Z11" s="3">
         <v>1230350</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA11" s="63">
+        <v>1230350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>55200</v>
       </c>
@@ -5428,8 +5479,11 @@
       <c r="Z12" s="3">
         <v>1531448</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA12" s="63">
+        <v>1531448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>55200</v>
       </c>
@@ -5480,8 +5534,9 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA13" s="64"/>
+    </row>
+    <row r="14" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>55200</v>
       </c>
@@ -5560,8 +5615,11 @@
       <c r="Z14" s="3">
         <v>6754469</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA14" s="63">
+        <v>6754469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>55200</v>
       </c>
@@ -5640,8 +5698,11 @@
       <c r="Z15" s="3">
         <v>359719</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA15" s="63">
+        <v>359719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>55200</v>
       </c>
@@ -5720,8 +5781,11 @@
       <c r="Z16" s="3">
         <v>2936120</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA16" s="63">
+        <v>2936120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>55200</v>
       </c>
@@ -5800,8 +5864,11 @@
       <c r="Z17" s="3">
         <v>1545638</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA17" s="63">
+        <v>1545638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>55200</v>
       </c>
@@ -5880,8 +5947,11 @@
       <c r="Z18" s="3">
         <v>1757290</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA18" s="63">
+        <v>1588525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>55200</v>
       </c>
@@ -5960,8 +6030,11 @@
       <c r="Z19" s="3">
         <v>16088384</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA19" s="63">
+        <v>16088384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>55200</v>
       </c>
@@ -6040,8 +6113,11 @@
       <c r="Z20" s="3">
         <v>4899128</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA20" s="63">
+        <v>4029958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>55200</v>
       </c>
@@ -6120,8 +6196,11 @@
       <c r="Z21" s="3">
         <v>625019</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA21" s="63">
+        <v>625019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>55200</v>
       </c>
@@ -6200,8 +6279,11 @@
       <c r="Z22" s="3">
         <v>2463136</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA22" s="63">
+        <v>2463136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>55200</v>
       </c>
@@ -6280,8 +6362,11 @@
       <c r="Z23" s="3">
         <v>3515142</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA23" s="63">
+        <v>3515142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>55200</v>
       </c>
@@ -6360,8 +6445,11 @@
       <c r="Z24" s="3">
         <v>452860</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA24" s="63">
+        <v>452860</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>55200</v>
       </c>
@@ -6440,8 +6528,11 @@
       <c r="Z25" s="3">
         <v>6958006</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA25" s="63">
+        <v>5282246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>55200</v>
       </c>
@@ -6520,8 +6611,11 @@
       <c r="Z26" s="3">
         <v>7440102</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA26" s="63">
+        <v>7440102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>55200</v>
       </c>
@@ -6600,8 +6694,11 @@
       <c r="Z27" s="3">
         <v>6376818</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA27" s="63">
+        <v>6376818</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>55200</v>
       </c>
@@ -6680,8 +6777,11 @@
       <c r="Z28" s="3">
         <v>2963082</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA28" s="63">
+        <v>2963082</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>55200</v>
       </c>
@@ -6758,8 +6858,9 @@
         <v>574440</v>
       </c>
       <c r="Z29" s="5"/>
-    </row>
-    <row r="30" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA29" s="64"/>
+    </row>
+    <row r="30" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>55200</v>
       </c>
@@ -6838,8 +6939,11 @@
       <c r="Z30" s="3">
         <v>11288597</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA30" s="63">
+        <v>11288597</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>55200</v>
       </c>
@@ -6918,8 +7022,11 @@
       <c r="Z31" s="3">
         <v>6943008</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA31" s="63">
+        <v>6822319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>55200</v>
       </c>
@@ -6998,8 +7105,11 @@
       <c r="Z32" s="3">
         <v>3751851</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA32" s="63">
+        <v>3751851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>55200</v>
       </c>
@@ -7078,8 +7188,11 @@
       <c r="Z33" s="3">
         <v>62972</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA33" s="63">
+        <v>62972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>55200</v>
       </c>
@@ -7158,8 +7271,11 @@
       <c r="Z34" s="3">
         <v>5464692</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA34" s="63">
+        <v>5384681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>55200</v>
       </c>
@@ -7238,8 +7354,11 @@
       <c r="Z35" s="3">
         <v>606904</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA35" s="63">
+        <v>606904</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>55200</v>
       </c>
@@ -7318,8 +7437,11 @@
       <c r="Z36" s="3">
         <v>22800</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA36" s="63">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>55200</v>
       </c>
@@ -7398,8 +7520,11 @@
       <c r="Z37" s="3">
         <v>2259818</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA37" s="63">
+        <v>2203424</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>55200</v>
       </c>
@@ -7478,8 +7603,11 @@
       <c r="Z38" s="3">
         <v>216132</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA38" s="63">
+        <v>216132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>55200</v>
       </c>
@@ -7558,8 +7686,11 @@
       <c r="Z39" s="3">
         <v>9091867</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA39" s="63">
+        <v>9022638</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>55200</v>
       </c>
@@ -7638,8 +7769,11 @@
       <c r="Z40" s="3">
         <v>1489173</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA40" s="63">
+        <v>1489173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>55200</v>
       </c>
@@ -7718,8 +7852,11 @@
       <c r="Z41" s="3">
         <v>6351434</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA41" s="63">
+        <v>6351434</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>55200</v>
       </c>
@@ -7798,8 +7935,11 @@
       <c r="Z42" s="3">
         <v>4634847</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA42" s="63">
+        <v>4634847</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>55200</v>
       </c>
@@ -7878,8 +8018,11 @@
       <c r="Z43" s="3">
         <v>6421764</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA43" s="63">
+        <v>6370815</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>55200</v>
       </c>
@@ -7958,8 +8101,11 @@
       <c r="Z44" s="3">
         <v>3252823</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA44" s="63">
+        <v>3252823</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>55200</v>
       </c>
@@ -8038,8 +8184,11 @@
       <c r="Z45" s="3">
         <v>6868126</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA45" s="63">
+        <v>6868126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>55200</v>
       </c>
@@ -8118,8 +8267,11 @@
       <c r="Z46" s="3">
         <v>1168071</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA46" s="63">
+        <v>1168071</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>55200</v>
       </c>
@@ -8198,8 +8350,11 @@
       <c r="Z47" s="3">
         <v>12402061</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA47" s="63">
+        <v>11720506</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>55200</v>
       </c>
@@ -8278,8 +8433,11 @@
       <c r="Z48" s="3">
         <v>4397858</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA48" s="63">
+        <v>4397858</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>55200</v>
       </c>
@@ -8358,8 +8516,11 @@
       <c r="Z49" s="3">
         <v>2956006</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA49" s="63">
+        <v>2956006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>55200</v>
       </c>
@@ -8438,8 +8599,11 @@
       <c r="Z50" s="3">
         <v>211975</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA50" s="63">
+        <v>211975</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>55200</v>
       </c>
@@ -8518,8 +8682,11 @@
       <c r="Z51" s="3">
         <v>9417534</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA51" s="63">
+        <v>9417534</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>55200</v>
       </c>
@@ -8598,8 +8765,11 @@
       <c r="Z52" s="3">
         <v>2505030</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA52" s="63">
+        <v>2505030</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>55200</v>
       </c>
@@ -8678,8 +8848,11 @@
       <c r="Z53" s="3">
         <v>5321240</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA53" s="63">
+        <v>5321240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>55200</v>
       </c>
@@ -8758,8 +8931,11 @@
       <c r="Z54" s="3">
         <v>186526</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA54" s="63">
+        <v>186526</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>55200</v>
       </c>
@@ -8838,8 +9014,11 @@
       <c r="Z55" s="3">
         <v>2396374</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA55" s="63">
+        <v>2396374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>55200</v>
       </c>
@@ -8894,8 +9073,9 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="10"/>
       <c r="Z56" s="5"/>
-    </row>
-    <row r="57" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA56" s="64"/>
+    </row>
+    <row r="57" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>55200</v>
       </c>
@@ -8974,8 +9154,11 @@
       <c r="Z57" s="3">
         <v>9326297</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA57" s="63">
+        <v>9326297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>55200</v>
       </c>
@@ -9054,8 +9237,11 @@
       <c r="Z58" s="3">
         <v>859909</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA58" s="63">
+        <v>859909</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>55200</v>
       </c>
@@ -9134,8 +9320,11 @@
       <c r="Z59" s="3">
         <v>2236991</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA59" s="63">
+        <v>2236991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
         <v>55200</v>
       </c>
@@ -9214,8 +9403,11 @@
       <c r="Z60" s="3">
         <v>384530</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA60" s="63">
+        <v>384530</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>55200</v>
       </c>
@@ -9294,8 +9486,11 @@
       <c r="Z61" s="3">
         <v>5621611</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA61" s="63">
+        <v>5426249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>55200</v>
       </c>
@@ -9374,8 +9569,11 @@
       <c r="Z62" s="3">
         <v>993584</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA62" s="63">
+        <v>993584</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>55200</v>
       </c>
@@ -9454,8 +9652,11 @@
       <c r="Z63" s="3">
         <v>8741793</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA63" s="63">
+        <v>8741793</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>55200</v>
       </c>
@@ -9534,8 +9735,11 @@
       <c r="Z64" s="3">
         <v>1071555</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA64" s="63">
+        <v>1071555</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>55200</v>
       </c>
@@ -9610,8 +9814,9 @@
       </c>
       <c r="Y65" s="10"/>
       <c r="Z65" s="5"/>
-    </row>
-    <row r="66" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA65" s="64"/>
+    </row>
+    <row r="66" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>55200</v>
       </c>
@@ -9690,8 +9895,11 @@
       <c r="Z66" s="3">
         <v>169668</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA66" s="63">
+        <v>169668</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>55200</v>
       </c>
@@ -9770,8 +9978,11 @@
       <c r="Z67" s="3">
         <v>8460297</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA67" s="63">
+        <v>8460297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>55200</v>
       </c>
@@ -9850,8 +10061,11 @@
       <c r="Z68" s="3">
         <v>489417</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA68" s="63">
+        <v>489417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>55200</v>
       </c>
@@ -9930,8 +10144,11 @@
       <c r="Z69" s="3">
         <v>10487243</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA69" s="63">
+        <v>10487243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>55200</v>
       </c>
@@ -10010,8 +10227,11 @@
       <c r="Z70" s="3">
         <v>4053220</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA70" s="63">
+        <v>4053220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
         <v>55200</v>
       </c>
@@ -10090,8 +10310,11 @@
       <c r="Z71" s="3">
         <v>2846060</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA71" s="63">
+        <v>2846060</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
         <v>55200</v>
       </c>
@@ -10170,8 +10393,11 @@
       <c r="Z72" s="3">
         <v>48600</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA72" s="63">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
         <v>55200</v>
       </c>
@@ -10250,8 +10476,11 @@
       <c r="Z73" s="3">
         <v>8416857</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA73" s="63">
+        <v>8214059</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
         <v>55200</v>
       </c>
@@ -10330,8 +10559,11 @@
       <c r="Z74" s="3">
         <v>4097648</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA74" s="63">
+        <v>4097648</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>55200</v>
       </c>
@@ -10410,8 +10642,11 @@
       <c r="Z75" s="3">
         <v>4860203</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA75" s="63">
+        <v>4860203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>55200</v>
       </c>
@@ -10490,8 +10725,11 @@
       <c r="Z76" s="3">
         <v>1881229</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA76" s="63">
+        <v>1881229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
         <v>55200</v>
       </c>
@@ -10570,8 +10808,11 @@
       <c r="Z77" s="3">
         <v>4232216</v>
       </c>
-    </row>
-    <row r="78" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA77" s="63">
+        <v>4232216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
         <v>55200</v>
       </c>
@@ -10650,8 +10891,11 @@
       <c r="Z78" s="3">
         <v>1993428</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA78" s="63">
+        <v>1993428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
         <v>55200</v>
       </c>
@@ -10730,8 +10974,11 @@
       <c r="Z79" s="3">
         <v>5106132</v>
       </c>
-    </row>
-    <row r="80" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA79" s="63">
+        <v>4710922</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
         <v>55200</v>
       </c>
@@ -10810,8 +11057,11 @@
       <c r="Z80" s="3">
         <v>404647</v>
       </c>
-    </row>
-    <row r="81" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA80" s="63">
+        <v>404647</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
         <v>55200</v>
       </c>
@@ -10890,8 +11140,11 @@
       <c r="Z81" s="3">
         <v>7523451</v>
       </c>
-    </row>
-    <row r="82" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA81" s="63">
+        <v>7523451</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <v>55200</v>
       </c>
@@ -10970,8 +11223,11 @@
       <c r="Z82" s="3">
         <v>1468301</v>
       </c>
-    </row>
-    <row r="83" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA82" s="63">
+        <v>1468301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="14">
         <v>55200</v>
       </c>
@@ -11050,8 +11306,11 @@
       <c r="Z83" s="3">
         <v>13271874</v>
       </c>
-    </row>
-    <row r="84" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA83" s="63">
+        <v>13271874</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="14">
         <v>55200</v>
       </c>
@@ -11130,8 +11389,11 @@
       <c r="Z84" s="3">
         <v>3196923</v>
       </c>
-    </row>
-    <row r="85" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA84" s="63">
+        <v>3196923</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="14">
         <v>55200</v>
       </c>
@@ -11210,8 +11472,11 @@
       <c r="Z85" s="3">
         <v>3293591</v>
       </c>
-    </row>
-    <row r="86" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA85" s="63">
+        <v>3293591</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
         <v>55200</v>
       </c>
@@ -11290,8 +11555,11 @@
       <c r="Z86" s="3">
         <v>1329942</v>
       </c>
-    </row>
-    <row r="87" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA86" s="63">
+        <v>1329942</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
         <v>55200</v>
       </c>
@@ -11370,8 +11638,11 @@
       <c r="Z87" s="3">
         <v>2648112</v>
       </c>
-    </row>
-    <row r="88" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA87" s="63">
+        <v>2648112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
         <v>55200</v>
       </c>
@@ -11450,8 +11721,11 @@
       <c r="Z88" s="3">
         <v>5981881</v>
       </c>
-    </row>
-    <row r="89" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA88" s="63">
+        <v>5981881</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="14">
         <v>55210</v>
       </c>
@@ -11528,8 +11802,9 @@
         <v>363314</v>
       </c>
       <c r="Z89" s="5"/>
-    </row>
-    <row r="90" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA89" s="64"/>
+    </row>
+    <row r="90" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="14">
         <v>55210</v>
       </c>
@@ -11608,8 +11883,11 @@
       <c r="Z90" s="3">
         <v>1371396</v>
       </c>
-    </row>
-    <row r="91" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA90" s="63">
+        <v>1371396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
         <v>55210</v>
       </c>
@@ -11684,8 +11962,9 @@
       </c>
       <c r="Y91" s="10"/>
       <c r="Z91" s="5"/>
-    </row>
-    <row r="92" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA91" s="64"/>
+    </row>
+    <row r="92" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
         <v>55210</v>
       </c>
@@ -11764,8 +12043,11 @@
       <c r="Z92" s="3">
         <v>350790</v>
       </c>
-    </row>
-    <row r="93" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA92" s="63">
+        <v>350790</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="14">
         <v>55210</v>
       </c>
@@ -11844,8 +12126,11 @@
       <c r="Z93" s="3">
         <v>1325974</v>
       </c>
-    </row>
-    <row r="94" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA93" s="63">
+        <v>1325974</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
         <v>55210</v>
       </c>
@@ -11924,8 +12209,11 @@
       <c r="Z94" s="3">
         <v>1273009</v>
       </c>
-    </row>
-    <row r="95" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA94" s="63">
+        <v>1251859</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
         <v>55210</v>
       </c>
@@ -11988,8 +12276,9 @@
       <c r="X95" s="5"/>
       <c r="Y95" s="10"/>
       <c r="Z95" s="5"/>
-    </row>
-    <row r="96" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA95" s="64"/>
+    </row>
+    <row r="96" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <v>55210</v>
       </c>
@@ -12068,8 +12357,11 @@
       <c r="Z96" s="3">
         <v>1148620</v>
       </c>
-    </row>
-    <row r="97" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA96" s="63">
+        <v>1148620</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
         <v>55210</v>
       </c>
@@ -12148,8 +12440,11 @@
       <c r="Z97" s="3">
         <v>177598</v>
       </c>
-    </row>
-    <row r="98" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA97" s="63">
+        <v>177598</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
         <v>55210</v>
       </c>
@@ -12228,8 +12523,11 @@
       <c r="Z98" s="3">
         <v>70248</v>
       </c>
-    </row>
-    <row r="99" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA98" s="63">
+        <v>70248</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="14">
         <v>55210</v>
       </c>
@@ -12308,8 +12606,11 @@
       <c r="Z99" s="3">
         <v>835051</v>
       </c>
-    </row>
-    <row r="100" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA99" s="63">
+        <v>835051</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
         <v>55210</v>
       </c>
@@ -12368,8 +12669,9 @@
       <c r="X100" s="5"/>
       <c r="Y100" s="10"/>
       <c r="Z100" s="5"/>
-    </row>
-    <row r="101" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA100" s="64"/>
+    </row>
+    <row r="101" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="14">
         <v>55210</v>
       </c>
@@ -12448,8 +12750,11 @@
       <c r="Z101" s="3">
         <v>2026141</v>
       </c>
-    </row>
-    <row r="102" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA101" s="63">
+        <v>1920772</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="14">
         <v>55210</v>
       </c>
@@ -12488,8 +12793,9 @@
       <c r="X102" s="5"/>
       <c r="Y102" s="10"/>
       <c r="Z102" s="5"/>
-    </row>
-    <row r="103" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA102" s="64"/>
+    </row>
+    <row r="103" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="14">
         <v>55210</v>
       </c>
@@ -12568,8 +12874,11 @@
       <c r="Z103" s="3">
         <v>1970795</v>
       </c>
-    </row>
-    <row r="104" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA103" s="63">
+        <v>1970795</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="14">
         <v>55210</v>
       </c>
@@ -12648,8 +12957,11 @@
       <c r="Z104" s="3">
         <v>1168162</v>
       </c>
-    </row>
-    <row r="105" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA104" s="63">
+        <v>1168162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="14">
         <v>55210</v>
       </c>
@@ -12728,8 +13040,11 @@
       <c r="Z105" s="3">
         <v>728112</v>
       </c>
-    </row>
-    <row r="106" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA105" s="63">
+        <v>728112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="14">
         <v>55210</v>
       </c>
@@ -12792,8 +13107,9 @@
       <c r="X106" s="5"/>
       <c r="Y106" s="10"/>
       <c r="Z106" s="5"/>
-    </row>
-    <row r="107" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA106" s="64"/>
+    </row>
+    <row r="107" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="14">
         <v>55210</v>
       </c>
@@ -12872,8 +13188,11 @@
       <c r="Z107" s="3">
         <v>1104560</v>
       </c>
-    </row>
-    <row r="108" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA107" s="63">
+        <v>1104560</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="14">
         <v>55210</v>
       </c>
@@ -12942,8 +13261,9 @@
       <c r="X108" s="5"/>
       <c r="Y108" s="10"/>
       <c r="Z108" s="5"/>
-    </row>
-    <row r="109" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA108" s="64"/>
+    </row>
+    <row r="109" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
         <v>55210</v>
       </c>
@@ -13022,8 +13342,11 @@
       <c r="Z109" s="3">
         <v>222121</v>
       </c>
-    </row>
-    <row r="110" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA109" s="63">
+        <v>187410</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
         <v>55210</v>
       </c>
@@ -13102,8 +13425,11 @@
       <c r="Z110" s="3">
         <v>19890</v>
       </c>
-    </row>
-    <row r="111" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA110" s="63">
+        <v>19890</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="14">
         <v>55210</v>
       </c>
@@ -13182,8 +13508,11 @@
       <c r="Z111" s="3">
         <v>2156780</v>
       </c>
-    </row>
-    <row r="112" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA111" s="63">
+        <v>2091470</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="14">
         <v>55210</v>
       </c>
@@ -13262,8 +13591,11 @@
       <c r="Z112" s="3">
         <v>106149</v>
       </c>
-    </row>
-    <row r="113" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA112" s="63">
+        <v>106149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="14">
         <v>55210</v>
       </c>
@@ -13342,8 +13674,11 @@
       <c r="Z113" s="3">
         <v>1779711</v>
       </c>
-    </row>
-    <row r="114" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA113" s="63">
+        <v>1779711</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="14">
         <v>55210</v>
       </c>
@@ -13418,8 +13753,9 @@
       </c>
       <c r="Y114" s="10"/>
       <c r="Z114" s="5"/>
-    </row>
-    <row r="115" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA114" s="64"/>
+    </row>
+    <row r="115" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="14">
         <v>55220</v>
       </c>
@@ -13496,8 +13832,9 @@
         <v>1234257</v>
       </c>
       <c r="Z115" s="5"/>
-    </row>
-    <row r="116" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA115" s="64"/>
+    </row>
+    <row r="116" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="14">
         <v>55220</v>
       </c>
@@ -13574,8 +13911,9 @@
         <v>815159</v>
       </c>
       <c r="Z116" s="5"/>
-    </row>
-    <row r="117" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA116" s="64"/>
+    </row>
+    <row r="117" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="14">
         <v>55220</v>
       </c>
@@ -13652,8 +13990,9 @@
         <v>1015973</v>
       </c>
       <c r="Z117" s="5"/>
-    </row>
-    <row r="118" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA117" s="64"/>
+    </row>
+    <row r="118" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
         <v>55220</v>
       </c>
@@ -13730,8 +14069,9 @@
         <v>2521250</v>
       </c>
       <c r="Z118" s="5"/>
-    </row>
-    <row r="119" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA118" s="64"/>
+    </row>
+    <row r="119" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
         <v>55220</v>
       </c>
@@ -13790,8 +14130,9 @@
       <c r="X119" s="5"/>
       <c r="Y119" s="10"/>
       <c r="Z119" s="5"/>
-    </row>
-    <row r="120" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA119" s="64"/>
+    </row>
+    <row r="120" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="14">
         <v>55220</v>
       </c>
@@ -13868,8 +14209,9 @@
         <v>1483269</v>
       </c>
       <c r="Z120" s="5"/>
-    </row>
-    <row r="121" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA120" s="64"/>
+    </row>
+    <row r="121" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="14">
         <v>55220</v>
       </c>
@@ -13946,8 +14288,9 @@
         <v>834362</v>
       </c>
       <c r="Z121" s="5"/>
-    </row>
-    <row r="122" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA121" s="64"/>
+    </row>
+    <row r="122" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="14">
         <v>55220</v>
       </c>
@@ -14024,8 +14367,9 @@
         <v>776403</v>
       </c>
       <c r="Z122" s="5"/>
-    </row>
-    <row r="123" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA122" s="64"/>
+    </row>
+    <row r="123" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="14">
         <v>55220</v>
       </c>
@@ -14102,8 +14446,9 @@
         <v>11550603</v>
       </c>
       <c r="Z123" s="5"/>
-    </row>
-    <row r="124" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA123" s="64"/>
+    </row>
+    <row r="124" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
         <v>55220</v>
       </c>
@@ -14178,8 +14523,9 @@
       </c>
       <c r="Y124" s="10"/>
       <c r="Z124" s="5"/>
-    </row>
-    <row r="125" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA124" s="64"/>
+    </row>
+    <row r="125" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="14">
         <v>55220</v>
       </c>
@@ -14256,8 +14602,9 @@
         <v>1623029</v>
       </c>
       <c r="Z125" s="5"/>
-    </row>
-    <row r="126" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA125" s="64"/>
+    </row>
+    <row r="126" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="14">
         <v>55220</v>
       </c>
@@ -14334,8 +14681,9 @@
         <v>1198791</v>
       </c>
       <c r="Z126" s="5"/>
-    </row>
-    <row r="127" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA126" s="64"/>
+    </row>
+    <row r="127" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="14">
         <v>55220</v>
       </c>
@@ -14412,8 +14760,9 @@
         <v>1031925</v>
       </c>
       <c r="Z127" s="5"/>
-    </row>
-    <row r="128" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA127" s="64"/>
+    </row>
+    <row r="128" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="14">
         <v>55220</v>
       </c>
@@ -14490,8 +14839,9 @@
         <v>1238402</v>
       </c>
       <c r="Z128" s="5"/>
-    </row>
-    <row r="129" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA128" s="64"/>
+    </row>
+    <row r="129" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="14">
         <v>55220</v>
       </c>
@@ -14568,8 +14918,9 @@
         <v>4517622</v>
       </c>
       <c r="Z129" s="5"/>
-    </row>
-    <row r="130" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA129" s="64"/>
+    </row>
+    <row r="130" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="14">
         <v>55220</v>
       </c>
@@ -14646,8 +14997,9 @@
         <v>959595</v>
       </c>
       <c r="Z130" s="5"/>
-    </row>
-    <row r="131" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA130" s="64"/>
+    </row>
+    <row r="131" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="14">
         <v>55230</v>
       </c>
@@ -14726,8 +15078,11 @@
       <c r="Z131" s="3">
         <v>2139767</v>
       </c>
-    </row>
-    <row r="132" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA131" s="63">
+        <v>2139767</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
         <v>55230</v>
       </c>
@@ -14806,8 +15161,11 @@
       <c r="Z132" s="3">
         <v>155267</v>
       </c>
-    </row>
-    <row r="133" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA132" s="63">
+        <v>155267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
         <v>55230</v>
       </c>
@@ -14884,8 +15242,9 @@
         <v>130206</v>
       </c>
       <c r="Z133" s="5"/>
-    </row>
-    <row r="134" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA133" s="64"/>
+    </row>
+    <row r="134" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="14">
         <v>55230</v>
       </c>
@@ -14924,8 +15283,9 @@
       <c r="X134" s="5"/>
       <c r="Y134" s="10"/>
       <c r="Z134" s="5"/>
-    </row>
-    <row r="135" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA134" s="64"/>
+    </row>
+    <row r="135" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="14">
         <v>55230</v>
       </c>
@@ -15004,8 +15364,11 @@
       <c r="Z135" s="3">
         <v>3394233</v>
       </c>
-    </row>
-    <row r="136" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA135" s="63">
+        <v>3394233</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="14">
         <v>55230</v>
       </c>
@@ -15084,8 +15447,11 @@
       <c r="Z136" s="3">
         <v>2450315</v>
       </c>
-    </row>
-    <row r="137" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA136" s="63">
+        <v>2450315</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
         <v>55230</v>
       </c>
@@ -15164,8 +15530,11 @@
       <c r="Z137" s="3">
         <v>3189189</v>
       </c>
-    </row>
-    <row r="138" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA137" s="63">
+        <v>3189189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="14">
         <v>55230</v>
       </c>
@@ -15244,8 +15613,11 @@
       <c r="Z138" s="3">
         <v>739147</v>
       </c>
-    </row>
-    <row r="139" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA138" s="63">
+        <v>739147</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
         <v>55230</v>
       </c>
@@ -15324,8 +15696,11 @@
       <c r="Z139" s="3">
         <v>900886</v>
       </c>
-    </row>
-    <row r="140" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA139" s="63">
+        <v>900886</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="14">
         <v>55230</v>
       </c>
@@ -15404,8 +15779,11 @@
       <c r="Z140" s="3">
         <v>19692</v>
       </c>
-    </row>
-    <row r="141" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA140" s="63">
+        <v>19692</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="14">
         <v>55230</v>
       </c>
@@ -15484,8 +15862,11 @@
       <c r="Z141" s="3">
         <v>1201284</v>
       </c>
-    </row>
-    <row r="142" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA141" s="63">
+        <v>1201284</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="14">
         <v>55230</v>
       </c>
@@ -15564,8 +15945,11 @@
       <c r="Z142" s="3">
         <v>390451</v>
       </c>
-    </row>
-    <row r="143" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA142" s="63">
+        <v>390451</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="14">
         <v>55230</v>
       </c>
@@ -15644,8 +16028,11 @@
       <c r="Z143" s="3">
         <v>4712427</v>
       </c>
-    </row>
-    <row r="144" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA143" s="63">
+        <v>4712427</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="14">
         <v>55230</v>
       </c>
@@ -15724,8 +16111,11 @@
       <c r="Z144" s="3">
         <v>622347</v>
       </c>
-    </row>
-    <row r="145" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA144" s="63">
+        <v>622347</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="14">
         <v>55230</v>
       </c>
@@ -15804,8 +16194,11 @@
       <c r="Z145" s="3">
         <v>4173562</v>
       </c>
-    </row>
-    <row r="146" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA145" s="63">
+        <v>4173562</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="14">
         <v>55230</v>
       </c>
@@ -15884,8 +16277,11 @@
       <c r="Z146" s="3">
         <v>386205</v>
       </c>
-    </row>
-    <row r="147" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA146" s="63">
+        <v>386205</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="14">
         <v>55230</v>
       </c>
@@ -15964,8 +16360,11 @@
       <c r="Z147" s="3">
         <v>3936629</v>
       </c>
-    </row>
-    <row r="148" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA147" s="63">
+        <v>2677188</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="14">
         <v>55230</v>
       </c>
@@ -16044,8 +16443,11 @@
       <c r="Z148" s="3">
         <v>127212</v>
       </c>
-    </row>
-    <row r="149" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA148" s="63">
+        <v>127212</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="14">
         <v>55230</v>
       </c>
@@ -16124,8 +16526,11 @@
       <c r="Z149" s="3">
         <v>11819484</v>
       </c>
-    </row>
-    <row r="150" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA149" s="63">
+        <v>11819484</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="14">
         <v>55230</v>
       </c>
@@ -16204,8 +16609,11 @@
       <c r="Z150" s="3">
         <v>16860620</v>
       </c>
-    </row>
-    <row r="151" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA150" s="63">
+        <v>16860620</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="14">
         <v>55230</v>
       </c>
@@ -16278,8 +16686,9 @@
       <c r="X151" s="5"/>
       <c r="Y151" s="10"/>
       <c r="Z151" s="5"/>
-    </row>
-    <row r="152" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA151" s="64"/>
+    </row>
+    <row r="152" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="14">
         <v>55230</v>
       </c>
@@ -16358,8 +16767,11 @@
       <c r="Z152" s="3">
         <v>5234659</v>
       </c>
-    </row>
-    <row r="153" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA152" s="63">
+        <v>5234659</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="14">
         <v>55230</v>
       </c>
@@ -16438,8 +16850,11 @@
       <c r="Z153" s="3">
         <v>2009502</v>
       </c>
-    </row>
-    <row r="154" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA153" s="63">
+        <v>2009502</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="14">
         <v>55230</v>
       </c>
@@ -16518,8 +16933,11 @@
       <c r="Z154" s="3">
         <v>3942687</v>
       </c>
-    </row>
-    <row r="155" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA154" s="63">
+        <v>3942687</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="14">
         <v>55230</v>
       </c>
@@ -16598,8 +17016,11 @@
       <c r="Z155" s="3">
         <v>1595530</v>
       </c>
-    </row>
-    <row r="156" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA155" s="63">
+        <v>1595530</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="14">
         <v>55230</v>
       </c>
@@ -16678,8 +17099,11 @@
       <c r="Z156" s="3">
         <v>6895990</v>
       </c>
-    </row>
-    <row r="157" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA156" s="63">
+        <v>6895990</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="14">
         <v>55230</v>
       </c>
@@ -16758,8 +17182,11 @@
       <c r="Z157" s="3">
         <v>1795923</v>
       </c>
-    </row>
-    <row r="158" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA157" s="63">
+        <v>1795923</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="14">
         <v>55230</v>
       </c>
@@ -16838,8 +17265,11 @@
       <c r="Z158" s="3">
         <v>706215</v>
       </c>
-    </row>
-    <row r="159" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA158" s="63">
+        <v>706215</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="14">
         <v>55230</v>
       </c>
@@ -16918,8 +17348,11 @@
       <c r="Z159" s="3">
         <v>56822</v>
       </c>
-    </row>
-    <row r="160" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA159" s="63">
+        <v>56822</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="14">
         <v>55230</v>
       </c>
@@ -16998,8 +17431,11 @@
       <c r="Z160" s="3">
         <v>9342010</v>
       </c>
-    </row>
-    <row r="161" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA160" s="63">
+        <v>8736211</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="14">
         <v>55230</v>
       </c>
@@ -17078,8 +17514,11 @@
       <c r="Z161" s="3">
         <v>3819520</v>
       </c>
-    </row>
-    <row r="162" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA161" s="63">
+        <v>3819520</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="14">
         <v>55230</v>
       </c>
@@ -17158,8 +17597,11 @@
       <c r="Z162" s="3">
         <v>5513058</v>
       </c>
-    </row>
-    <row r="163" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA162" s="63">
+        <v>5513058</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="14">
         <v>55230</v>
       </c>
@@ -17238,8 +17680,11 @@
       <c r="Z163" s="3">
         <v>1980910</v>
       </c>
-    </row>
-    <row r="164" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA163" s="63">
+        <v>1980910</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="14">
         <v>55230</v>
       </c>
@@ -17318,8 +17763,11 @@
       <c r="Z164" s="3">
         <v>3168186</v>
       </c>
-    </row>
-    <row r="165" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA164" s="63">
+        <v>3168186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="14">
         <v>55230</v>
       </c>
@@ -17396,8 +17844,9 @@
         <v>82305</v>
       </c>
       <c r="Z165" s="5"/>
-    </row>
-    <row r="166" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA165" s="64"/>
+    </row>
+    <row r="166" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="14">
         <v>55230</v>
       </c>
@@ -17476,8 +17925,11 @@
       <c r="Z166" s="3">
         <v>385790</v>
       </c>
-    </row>
-    <row r="167" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA166" s="63">
+        <v>385790</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="14">
         <v>55230</v>
       </c>
@@ -17540,8 +17992,9 @@
       <c r="X167" s="5"/>
       <c r="Y167" s="10"/>
       <c r="Z167" s="5"/>
-    </row>
-    <row r="168" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA167" s="64"/>
+    </row>
+    <row r="168" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="14">
         <v>55230</v>
       </c>
@@ -17620,8 +18073,11 @@
       <c r="Z168" s="3">
         <v>8393058</v>
       </c>
-    </row>
-    <row r="169" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA168" s="63">
+        <v>8308032</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="14">
         <v>55230</v>
       </c>
@@ -17700,8 +18156,11 @@
       <c r="Z169" s="3">
         <v>2849630</v>
       </c>
-    </row>
-    <row r="170" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA169" s="63">
+        <v>2849630</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="14">
         <v>55230</v>
       </c>
@@ -17780,8 +18239,11 @@
       <c r="Z170" s="3">
         <v>1024934</v>
       </c>
-    </row>
-    <row r="171" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA170" s="63">
+        <v>1024934</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="14">
         <v>55230</v>
       </c>
@@ -17844,8 +18306,9 @@
       <c r="X171" s="5"/>
       <c r="Y171" s="10"/>
       <c r="Z171" s="5"/>
-    </row>
-    <row r="172" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA171" s="64"/>
+    </row>
+    <row r="172" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="14">
         <v>55230</v>
       </c>
@@ -17924,8 +18387,11 @@
       <c r="Z172" s="3">
         <v>5173290</v>
       </c>
-    </row>
-    <row r="173" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA172" s="63">
+        <v>5173290</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="14">
         <v>55230</v>
       </c>
@@ -18004,8 +18470,11 @@
       <c r="Z173" s="3">
         <v>5625305</v>
       </c>
-    </row>
-    <row r="174" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA173" s="63">
+        <v>5625305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="14">
         <v>55230</v>
       </c>
@@ -18072,8 +18541,9 @@
       <c r="X174" s="5"/>
       <c r="Y174" s="10"/>
       <c r="Z174" s="5"/>
-    </row>
-    <row r="175" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA174" s="64"/>
+    </row>
+    <row r="175" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="14">
         <v>55230</v>
       </c>
@@ -18136,8 +18606,9 @@
       <c r="X175" s="5"/>
       <c r="Y175" s="10"/>
       <c r="Z175" s="5"/>
-    </row>
-    <row r="176" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA175" s="64"/>
+    </row>
+    <row r="176" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="14">
         <v>55230</v>
       </c>
@@ -18216,8 +18687,11 @@
       <c r="Z176" s="3">
         <v>3657325</v>
       </c>
-    </row>
-    <row r="177" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA176" s="63">
+        <v>3657325</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="14">
         <v>55230</v>
       </c>
@@ -18296,8 +18770,11 @@
       <c r="Z177" s="3">
         <v>178933</v>
       </c>
-    </row>
-    <row r="178" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA177" s="63">
+        <v>178933</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="14">
         <v>55230</v>
       </c>
@@ -18376,8 +18853,11 @@
       <c r="Z178" s="3">
         <v>1424815</v>
       </c>
-    </row>
-    <row r="179" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA178" s="63">
+        <v>1424815</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="14">
         <v>55230</v>
       </c>
@@ -18456,8 +18936,11 @@
       <c r="Z179" s="3">
         <v>212034</v>
       </c>
-    </row>
-    <row r="180" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA179" s="63">
+        <v>212034</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="14">
         <v>55230</v>
       </c>
@@ -18536,8 +19019,11 @@
       <c r="Z180" s="3">
         <v>1624007</v>
       </c>
-    </row>
-    <row r="181" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA180" s="63">
+        <v>1624007</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="14">
         <v>55230</v>
       </c>
@@ -18616,8 +19102,11 @@
       <c r="Z181" s="3">
         <v>5418887</v>
       </c>
-    </row>
-    <row r="182" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA181" s="63">
+        <v>5418887</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="14">
         <v>55230</v>
       </c>
@@ -18696,8 +19185,11 @@
       <c r="Z182" s="3">
         <v>215860</v>
       </c>
-    </row>
-    <row r="183" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA182" s="63">
+        <v>215860</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="14">
         <v>55230</v>
       </c>
@@ -18776,8 +19268,11 @@
       <c r="Z183" s="3">
         <v>1581368</v>
       </c>
-    </row>
-    <row r="184" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA183" s="63">
+        <v>1581368</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="14">
         <v>55230</v>
       </c>
@@ -18820,8 +19315,9 @@
       <c r="X184" s="5"/>
       <c r="Y184" s="10"/>
       <c r="Z184" s="5"/>
-    </row>
-    <row r="185" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA184" s="64"/>
+    </row>
+    <row r="185" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="14">
         <v>55230</v>
       </c>
@@ -18900,8 +19396,11 @@
       <c r="Z185" s="3">
         <v>344901</v>
       </c>
-    </row>
-    <row r="186" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA185" s="63">
+        <v>344901</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="14">
         <v>55230</v>
       </c>
@@ -18980,8 +19479,11 @@
       <c r="Z186" s="3">
         <v>143194</v>
       </c>
-    </row>
-    <row r="187" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA186" s="63">
+        <v>143194</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="14">
         <v>55230</v>
       </c>
@@ -19060,8 +19562,11 @@
       <c r="Z187" s="3">
         <v>1149057</v>
       </c>
-    </row>
-    <row r="188" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA187" s="63">
+        <v>1149057</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="14">
         <v>55230</v>
       </c>
@@ -19140,11 +19645,14 @@
       <c r="Z188" s="3">
         <v>369382</v>
       </c>
-    </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA188" s="63">
+        <v>369382</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
@@ -19711,13 +20219,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Lembar3"/>
-  <dimension ref="A1:Z187"/>
+  <dimension ref="A1:AA187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="U106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Z4" sqref="Z4:Z187"/>
+      <selection pane="bottomRight" activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19726,17 +20234,17 @@
     <col min="21" max="21" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -19815,8 +20323,11 @@
       <c r="Z4" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA4" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>55200</v>
       </c>
@@ -19895,8 +20406,11 @@
       <c r="Z5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA5" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>55200</v>
       </c>
@@ -19975,8 +20489,11 @@
       <c r="Z6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA6" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>55200</v>
       </c>
@@ -20055,8 +20572,11 @@
       <c r="Z7" s="3">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA7" s="49">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>55200</v>
       </c>
@@ -20135,8 +20655,11 @@
       <c r="Z8" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA8" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>55200</v>
       </c>
@@ -20215,8 +20738,11 @@
       <c r="Z9" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA9" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>55200</v>
       </c>
@@ -20295,8 +20821,11 @@
       <c r="Z10" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA10" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>55200</v>
       </c>
@@ -20375,8 +20904,11 @@
       <c r="Z11" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA11" s="49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>55200</v>
       </c>
@@ -20427,8 +20959,9 @@
       <c r="X12" s="43"/>
       <c r="Y12" s="50"/>
       <c r="Z12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA12" s="50"/>
+    </row>
+    <row r="13" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>55200</v>
       </c>
@@ -20507,8 +21040,11 @@
       <c r="Z13" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA13" s="49">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>55200</v>
       </c>
@@ -20587,8 +21123,11 @@
       <c r="Z14" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA14" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>55200</v>
       </c>
@@ -20667,8 +21206,11 @@
       <c r="Z15" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA15" s="49">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>55200</v>
       </c>
@@ -20747,8 +21289,11 @@
       <c r="Z16" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA16" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>55200</v>
       </c>
@@ -20827,8 +21372,11 @@
       <c r="Z17" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA17" s="49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>55200</v>
       </c>
@@ -20907,8 +21455,11 @@
       <c r="Z18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA18" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>55200</v>
       </c>
@@ -20987,8 +21538,11 @@
       <c r="Z19" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA19" s="49">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>55200</v>
       </c>
@@ -21067,8 +21621,11 @@
       <c r="Z20" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA20" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>55200</v>
       </c>
@@ -21147,8 +21704,11 @@
       <c r="Z21" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA21" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>55200</v>
       </c>
@@ -21227,8 +21787,11 @@
       <c r="Z22" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA22" s="49">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>55200</v>
       </c>
@@ -21307,8 +21870,11 @@
       <c r="Z23" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA23" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>55200</v>
       </c>
@@ -21387,8 +21953,11 @@
       <c r="Z24" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA24" s="49">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>55200</v>
       </c>
@@ -21467,8 +22036,11 @@
       <c r="Z25" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA25" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>55200</v>
       </c>
@@ -21547,8 +22119,11 @@
       <c r="Z26" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA26" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>55200</v>
       </c>
@@ -21627,8 +22202,11 @@
       <c r="Z27" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA27" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>55200</v>
       </c>
@@ -21705,8 +22283,9 @@
         <v>1</v>
       </c>
       <c r="Z28" s="5"/>
-    </row>
-    <row r="29" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA28" s="50"/>
+    </row>
+    <row r="29" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>55200</v>
       </c>
@@ -21785,8 +22364,11 @@
       <c r="Z29" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA29" s="49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>55200</v>
       </c>
@@ -21865,8 +22447,11 @@
       <c r="Z30" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA30" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>55200</v>
       </c>
@@ -21945,8 +22530,11 @@
       <c r="Z31" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA31" s="49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>55200</v>
       </c>
@@ -22025,8 +22613,11 @@
       <c r="Z32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA32" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>55200</v>
       </c>
@@ -22105,8 +22696,11 @@
       <c r="Z33" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA33" s="49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>55200</v>
       </c>
@@ -22185,8 +22779,11 @@
       <c r="Z34" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA34" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>55200</v>
       </c>
@@ -22265,8 +22862,11 @@
       <c r="Z35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA35" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>55200</v>
       </c>
@@ -22345,8 +22945,11 @@
       <c r="Z36" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA36" s="49">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>55200</v>
       </c>
@@ -22425,8 +23028,11 @@
       <c r="Z37" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA37" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>55200</v>
       </c>
@@ -22505,8 +23111,11 @@
       <c r="Z38" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA38" s="49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>55200</v>
       </c>
@@ -22585,8 +23194,11 @@
       <c r="Z39" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA39" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>55200</v>
       </c>
@@ -22665,8 +23277,11 @@
       <c r="Z40" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA40" s="49">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>55200</v>
       </c>
@@ -22745,8 +23360,11 @@
       <c r="Z41" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA41" s="49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>55200</v>
       </c>
@@ -22825,8 +23443,11 @@
       <c r="Z42" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA42" s="49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>55200</v>
       </c>
@@ -22905,8 +23526,11 @@
       <c r="Z43" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA43" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>55200</v>
       </c>
@@ -22985,8 +23609,11 @@
       <c r="Z44" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA44" s="49">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>55200</v>
       </c>
@@ -23065,8 +23692,11 @@
       <c r="Z45" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA45" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>55200</v>
       </c>
@@ -23145,8 +23775,11 @@
       <c r="Z46" s="3">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA46" s="49">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>55200</v>
       </c>
@@ -23225,8 +23858,11 @@
       <c r="Z47" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA47" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>55200</v>
       </c>
@@ -23305,8 +23941,11 @@
       <c r="Z48" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA48" s="49">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>55200</v>
       </c>
@@ -23385,8 +24024,11 @@
       <c r="Z49" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA49" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>55200</v>
       </c>
@@ -23465,8 +24107,11 @@
       <c r="Z50" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA50" s="49">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>55200</v>
       </c>
@@ -23545,8 +24190,11 @@
       <c r="Z51" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA51" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>55200</v>
       </c>
@@ -23625,8 +24273,11 @@
       <c r="Z52" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA52" s="49">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>55200</v>
       </c>
@@ -23705,8 +24356,11 @@
       <c r="Z53" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA53" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>55200</v>
       </c>
@@ -23785,8 +24439,11 @@
       <c r="Z54" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA54" s="49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>55200</v>
       </c>
@@ -23841,8 +24498,9 @@
       <c r="X55" s="43"/>
       <c r="Y55" s="50"/>
       <c r="Z55" s="5"/>
-    </row>
-    <row r="56" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA55" s="50"/>
+    </row>
+    <row r="56" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>55200</v>
       </c>
@@ -23921,8 +24579,11 @@
       <c r="Z56" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA56" s="49">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>55200</v>
       </c>
@@ -24001,8 +24662,11 @@
       <c r="Z57" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA57" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>55200</v>
       </c>
@@ -24081,8 +24745,11 @@
       <c r="Z58" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA58" s="49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>55200</v>
       </c>
@@ -24161,8 +24828,11 @@
       <c r="Z59" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA59" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>55200</v>
       </c>
@@ -24241,8 +24911,11 @@
       <c r="Z60" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA60" s="49">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>55200</v>
       </c>
@@ -24321,8 +24994,11 @@
       <c r="Z61" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA61" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>55200</v>
       </c>
@@ -24401,8 +25077,11 @@
       <c r="Z62" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA62" s="49">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>55200</v>
       </c>
@@ -24481,8 +25160,11 @@
       <c r="Z63" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA63" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>55200</v>
       </c>
@@ -24557,8 +25239,9 @@
       </c>
       <c r="Y64" s="50"/>
       <c r="Z64" s="5"/>
-    </row>
-    <row r="65" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA64" s="50"/>
+    </row>
+    <row r="65" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>55200</v>
       </c>
@@ -24637,8 +25320,11 @@
       <c r="Z65" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA65" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>55200</v>
       </c>
@@ -24717,8 +25403,11 @@
       <c r="Z66" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA66" s="49">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>55200</v>
       </c>
@@ -24797,8 +25486,11 @@
       <c r="Z67" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA67" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>55200</v>
       </c>
@@ -24877,8 +25569,11 @@
       <c r="Z68" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA68" s="49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>55200</v>
       </c>
@@ -24957,8 +25652,11 @@
       <c r="Z69" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA69" s="49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>55200</v>
       </c>
@@ -25037,8 +25735,11 @@
       <c r="Z70" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA70" s="49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>55200</v>
       </c>
@@ -25117,8 +25818,11 @@
       <c r="Z71" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA71" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>55200</v>
       </c>
@@ -25197,8 +25901,11 @@
       <c r="Z72" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA72" s="49">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>55200</v>
       </c>
@@ -25277,8 +25984,11 @@
       <c r="Z73" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA73" s="49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>55200</v>
       </c>
@@ -25357,8 +26067,11 @@
       <c r="Z74" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA74" s="49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>55200</v>
       </c>
@@ -25437,8 +26150,11 @@
       <c r="Z75" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA75" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>55200</v>
       </c>
@@ -25517,8 +26233,11 @@
       <c r="Z76" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA76" s="49">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>55200</v>
       </c>
@@ -25597,8 +26316,11 @@
       <c r="Z77" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA77" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>55200</v>
       </c>
@@ -25677,8 +26399,11 @@
       <c r="Z78" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA78" s="49">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>55200</v>
       </c>
@@ -25757,8 +26482,11 @@
       <c r="Z79" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA79" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>55200</v>
       </c>
@@ -25837,8 +26565,11 @@
       <c r="Z80" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="81" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA80" s="49">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>55200</v>
       </c>
@@ -25917,8 +26648,11 @@
       <c r="Z81" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA81" s="49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>55200</v>
       </c>
@@ -25997,8 +26731,11 @@
       <c r="Z82" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="83" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA82" s="49">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>55200</v>
       </c>
@@ -26077,8 +26814,11 @@
       <c r="Z83" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA83" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>55200</v>
       </c>
@@ -26157,8 +26897,11 @@
       <c r="Z84" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA84" s="49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>55200</v>
       </c>
@@ -26237,8 +26980,11 @@
       <c r="Z85" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA85" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>55200</v>
       </c>
@@ -26317,8 +27063,11 @@
       <c r="Z86" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="87" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA86" s="49">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>55200</v>
       </c>
@@ -26397,8 +27146,11 @@
       <c r="Z87" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA87" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>55210</v>
       </c>
@@ -26475,8 +27227,9 @@
         <v>13</v>
       </c>
       <c r="Z88" s="5"/>
-    </row>
-    <row r="89" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA88" s="50"/>
+    </row>
+    <row r="89" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>55210</v>
       </c>
@@ -26555,8 +27308,11 @@
       <c r="Z89" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA89" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>55210</v>
       </c>
@@ -26631,8 +27387,9 @@
       </c>
       <c r="Y90" s="50"/>
       <c r="Z90" s="5"/>
-    </row>
-    <row r="91" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA90" s="50"/>
+    </row>
+    <row r="91" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>55210</v>
       </c>
@@ -26711,8 +27468,11 @@
       <c r="Z91" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA91" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>55210</v>
       </c>
@@ -26791,8 +27551,11 @@
       <c r="Z92" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA92" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>55210</v>
       </c>
@@ -26871,8 +27634,11 @@
       <c r="Z93" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="94" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA93" s="49">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>55210</v>
       </c>
@@ -26935,8 +27701,9 @@
       <c r="X94" s="43"/>
       <c r="Y94" s="50"/>
       <c r="Z94" s="5"/>
-    </row>
-    <row r="95" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA94" s="50"/>
+    </row>
+    <row r="95" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>55210</v>
       </c>
@@ -27015,8 +27782,11 @@
       <c r="Z95" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA95" s="49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>55210</v>
       </c>
@@ -27095,8 +27865,11 @@
       <c r="Z96" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA96" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>55210</v>
       </c>
@@ -27175,8 +27948,11 @@
       <c r="Z97" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA97" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>55210</v>
       </c>
@@ -27255,8 +28031,11 @@
       <c r="Z98" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="99" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA98" s="49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>55210</v>
       </c>
@@ -27315,8 +28094,9 @@
       <c r="X99" s="43"/>
       <c r="Y99" s="50"/>
       <c r="Z99" s="5"/>
-    </row>
-    <row r="100" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA99" s="50"/>
+    </row>
+    <row r="100" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>55210</v>
       </c>
@@ -27395,8 +28175,11 @@
       <c r="Z100" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="101" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA100" s="49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>55210</v>
       </c>
@@ -27435,8 +28218,9 @@
       <c r="X101" s="43"/>
       <c r="Y101" s="50"/>
       <c r="Z101" s="5"/>
-    </row>
-    <row r="102" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA101" s="50"/>
+    </row>
+    <row r="102" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>55210</v>
       </c>
@@ -27515,8 +28299,11 @@
       <c r="Z102" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA102" s="49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>55210</v>
       </c>
@@ -27595,8 +28382,11 @@
       <c r="Z103" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA103" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>55210</v>
       </c>
@@ -27675,8 +28465,11 @@
       <c r="Z104" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA104" s="49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>55210</v>
       </c>
@@ -27739,8 +28532,9 @@
       <c r="X105" s="43"/>
       <c r="Y105" s="50"/>
       <c r="Z105" s="5"/>
-    </row>
-    <row r="106" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA105" s="50"/>
+    </row>
+    <row r="106" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>55210</v>
       </c>
@@ -27819,8 +28613,11 @@
       <c r="Z106" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="107" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA106" s="49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>55210</v>
       </c>
@@ -27889,8 +28686,9 @@
       <c r="X107" s="43"/>
       <c r="Y107" s="50"/>
       <c r="Z107" s="5"/>
-    </row>
-    <row r="108" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA107" s="50"/>
+    </row>
+    <row r="108" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>55210</v>
       </c>
@@ -27969,8 +28767,11 @@
       <c r="Z108" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA108" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>55210</v>
       </c>
@@ -28049,8 +28850,11 @@
       <c r="Z109" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA109" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>55210</v>
       </c>
@@ -28129,8 +28933,11 @@
       <c r="Z110" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="111" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA110" s="49">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>55210</v>
       </c>
@@ -28209,8 +29016,11 @@
       <c r="Z111" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA111" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>55210</v>
       </c>
@@ -28289,8 +29099,11 @@
       <c r="Z112" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="113" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA112" s="49">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <v>55210</v>
       </c>
@@ -28365,8 +29178,9 @@
       </c>
       <c r="Y113" s="50"/>
       <c r="Z113" s="5"/>
-    </row>
-    <row r="114" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA113" s="50"/>
+    </row>
+    <row r="114" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="16">
         <v>55220</v>
       </c>
@@ -28443,8 +29257,9 @@
         <v>19</v>
       </c>
       <c r="Z114" s="5"/>
-    </row>
-    <row r="115" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA114" s="50"/>
+    </row>
+    <row r="115" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>55220</v>
       </c>
@@ -28521,8 +29336,9 @@
         <v>11</v>
       </c>
       <c r="Z115" s="5"/>
-    </row>
-    <row r="116" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA115" s="50"/>
+    </row>
+    <row r="116" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>55220</v>
       </c>
@@ -28599,8 +29415,9 @@
         <v>21</v>
       </c>
       <c r="Z116" s="5"/>
-    </row>
-    <row r="117" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA116" s="50"/>
+    </row>
+    <row r="117" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <v>55220</v>
       </c>
@@ -28677,8 +29494,9 @@
         <v>10</v>
       </c>
       <c r="Z117" s="5"/>
-    </row>
-    <row r="118" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA117" s="50"/>
+    </row>
+    <row r="118" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="16">
         <v>55220</v>
       </c>
@@ -28737,8 +29555,9 @@
       <c r="X118" s="43"/>
       <c r="Y118" s="50"/>
       <c r="Z118" s="5"/>
-    </row>
-    <row r="119" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA118" s="50"/>
+    </row>
+    <row r="119" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="16">
         <v>55220</v>
       </c>
@@ -28815,8 +29634,9 @@
         <v>19</v>
       </c>
       <c r="Z119" s="5"/>
-    </row>
-    <row r="120" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA119" s="50"/>
+    </row>
+    <row r="120" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
         <v>55220</v>
       </c>
@@ -28893,8 +29713,9 @@
         <v>5</v>
       </c>
       <c r="Z120" s="5"/>
-    </row>
-    <row r="121" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA120" s="50"/>
+    </row>
+    <row r="121" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <v>55220</v>
       </c>
@@ -28971,8 +29792,9 @@
         <v>12</v>
       </c>
       <c r="Z121" s="5"/>
-    </row>
-    <row r="122" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA121" s="50"/>
+    </row>
+    <row r="122" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="16">
         <v>55220</v>
       </c>
@@ -29049,8 +29871,9 @@
         <v>66</v>
       </c>
       <c r="Z122" s="5"/>
-    </row>
-    <row r="123" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA122" s="50"/>
+    </row>
+    <row r="123" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="16">
         <v>55220</v>
       </c>
@@ -29125,8 +29948,9 @@
       </c>
       <c r="Y123" s="50"/>
       <c r="Z123" s="5"/>
-    </row>
-    <row r="124" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA123" s="50"/>
+    </row>
+    <row r="124" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="16">
         <v>55220</v>
       </c>
@@ -29203,8 +30027,9 @@
         <v>22</v>
       </c>
       <c r="Z124" s="5"/>
-    </row>
-    <row r="125" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA124" s="50"/>
+    </row>
+    <row r="125" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="16">
         <v>55220</v>
       </c>
@@ -29281,8 +30106,9 @@
         <v>19</v>
       </c>
       <c r="Z125" s="5"/>
-    </row>
-    <row r="126" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA125" s="50"/>
+    </row>
+    <row r="126" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>55220</v>
       </c>
@@ -29359,8 +30185,9 @@
         <v>15</v>
       </c>
       <c r="Z126" s="5"/>
-    </row>
-    <row r="127" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA126" s="50"/>
+    </row>
+    <row r="127" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>55220</v>
       </c>
@@ -29437,8 +30264,9 @@
         <v>23</v>
       </c>
       <c r="Z127" s="5"/>
-    </row>
-    <row r="128" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA127" s="50"/>
+    </row>
+    <row r="128" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="16">
         <v>55220</v>
       </c>
@@ -29515,8 +30343,9 @@
         <v>89</v>
       </c>
       <c r="Z128" s="5"/>
-    </row>
-    <row r="129" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA128" s="50"/>
+    </row>
+    <row r="129" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="16">
         <v>55220</v>
       </c>
@@ -29593,8 +30422,9 @@
         <v>22</v>
       </c>
       <c r="Z129" s="5"/>
-    </row>
-    <row r="130" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA129" s="50"/>
+    </row>
+    <row r="130" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>55230</v>
       </c>
@@ -29673,8 +30503,11 @@
       <c r="Z130" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="131" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA130" s="49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>55230</v>
       </c>
@@ -29753,8 +30586,11 @@
       <c r="Z131" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA131" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="16">
         <v>55230</v>
       </c>
@@ -29831,8 +30667,9 @@
         <v>2</v>
       </c>
       <c r="Z132" s="5"/>
-    </row>
-    <row r="133" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA132" s="50"/>
+    </row>
+    <row r="133" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>55230</v>
       </c>
@@ -29871,8 +30708,9 @@
       <c r="X133" s="43"/>
       <c r="Y133" s="50"/>
       <c r="Z133" s="5"/>
-    </row>
-    <row r="134" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA133" s="50"/>
+    </row>
+    <row r="134" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <v>55230</v>
       </c>
@@ -29951,8 +30789,11 @@
       <c r="Z134" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="135" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA134" s="49">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <v>55230</v>
       </c>
@@ -30031,8 +30872,11 @@
       <c r="Z135" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="136" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA135" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="16">
         <v>55230</v>
       </c>
@@ -30111,8 +30955,11 @@
       <c r="Z136" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA136" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>55230</v>
       </c>
@@ -30191,8 +31038,11 @@
       <c r="Z137" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="138" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA137" s="49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>55230</v>
       </c>
@@ -30271,8 +31121,11 @@
       <c r="Z138" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="139" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA138" s="49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>55230</v>
       </c>
@@ -30351,8 +31204,11 @@
       <c r="Z139" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA139" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="16">
         <v>55230</v>
       </c>
@@ -30431,8 +31287,11 @@
       <c r="Z140" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="141" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA140" s="49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="16">
         <v>55230</v>
       </c>
@@ -30511,8 +31370,11 @@
       <c r="Z141" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA141" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="16">
         <v>55230</v>
       </c>
@@ -30591,8 +31453,11 @@
       <c r="Z142" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="143" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA142" s="49">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="16">
         <v>55230</v>
       </c>
@@ -30671,8 +31536,11 @@
       <c r="Z143" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA143" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="16">
         <v>55230</v>
       </c>
@@ -30751,8 +31619,11 @@
       <c r="Z144" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="145" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA144" s="49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="16">
         <v>55230</v>
       </c>
@@ -30831,8 +31702,11 @@
       <c r="Z145" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA145" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="16">
         <v>55230</v>
       </c>
@@ -30911,8 +31785,11 @@
       <c r="Z146" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="147" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA146" s="49">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>55230</v>
       </c>
@@ -30991,8 +31868,11 @@
       <c r="Z147" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA147" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>55230</v>
       </c>
@@ -31071,8 +31951,11 @@
       <c r="Z148" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="149" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA148" s="49">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="16">
         <v>55230</v>
       </c>
@@ -31151,8 +32034,11 @@
       <c r="Z149" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="150" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA149" s="49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="16">
         <v>55230</v>
       </c>
@@ -31225,8 +32111,9 @@
       <c r="X150" s="43"/>
       <c r="Y150" s="50"/>
       <c r="Z150" s="5"/>
-    </row>
-    <row r="151" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA150" s="50"/>
+    </row>
+    <row r="151" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="16">
         <v>55230</v>
       </c>
@@ -31305,8 +32192,11 @@
       <c r="Z151" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="152" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA151" s="49">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>55230</v>
       </c>
@@ -31385,8 +32275,11 @@
       <c r="Z152" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="153" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA152" s="49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="16">
         <v>55230</v>
       </c>
@@ -31465,8 +32358,11 @@
       <c r="Z153" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="154" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA153" s="49">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>55230</v>
       </c>
@@ -31545,8 +32441,11 @@
       <c r="Z154" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA154" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="16">
         <v>55230</v>
       </c>
@@ -31625,8 +32524,11 @@
       <c r="Z155" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="156" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA155" s="49">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="16">
         <v>55230</v>
       </c>
@@ -31705,8 +32607,11 @@
       <c r="Z156" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="157" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA156" s="49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>55230</v>
       </c>
@@ -31785,8 +32690,11 @@
       <c r="Z157" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="158" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA157" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="16">
         <v>55230</v>
       </c>
@@ -31865,8 +32773,11 @@
       <c r="Z158" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA158" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="16">
         <v>55230</v>
       </c>
@@ -31945,8 +32856,11 @@
       <c r="Z159" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="160" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA159" s="49">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="16">
         <v>55230</v>
       </c>
@@ -32025,8 +32939,11 @@
       <c r="Z160" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA160" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="16">
         <v>55230</v>
       </c>
@@ -32105,8 +33022,11 @@
       <c r="Z161" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="162" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA161" s="49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>55230</v>
       </c>
@@ -32185,8 +33105,11 @@
       <c r="Z162" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA162" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="16">
         <v>55230</v>
       </c>
@@ -32265,8 +33188,11 @@
       <c r="Z163" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="164" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA163" s="49">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>55230</v>
       </c>
@@ -32343,8 +33269,9 @@
         <v>1</v>
       </c>
       <c r="Z164" s="5"/>
-    </row>
-    <row r="165" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA164" s="50"/>
+    </row>
+    <row r="165" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>55230</v>
       </c>
@@ -32423,8 +33350,11 @@
       <c r="Z165" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="166" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA165" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>55230</v>
       </c>
@@ -32487,8 +33417,9 @@
       <c r="X166" s="43"/>
       <c r="Y166" s="50"/>
       <c r="Z166" s="5"/>
-    </row>
-    <row r="167" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA166" s="50"/>
+    </row>
+    <row r="167" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>55230</v>
       </c>
@@ -32567,8 +33498,11 @@
       <c r="Z167" s="3">
         <v>76</v>
       </c>
-    </row>
-    <row r="168" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA167" s="49">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
         <v>55230</v>
       </c>
@@ -32647,8 +33581,11 @@
       <c r="Z168" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="169" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA168" s="49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>55230</v>
       </c>
@@ -32727,8 +33664,11 @@
       <c r="Z169" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="170" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA169" s="49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="16">
         <v>55230</v>
       </c>
@@ -32791,8 +33731,9 @@
       <c r="X170" s="43"/>
       <c r="Y170" s="50"/>
       <c r="Z170" s="5"/>
-    </row>
-    <row r="171" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA170" s="50"/>
+    </row>
+    <row r="171" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>55230</v>
       </c>
@@ -32871,8 +33812,11 @@
       <c r="Z171" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="172" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA171" s="49">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="16">
         <v>55230</v>
       </c>
@@ -32951,8 +33895,11 @@
       <c r="Z172" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="173" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA172" s="49">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="16">
         <v>55230</v>
       </c>
@@ -33019,8 +33966,9 @@
       <c r="X173" s="43"/>
       <c r="Y173" s="50"/>
       <c r="Z173" s="5"/>
-    </row>
-    <row r="174" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA173" s="50"/>
+    </row>
+    <row r="174" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="16">
         <v>55230</v>
       </c>
@@ -33083,8 +34031,9 @@
       <c r="X174" s="43"/>
       <c r="Y174" s="50"/>
       <c r="Z174" s="5"/>
-    </row>
-    <row r="175" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA174" s="50"/>
+    </row>
+    <row r="175" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="16">
         <v>55230</v>
       </c>
@@ -33163,8 +34112,11 @@
       <c r="Z175" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="176" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA175" s="49">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="16">
         <v>55230</v>
       </c>
@@ -33243,8 +34195,11 @@
       <c r="Z176" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA176" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="16">
         <v>55230</v>
       </c>
@@ -33323,8 +34278,11 @@
       <c r="Z177" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="178" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA177" s="49">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="16">
         <v>55230</v>
       </c>
@@ -33403,8 +34361,11 @@
       <c r="Z178" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA178" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>55230</v>
       </c>
@@ -33483,8 +34444,11 @@
       <c r="Z179" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="180" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA179" s="49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="16">
         <v>55230</v>
       </c>
@@ -33563,8 +34527,11 @@
       <c r="Z180" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="181" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA180" s="49">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
         <v>55230</v>
       </c>
@@ -33643,8 +34610,11 @@
       <c r="Z181" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA181" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>55230</v>
       </c>
@@ -33723,8 +34693,11 @@
       <c r="Z182" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="183" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA182" s="49">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>55230</v>
       </c>
@@ -33767,8 +34740,9 @@
       <c r="X183" s="43"/>
       <c r="Y183" s="50"/>
       <c r="Z183" s="5"/>
-    </row>
-    <row r="184" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA183" s="50"/>
+    </row>
+    <row r="184" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>55230</v>
       </c>
@@ -33847,8 +34821,11 @@
       <c r="Z184" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA184" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="16">
         <v>55230</v>
       </c>
@@ -33927,8 +34904,11 @@
       <c r="Z185" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA185" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="16">
         <v>55230</v>
       </c>
@@ -34007,8 +34987,11 @@
       <c r="Z186" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="187" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AA186" s="49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="16">
         <v>55230</v>
       </c>
@@ -34085,6 +35068,9 @@
         <v>4</v>
       </c>
       <c r="Z187" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA187" s="49">
         <v>4</v>
       </c>
     </row>

--- a/pantauharian102015.xlsx
+++ b/pantauharian102015.xlsx
@@ -840,7 +840,7 @@
     <t>31 - 19:30</t>
   </si>
   <si>
-    <t>31 - 24:55</t>
+    <t>31 - 23:55</t>
   </si>
 </sst>
 </file>
@@ -1183,6 +1183,15 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="41" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1191,15 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2610,8 +2610,8 @@
   </sheetPr>
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,47 +2632,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="str">
+      <c r="A1" s="63" t="str">
         <f>+"GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : "&amp;A21</f>
-        <v>GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : 31 - 24:55</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+        <v>GRAFIK PROGRESS PENCAPAIAN RUPIAH DAN LEMBAR PER-TGL : 31 - 23:55</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
       <c r="K2" s="35"/>
       <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="19" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2906,39 +2906,39 @@
       <c r="J28" s="53"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="22"/>
-      <c r="G29" s="59" t="s">
+      <c r="G29" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="59" t="s">
+      <c r="L29" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
       <c r="P29" s="24"/>
-      <c r="Q29" s="59" t="s">
+      <c r="Q29" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="23" t="s">
         <v>20</v>
       </c>
@@ -4777,7 +4777,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AA5" sqref="AA5:AA188"/>
+      <selection pane="bottomRight" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4898,7 +4898,7 @@
       <c r="Z5" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AA5" s="62" t="s">
+      <c r="AA5" s="59" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       <c r="Z6" s="3">
         <v>185489</v>
       </c>
-      <c r="AA6" s="63">
+      <c r="AA6" s="60">
         <v>185489</v>
       </c>
     </row>
@@ -5064,7 +5064,7 @@
       <c r="Z7" s="3">
         <v>291748</v>
       </c>
-      <c r="AA7" s="63">
+      <c r="AA7" s="60">
         <v>291748</v>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       <c r="Z8" s="3">
         <v>7359040</v>
       </c>
-      <c r="AA8" s="63">
+      <c r="AA8" s="60">
         <v>7359040</v>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
       <c r="Z9" s="3">
         <v>498817</v>
       </c>
-      <c r="AA9" s="63">
+      <c r="AA9" s="60">
         <v>498817</v>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       <c r="Z10" s="3">
         <v>948627</v>
       </c>
-      <c r="AA10" s="63">
+      <c r="AA10" s="60">
         <v>948627</v>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
       <c r="Z11" s="3">
         <v>1230350</v>
       </c>
-      <c r="AA11" s="63">
+      <c r="AA11" s="60">
         <v>1230350</v>
       </c>
     </row>
@@ -5479,7 +5479,7 @@
       <c r="Z12" s="3">
         <v>1531448</v>
       </c>
-      <c r="AA12" s="63">
+      <c r="AA12" s="60">
         <v>1531448</v>
       </c>
     </row>
@@ -5534,7 +5534,7 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="64"/>
+      <c r="AA13" s="61"/>
     </row>
     <row r="14" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
@@ -5615,7 +5615,7 @@
       <c r="Z14" s="3">
         <v>6754469</v>
       </c>
-      <c r="AA14" s="63">
+      <c r="AA14" s="60">
         <v>6754469</v>
       </c>
     </row>
@@ -5698,7 +5698,7 @@
       <c r="Z15" s="3">
         <v>359719</v>
       </c>
-      <c r="AA15" s="63">
+      <c r="AA15" s="60">
         <v>359719</v>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
       <c r="Z16" s="3">
         <v>2936120</v>
       </c>
-      <c r="AA16" s="63">
+      <c r="AA16" s="60">
         <v>2936120</v>
       </c>
     </row>
@@ -5864,7 +5864,7 @@
       <c r="Z17" s="3">
         <v>1545638</v>
       </c>
-      <c r="AA17" s="63">
+      <c r="AA17" s="60">
         <v>1545638</v>
       </c>
     </row>
@@ -5947,7 +5947,7 @@
       <c r="Z18" s="3">
         <v>1757290</v>
       </c>
-      <c r="AA18" s="63">
+      <c r="AA18" s="60">
         <v>1588525</v>
       </c>
     </row>
@@ -6030,7 +6030,7 @@
       <c r="Z19" s="3">
         <v>16088384</v>
       </c>
-      <c r="AA19" s="63">
+      <c r="AA19" s="60">
         <v>16088384</v>
       </c>
     </row>
@@ -6113,7 +6113,7 @@
       <c r="Z20" s="3">
         <v>4899128</v>
       </c>
-      <c r="AA20" s="63">
+      <c r="AA20" s="60">
         <v>4029958</v>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
       <c r="Z21" s="3">
         <v>625019</v>
       </c>
-      <c r="AA21" s="63">
+      <c r="AA21" s="60">
         <v>625019</v>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       <c r="Z22" s="3">
         <v>2463136</v>
       </c>
-      <c r="AA22" s="63">
+      <c r="AA22" s="60">
         <v>2463136</v>
       </c>
     </row>
@@ -6362,7 +6362,7 @@
       <c r="Z23" s="3">
         <v>3515142</v>
       </c>
-      <c r="AA23" s="63">
+      <c r="AA23" s="60">
         <v>3515142</v>
       </c>
     </row>
@@ -6445,7 +6445,7 @@
       <c r="Z24" s="3">
         <v>452860</v>
       </c>
-      <c r="AA24" s="63">
+      <c r="AA24" s="60">
         <v>452860</v>
       </c>
     </row>
@@ -6528,7 +6528,7 @@
       <c r="Z25" s="3">
         <v>6958006</v>
       </c>
-      <c r="AA25" s="63">
+      <c r="AA25" s="60">
         <v>5282246</v>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       <c r="Z26" s="3">
         <v>7440102</v>
       </c>
-      <c r="AA26" s="63">
+      <c r="AA26" s="60">
         <v>7440102</v>
       </c>
     </row>
@@ -6694,7 +6694,7 @@
       <c r="Z27" s="3">
         <v>6376818</v>
       </c>
-      <c r="AA27" s="63">
+      <c r="AA27" s="60">
         <v>6376818</v>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       <c r="Z28" s="3">
         <v>2963082</v>
       </c>
-      <c r="AA28" s="63">
+      <c r="AA28" s="60">
         <v>2963082</v>
       </c>
     </row>
@@ -6858,7 +6858,7 @@
         <v>574440</v>
       </c>
       <c r="Z29" s="5"/>
-      <c r="AA29" s="64"/>
+      <c r="AA29" s="61"/>
     </row>
     <row r="30" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
@@ -6939,7 +6939,7 @@
       <c r="Z30" s="3">
         <v>11288597</v>
       </c>
-      <c r="AA30" s="63">
+      <c r="AA30" s="60">
         <v>11288597</v>
       </c>
     </row>
@@ -7022,7 +7022,7 @@
       <c r="Z31" s="3">
         <v>6943008</v>
       </c>
-      <c r="AA31" s="63">
+      <c r="AA31" s="60">
         <v>6822319</v>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       <c r="Z32" s="3">
         <v>3751851</v>
       </c>
-      <c r="AA32" s="63">
+      <c r="AA32" s="60">
         <v>3751851</v>
       </c>
     </row>
@@ -7188,7 +7188,7 @@
       <c r="Z33" s="3">
         <v>62972</v>
       </c>
-      <c r="AA33" s="63">
+      <c r="AA33" s="60">
         <v>62972</v>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       <c r="Z34" s="3">
         <v>5464692</v>
       </c>
-      <c r="AA34" s="63">
+      <c r="AA34" s="60">
         <v>5384681</v>
       </c>
     </row>
@@ -7354,7 +7354,7 @@
       <c r="Z35" s="3">
         <v>606904</v>
       </c>
-      <c r="AA35" s="63">
+      <c r="AA35" s="60">
         <v>606904</v>
       </c>
     </row>
@@ -7437,7 +7437,7 @@
       <c r="Z36" s="3">
         <v>22800</v>
       </c>
-      <c r="AA36" s="63">
+      <c r="AA36" s="60">
         <v>22800</v>
       </c>
     </row>
@@ -7520,7 +7520,7 @@
       <c r="Z37" s="3">
         <v>2259818</v>
       </c>
-      <c r="AA37" s="63">
+      <c r="AA37" s="60">
         <v>2203424</v>
       </c>
     </row>
@@ -7603,7 +7603,7 @@
       <c r="Z38" s="3">
         <v>216132</v>
       </c>
-      <c r="AA38" s="63">
+      <c r="AA38" s="60">
         <v>216132</v>
       </c>
     </row>
@@ -7686,7 +7686,7 @@
       <c r="Z39" s="3">
         <v>9091867</v>
       </c>
-      <c r="AA39" s="63">
+      <c r="AA39" s="60">
         <v>9022638</v>
       </c>
     </row>
@@ -7769,7 +7769,7 @@
       <c r="Z40" s="3">
         <v>1489173</v>
       </c>
-      <c r="AA40" s="63">
+      <c r="AA40" s="60">
         <v>1489173</v>
       </c>
     </row>
@@ -7852,7 +7852,7 @@
       <c r="Z41" s="3">
         <v>6351434</v>
       </c>
-      <c r="AA41" s="63">
+      <c r="AA41" s="60">
         <v>6351434</v>
       </c>
     </row>
@@ -7935,7 +7935,7 @@
       <c r="Z42" s="3">
         <v>4634847</v>
       </c>
-      <c r="AA42" s="63">
+      <c r="AA42" s="60">
         <v>4634847</v>
       </c>
     </row>
@@ -8018,7 +8018,7 @@
       <c r="Z43" s="3">
         <v>6421764</v>
       </c>
-      <c r="AA43" s="63">
+      <c r="AA43" s="60">
         <v>6370815</v>
       </c>
     </row>
@@ -8101,7 +8101,7 @@
       <c r="Z44" s="3">
         <v>3252823</v>
       </c>
-      <c r="AA44" s="63">
+      <c r="AA44" s="60">
         <v>3252823</v>
       </c>
     </row>
@@ -8184,7 +8184,7 @@
       <c r="Z45" s="3">
         <v>6868126</v>
       </c>
-      <c r="AA45" s="63">
+      <c r="AA45" s="60">
         <v>6868126</v>
       </c>
     </row>
@@ -8267,7 +8267,7 @@
       <c r="Z46" s="3">
         <v>1168071</v>
       </c>
-      <c r="AA46" s="63">
+      <c r="AA46" s="60">
         <v>1168071</v>
       </c>
     </row>
@@ -8350,7 +8350,7 @@
       <c r="Z47" s="3">
         <v>12402061</v>
       </c>
-      <c r="AA47" s="63">
+      <c r="AA47" s="60">
         <v>11720506</v>
       </c>
     </row>
@@ -8433,7 +8433,7 @@
       <c r="Z48" s="3">
         <v>4397858</v>
       </c>
-      <c r="AA48" s="63">
+      <c r="AA48" s="60">
         <v>4397858</v>
       </c>
     </row>
@@ -8516,7 +8516,7 @@
       <c r="Z49" s="3">
         <v>2956006</v>
       </c>
-      <c r="AA49" s="63">
+      <c r="AA49" s="60">
         <v>2956006</v>
       </c>
     </row>
@@ -8599,7 +8599,7 @@
       <c r="Z50" s="3">
         <v>211975</v>
       </c>
-      <c r="AA50" s="63">
+      <c r="AA50" s="60">
         <v>211975</v>
       </c>
     </row>
@@ -8682,7 +8682,7 @@
       <c r="Z51" s="3">
         <v>9417534</v>
       </c>
-      <c r="AA51" s="63">
+      <c r="AA51" s="60">
         <v>9417534</v>
       </c>
     </row>
@@ -8765,7 +8765,7 @@
       <c r="Z52" s="3">
         <v>2505030</v>
       </c>
-      <c r="AA52" s="63">
+      <c r="AA52" s="60">
         <v>2505030</v>
       </c>
     </row>
@@ -8848,7 +8848,7 @@
       <c r="Z53" s="3">
         <v>5321240</v>
       </c>
-      <c r="AA53" s="63">
+      <c r="AA53" s="60">
         <v>5321240</v>
       </c>
     </row>
@@ -8931,7 +8931,7 @@
       <c r="Z54" s="3">
         <v>186526</v>
       </c>
-      <c r="AA54" s="63">
+      <c r="AA54" s="60">
         <v>186526</v>
       </c>
     </row>
@@ -9014,7 +9014,7 @@
       <c r="Z55" s="3">
         <v>2396374</v>
       </c>
-      <c r="AA55" s="63">
+      <c r="AA55" s="60">
         <v>2396374</v>
       </c>
     </row>
@@ -9073,7 +9073,7 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="10"/>
       <c r="Z56" s="5"/>
-      <c r="AA56" s="64"/>
+      <c r="AA56" s="61"/>
     </row>
     <row r="57" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
@@ -9154,7 +9154,7 @@
       <c r="Z57" s="3">
         <v>9326297</v>
       </c>
-      <c r="AA57" s="63">
+      <c r="AA57" s="60">
         <v>9326297</v>
       </c>
     </row>
@@ -9237,7 +9237,7 @@
       <c r="Z58" s="3">
         <v>859909</v>
       </c>
-      <c r="AA58" s="63">
+      <c r="AA58" s="60">
         <v>859909</v>
       </c>
     </row>
@@ -9320,7 +9320,7 @@
       <c r="Z59" s="3">
         <v>2236991</v>
       </c>
-      <c r="AA59" s="63">
+      <c r="AA59" s="60">
         <v>2236991</v>
       </c>
     </row>
@@ -9403,7 +9403,7 @@
       <c r="Z60" s="3">
         <v>384530</v>
       </c>
-      <c r="AA60" s="63">
+      <c r="AA60" s="60">
         <v>384530</v>
       </c>
     </row>
@@ -9486,7 +9486,7 @@
       <c r="Z61" s="3">
         <v>5621611</v>
       </c>
-      <c r="AA61" s="63">
+      <c r="AA61" s="60">
         <v>5426249</v>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
       <c r="Z62" s="3">
         <v>993584</v>
       </c>
-      <c r="AA62" s="63">
+      <c r="AA62" s="60">
         <v>993584</v>
       </c>
     </row>
@@ -9652,7 +9652,7 @@
       <c r="Z63" s="3">
         <v>8741793</v>
       </c>
-      <c r="AA63" s="63">
+      <c r="AA63" s="60">
         <v>8741793</v>
       </c>
     </row>
@@ -9735,7 +9735,7 @@
       <c r="Z64" s="3">
         <v>1071555</v>
       </c>
-      <c r="AA64" s="63">
+      <c r="AA64" s="60">
         <v>1071555</v>
       </c>
     </row>
@@ -9814,7 +9814,7 @@
       </c>
       <c r="Y65" s="10"/>
       <c r="Z65" s="5"/>
-      <c r="AA65" s="64"/>
+      <c r="AA65" s="61"/>
     </row>
     <row r="66" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
@@ -9895,7 +9895,7 @@
       <c r="Z66" s="3">
         <v>169668</v>
       </c>
-      <c r="AA66" s="63">
+      <c r="AA66" s="60">
         <v>169668</v>
       </c>
     </row>
@@ -9978,7 +9978,7 @@
       <c r="Z67" s="3">
         <v>8460297</v>
       </c>
-      <c r="AA67" s="63">
+      <c r="AA67" s="60">
         <v>8460297</v>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       <c r="Z68" s="3">
         <v>489417</v>
       </c>
-      <c r="AA68" s="63">
+      <c r="AA68" s="60">
         <v>489417</v>
       </c>
     </row>
@@ -10144,7 +10144,7 @@
       <c r="Z69" s="3">
         <v>10487243</v>
       </c>
-      <c r="AA69" s="63">
+      <c r="AA69" s="60">
         <v>10487243</v>
       </c>
     </row>
@@ -10227,7 +10227,7 @@
       <c r="Z70" s="3">
         <v>4053220</v>
       </c>
-      <c r="AA70" s="63">
+      <c r="AA70" s="60">
         <v>4053220</v>
       </c>
     </row>
@@ -10310,7 +10310,7 @@
       <c r="Z71" s="3">
         <v>2846060</v>
       </c>
-      <c r="AA71" s="63">
+      <c r="AA71" s="60">
         <v>2846060</v>
       </c>
     </row>
@@ -10393,7 +10393,7 @@
       <c r="Z72" s="3">
         <v>48600</v>
       </c>
-      <c r="AA72" s="63">
+      <c r="AA72" s="60">
         <v>48600</v>
       </c>
     </row>
@@ -10476,7 +10476,7 @@
       <c r="Z73" s="3">
         <v>8416857</v>
       </c>
-      <c r="AA73" s="63">
+      <c r="AA73" s="60">
         <v>8214059</v>
       </c>
     </row>
@@ -10559,7 +10559,7 @@
       <c r="Z74" s="3">
         <v>4097648</v>
       </c>
-      <c r="AA74" s="63">
+      <c r="AA74" s="60">
         <v>4097648</v>
       </c>
     </row>
@@ -10642,7 +10642,7 @@
       <c r="Z75" s="3">
         <v>4860203</v>
       </c>
-      <c r="AA75" s="63">
+      <c r="AA75" s="60">
         <v>4860203</v>
       </c>
     </row>
@@ -10725,7 +10725,7 @@
       <c r="Z76" s="3">
         <v>1881229</v>
       </c>
-      <c r="AA76" s="63">
+      <c r="AA76" s="60">
         <v>1881229</v>
       </c>
     </row>
@@ -10808,7 +10808,7 @@
       <c r="Z77" s="3">
         <v>4232216</v>
       </c>
-      <c r="AA77" s="63">
+      <c r="AA77" s="60">
         <v>4232216</v>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
       <c r="Z78" s="3">
         <v>1993428</v>
       </c>
-      <c r="AA78" s="63">
+      <c r="AA78" s="60">
         <v>1993428</v>
       </c>
     </row>
@@ -10974,7 +10974,7 @@
       <c r="Z79" s="3">
         <v>5106132</v>
       </c>
-      <c r="AA79" s="63">
+      <c r="AA79" s="60">
         <v>4710922</v>
       </c>
     </row>
@@ -11057,7 +11057,7 @@
       <c r="Z80" s="3">
         <v>404647</v>
       </c>
-      <c r="AA80" s="63">
+      <c r="AA80" s="60">
         <v>404647</v>
       </c>
     </row>
@@ -11140,7 +11140,7 @@
       <c r="Z81" s="3">
         <v>7523451</v>
       </c>
-      <c r="AA81" s="63">
+      <c r="AA81" s="60">
         <v>7523451</v>
       </c>
     </row>
@@ -11223,7 +11223,7 @@
       <c r="Z82" s="3">
         <v>1468301</v>
       </c>
-      <c r="AA82" s="63">
+      <c r="AA82" s="60">
         <v>1468301</v>
       </c>
     </row>
@@ -11306,7 +11306,7 @@
       <c r="Z83" s="3">
         <v>13271874</v>
       </c>
-      <c r="AA83" s="63">
+      <c r="AA83" s="60">
         <v>13271874</v>
       </c>
     </row>
@@ -11389,7 +11389,7 @@
       <c r="Z84" s="3">
         <v>3196923</v>
       </c>
-      <c r="AA84" s="63">
+      <c r="AA84" s="60">
         <v>3196923</v>
       </c>
     </row>
@@ -11472,7 +11472,7 @@
       <c r="Z85" s="3">
         <v>3293591</v>
       </c>
-      <c r="AA85" s="63">
+      <c r="AA85" s="60">
         <v>3293591</v>
       </c>
     </row>
@@ -11555,7 +11555,7 @@
       <c r="Z86" s="3">
         <v>1329942</v>
       </c>
-      <c r="AA86" s="63">
+      <c r="AA86" s="60">
         <v>1329942</v>
       </c>
     </row>
@@ -11638,7 +11638,7 @@
       <c r="Z87" s="3">
         <v>2648112</v>
       </c>
-      <c r="AA87" s="63">
+      <c r="AA87" s="60">
         <v>2648112</v>
       </c>
     </row>
@@ -11721,7 +11721,7 @@
       <c r="Z88" s="3">
         <v>5981881</v>
       </c>
-      <c r="AA88" s="63">
+      <c r="AA88" s="60">
         <v>5981881</v>
       </c>
     </row>
@@ -11802,7 +11802,7 @@
         <v>363314</v>
       </c>
       <c r="Z89" s="5"/>
-      <c r="AA89" s="64"/>
+      <c r="AA89" s="61"/>
     </row>
     <row r="90" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="14">
@@ -11883,7 +11883,7 @@
       <c r="Z90" s="3">
         <v>1371396</v>
       </c>
-      <c r="AA90" s="63">
+      <c r="AA90" s="60">
         <v>1371396</v>
       </c>
     </row>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="Y91" s="10"/>
       <c r="Z91" s="5"/>
-      <c r="AA91" s="64"/>
+      <c r="AA91" s="61"/>
     </row>
     <row r="92" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
@@ -12043,7 +12043,7 @@
       <c r="Z92" s="3">
         <v>350790</v>
       </c>
-      <c r="AA92" s="63">
+      <c r="AA92" s="60">
         <v>350790</v>
       </c>
     </row>
@@ -12126,7 +12126,7 @@
       <c r="Z93" s="3">
         <v>1325974</v>
       </c>
-      <c r="AA93" s="63">
+      <c r="AA93" s="60">
         <v>1325974</v>
       </c>
     </row>
@@ -12209,7 +12209,7 @@
       <c r="Z94" s="3">
         <v>1273009</v>
       </c>
-      <c r="AA94" s="63">
+      <c r="AA94" s="60">
         <v>1251859</v>
       </c>
     </row>
@@ -12276,7 +12276,7 @@
       <c r="X95" s="5"/>
       <c r="Y95" s="10"/>
       <c r="Z95" s="5"/>
-      <c r="AA95" s="64"/>
+      <c r="AA95" s="61"/>
     </row>
     <row r="96" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
@@ -12357,7 +12357,7 @@
       <c r="Z96" s="3">
         <v>1148620</v>
       </c>
-      <c r="AA96" s="63">
+      <c r="AA96" s="60">
         <v>1148620</v>
       </c>
     </row>
@@ -12440,7 +12440,7 @@
       <c r="Z97" s="3">
         <v>177598</v>
       </c>
-      <c r="AA97" s="63">
+      <c r="AA97" s="60">
         <v>177598</v>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
       <c r="Z98" s="3">
         <v>70248</v>
       </c>
-      <c r="AA98" s="63">
+      <c r="AA98" s="60">
         <v>70248</v>
       </c>
     </row>
@@ -12606,7 +12606,7 @@
       <c r="Z99" s="3">
         <v>835051</v>
       </c>
-      <c r="AA99" s="63">
+      <c r="AA99" s="60">
         <v>835051</v>
       </c>
     </row>
@@ -12669,7 +12669,7 @@
       <c r="X100" s="5"/>
       <c r="Y100" s="10"/>
       <c r="Z100" s="5"/>
-      <c r="AA100" s="64"/>
+      <c r="AA100" s="61"/>
     </row>
     <row r="101" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="14">
@@ -12750,7 +12750,7 @@
       <c r="Z101" s="3">
         <v>2026141</v>
       </c>
-      <c r="AA101" s="63">
+      <c r="AA101" s="60">
         <v>1920772</v>
       </c>
     </row>
@@ -12793,7 +12793,7 @@
       <c r="X102" s="5"/>
       <c r="Y102" s="10"/>
       <c r="Z102" s="5"/>
-      <c r="AA102" s="64"/>
+      <c r="AA102" s="61"/>
     </row>
     <row r="103" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="14">
@@ -12874,7 +12874,7 @@
       <c r="Z103" s="3">
         <v>1970795</v>
       </c>
-      <c r="AA103" s="63">
+      <c r="AA103" s="60">
         <v>1970795</v>
       </c>
     </row>
@@ -12957,7 +12957,7 @@
       <c r="Z104" s="3">
         <v>1168162</v>
       </c>
-      <c r="AA104" s="63">
+      <c r="AA104" s="60">
         <v>1168162</v>
       </c>
     </row>
@@ -13040,7 +13040,7 @@
       <c r="Z105" s="3">
         <v>728112</v>
       </c>
-      <c r="AA105" s="63">
+      <c r="AA105" s="60">
         <v>728112</v>
       </c>
     </row>
@@ -13107,7 +13107,7 @@
       <c r="X106" s="5"/>
       <c r="Y106" s="10"/>
       <c r="Z106" s="5"/>
-      <c r="AA106" s="64"/>
+      <c r="AA106" s="61"/>
     </row>
     <row r="107" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="14">
@@ -13188,7 +13188,7 @@
       <c r="Z107" s="3">
         <v>1104560</v>
       </c>
-      <c r="AA107" s="63">
+      <c r="AA107" s="60">
         <v>1104560</v>
       </c>
     </row>
@@ -13261,7 +13261,7 @@
       <c r="X108" s="5"/>
       <c r="Y108" s="10"/>
       <c r="Z108" s="5"/>
-      <c r="AA108" s="64"/>
+      <c r="AA108" s="61"/>
     </row>
     <row r="109" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
@@ -13342,7 +13342,7 @@
       <c r="Z109" s="3">
         <v>222121</v>
       </c>
-      <c r="AA109" s="63">
+      <c r="AA109" s="60">
         <v>187410</v>
       </c>
     </row>
@@ -13425,7 +13425,7 @@
       <c r="Z110" s="3">
         <v>19890</v>
       </c>
-      <c r="AA110" s="63">
+      <c r="AA110" s="60">
         <v>19890</v>
       </c>
     </row>
@@ -13508,7 +13508,7 @@
       <c r="Z111" s="3">
         <v>2156780</v>
       </c>
-      <c r="AA111" s="63">
+      <c r="AA111" s="60">
         <v>2091470</v>
       </c>
     </row>
@@ -13591,7 +13591,7 @@
       <c r="Z112" s="3">
         <v>106149</v>
       </c>
-      <c r="AA112" s="63">
+      <c r="AA112" s="60">
         <v>106149</v>
       </c>
     </row>
@@ -13674,7 +13674,7 @@
       <c r="Z113" s="3">
         <v>1779711</v>
       </c>
-      <c r="AA113" s="63">
+      <c r="AA113" s="60">
         <v>1779711</v>
       </c>
     </row>
@@ -13753,7 +13753,7 @@
       </c>
       <c r="Y114" s="10"/>
       <c r="Z114" s="5"/>
-      <c r="AA114" s="64"/>
+      <c r="AA114" s="61"/>
     </row>
     <row r="115" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="14">
@@ -13832,7 +13832,7 @@
         <v>1234257</v>
       </c>
       <c r="Z115" s="5"/>
-      <c r="AA115" s="64"/>
+      <c r="AA115" s="61"/>
     </row>
     <row r="116" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="14">
@@ -13911,7 +13911,7 @@
         <v>815159</v>
       </c>
       <c r="Z116" s="5"/>
-      <c r="AA116" s="64"/>
+      <c r="AA116" s="61"/>
     </row>
     <row r="117" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="14">
@@ -13990,7 +13990,7 @@
         <v>1015973</v>
       </c>
       <c r="Z117" s="5"/>
-      <c r="AA117" s="64"/>
+      <c r="AA117" s="61"/>
     </row>
     <row r="118" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
@@ -14069,7 +14069,7 @@
         <v>2521250</v>
       </c>
       <c r="Z118" s="5"/>
-      <c r="AA118" s="64"/>
+      <c r="AA118" s="61"/>
     </row>
     <row r="119" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
@@ -14130,7 +14130,7 @@
       <c r="X119" s="5"/>
       <c r="Y119" s="10"/>
       <c r="Z119" s="5"/>
-      <c r="AA119" s="64"/>
+      <c r="AA119" s="61"/>
     </row>
     <row r="120" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="14">
@@ -14209,7 +14209,7 @@
         <v>1483269</v>
       </c>
       <c r="Z120" s="5"/>
-      <c r="AA120" s="64"/>
+      <c r="AA120" s="61"/>
     </row>
     <row r="121" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="14">
@@ -14288,7 +14288,7 @@
         <v>834362</v>
       </c>
       <c r="Z121" s="5"/>
-      <c r="AA121" s="64"/>
+      <c r="AA121" s="61"/>
     </row>
     <row r="122" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="14">
@@ -14367,7 +14367,7 @@
         <v>776403</v>
       </c>
       <c r="Z122" s="5"/>
-      <c r="AA122" s="64"/>
+      <c r="AA122" s="61"/>
     </row>
     <row r="123" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="14">
@@ -14446,7 +14446,7 @@
         <v>11550603</v>
       </c>
       <c r="Z123" s="5"/>
-      <c r="AA123" s="64"/>
+      <c r="AA123" s="61"/>
     </row>
     <row r="124" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
@@ -14523,7 +14523,7 @@
       </c>
       <c r="Y124" s="10"/>
       <c r="Z124" s="5"/>
-      <c r="AA124" s="64"/>
+      <c r="AA124" s="61"/>
     </row>
     <row r="125" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="14">
@@ -14602,7 +14602,7 @@
         <v>1623029</v>
       </c>
       <c r="Z125" s="5"/>
-      <c r="AA125" s="64"/>
+      <c r="AA125" s="61"/>
     </row>
     <row r="126" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="14">
@@ -14681,7 +14681,7 @@
         <v>1198791</v>
       </c>
       <c r="Z126" s="5"/>
-      <c r="AA126" s="64"/>
+      <c r="AA126" s="61"/>
     </row>
     <row r="127" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="14">
@@ -14760,7 +14760,7 @@
         <v>1031925</v>
       </c>
       <c r="Z127" s="5"/>
-      <c r="AA127" s="64"/>
+      <c r="AA127" s="61"/>
     </row>
     <row r="128" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="14">
@@ -14839,7 +14839,7 @@
         <v>1238402</v>
       </c>
       <c r="Z128" s="5"/>
-      <c r="AA128" s="64"/>
+      <c r="AA128" s="61"/>
     </row>
     <row r="129" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="14">
@@ -14918,7 +14918,7 @@
         <v>4517622</v>
       </c>
       <c r="Z129" s="5"/>
-      <c r="AA129" s="64"/>
+      <c r="AA129" s="61"/>
     </row>
     <row r="130" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="14">
@@ -14997,7 +14997,7 @@
         <v>959595</v>
       </c>
       <c r="Z130" s="5"/>
-      <c r="AA130" s="64"/>
+      <c r="AA130" s="61"/>
     </row>
     <row r="131" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="14">
@@ -15078,7 +15078,7 @@
       <c r="Z131" s="3">
         <v>2139767</v>
       </c>
-      <c r="AA131" s="63">
+      <c r="AA131" s="60">
         <v>2139767</v>
       </c>
     </row>
@@ -15161,7 +15161,7 @@
       <c r="Z132" s="3">
         <v>155267</v>
       </c>
-      <c r="AA132" s="63">
+      <c r="AA132" s="60">
         <v>155267</v>
       </c>
     </row>
@@ -15242,7 +15242,7 @@
         <v>130206</v>
       </c>
       <c r="Z133" s="5"/>
-      <c r="AA133" s="64"/>
+      <c r="AA133" s="61"/>
     </row>
     <row r="134" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="14">
@@ -15283,7 +15283,7 @@
       <c r="X134" s="5"/>
       <c r="Y134" s="10"/>
       <c r="Z134" s="5"/>
-      <c r="AA134" s="64"/>
+      <c r="AA134" s="61"/>
     </row>
     <row r="135" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="14">
@@ -15364,7 +15364,7 @@
       <c r="Z135" s="3">
         <v>3394233</v>
       </c>
-      <c r="AA135" s="63">
+      <c r="AA135" s="60">
         <v>3394233</v>
       </c>
     </row>
@@ -15447,7 +15447,7 @@
       <c r="Z136" s="3">
         <v>2450315</v>
       </c>
-      <c r="AA136" s="63">
+      <c r="AA136" s="60">
         <v>2450315</v>
       </c>
     </row>
@@ -15530,7 +15530,7 @@
       <c r="Z137" s="3">
         <v>3189189</v>
       </c>
-      <c r="AA137" s="63">
+      <c r="AA137" s="60">
         <v>3189189</v>
       </c>
     </row>
@@ -15613,7 +15613,7 @@
       <c r="Z138" s="3">
         <v>739147</v>
       </c>
-      <c r="AA138" s="63">
+      <c r="AA138" s="60">
         <v>739147</v>
       </c>
     </row>
@@ -15696,7 +15696,7 @@
       <c r="Z139" s="3">
         <v>900886</v>
       </c>
-      <c r="AA139" s="63">
+      <c r="AA139" s="60">
         <v>900886</v>
       </c>
     </row>
@@ -15779,7 +15779,7 @@
       <c r="Z140" s="3">
         <v>19692</v>
       </c>
-      <c r="AA140" s="63">
+      <c r="AA140" s="60">
         <v>19692</v>
       </c>
     </row>
@@ -15862,7 +15862,7 @@
       <c r="Z141" s="3">
         <v>1201284</v>
       </c>
-      <c r="AA141" s="63">
+      <c r="AA141" s="60">
         <v>1201284</v>
       </c>
     </row>
@@ -15945,7 +15945,7 @@
       <c r="Z142" s="3">
         <v>390451</v>
       </c>
-      <c r="AA142" s="63">
+      <c r="AA142" s="60">
         <v>390451</v>
       </c>
     </row>
@@ -16028,7 +16028,7 @@
       <c r="Z143" s="3">
         <v>4712427</v>
       </c>
-      <c r="AA143" s="63">
+      <c r="AA143" s="60">
         <v>4712427</v>
       </c>
     </row>
@@ -16111,7 +16111,7 @@
       <c r="Z144" s="3">
         <v>622347</v>
       </c>
-      <c r="AA144" s="63">
+      <c r="AA144" s="60">
         <v>622347</v>
       </c>
     </row>
@@ -16194,7 +16194,7 @@
       <c r="Z145" s="3">
         <v>4173562</v>
       </c>
-      <c r="AA145" s="63">
+      <c r="AA145" s="60">
         <v>4173562</v>
       </c>
     </row>
@@ -16277,7 +16277,7 @@
       <c r="Z146" s="3">
         <v>386205</v>
       </c>
-      <c r="AA146" s="63">
+      <c r="AA146" s="60">
         <v>386205</v>
       </c>
     </row>
@@ -16360,7 +16360,7 @@
       <c r="Z147" s="3">
         <v>3936629</v>
       </c>
-      <c r="AA147" s="63">
+      <c r="AA147" s="60">
         <v>2677188</v>
       </c>
     </row>
@@ -16443,7 +16443,7 @@
       <c r="Z148" s="3">
         <v>127212</v>
       </c>
-      <c r="AA148" s="63">
+      <c r="AA148" s="60">
         <v>127212</v>
       </c>
     </row>
@@ -16526,7 +16526,7 @@
       <c r="Z149" s="3">
         <v>11819484</v>
       </c>
-      <c r="AA149" s="63">
+      <c r="AA149" s="60">
         <v>11819484</v>
       </c>
     </row>
@@ -16609,7 +16609,7 @@
       <c r="Z150" s="3">
         <v>16860620</v>
       </c>
-      <c r="AA150" s="63">
+      <c r="AA150" s="60">
         <v>16860620</v>
       </c>
     </row>
@@ -16686,7 +16686,7 @@
       <c r="X151" s="5"/>
       <c r="Y151" s="10"/>
       <c r="Z151" s="5"/>
-      <c r="AA151" s="64"/>
+      <c r="AA151" s="61"/>
     </row>
     <row r="152" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="14">
@@ -16767,7 +16767,7 @@
       <c r="Z152" s="3">
         <v>5234659</v>
       </c>
-      <c r="AA152" s="63">
+      <c r="AA152" s="60">
         <v>5234659</v>
       </c>
     </row>
@@ -16850,7 +16850,7 @@
       <c r="Z153" s="3">
         <v>2009502</v>
       </c>
-      <c r="AA153" s="63">
+      <c r="AA153" s="60">
         <v>2009502</v>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       <c r="Z154" s="3">
         <v>3942687</v>
       </c>
-      <c r="AA154" s="63">
+      <c r="AA154" s="60">
         <v>3942687</v>
       </c>
     </row>
@@ -17016,7 +17016,7 @@
       <c r="Z155" s="3">
         <v>1595530</v>
       </c>
-      <c r="AA155" s="63">
+      <c r="AA155" s="60">
         <v>1595530</v>
       </c>
     </row>
@@ -17099,7 +17099,7 @@
       <c r="Z156" s="3">
         <v>6895990</v>
       </c>
-      <c r="AA156" s="63">
+      <c r="AA156" s="60">
         <v>6895990</v>
       </c>
     </row>
@@ -17182,7 +17182,7 @@
       <c r="Z157" s="3">
         <v>1795923</v>
       </c>
-      <c r="AA157" s="63">
+      <c r="AA157" s="60">
         <v>1795923</v>
       </c>
     </row>
@@ -17265,7 +17265,7 @@
       <c r="Z158" s="3">
         <v>706215</v>
       </c>
-      <c r="AA158" s="63">
+      <c r="AA158" s="60">
         <v>706215</v>
       </c>
     </row>
@@ -17348,7 +17348,7 @@
       <c r="Z159" s="3">
         <v>56822</v>
       </c>
-      <c r="AA159" s="63">
+      <c r="AA159" s="60">
         <v>56822</v>
       </c>
     </row>
@@ -17431,7 +17431,7 @@
       <c r="Z160" s="3">
         <v>9342010</v>
       </c>
-      <c r="AA160" s="63">
+      <c r="AA160" s="60">
         <v>8736211</v>
       </c>
     </row>
@@ -17514,7 +17514,7 @@
       <c r="Z161" s="3">
         <v>3819520</v>
       </c>
-      <c r="AA161" s="63">
+      <c r="AA161" s="60">
         <v>3819520</v>
       </c>
     </row>
@@ -17597,7 +17597,7 @@
       <c r="Z162" s="3">
         <v>5513058</v>
       </c>
-      <c r="AA162" s="63">
+      <c r="AA162" s="60">
         <v>5513058</v>
       </c>
     </row>
@@ -17680,7 +17680,7 @@
       <c r="Z163" s="3">
         <v>1980910</v>
       </c>
-      <c r="AA163" s="63">
+      <c r="AA163" s="60">
         <v>1980910</v>
       </c>
     </row>
@@ -17763,7 +17763,7 @@
       <c r="Z164" s="3">
         <v>3168186</v>
       </c>
-      <c r="AA164" s="63">
+      <c r="AA164" s="60">
         <v>3168186</v>
       </c>
     </row>
@@ -17844,7 +17844,7 @@
         <v>82305</v>
       </c>
       <c r="Z165" s="5"/>
-      <c r="AA165" s="64"/>
+      <c r="AA165" s="61"/>
     </row>
     <row r="166" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="14">
@@ -17925,7 +17925,7 @@
       <c r="Z166" s="3">
         <v>385790</v>
       </c>
-      <c r="AA166" s="63">
+      <c r="AA166" s="60">
         <v>385790</v>
       </c>
     </row>
@@ -17992,7 +17992,7 @@
       <c r="X167" s="5"/>
       <c r="Y167" s="10"/>
       <c r="Z167" s="5"/>
-      <c r="AA167" s="64"/>
+      <c r="AA167" s="61"/>
     </row>
     <row r="168" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="14">
@@ -18073,7 +18073,7 @@
       <c r="Z168" s="3">
         <v>8393058</v>
       </c>
-      <c r="AA168" s="63">
+      <c r="AA168" s="60">
         <v>8308032</v>
       </c>
     </row>
@@ -18156,7 +18156,7 @@
       <c r="Z169" s="3">
         <v>2849630</v>
       </c>
-      <c r="AA169" s="63">
+      <c r="AA169" s="60">
         <v>2849630</v>
       </c>
     </row>
@@ -18239,7 +18239,7 @@
       <c r="Z170" s="3">
         <v>1024934</v>
       </c>
-      <c r="AA170" s="63">
+      <c r="AA170" s="60">
         <v>1024934</v>
       </c>
     </row>
@@ -18306,7 +18306,7 @@
       <c r="X171" s="5"/>
       <c r="Y171" s="10"/>
       <c r="Z171" s="5"/>
-      <c r="AA171" s="64"/>
+      <c r="AA171" s="61"/>
     </row>
     <row r="172" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="14">
@@ -18387,7 +18387,7 @@
       <c r="Z172" s="3">
         <v>5173290</v>
       </c>
-      <c r="AA172" s="63">
+      <c r="AA172" s="60">
         <v>5173290</v>
       </c>
     </row>
@@ -18470,7 +18470,7 @@
       <c r="Z173" s="3">
         <v>5625305</v>
       </c>
-      <c r="AA173" s="63">
+      <c r="AA173" s="60">
         <v>5625305</v>
       </c>
     </row>
@@ -18541,7 +18541,7 @@
       <c r="X174" s="5"/>
       <c r="Y174" s="10"/>
       <c r="Z174" s="5"/>
-      <c r="AA174" s="64"/>
+      <c r="AA174" s="61"/>
     </row>
     <row r="175" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="14">
@@ -18606,7 +18606,7 @@
       <c r="X175" s="5"/>
       <c r="Y175" s="10"/>
       <c r="Z175" s="5"/>
-      <c r="AA175" s="64"/>
+      <c r="AA175" s="61"/>
     </row>
     <row r="176" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="14">
@@ -18687,7 +18687,7 @@
       <c r="Z176" s="3">
         <v>3657325</v>
       </c>
-      <c r="AA176" s="63">
+      <c r="AA176" s="60">
         <v>3657325</v>
       </c>
     </row>
@@ -18770,7 +18770,7 @@
       <c r="Z177" s="3">
         <v>178933</v>
       </c>
-      <c r="AA177" s="63">
+      <c r="AA177" s="60">
         <v>178933</v>
       </c>
     </row>
@@ -18853,7 +18853,7 @@
       <c r="Z178" s="3">
         <v>1424815</v>
       </c>
-      <c r="AA178" s="63">
+      <c r="AA178" s="60">
         <v>1424815</v>
       </c>
     </row>
@@ -18936,7 +18936,7 @@
       <c r="Z179" s="3">
         <v>212034</v>
       </c>
-      <c r="AA179" s="63">
+      <c r="AA179" s="60">
         <v>212034</v>
       </c>
     </row>
@@ -19019,7 +19019,7 @@
       <c r="Z180" s="3">
         <v>1624007</v>
       </c>
-      <c r="AA180" s="63">
+      <c r="AA180" s="60">
         <v>1624007</v>
       </c>
     </row>
@@ -19102,7 +19102,7 @@
       <c r="Z181" s="3">
         <v>5418887</v>
       </c>
-      <c r="AA181" s="63">
+      <c r="AA181" s="60">
         <v>5418887</v>
       </c>
     </row>
@@ -19185,7 +19185,7 @@
       <c r="Z182" s="3">
         <v>215860</v>
       </c>
-      <c r="AA182" s="63">
+      <c r="AA182" s="60">
         <v>215860</v>
       </c>
     </row>
@@ -19268,7 +19268,7 @@
       <c r="Z183" s="3">
         <v>1581368</v>
       </c>
-      <c r="AA183" s="63">
+      <c r="AA183" s="60">
         <v>1581368</v>
       </c>
     </row>
@@ -19315,7 +19315,7 @@
       <c r="X184" s="5"/>
       <c r="Y184" s="10"/>
       <c r="Z184" s="5"/>
-      <c r="AA184" s="64"/>
+      <c r="AA184" s="61"/>
     </row>
     <row r="185" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="14">
@@ -19396,7 +19396,7 @@
       <c r="Z185" s="3">
         <v>344901</v>
       </c>
-      <c r="AA185" s="63">
+      <c r="AA185" s="60">
         <v>344901</v>
       </c>
     </row>
@@ -19479,7 +19479,7 @@
       <c r="Z186" s="3">
         <v>143194</v>
       </c>
-      <c r="AA186" s="63">
+      <c r="AA186" s="60">
         <v>143194</v>
       </c>
     </row>
@@ -19562,7 +19562,7 @@
       <c r="Z187" s="3">
         <v>1149057</v>
       </c>
-      <c r="AA187" s="63">
+      <c r="AA187" s="60">
         <v>1149057</v>
       </c>
     </row>
@@ -19645,7 +19645,7 @@
       <c r="Z188" s="3">
         <v>369382</v>
       </c>
-      <c r="AA188" s="63">
+      <c r="AA188" s="60">
         <v>369382</v>
       </c>
     </row>
@@ -20222,10 +20222,10 @@
   <dimension ref="A1:AA187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="U106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AA4" sqref="AA4"/>
+      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
